--- a/Documentação/Planilhas/Conferencia_DEV.xlsx
+++ b/Documentação/Planilhas/Conferencia_DEV.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="603" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="611" uniqueCount="196">
   <si>
     <t>1</t>
   </si>
@@ -261,9 +261,6 @@
   </si>
   <si>
     <t>153.6700</t>
-  </si>
-  <si>
-    <t>tdrecl504m50l</t>
   </si>
   <si>
     <t>Pegar os dados da primeira informação da coluna Documento Fiscal</t>
@@ -274,11 +271,6 @@
   <si>
     <t>De posse do código da "Unidade Empresarial", ir para a sessão "tcemm0130m000"  e informar o Cód da Unidade Empresarial na coluna "Unid Empresarial"
 Pegar a informação da coluna "Cat da uni empresarial"</t>
-  </si>
-  <si>
-    <t>Fazer o detalhamento da NF e Série desejada. Na aba Geral, seção Referência, pegar o código do Departamento.
-Ir para a sessão "tcmcs0565m000"  e informar o Cód Departamento na coluna "Departamento"
-Pegar a informação da coluna "Unidade Empresarial"</t>
   </si>
   <si>
     <t>Fazer o detalhamento da NF e Série desejada. Na aba Geral, seção  Informações Gerais, pegar o código da Operação Fiscal</t>
@@ -560,21 +552,6 @@
     <t>Fazer o detalhamento da NF e Série desejada. Na aba inferior Linhas, pegar a informação da coluna "Valor Total linha doc fiscal"</t>
   </si>
   <si>
-    <t>Fazer o detalhamento da NF e Série desejada. Na aba Geral, seção Referência, pegar o código do Parceiro de Negócios.
-Ir para a sessão "tccom4500m000"  e informar o Cód do Parceiro na coluna "Parceiros de Negócios"
-Pegar a informação da coluna "Cidade"</t>
-  </si>
-  <si>
-    <t>Fazer o detalhamento da NF e Série desejada. Na aba Geral, seção Referência, pegar o código do Parceiro de Negócios.
-Ir para a sessão "tccom4500m000"  e informar o Cód do Parceiro na coluna "Parceiros de Negócios"
-Pegar a informação da coluna "Pais"</t>
-  </si>
-  <si>
-    <t>Fazer o detalhamento da NF e Série desejada. Na aba Geral, seção Referência, pegar o código do Parceiro de Negócios.
-Ir para a sessão "tccom4500m000"  e informar o Cód do Parceiro na coluna "Parceiros de Negócios"
-Pegar a informação da coluna "Tipo de Identificador Fiscal"</t>
-  </si>
-  <si>
     <t>De posse do Cód da Cidade, ir para a sessão "tccom4539m000"  e informar o Cód da Cidade na coluna "Cidade"
 Pegar a primeira informação da coluna Estado/Município</t>
   </si>
@@ -666,6 +643,56 @@
   </si>
   <si>
     <t>Sessão tdsls4100m000</t>
+  </si>
+  <si>
+    <t>Fazer o detalhamento da NF e Série desejada. Na aba Geral, seção Datas, pegar a maior data entre Data Fiscal, Data emissão e Data Saída</t>
+  </si>
+  <si>
+    <t>Sessão tdrecl504m50l</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sessão tcmcs0565m000 </t>
+  </si>
+  <si>
+    <t>Fazer o detalhamento da NF e Série desejada na sessão "tdrecl504m50l". Na aba Geral, seção Referência, pegar o código do Departamento.
+Ir para a sessão "tcmcs0565m000"  e informar o Cód Departamento na coluna "Departamento"
+Pegar a informação da coluna "Unidade Empresarial"</t>
+  </si>
+  <si>
+    <t>Sessão tcemm0130m000</t>
+  </si>
+  <si>
+    <t>Fazer o detalhamento da NF e Série desejada na sessão "tdrecl504m50l". Na aba Geral, seção Referência, pegar o código do Parceiro de Negócios.
+Ir para a sessão "tccom4500m000"  e informar o Cód do Parceiro na coluna "Parceiros de Negócios"
+Pegar a informação da coluna "Cidade"</t>
+  </si>
+  <si>
+    <t>Fazer o detalhamento da NF e Série desejada na sessão "tdrecl504m50l".  Na aba Geral, seção Referência, pegar o código do Parceiro de Negócios.
+Ir para a sessão "tccom4500m000"  e informar o Cód do Parceiro na coluna "Parceiros de Negócios"
+Pegar a informação da coluna "Pais"</t>
+  </si>
+  <si>
+    <t>Fazer o detalhamento da NF e Série desejada na sessão "tdrecl504m50l".  Na aba Geral, seção Referência, pegar o código do Parceiro de Negócios.
+Ir para a sessão "tccom4500m000"  e informar o Cód do Parceiro na coluna "Parceiros de Negócios"
+Pegar a informação da coluna "Tipo de Identificador Fiscal"</t>
+  </si>
+  <si>
+    <t>Sessão tccom4500m000</t>
+  </si>
+  <si>
+    <t>Sessão tccom4539m000</t>
+  </si>
+  <si>
+    <t>Fábio vai rever esses tópicos na view</t>
+  </si>
+  <si>
+    <t>Sessão znslsc507m000</t>
+  </si>
+  <si>
+    <t>Selecionar o Pedido do cliente (NR_PEDIDO) na coluna Pedido Cliente.  Se a coluna Cód Lista Compra for zero, retornará1. Caso contrário, retornará 2</t>
+  </si>
+  <si>
+    <t>tdrecl504m50l, tcmcs0565m000, tcemm0130m000, tccom4500m000, tccom4539m000, znslsc500s000, tdsls4100m000, znslsc510m000, whina1512m000 e znslsc507m000</t>
   </si>
 </sst>
 </file>
@@ -820,15 +847,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -881,11 +899,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -897,6 +924,39 @@
     <xf numFmtId="49" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -906,119 +966,98 @@
     <xf numFmtId="49" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1028,8 +1067,8 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFA7E7E"/>
       <color rgb="FFFFFFCC"/>
-      <color rgb="FFFA7E7E"/>
       <color rgb="FFCCECFF"/>
       <color rgb="FFFF5050"/>
     </mruColors>
@@ -1327,8 +1366,8 @@
   </sheetPr>
   <dimension ref="A2:AT38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
@@ -1337,67 +1376,67 @@
     <col min="2" max="2" width="22" style="2" customWidth="1"/>
     <col min="3" max="3" width="21.5703125" style="2" customWidth="1"/>
     <col min="4" max="4" width="23.7109375" style="2" customWidth="1"/>
-    <col min="5" max="5" width="22.5703125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="20.140625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="18.7109375" style="2" customWidth="1"/>
-    <col min="8" max="8" width="20.85546875" style="2" customWidth="1"/>
-    <col min="9" max="9" width="18.7109375" style="2" customWidth="1"/>
-    <col min="10" max="10" width="18" style="2" customWidth="1"/>
-    <col min="11" max="11" width="17" style="2" customWidth="1"/>
-    <col min="12" max="12" width="22.28515625" style="2" customWidth="1"/>
-    <col min="13" max="13" width="21.85546875" style="2" customWidth="1"/>
-    <col min="14" max="14" width="20" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="23.140625" style="2" customWidth="1"/>
-    <col min="16" max="16" width="23.42578125" style="2" customWidth="1"/>
-    <col min="17" max="17" width="21.7109375" style="2" customWidth="1"/>
-    <col min="18" max="18" width="20" style="2" customWidth="1"/>
-    <col min="19" max="19" width="20.5703125" style="2" customWidth="1"/>
-    <col min="20" max="20" width="22" style="2" customWidth="1"/>
-    <col min="21" max="21" width="34.5703125" style="2" customWidth="1"/>
-    <col min="22" max="22" width="34" style="2" customWidth="1"/>
-    <col min="23" max="23" width="34.7109375" style="2" customWidth="1"/>
-    <col min="24" max="24" width="21.5703125" style="2" customWidth="1"/>
-    <col min="25" max="25" width="21.7109375" style="2" customWidth="1"/>
-    <col min="26" max="26" width="22.85546875" style="2" customWidth="1"/>
-    <col min="27" max="27" width="23.7109375" style="2" customWidth="1"/>
-    <col min="28" max="28" width="23.85546875" style="2" customWidth="1"/>
-    <col min="29" max="29" width="20.85546875" style="2" customWidth="1"/>
-    <col min="30" max="30" width="23.5703125" style="2" customWidth="1"/>
-    <col min="31" max="31" width="23.42578125" style="2" customWidth="1"/>
-    <col min="32" max="32" width="23.5703125" style="2" customWidth="1"/>
-    <col min="33" max="33" width="20.85546875" style="2" customWidth="1"/>
-    <col min="34" max="34" width="19.42578125" style="2" customWidth="1"/>
-    <col min="35" max="35" width="21" style="2" customWidth="1"/>
+    <col min="5" max="5" width="22.28515625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="21.85546875" style="2" customWidth="1"/>
+    <col min="7" max="7" width="20" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.5703125" style="2" customWidth="1"/>
+    <col min="9" max="9" width="23.140625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="23.42578125" style="2" customWidth="1"/>
+    <col min="11" max="11" width="21.7109375" style="2" customWidth="1"/>
+    <col min="12" max="12" width="20" style="2" customWidth="1"/>
+    <col min="13" max="13" width="20.5703125" style="2" customWidth="1"/>
+    <col min="14" max="14" width="22" style="2" customWidth="1"/>
+    <col min="15" max="15" width="34.5703125" style="2" customWidth="1"/>
+    <col min="16" max="16" width="34" style="2" customWidth="1"/>
+    <col min="17" max="17" width="34.7109375" style="2" customWidth="1"/>
+    <col min="18" max="18" width="21.5703125" style="2" customWidth="1"/>
+    <col min="19" max="19" width="21.7109375" style="2" customWidth="1"/>
+    <col min="20" max="20" width="22.85546875" style="2" customWidth="1"/>
+    <col min="21" max="21" width="20.85546875" style="2" customWidth="1"/>
+    <col min="22" max="22" width="23.5703125" style="2" customWidth="1"/>
+    <col min="23" max="23" width="23.42578125" style="2" customWidth="1"/>
+    <col min="24" max="24" width="23.5703125" style="2" customWidth="1"/>
+    <col min="25" max="25" width="20.85546875" style="2" customWidth="1"/>
+    <col min="26" max="26" width="19.42578125" style="2" customWidth="1"/>
+    <col min="27" max="27" width="21" style="2" customWidth="1"/>
+    <col min="28" max="28" width="30.85546875" style="2" customWidth="1"/>
+    <col min="29" max="29" width="25" style="2" customWidth="1"/>
+    <col min="30" max="30" width="20.85546875" style="2" customWidth="1"/>
+    <col min="31" max="31" width="18.7109375" style="2" customWidth="1"/>
+    <col min="32" max="32" width="18" style="2" customWidth="1"/>
+    <col min="33" max="33" width="26" style="2" customWidth="1"/>
+    <col min="34" max="34" width="23.7109375" style="2" customWidth="1"/>
+    <col min="35" max="35" width="23.85546875" style="2" customWidth="1"/>
     <col min="36" max="36" width="21.140625" style="2" customWidth="1"/>
     <col min="37" max="37" width="22.28515625" style="2" customWidth="1"/>
     <col min="38" max="38" width="25" style="2" customWidth="1"/>
     <col min="39" max="39" width="22.42578125" style="2" customWidth="1"/>
     <col min="40" max="40" width="28.85546875" style="2" customWidth="1"/>
-    <col min="41" max="41" width="27.85546875" style="2" customWidth="1"/>
-    <col min="42" max="42" width="14.5703125" style="2" customWidth="1"/>
-    <col min="43" max="43" width="18.5703125" style="2" customWidth="1"/>
-    <col min="44" max="44" width="12.7109375" style="2" customWidth="1"/>
-    <col min="45" max="45" width="14.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="9.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="31.42578125" style="2" customWidth="1"/>
+    <col min="42" max="42" width="27.85546875" style="2" customWidth="1"/>
+    <col min="43" max="43" width="14.5703125" style="2" customWidth="1"/>
+    <col min="44" max="44" width="18.5703125" style="2" customWidth="1"/>
+    <col min="45" max="45" width="17.5703125" style="2" customWidth="1"/>
+    <col min="46" max="46" width="19.5703125" style="2" customWidth="1"/>
     <col min="47" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:46" ht="21">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="8"/>
+      <c r="B2" s="40"/>
       <c r="C2" s="3" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:46" ht="21">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="8"/>
+      <c r="B3" s="40"/>
       <c r="C3" s="3" t="s">
-        <v>82</v>
+        <v>195</v>
       </c>
     </row>
     <row r="6" spans="1:46">
@@ -1414,97 +1453,97 @@
         <v>15</v>
       </c>
       <c r="E6" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="H6" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="I6" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="L6" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="M6" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="N6" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="O6" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="P6" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q6" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="R6" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="S6" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="T6" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="U6" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="V6" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="W6" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="X6" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y6" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z6" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA6" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="AB6" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="AC6" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="H6" s="4" t="s">
+      <c r="AD6" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="I6" s="4" t="s">
+      <c r="AE6" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="J6" s="4" t="s">
+      <c r="AF6" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="K6" s="4" t="s">
+      <c r="AG6" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="L6" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="M6" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="N6" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="O6" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="P6" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q6" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="R6" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="S6" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="T6" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="U6" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="V6" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="W6" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="X6" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="Y6" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="Z6" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="AA6" s="4" t="s">
+      <c r="AH6" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="AB6" s="4" t="s">
+      <c r="AI6" s="4" t="s">
         <v>41</v>
-      </c>
-      <c r="AC6" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="AD6" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="AE6" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="AF6" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="AG6" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="AH6" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="AI6" s="4" t="s">
-        <v>59</v>
       </c>
       <c r="AJ6" s="4" t="s">
         <v>48</v>
@@ -1522,161 +1561,159 @@
         <v>47</v>
       </c>
       <c r="AO6" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="AP6" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="AP6" s="4" t="s">
+      <c r="AQ6" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="AQ6" s="4" t="s">
+      <c r="AR6" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="AR6" s="4" t="s">
+      <c r="AS6" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="AS6" s="4" t="s">
+      <c r="AT6" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="AT6" s="4" t="s">
-        <v>60</v>
-      </c>
     </row>
     <row r="7" spans="1:46">
-      <c r="A7" s="28" t="s">
+      <c r="A7" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="28" t="s">
+      <c r="B7" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="E7" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="C7" s="28" t="s">
+      <c r="F7" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="K7" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="L7" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="M7" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="N7" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="O7" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="P7" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q7" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="R7" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="S7" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="T7" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="U7" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="V7" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="W7" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D7" s="28" t="s">
-        <v>62</v>
-      </c>
-      <c r="E7" s="29" t="s">
-        <v>91</v>
-      </c>
-      <c r="F7" s="28" t="s">
+      <c r="X7" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="Y7" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="Z7" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AA7" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AB7" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="G7" s="28" t="s">
+      <c r="AC7" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="H7" s="28" t="s">
-        <v>105</v>
-      </c>
-      <c r="I7" s="28" t="s">
+      <c r="AD7" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="AE7" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="J7" s="28" t="s">
+      <c r="AF7" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="K7" s="28" t="s">
+      <c r="AG7" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="AH7" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="AI7" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="AJ7" s="2" t="s">
         <v>106</v>
-      </c>
-      <c r="L7" s="28" t="s">
-        <v>92</v>
-      </c>
-      <c r="M7" s="28" t="s">
-        <v>61</v>
-      </c>
-      <c r="N7" s="29" t="s">
-        <v>93</v>
-      </c>
-      <c r="O7" s="28" t="s">
-        <v>94</v>
-      </c>
-      <c r="P7" s="28" t="s">
-        <v>94</v>
-      </c>
-      <c r="Q7" s="28" t="s">
-        <v>114</v>
-      </c>
-      <c r="R7" s="28" t="s">
-        <v>115</v>
-      </c>
-      <c r="S7" s="28" t="s">
-        <v>116</v>
-      </c>
-      <c r="T7" s="28" t="s">
-        <v>118</v>
-      </c>
-      <c r="U7" s="28" t="s">
-        <v>14</v>
-      </c>
-      <c r="V7" s="29" t="s">
-        <v>120</v>
-      </c>
-      <c r="W7" s="29" t="s">
-        <v>121</v>
-      </c>
-      <c r="X7" s="28" t="s">
-        <v>117</v>
-      </c>
-      <c r="Y7" s="28" t="s">
-        <v>14</v>
-      </c>
-      <c r="Z7" s="28" t="s">
-        <v>14</v>
-      </c>
-      <c r="AA7" s="28" t="s">
-        <v>68</v>
-      </c>
-      <c r="AB7" s="29" t="s">
-        <v>104</v>
-      </c>
-      <c r="AC7" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="AD7" s="28" t="s">
-        <v>95</v>
-      </c>
-      <c r="AE7" s="28" t="s">
-        <v>0</v>
-      </c>
-      <c r="AF7" s="28" t="s">
-        <v>103</v>
-      </c>
-      <c r="AG7" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="AH7" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="AI7" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="AJ7" s="2" t="s">
-        <v>108</v>
       </c>
       <c r="AK7" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="AL7" s="32" t="s">
-        <v>96</v>
-      </c>
-      <c r="AM7" s="32" t="s">
-        <v>97</v>
+      <c r="AL7" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="AM7" s="8" t="s">
+        <v>95</v>
       </c>
       <c r="AN7" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="AO7" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="AP7" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AP7" s="6"/>
+      <c r="AQ7" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="AQ7" s="2" t="s">
+      <c r="AR7" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="AR7" s="2" t="s">
+      <c r="AS7" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="AS7" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="AT7" s="2" t="s">
+      <c r="AT7" s="6" t="s">
         <v>1</v>
       </c>
     </row>
@@ -1685,7 +1722,7 @@
         <v>2</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>0</v>
@@ -1694,118 +1731,118 @@
         <v>62</v>
       </c>
       <c r="E8" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G8" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="H8" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="O8" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="P8" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q8" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="R8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="S8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="T8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="U8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="V8" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="W8" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="X8" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="Y8" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="Z8" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AA8" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AB8" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="AC8" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="H8" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="I8" s="2" t="s">
+      <c r="AD8" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="AE8" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="J8" s="2" t="s">
+      <c r="AF8" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="K8" s="2" t="s">
+      <c r="AG8" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="AH8" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="AI8" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="AJ8" s="2" t="s">
         <v>106</v>
-      </c>
-      <c r="L8" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="M8" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="N8" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="O8" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="P8" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="Q8" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="R8" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="S8" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="T8" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="U8" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="V8" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="W8" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="X8" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="Y8" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="Z8" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="AA8" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="AB8" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="AC8" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="AD8" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="AE8" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="AF8" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="AG8" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="AH8" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="AI8" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="AJ8" s="2" t="s">
-        <v>108</v>
       </c>
       <c r="AK8" s="2" t="s">
         <v>72</v>
       </c>
       <c r="AL8" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="AM8" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="AN8" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="AO8" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AP8" s="2" t="s">
         <v>13</v>
-      </c>
-      <c r="AP8" s="2" t="s">
-        <v>3</v>
       </c>
       <c r="AQ8" s="2" t="s">
         <v>3</v>
@@ -1814,7 +1851,7 @@
         <v>3</v>
       </c>
       <c r="AS8" s="2" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AT8" s="2" t="s">
         <v>1</v>
@@ -1825,7 +1862,7 @@
         <v>2</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>0</v>
@@ -1834,118 +1871,118 @@
         <v>62</v>
       </c>
       <c r="E9" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G9" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="H9" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="M9" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="O9" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="P9" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q9" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="R9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="S9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="T9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="U9" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="V9" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="W9" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="X9" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="Y9" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="Z9" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AA9" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AB9" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="G9" s="2" t="s">
+      <c r="AC9" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="H9" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="I9" s="2" t="s">
+      <c r="AD9" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="AE9" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="J9" s="2" t="s">
+      <c r="AF9" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="K9" s="2" t="s">
+      <c r="AG9" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="AH9" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="AI9" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="AJ9" s="2" t="s">
         <v>106</v>
-      </c>
-      <c r="L9" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="M9" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="N9" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="O9" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="P9" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="Q9" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="R9" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="S9" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="T9" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="U9" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="V9" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="W9" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="X9" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="Y9" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="Z9" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="AA9" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="AB9" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="AC9" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="AD9" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="AE9" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="AF9" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="AG9" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="AH9" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="AI9" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="AJ9" s="2" t="s">
-        <v>108</v>
       </c>
       <c r="AK9" s="2" t="s">
         <v>72</v>
       </c>
       <c r="AL9" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="AM9" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="AN9" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="AO9" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AP9" s="2" t="s">
         <v>13</v>
-      </c>
-      <c r="AP9" s="2" t="s">
-        <v>3</v>
       </c>
       <c r="AQ9" s="2" t="s">
         <v>3</v>
@@ -1954,7 +1991,7 @@
         <v>3</v>
       </c>
       <c r="AS9" s="2" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AT9" s="2" t="s">
         <v>1</v>
@@ -1965,7 +2002,7 @@
         <v>2</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>0</v>
@@ -1974,118 +2011,118 @@
         <v>62</v>
       </c>
       <c r="E10" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G10" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="F10" s="2" t="s">
+      <c r="H10" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="M10" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="N10" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="O10" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="P10" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q10" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="R10" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="S10" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="T10" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="U10" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="V10" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="W10" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="X10" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="Y10" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="Z10" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AA10" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AB10" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="G10" s="2" t="s">
+      <c r="AC10" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="H10" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="I10" s="2" t="s">
+      <c r="AD10" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="AE10" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="J10" s="2" t="s">
+      <c r="AF10" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="K10" s="2" t="s">
+      <c r="AG10" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="AH10" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="AI10" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="AJ10" s="2" t="s">
         <v>106</v>
-      </c>
-      <c r="L10" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="M10" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="N10" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="O10" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="P10" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="Q10" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="R10" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="S10" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="T10" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="U10" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="V10" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="W10" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="X10" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="Y10" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="Z10" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="AA10" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="AB10" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="AC10" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="AD10" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="AE10" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="AF10" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="AG10" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="AH10" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="AI10" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="AJ10" s="2" t="s">
-        <v>108</v>
       </c>
       <c r="AK10" s="2" t="s">
         <v>72</v>
       </c>
       <c r="AL10" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="AM10" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="AN10" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="AO10" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AP10" s="2" t="s">
         <v>13</v>
-      </c>
-      <c r="AP10" s="2" t="s">
-        <v>3</v>
       </c>
       <c r="AQ10" s="2" t="s">
         <v>3</v>
@@ -2094,7 +2131,7 @@
         <v>3</v>
       </c>
       <c r="AS10" s="2" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AT10" s="2" t="s">
         <v>1</v>
@@ -2105,7 +2142,7 @@
         <v>2</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>0</v>
@@ -2114,118 +2151,118 @@
         <v>62</v>
       </c>
       <c r="E11" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G11" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="F11" s="2" t="s">
+      <c r="H11" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="M11" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="N11" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="O11" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="P11" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q11" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="R11" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="S11" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="T11" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="U11" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="V11" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="W11" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="X11" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="Y11" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="Z11" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AA11" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AB11" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="G11" s="2" t="s">
+      <c r="AC11" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="H11" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="I11" s="2" t="s">
+      <c r="AD11" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="AE11" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="J11" s="2" t="s">
+      <c r="AF11" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="K11" s="2" t="s">
+      <c r="AG11" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="AH11" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="AI11" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="AJ11" s="2" t="s">
         <v>106</v>
-      </c>
-      <c r="L11" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="M11" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="N11" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="O11" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="P11" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="Q11" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="R11" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="S11" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="T11" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="U11" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="V11" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="W11" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="X11" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="Y11" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="Z11" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="AA11" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="AB11" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="AC11" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="AD11" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="AE11" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="AF11" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="AG11" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="AH11" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="AI11" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="AJ11" s="2" t="s">
-        <v>108</v>
       </c>
       <c r="AK11" s="2" t="s">
         <v>72</v>
       </c>
       <c r="AL11" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="AM11" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="AN11" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="AO11" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AP11" s="2" t="s">
         <v>13</v>
-      </c>
-      <c r="AP11" s="2" t="s">
-        <v>3</v>
       </c>
       <c r="AQ11" s="2" t="s">
         <v>3</v>
@@ -2234,7 +2271,7 @@
         <v>3</v>
       </c>
       <c r="AS11" s="2" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AT11" s="2" t="s">
         <v>1</v>
@@ -2245,7 +2282,7 @@
         <v>2</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>0</v>
@@ -2254,118 +2291,118 @@
         <v>62</v>
       </c>
       <c r="E12" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G12" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="F12" s="2" t="s">
+      <c r="H12" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="M12" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="N12" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="O12" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="P12" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q12" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="R12" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="S12" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="T12" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="U12" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="V12" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="W12" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="X12" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="Y12" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="Z12" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AA12" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AB12" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="G12" s="2" t="s">
+      <c r="AC12" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="H12" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="I12" s="2" t="s">
+      <c r="AD12" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="AE12" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="J12" s="2" t="s">
+      <c r="AF12" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="K12" s="2" t="s">
+      <c r="AG12" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="AH12" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="AI12" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="AJ12" s="2" t="s">
         <v>106</v>
-      </c>
-      <c r="L12" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="M12" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="N12" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="O12" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="P12" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="Q12" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="R12" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="S12" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="T12" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="U12" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="V12" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="W12" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="X12" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="Y12" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="Z12" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="AA12" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="AB12" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="AC12" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="AD12" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="AE12" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="AF12" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="AG12" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="AH12" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="AI12" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="AJ12" s="2" t="s">
-        <v>108</v>
       </c>
       <c r="AK12" s="2" t="s">
         <v>72</v>
       </c>
       <c r="AL12" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="AM12" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="AN12" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="AO12" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AP12" s="2" t="s">
         <v>13</v>
-      </c>
-      <c r="AP12" s="2" t="s">
-        <v>3</v>
       </c>
       <c r="AQ12" s="2" t="s">
         <v>3</v>
@@ -2374,7 +2411,7 @@
         <v>3</v>
       </c>
       <c r="AS12" s="2" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AT12" s="2" t="s">
         <v>1</v>
@@ -2385,7 +2422,7 @@
         <v>2</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>0</v>
@@ -2394,118 +2431,118 @@
         <v>62</v>
       </c>
       <c r="E13" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G13" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="F13" s="2" t="s">
+      <c r="H13" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="M13" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="N13" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="O13" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="P13" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q13" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="R13" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="S13" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="T13" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="U13" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="V13" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="W13" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="X13" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="Y13" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="Z13" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AA13" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AB13" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="G13" s="2" t="s">
+      <c r="AC13" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="H13" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="I13" s="2" t="s">
+      <c r="AD13" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="AE13" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="J13" s="2" t="s">
+      <c r="AF13" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="K13" s="2" t="s">
+      <c r="AG13" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="AH13" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="AI13" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="AJ13" s="2" t="s">
         <v>106</v>
-      </c>
-      <c r="L13" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="M13" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="N13" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="O13" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="P13" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="Q13" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="R13" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="S13" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="T13" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="U13" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="V13" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="W13" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="X13" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="Y13" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="Z13" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="AA13" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="AB13" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="AC13" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="AD13" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="AE13" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="AF13" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="AG13" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="AH13" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="AI13" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="AJ13" s="2" t="s">
-        <v>108</v>
       </c>
       <c r="AK13" s="2" t="s">
         <v>72</v>
       </c>
       <c r="AL13" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="AM13" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="AN13" s="2" t="s">
         <v>71</v>
       </c>
       <c r="AO13" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AP13" s="2" t="s">
         <v>13</v>
-      </c>
-      <c r="AP13" s="2" t="s">
-        <v>3</v>
       </c>
       <c r="AQ13" s="2" t="s">
         <v>3</v>
@@ -2514,7 +2551,7 @@
         <v>3</v>
       </c>
       <c r="AS13" s="2" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AT13" s="2" t="s">
         <v>1</v>
@@ -2525,7 +2562,7 @@
         <v>2</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>0</v>
@@ -2534,118 +2571,118 @@
         <v>62</v>
       </c>
       <c r="E14" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G14" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="F14" s="2" t="s">
+      <c r="H14" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="M14" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="N14" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="O14" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="P14" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q14" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="R14" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="S14" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="T14" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="U14" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="V14" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="W14" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="X14" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="Y14" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="Z14" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AA14" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AB14" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="G14" s="2" t="s">
+      <c r="AC14" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="H14" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="I14" s="2" t="s">
+      <c r="AD14" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="AE14" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="J14" s="2" t="s">
+      <c r="AF14" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="K14" s="2" t="s">
+      <c r="AG14" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="AH14" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="AI14" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="AJ14" s="2" t="s">
         <v>106</v>
-      </c>
-      <c r="L14" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="M14" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="N14" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="O14" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="P14" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="Q14" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="R14" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="S14" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="T14" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="U14" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="V14" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="W14" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="X14" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="Y14" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="Z14" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="AA14" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="AB14" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="AC14" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="AD14" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="AE14" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="AF14" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="AG14" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="AH14" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="AI14" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="AJ14" s="2" t="s">
-        <v>108</v>
       </c>
       <c r="AK14" s="2" t="s">
         <v>72</v>
       </c>
       <c r="AL14" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="AM14" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="AN14" s="2" t="s">
         <v>3</v>
       </c>
       <c r="AO14" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AP14" s="2" t="s">
         <v>13</v>
-      </c>
-      <c r="AP14" s="2" t="s">
-        <v>3</v>
       </c>
       <c r="AQ14" s="2" t="s">
         <v>3</v>
@@ -2654,7 +2691,7 @@
         <v>3</v>
       </c>
       <c r="AS14" s="2" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AT14" s="2" t="s">
         <v>1</v>
@@ -2665,7 +2702,7 @@
         <v>2</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>0</v>
@@ -2674,118 +2711,118 @@
         <v>62</v>
       </c>
       <c r="E15" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G15" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="F15" s="2" t="s">
+      <c r="H15" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="M15" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="N15" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="O15" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="P15" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q15" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="R15" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="S15" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="T15" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="U15" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="V15" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="W15" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="X15" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="Y15" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="Z15" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AA15" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AB15" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="G15" s="2" t="s">
+      <c r="AC15" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="H15" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="I15" s="2" t="s">
+      <c r="AD15" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="AE15" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="J15" s="2" t="s">
+      <c r="AF15" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="K15" s="2" t="s">
+      <c r="AG15" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="AH15" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="AI15" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="AJ15" s="2" t="s">
         <v>106</v>
-      </c>
-      <c r="L15" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="M15" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="N15" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="O15" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="P15" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="Q15" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="R15" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="S15" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="T15" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="U15" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="V15" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="W15" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="X15" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="Y15" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="Z15" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="AA15" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="AB15" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="AC15" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="AD15" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="AE15" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="AF15" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="AG15" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="AH15" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="AI15" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="AJ15" s="2" t="s">
-        <v>108</v>
       </c>
       <c r="AK15" s="2" t="s">
         <v>72</v>
       </c>
       <c r="AL15" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="AM15" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="AN15" s="2" t="s">
         <v>3</v>
       </c>
       <c r="AO15" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AP15" s="2" t="s">
         <v>13</v>
-      </c>
-      <c r="AP15" s="2" t="s">
-        <v>3</v>
       </c>
       <c r="AQ15" s="2" t="s">
         <v>3</v>
@@ -2794,7 +2831,7 @@
         <v>3</v>
       </c>
       <c r="AS15" s="2" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AT15" s="2" t="s">
         <v>1</v>
@@ -2805,7 +2842,7 @@
         <v>2</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>0</v>
@@ -2814,118 +2851,118 @@
         <v>62</v>
       </c>
       <c r="E16" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G16" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="F16" s="2" t="s">
+      <c r="H16" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="M16" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="N16" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="O16" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="P16" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q16" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="R16" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="S16" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="T16" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="U16" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="V16" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="W16" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="X16" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="Y16" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="Z16" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AA16" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AB16" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="G16" s="2" t="s">
+      <c r="AC16" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="H16" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="I16" s="2" t="s">
+      <c r="AD16" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="AE16" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="J16" s="2" t="s">
+      <c r="AF16" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="K16" s="2" t="s">
+      <c r="AG16" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="AH16" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="AI16" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="AJ16" s="2" t="s">
         <v>106</v>
-      </c>
-      <c r="L16" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="M16" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="N16" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="O16" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="P16" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="Q16" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="R16" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="S16" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="T16" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="U16" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="V16" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="W16" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="X16" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="Y16" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="Z16" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="AA16" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="AB16" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="AC16" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="AD16" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="AE16" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="AF16" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="AG16" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="AH16" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="AI16" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="AJ16" s="2" t="s">
-        <v>108</v>
       </c>
       <c r="AK16" s="2" t="s">
         <v>72</v>
       </c>
       <c r="AL16" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="AM16" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="AN16" s="2" t="s">
         <v>3</v>
       </c>
       <c r="AO16" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AP16" s="2" t="s">
         <v>13</v>
-      </c>
-      <c r="AP16" s="2" t="s">
-        <v>3</v>
       </c>
       <c r="AQ16" s="2" t="s">
         <v>3</v>
@@ -2934,510 +2971,697 @@
         <v>3</v>
       </c>
       <c r="AS16" s="2" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AT16" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:40">
-      <c r="AA19" s="31" t="s">
+    <row r="19" spans="1:46" ht="11.25" customHeight="1">
+      <c r="B19" s="47" t="s">
+        <v>183</v>
+      </c>
+      <c r="C19" s="47"/>
+      <c r="D19" s="47"/>
+      <c r="E19" s="47"/>
+      <c r="F19" s="47"/>
+      <c r="G19" s="47"/>
+      <c r="H19" s="47"/>
+      <c r="I19" s="47"/>
+      <c r="J19" s="47"/>
+      <c r="K19" s="47"/>
+      <c r="L19" s="47"/>
+      <c r="M19" s="47"/>
+      <c r="N19" s="47"/>
+      <c r="O19" s="47"/>
+      <c r="P19" s="47"/>
+      <c r="Q19" s="47"/>
+      <c r="R19" s="47"/>
+      <c r="S19" s="47"/>
+      <c r="T19" s="47"/>
+      <c r="U19" s="47"/>
+      <c r="V19" s="47"/>
+      <c r="W19" s="47"/>
+      <c r="X19" s="47"/>
+      <c r="Y19" s="47"/>
+      <c r="Z19" s="47"/>
+      <c r="AA19" s="47"/>
+      <c r="AB19" s="47" t="s">
+        <v>184</v>
+      </c>
+      <c r="AC19" s="47" t="s">
+        <v>186</v>
+      </c>
+      <c r="AD19" s="47" t="s">
+        <v>190</v>
+      </c>
+      <c r="AE19" s="47"/>
+      <c r="AF19" s="47"/>
+      <c r="AG19" s="47" t="s">
+        <v>191</v>
+      </c>
+      <c r="AH19" s="47" t="s">
+        <v>170</v>
+      </c>
+      <c r="AI19" s="47"/>
+      <c r="AJ19" s="31" t="s">
+        <v>181</v>
+      </c>
+      <c r="AK19" s="32"/>
+      <c r="AL19" s="19" t="s">
+        <v>173</v>
+      </c>
+      <c r="AM19" s="20"/>
+      <c r="AN19" s="28" t="s">
+        <v>177</v>
+      </c>
+      <c r="AO19" s="28" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="20" spans="1:46" ht="11.25" customHeight="1">
+      <c r="B20" s="47"/>
+      <c r="C20" s="47"/>
+      <c r="D20" s="47"/>
+      <c r="E20" s="47"/>
+      <c r="F20" s="47"/>
+      <c r="G20" s="47"/>
+      <c r="H20" s="47"/>
+      <c r="I20" s="47"/>
+      <c r="J20" s="47"/>
+      <c r="K20" s="47"/>
+      <c r="L20" s="47"/>
+      <c r="M20" s="47"/>
+      <c r="N20" s="47"/>
+      <c r="O20" s="47"/>
+      <c r="P20" s="47"/>
+      <c r="Q20" s="47"/>
+      <c r="R20" s="47"/>
+      <c r="S20" s="47"/>
+      <c r="T20" s="47"/>
+      <c r="U20" s="47"/>
+      <c r="V20" s="47"/>
+      <c r="W20" s="47"/>
+      <c r="X20" s="47"/>
+      <c r="Y20" s="47"/>
+      <c r="Z20" s="47"/>
+      <c r="AA20" s="47"/>
+      <c r="AB20" s="47"/>
+      <c r="AC20" s="47"/>
+      <c r="AD20" s="47"/>
+      <c r="AE20" s="47"/>
+      <c r="AF20" s="47"/>
+      <c r="AG20" s="47"/>
+      <c r="AH20" s="47"/>
+      <c r="AI20" s="47"/>
+      <c r="AJ20" s="33"/>
+      <c r="AK20" s="34"/>
+      <c r="AL20" s="21"/>
+      <c r="AM20" s="22"/>
+      <c r="AN20" s="29"/>
+      <c r="AO20" s="29"/>
+    </row>
+    <row r="21" spans="1:46" ht="11.25" customHeight="1">
+      <c r="B21" s="47"/>
+      <c r="C21" s="47"/>
+      <c r="D21" s="47"/>
+      <c r="E21" s="47"/>
+      <c r="F21" s="47"/>
+      <c r="G21" s="47"/>
+      <c r="H21" s="47"/>
+      <c r="I21" s="47"/>
+      <c r="J21" s="47"/>
+      <c r="K21" s="47"/>
+      <c r="L21" s="47"/>
+      <c r="M21" s="47"/>
+      <c r="N21" s="47"/>
+      <c r="O21" s="47"/>
+      <c r="P21" s="47"/>
+      <c r="Q21" s="47"/>
+      <c r="R21" s="47"/>
+      <c r="S21" s="47"/>
+      <c r="T21" s="47"/>
+      <c r="U21" s="47"/>
+      <c r="V21" s="47"/>
+      <c r="W21" s="47"/>
+      <c r="X21" s="47"/>
+      <c r="Y21" s="47"/>
+      <c r="Z21" s="47"/>
+      <c r="AA21" s="47"/>
+      <c r="AB21" s="47"/>
+      <c r="AC21" s="47"/>
+      <c r="AD21" s="47"/>
+      <c r="AE21" s="47"/>
+      <c r="AF21" s="47"/>
+      <c r="AG21" s="47"/>
+      <c r="AH21" s="47"/>
+      <c r="AI21" s="47"/>
+      <c r="AJ21" s="35"/>
+      <c r="AK21" s="36"/>
+      <c r="AL21" s="23"/>
+      <c r="AM21" s="24"/>
+      <c r="AN21" s="30"/>
+      <c r="AO21" s="30"/>
+    </row>
+    <row r="22" spans="1:46" ht="11.25" customHeight="1">
+      <c r="A22" s="39" t="s">
+        <v>7</v>
+      </c>
+      <c r="B22" s="39" t="s">
+        <v>82</v>
+      </c>
+      <c r="C22" s="39" t="s">
+        <v>83</v>
+      </c>
+      <c r="D22" s="39" t="s">
+        <v>149</v>
+      </c>
+      <c r="E22" s="39" t="s">
+        <v>85</v>
+      </c>
+      <c r="F22" s="39" t="s">
+        <v>86</v>
+      </c>
+      <c r="G22" s="39" t="s">
+        <v>87</v>
+      </c>
+      <c r="H22" s="39" t="s">
+        <v>182</v>
+      </c>
+      <c r="I22" s="39" t="s">
+        <v>147</v>
+      </c>
+      <c r="J22" s="41" t="s">
+        <v>148</v>
+      </c>
+      <c r="K22" s="45" t="s">
+        <v>153</v>
+      </c>
+      <c r="L22" s="45" t="s">
+        <v>154</v>
+      </c>
+      <c r="M22" s="45" t="s">
+        <v>155</v>
+      </c>
+      <c r="N22" s="45" t="s">
+        <v>159</v>
+      </c>
+      <c r="O22" s="39" t="s">
+        <v>161</v>
+      </c>
+      <c r="P22" s="39" t="s">
+        <v>162</v>
+      </c>
+      <c r="Q22" s="39" t="s">
+        <v>163</v>
+      </c>
+      <c r="R22" s="39" t="s">
+        <v>156</v>
+      </c>
+      <c r="S22" s="39" t="s">
+        <v>157</v>
+      </c>
+      <c r="T22" s="39" t="s">
+        <v>158</v>
+      </c>
+      <c r="U22" s="25" t="s">
+        <v>165</v>
+      </c>
+      <c r="V22" s="25" t="s">
+        <v>164</v>
+      </c>
+      <c r="W22" s="25" t="s">
+        <v>166</v>
+      </c>
+      <c r="X22" s="25" t="s">
+        <v>167</v>
+      </c>
+      <c r="Y22" s="25" t="s">
+        <v>174</v>
+      </c>
+      <c r="Z22" s="25" t="s">
         <v>175</v>
       </c>
-      <c r="AB19" s="31"/>
-      <c r="AJ19" s="37" t="s">
-        <v>186</v>
-      </c>
-      <c r="AK19" s="38"/>
-      <c r="AL19" s="10" t="s">
+      <c r="AA22" s="25" t="s">
+        <v>176</v>
+      </c>
+      <c r="AB22" s="38" t="s">
+        <v>185</v>
+      </c>
+      <c r="AC22" s="37" t="s">
+        <v>84</v>
+      </c>
+      <c r="AD22" s="38" t="s">
+        <v>187</v>
+      </c>
+      <c r="AE22" s="38" t="s">
+        <v>188</v>
+      </c>
+      <c r="AF22" s="38" t="s">
+        <v>189</v>
+      </c>
+      <c r="AG22" s="38" t="s">
+        <v>160</v>
+      </c>
+      <c r="AH22" s="38" t="s">
+        <v>168</v>
+      </c>
+      <c r="AI22" s="38" t="s">
+        <v>169</v>
+      </c>
+      <c r="AJ22" s="37" t="s">
+        <v>179</v>
+      </c>
+      <c r="AK22" s="37" t="s">
+        <v>180</v>
+      </c>
+      <c r="AL22" s="13" t="s">
+        <v>172</v>
+      </c>
+      <c r="AM22" s="16" t="s">
+        <v>171</v>
+      </c>
+      <c r="AN22" s="16" t="s">
         <v>178</v>
       </c>
-      <c r="AM19" s="11"/>
-      <c r="AN19" s="33" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="20" spans="1:40">
-      <c r="AA20" s="31"/>
-      <c r="AB20" s="31"/>
-      <c r="AJ20" s="39"/>
-      <c r="AK20" s="36"/>
-      <c r="AL20" s="12"/>
-      <c r="AM20" s="13"/>
-      <c r="AN20" s="34"/>
-    </row>
-    <row r="21" spans="1:40" ht="11.25" customHeight="1">
-      <c r="AA21" s="15"/>
-      <c r="AB21" s="15"/>
-      <c r="AJ21" s="40"/>
-      <c r="AK21" s="41"/>
-      <c r="AL21" s="14"/>
-      <c r="AM21" s="16"/>
-      <c r="AN21" s="35"/>
-    </row>
-    <row r="22" spans="1:40" ht="11.25" customHeight="1">
-      <c r="A22" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="D22" s="5" t="s">
+      <c r="AO22" s="16" t="s">
+        <v>194</v>
+      </c>
+      <c r="AP22" s="48" t="s">
+        <v>192</v>
+      </c>
+      <c r="AQ22" s="49"/>
+      <c r="AR22" s="49"/>
+      <c r="AS22" s="49"/>
+      <c r="AT22" s="49"/>
+    </row>
+    <row r="23" spans="1:46">
+      <c r="A23" s="39"/>
+      <c r="B23" s="39"/>
+      <c r="C23" s="39"/>
+      <c r="D23" s="39"/>
+      <c r="E23" s="39"/>
+      <c r="F23" s="39"/>
+      <c r="G23" s="39"/>
+      <c r="H23" s="39"/>
+      <c r="I23" s="39"/>
+      <c r="J23" s="42"/>
+      <c r="K23" s="46"/>
+      <c r="L23" s="46"/>
+      <c r="M23" s="46"/>
+      <c r="N23" s="46"/>
+      <c r="O23" s="39"/>
+      <c r="P23" s="39"/>
+      <c r="Q23" s="39"/>
+      <c r="R23" s="39"/>
+      <c r="S23" s="39"/>
+      <c r="T23" s="39"/>
+      <c r="U23" s="26"/>
+      <c r="V23" s="26"/>
+      <c r="W23" s="26"/>
+      <c r="X23" s="26"/>
+      <c r="Y23" s="26"/>
+      <c r="Z23" s="26"/>
+      <c r="AA23" s="26"/>
+      <c r="AB23" s="38"/>
+      <c r="AC23" s="37"/>
+      <c r="AD23" s="38"/>
+      <c r="AE23" s="38"/>
+      <c r="AF23" s="38"/>
+      <c r="AG23" s="38"/>
+      <c r="AH23" s="38"/>
+      <c r="AI23" s="38"/>
+      <c r="AJ23" s="37"/>
+      <c r="AK23" s="37"/>
+      <c r="AL23" s="14"/>
+      <c r="AM23" s="17"/>
+      <c r="AN23" s="17"/>
+      <c r="AO23" s="17"/>
+      <c r="AP23" s="48"/>
+      <c r="AQ23" s="49"/>
+      <c r="AR23" s="49"/>
+      <c r="AS23" s="49"/>
+      <c r="AT23" s="49"/>
+    </row>
+    <row r="24" spans="1:46">
+      <c r="A24" s="39"/>
+      <c r="B24" s="39"/>
+      <c r="C24" s="39"/>
+      <c r="D24" s="39"/>
+      <c r="E24" s="39"/>
+      <c r="F24" s="39"/>
+      <c r="G24" s="39"/>
+      <c r="H24" s="39"/>
+      <c r="I24" s="39"/>
+      <c r="J24" s="42"/>
+      <c r="K24" s="46"/>
+      <c r="L24" s="46"/>
+      <c r="M24" s="46"/>
+      <c r="N24" s="46"/>
+      <c r="O24" s="39"/>
+      <c r="P24" s="39"/>
+      <c r="Q24" s="39"/>
+      <c r="R24" s="39"/>
+      <c r="S24" s="39"/>
+      <c r="T24" s="39"/>
+      <c r="U24" s="26"/>
+      <c r="V24" s="26"/>
+      <c r="W24" s="26"/>
+      <c r="X24" s="26"/>
+      <c r="Y24" s="26"/>
+      <c r="Z24" s="26"/>
+      <c r="AA24" s="26"/>
+      <c r="AB24" s="38"/>
+      <c r="AC24" s="37"/>
+      <c r="AD24" s="38"/>
+      <c r="AE24" s="38"/>
+      <c r="AF24" s="38"/>
+      <c r="AG24" s="38"/>
+      <c r="AH24" s="38"/>
+      <c r="AI24" s="38"/>
+      <c r="AJ24" s="37"/>
+      <c r="AK24" s="37"/>
+      <c r="AL24" s="14"/>
+      <c r="AM24" s="17"/>
+      <c r="AN24" s="17"/>
+      <c r="AO24" s="17"/>
+      <c r="AP24" s="48"/>
+      <c r="AQ24" s="49"/>
+      <c r="AR24" s="49"/>
+      <c r="AS24" s="49"/>
+      <c r="AT24" s="49"/>
+    </row>
+    <row r="25" spans="1:46">
+      <c r="A25" s="39"/>
+      <c r="B25" s="39"/>
+      <c r="C25" s="39"/>
+      <c r="D25" s="39"/>
+      <c r="E25" s="39"/>
+      <c r="F25" s="39"/>
+      <c r="G25" s="39"/>
+      <c r="H25" s="39"/>
+      <c r="I25" s="39"/>
+      <c r="J25" s="42"/>
+      <c r="K25" s="46"/>
+      <c r="L25" s="46"/>
+      <c r="M25" s="46"/>
+      <c r="N25" s="46"/>
+      <c r="O25" s="39"/>
+      <c r="P25" s="39"/>
+      <c r="Q25" s="39"/>
+      <c r="R25" s="39"/>
+      <c r="S25" s="39"/>
+      <c r="T25" s="39"/>
+      <c r="U25" s="26"/>
+      <c r="V25" s="26"/>
+      <c r="W25" s="26"/>
+      <c r="X25" s="26"/>
+      <c r="Y25" s="26"/>
+      <c r="Z25" s="26"/>
+      <c r="AA25" s="26"/>
+      <c r="AB25" s="38"/>
+      <c r="AC25" s="37"/>
+      <c r="AD25" s="38"/>
+      <c r="AE25" s="38"/>
+      <c r="AF25" s="38"/>
+      <c r="AG25" s="38"/>
+      <c r="AH25" s="38"/>
+      <c r="AI25" s="38"/>
+      <c r="AJ25" s="37"/>
+      <c r="AK25" s="37"/>
+      <c r="AL25" s="14"/>
+      <c r="AM25" s="17"/>
+      <c r="AN25" s="17"/>
+      <c r="AO25" s="17"/>
+      <c r="AP25" s="48"/>
+      <c r="AQ25" s="49"/>
+      <c r="AR25" s="49"/>
+      <c r="AS25" s="49"/>
+      <c r="AT25" s="49"/>
+    </row>
+    <row r="26" spans="1:46">
+      <c r="A26" s="39"/>
+      <c r="B26" s="39"/>
+      <c r="C26" s="39"/>
+      <c r="D26" s="39"/>
+      <c r="E26" s="39"/>
+      <c r="F26" s="39"/>
+      <c r="G26" s="39"/>
+      <c r="H26" s="39"/>
+      <c r="I26" s="39"/>
+      <c r="J26" s="42"/>
+      <c r="K26" s="46"/>
+      <c r="L26" s="46"/>
+      <c r="M26" s="46"/>
+      <c r="N26" s="46"/>
+      <c r="O26" s="39"/>
+      <c r="P26" s="39"/>
+      <c r="Q26" s="39"/>
+      <c r="R26" s="39"/>
+      <c r="S26" s="39"/>
+      <c r="T26" s="39"/>
+      <c r="U26" s="26"/>
+      <c r="V26" s="26"/>
+      <c r="W26" s="26"/>
+      <c r="X26" s="26"/>
+      <c r="Y26" s="26"/>
+      <c r="Z26" s="26"/>
+      <c r="AA26" s="26"/>
+      <c r="AB26" s="38"/>
+      <c r="AC26" s="37"/>
+      <c r="AD26" s="38"/>
+      <c r="AE26" s="38"/>
+      <c r="AF26" s="38"/>
+      <c r="AG26" s="38"/>
+      <c r="AH26" s="38"/>
+      <c r="AI26" s="38"/>
+      <c r="AJ26" s="37"/>
+      <c r="AK26" s="37"/>
+      <c r="AL26" s="14"/>
+      <c r="AM26" s="17"/>
+      <c r="AN26" s="17"/>
+      <c r="AO26" s="17"/>
+      <c r="AP26" s="48"/>
+      <c r="AQ26" s="49"/>
+      <c r="AR26" s="49"/>
+      <c r="AS26" s="49"/>
+      <c r="AT26" s="49"/>
+    </row>
+    <row r="27" spans="1:46">
+      <c r="A27" s="39"/>
+      <c r="B27" s="39"/>
+      <c r="C27" s="39"/>
+      <c r="D27" s="39"/>
+      <c r="E27" s="39"/>
+      <c r="F27" s="39"/>
+      <c r="G27" s="39"/>
+      <c r="H27" s="39"/>
+      <c r="I27" s="39"/>
+      <c r="J27" s="42"/>
+      <c r="K27" s="46"/>
+      <c r="L27" s="46"/>
+      <c r="M27" s="46"/>
+      <c r="N27" s="46"/>
+      <c r="O27" s="44"/>
+      <c r="P27" s="44"/>
+      <c r="Q27" s="44"/>
+      <c r="R27" s="44"/>
+      <c r="S27" s="44"/>
+      <c r="T27" s="44"/>
+      <c r="U27" s="26"/>
+      <c r="V27" s="26"/>
+      <c r="W27" s="26"/>
+      <c r="X27" s="26"/>
+      <c r="Y27" s="26"/>
+      <c r="Z27" s="26"/>
+      <c r="AA27" s="26"/>
+      <c r="AB27" s="38"/>
+      <c r="AC27" s="37"/>
+      <c r="AD27" s="38"/>
+      <c r="AE27" s="38"/>
+      <c r="AF27" s="38"/>
+      <c r="AG27" s="38"/>
+      <c r="AH27" s="38"/>
+      <c r="AI27" s="38"/>
+      <c r="AJ27" s="37"/>
+      <c r="AK27" s="37"/>
+      <c r="AL27" s="15"/>
+      <c r="AM27" s="18"/>
+      <c r="AN27" s="18"/>
+      <c r="AO27" s="18"/>
+      <c r="AP27" s="48"/>
+      <c r="AQ27" s="49"/>
+      <c r="AR27" s="49"/>
+      <c r="AS27" s="49"/>
+      <c r="AT27" s="49"/>
+    </row>
+    <row r="28" spans="1:46">
+      <c r="U28" s="27"/>
+      <c r="V28" s="27"/>
+      <c r="W28" s="27"/>
+      <c r="X28" s="27"/>
+      <c r="Y28" s="27"/>
+      <c r="Z28" s="27"/>
+      <c r="AA28" s="27"/>
+      <c r="AB28" s="38"/>
+      <c r="AC28" s="37"/>
+      <c r="AD28" s="38"/>
+      <c r="AE28" s="38"/>
+      <c r="AF28" s="38"/>
+      <c r="AG28" s="38"/>
+      <c r="AH28" s="7"/>
+      <c r="AJ28" s="37"/>
+      <c r="AK28" s="37"/>
+      <c r="AQ28" s="43"/>
+    </row>
+    <row r="29" spans="1:46">
+      <c r="D29" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="AB29" s="38"/>
+      <c r="AC29" s="37"/>
+      <c r="AD29" s="38"/>
+      <c r="AE29" s="38"/>
+      <c r="AF29" s="38"/>
+      <c r="AG29" s="38"/>
+    </row>
+    <row r="30" spans="1:46" ht="258.75">
+      <c r="D30" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="AB30" s="38"/>
+      <c r="AC30" s="37"/>
+      <c r="AD30" s="38"/>
+      <c r="AE30" s="38"/>
+      <c r="AF30" s="38"/>
+      <c r="AG30" s="38"/>
+    </row>
+    <row r="31" spans="1:46" ht="326.25">
+      <c r="D31" s="12" t="s">
         <v>151</v>
       </c>
-      <c r="E22" s="17"/>
-      <c r="F22" s="27" t="s">
-        <v>86</v>
-      </c>
-      <c r="G22" s="27" t="s">
-        <v>85</v>
-      </c>
-      <c r="H22" s="20" t="s">
-        <v>162</v>
-      </c>
-      <c r="I22" s="20" t="s">
-        <v>163</v>
-      </c>
-      <c r="J22" s="20" t="s">
-        <v>164</v>
-      </c>
-      <c r="K22" s="20" t="s">
-        <v>165</v>
-      </c>
-      <c r="L22" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="M22" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="N22" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="O22" s="9" t="s">
-        <v>149</v>
-      </c>
-      <c r="P22" s="9" t="s">
-        <v>150</v>
-      </c>
-      <c r="Q22" s="9" t="s">
-        <v>155</v>
-      </c>
-      <c r="R22" s="9" t="s">
-        <v>156</v>
-      </c>
-      <c r="S22" s="9" t="s">
-        <v>157</v>
-      </c>
-      <c r="T22" s="9" t="s">
-        <v>161</v>
-      </c>
-      <c r="U22" s="9" t="s">
-        <v>166</v>
-      </c>
-      <c r="V22" s="9" t="s">
-        <v>167</v>
-      </c>
-      <c r="W22" s="9" t="s">
-        <v>168</v>
-      </c>
-      <c r="X22" s="9" t="s">
-        <v>158</v>
-      </c>
-      <c r="Y22" s="9" t="s">
-        <v>159</v>
-      </c>
-      <c r="Z22" s="9" t="s">
-        <v>160</v>
-      </c>
-      <c r="AA22" s="20" t="s">
-        <v>173</v>
-      </c>
-      <c r="AB22" s="20" t="s">
-        <v>174</v>
-      </c>
-      <c r="AC22" s="24" t="s">
-        <v>170</v>
-      </c>
-      <c r="AD22" s="24" t="s">
-        <v>169</v>
-      </c>
-      <c r="AE22" s="24" t="s">
-        <v>171</v>
-      </c>
-      <c r="AF22" s="24" t="s">
-        <v>172</v>
-      </c>
-      <c r="AG22" s="24" t="s">
-        <v>179</v>
-      </c>
-      <c r="AH22" s="24" t="s">
-        <v>180</v>
-      </c>
-      <c r="AI22" s="24" t="s">
-        <v>181</v>
-      </c>
-      <c r="AJ22" s="27" t="s">
-        <v>184</v>
-      </c>
-      <c r="AK22" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="AL22" s="21" t="s">
-        <v>177</v>
-      </c>
-      <c r="AM22" s="5" t="s">
-        <v>176</v>
-      </c>
-      <c r="AN22" s="5" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="23" spans="1:40">
-      <c r="A23" s="6"/>
-      <c r="B23" s="6"/>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="18"/>
-      <c r="F23" s="27"/>
-      <c r="G23" s="27"/>
-      <c r="H23" s="20"/>
-      <c r="I23" s="20"/>
-      <c r="J23" s="20"/>
-      <c r="K23" s="20"/>
-      <c r="L23" s="9"/>
-      <c r="M23" s="9"/>
-      <c r="N23" s="9"/>
-      <c r="O23" s="9"/>
-      <c r="P23" s="9"/>
-      <c r="Q23" s="9"/>
-      <c r="R23" s="9"/>
-      <c r="S23" s="9"/>
-      <c r="T23" s="9"/>
-      <c r="U23" s="9"/>
-      <c r="V23" s="9"/>
-      <c r="W23" s="9"/>
-      <c r="X23" s="9"/>
-      <c r="Y23" s="9"/>
-      <c r="Z23" s="9"/>
-      <c r="AA23" s="20"/>
-      <c r="AB23" s="20"/>
-      <c r="AC23" s="25"/>
-      <c r="AD23" s="25"/>
-      <c r="AE23" s="25"/>
-      <c r="AF23" s="25"/>
-      <c r="AG23" s="25"/>
-      <c r="AH23" s="25"/>
-      <c r="AI23" s="25"/>
-      <c r="AJ23" s="27"/>
-      <c r="AK23" s="27"/>
-      <c r="AL23" s="22"/>
-      <c r="AM23" s="6"/>
-      <c r="AN23" s="6"/>
-    </row>
-    <row r="24" spans="1:40">
-      <c r="A24" s="6"/>
-      <c r="B24" s="6"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="18"/>
-      <c r="F24" s="27"/>
-      <c r="G24" s="27"/>
-      <c r="H24" s="20"/>
-      <c r="I24" s="20"/>
-      <c r="J24" s="20"/>
-      <c r="K24" s="20"/>
-      <c r="L24" s="9"/>
-      <c r="M24" s="9"/>
-      <c r="N24" s="9"/>
-      <c r="O24" s="9"/>
-      <c r="P24" s="9"/>
-      <c r="Q24" s="9"/>
-      <c r="R24" s="9"/>
-      <c r="S24" s="9"/>
-      <c r="T24" s="9"/>
-      <c r="U24" s="9"/>
-      <c r="V24" s="9"/>
-      <c r="W24" s="9"/>
-      <c r="X24" s="9"/>
-      <c r="Y24" s="9"/>
-      <c r="Z24" s="9"/>
-      <c r="AA24" s="20"/>
-      <c r="AB24" s="20"/>
-      <c r="AC24" s="25"/>
-      <c r="AD24" s="25"/>
-      <c r="AE24" s="25"/>
-      <c r="AF24" s="25"/>
-      <c r="AG24" s="25"/>
-      <c r="AH24" s="25"/>
-      <c r="AI24" s="25"/>
-      <c r="AJ24" s="27"/>
-      <c r="AK24" s="27"/>
-      <c r="AL24" s="22"/>
-      <c r="AM24" s="6"/>
-      <c r="AN24" s="6"/>
-    </row>
-    <row r="25" spans="1:40">
-      <c r="A25" s="7"/>
-      <c r="B25" s="7"/>
-      <c r="C25" s="7"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="19"/>
-      <c r="F25" s="27"/>
-      <c r="G25" s="27"/>
-      <c r="H25" s="20"/>
-      <c r="I25" s="20"/>
-      <c r="J25" s="20"/>
-      <c r="K25" s="20"/>
-      <c r="L25" s="9"/>
-      <c r="M25" s="9"/>
-      <c r="N25" s="9"/>
-      <c r="O25" s="9"/>
-      <c r="P25" s="9"/>
-      <c r="Q25" s="9"/>
-      <c r="R25" s="9"/>
-      <c r="S25" s="9"/>
-      <c r="T25" s="9"/>
-      <c r="U25" s="9"/>
-      <c r="V25" s="9"/>
-      <c r="W25" s="9"/>
-      <c r="X25" s="9"/>
-      <c r="Y25" s="9"/>
-      <c r="Z25" s="9"/>
-      <c r="AA25" s="20"/>
-      <c r="AB25" s="20"/>
-      <c r="AC25" s="25"/>
-      <c r="AD25" s="25"/>
-      <c r="AE25" s="25"/>
-      <c r="AF25" s="25"/>
-      <c r="AG25" s="25"/>
-      <c r="AH25" s="25"/>
-      <c r="AI25" s="25"/>
-      <c r="AJ25" s="27"/>
-      <c r="AK25" s="27"/>
-      <c r="AL25" s="22"/>
-      <c r="AM25" s="6"/>
-      <c r="AN25" s="6"/>
-    </row>
-    <row r="26" spans="1:40">
-      <c r="F26" s="27"/>
-      <c r="G26" s="27"/>
-      <c r="H26" s="20"/>
-      <c r="I26" s="20"/>
-      <c r="J26" s="20"/>
-      <c r="K26" s="20"/>
-      <c r="L26" s="9"/>
-      <c r="M26" s="9"/>
-      <c r="N26" s="9"/>
-      <c r="O26" s="9"/>
-      <c r="P26" s="9"/>
-      <c r="Q26" s="9"/>
-      <c r="R26" s="9"/>
-      <c r="S26" s="9"/>
-      <c r="T26" s="9"/>
-      <c r="U26" s="9"/>
-      <c r="V26" s="9"/>
-      <c r="W26" s="9"/>
-      <c r="X26" s="9"/>
-      <c r="Y26" s="9"/>
-      <c r="Z26" s="9"/>
-      <c r="AA26" s="20"/>
-      <c r="AB26" s="20"/>
-      <c r="AC26" s="25"/>
-      <c r="AD26" s="25"/>
-      <c r="AE26" s="25"/>
-      <c r="AF26" s="25"/>
-      <c r="AG26" s="25"/>
-      <c r="AH26" s="25"/>
-      <c r="AI26" s="25"/>
-      <c r="AJ26" s="27"/>
-      <c r="AK26" s="27"/>
-      <c r="AL26" s="22"/>
-      <c r="AM26" s="6"/>
-      <c r="AN26" s="6"/>
-    </row>
-    <row r="27" spans="1:40">
-      <c r="D27" s="42" t="s">
-        <v>18</v>
-      </c>
-      <c r="F27" s="27"/>
-      <c r="G27" s="27"/>
-      <c r="H27" s="20"/>
-      <c r="I27" s="20"/>
-      <c r="J27" s="20"/>
-      <c r="K27" s="20"/>
-      <c r="AA27" s="20"/>
-      <c r="AB27" s="20"/>
-      <c r="AC27" s="25"/>
-      <c r="AD27" s="25"/>
-      <c r="AE27" s="25"/>
-      <c r="AF27" s="25"/>
-      <c r="AG27" s="25"/>
-      <c r="AH27" s="25"/>
-      <c r="AI27" s="25"/>
-      <c r="AJ27" s="27"/>
-      <c r="AK27" s="27"/>
-      <c r="AL27" s="23"/>
-      <c r="AM27" s="7"/>
-      <c r="AN27" s="7"/>
-    </row>
-    <row r="28" spans="1:40" ht="258.75">
-      <c r="D28" s="44" t="s">
+      <c r="AB31" s="38"/>
+      <c r="AC31" s="37"/>
+      <c r="AD31" s="38"/>
+      <c r="AE31" s="38"/>
+      <c r="AF31" s="38"/>
+      <c r="AG31" s="38"/>
+    </row>
+    <row r="32" spans="1:46" ht="112.5">
+      <c r="D32" s="10" t="s">
         <v>152</v>
       </c>
-      <c r="F28" s="27"/>
-      <c r="G28" s="27"/>
-      <c r="H28" s="20"/>
-      <c r="I28" s="20"/>
-      <c r="J28" s="20"/>
-      <c r="K28" s="20"/>
-      <c r="AA28" s="30"/>
-      <c r="AC28" s="26"/>
-      <c r="AD28" s="26"/>
-      <c r="AE28" s="26"/>
-      <c r="AF28" s="26"/>
-      <c r="AG28" s="26"/>
-      <c r="AH28" s="26"/>
-      <c r="AI28" s="26"/>
-      <c r="AJ28" s="27"/>
-      <c r="AK28" s="27"/>
-    </row>
-    <row r="29" spans="1:40" ht="326.25">
-      <c r="D29" s="45" t="s">
-        <v>153</v>
-      </c>
-      <c r="F29" s="27"/>
-      <c r="G29" s="27"/>
-      <c r="H29" s="20"/>
-      <c r="I29" s="20"/>
-      <c r="J29" s="20"/>
-      <c r="K29" s="20"/>
-    </row>
-    <row r="30" spans="1:40" ht="112.5">
-      <c r="D30" s="43" t="s">
-        <v>154</v>
-      </c>
-      <c r="F30" s="27"/>
-      <c r="G30" s="27"/>
-      <c r="H30" s="20"/>
-      <c r="I30" s="20"/>
-      <c r="J30" s="20"/>
-      <c r="K30" s="20"/>
-    </row>
-    <row r="31" spans="1:40">
-      <c r="F31" s="27"/>
-      <c r="G31" s="27"/>
-      <c r="H31" s="20"/>
-      <c r="I31" s="20"/>
-      <c r="J31" s="20"/>
-      <c r="K31" s="20"/>
-    </row>
-    <row r="32" spans="1:40">
-      <c r="F32" s="27"/>
-      <c r="G32" s="27"/>
-      <c r="H32" s="20"/>
-      <c r="I32" s="20"/>
-      <c r="J32" s="20"/>
-      <c r="K32" s="20"/>
-    </row>
-    <row r="33" spans="6:11">
-      <c r="F33" s="27"/>
-      <c r="G33" s="27"/>
-      <c r="H33" s="20"/>
-      <c r="I33" s="20"/>
-      <c r="J33" s="20"/>
-      <c r="K33" s="20"/>
-    </row>
-    <row r="34" spans="6:11">
-      <c r="F34" s="27"/>
-      <c r="G34" s="27"/>
-      <c r="H34" s="20"/>
-      <c r="I34" s="20"/>
-      <c r="J34" s="20"/>
-      <c r="K34" s="20"/>
-    </row>
-    <row r="35" spans="6:11">
-      <c r="F35" s="27"/>
-      <c r="G35" s="27"/>
-      <c r="H35" s="20"/>
-      <c r="I35" s="20"/>
-      <c r="J35" s="20"/>
-      <c r="K35" s="20"/>
-    </row>
-    <row r="36" spans="6:11">
-      <c r="F36" s="27"/>
-      <c r="G36" s="27"/>
-      <c r="H36" s="20"/>
-      <c r="I36" s="20"/>
-      <c r="J36" s="20"/>
-      <c r="K36" s="20"/>
-    </row>
-    <row r="37" spans="6:11">
-      <c r="F37" s="27"/>
-      <c r="G37" s="27"/>
-      <c r="H37" s="20"/>
-      <c r="I37" s="20"/>
-      <c r="J37" s="20"/>
-      <c r="K37" s="20"/>
-    </row>
-    <row r="38" spans="6:11">
-      <c r="F38" s="27"/>
-      <c r="G38" s="27"/>
-      <c r="H38" s="20"/>
-      <c r="I38" s="20"/>
-      <c r="J38" s="20"/>
-      <c r="K38" s="20"/>
+      <c r="AB32" s="38"/>
+      <c r="AC32" s="37"/>
+      <c r="AD32" s="38"/>
+      <c r="AE32" s="38"/>
+      <c r="AF32" s="38"/>
+      <c r="AG32" s="38"/>
+    </row>
+    <row r="33" spans="28:33">
+      <c r="AB33" s="38"/>
+      <c r="AC33" s="37"/>
+      <c r="AD33" s="38"/>
+      <c r="AE33" s="38"/>
+      <c r="AF33" s="38"/>
+      <c r="AG33" s="38"/>
+    </row>
+    <row r="34" spans="28:33">
+      <c r="AB34" s="38"/>
+      <c r="AC34" s="37"/>
+      <c r="AD34" s="38"/>
+      <c r="AE34" s="38"/>
+      <c r="AF34" s="38"/>
+      <c r="AG34" s="38"/>
+    </row>
+    <row r="35" spans="28:33">
+      <c r="AB35" s="38"/>
+      <c r="AC35" s="37"/>
+      <c r="AD35" s="38"/>
+      <c r="AE35" s="38"/>
+      <c r="AF35" s="38"/>
+      <c r="AG35" s="38"/>
+    </row>
+    <row r="36" spans="28:33">
+      <c r="AB36" s="38"/>
+      <c r="AC36" s="37"/>
+      <c r="AD36" s="38"/>
+      <c r="AE36" s="38"/>
+      <c r="AF36" s="38"/>
+      <c r="AG36" s="38"/>
+    </row>
+    <row r="37" spans="28:33">
+      <c r="AB37" s="38"/>
+      <c r="AC37" s="37"/>
+      <c r="AD37" s="38"/>
+      <c r="AE37" s="38"/>
+      <c r="AF37" s="38"/>
+      <c r="AG37" s="38"/>
+    </row>
+    <row r="38" spans="28:33">
+      <c r="AB38" s="38"/>
+      <c r="AC38" s="37"/>
+      <c r="AD38" s="38"/>
+      <c r="AE38" s="38"/>
+      <c r="AF38" s="38"/>
+      <c r="AG38" s="38"/>
     </row>
   </sheetData>
-  <mergeCells count="46">
-    <mergeCell ref="AL22:AL27"/>
-    <mergeCell ref="AM22:AM27"/>
-    <mergeCell ref="AL19:AM21"/>
-    <mergeCell ref="AG22:AG28"/>
-    <mergeCell ref="AH22:AH28"/>
-    <mergeCell ref="AI22:AI28"/>
+  <mergeCells count="54">
+    <mergeCell ref="AO19:AO21"/>
+    <mergeCell ref="AO22:AO27"/>
+    <mergeCell ref="AP22:AT27"/>
+    <mergeCell ref="AC19:AC21"/>
+    <mergeCell ref="AD19:AF21"/>
+    <mergeCell ref="AG19:AG21"/>
+    <mergeCell ref="B19:AA21"/>
+    <mergeCell ref="A22:A27"/>
+    <mergeCell ref="B22:B27"/>
+    <mergeCell ref="C22:C27"/>
+    <mergeCell ref="D22:D27"/>
+    <mergeCell ref="E22:E27"/>
+    <mergeCell ref="F22:F27"/>
+    <mergeCell ref="G22:G27"/>
+    <mergeCell ref="H22:H27"/>
+    <mergeCell ref="I22:I27"/>
+    <mergeCell ref="J22:J27"/>
+    <mergeCell ref="K22:K27"/>
+    <mergeCell ref="L22:L27"/>
+    <mergeCell ref="AB19:AB21"/>
+    <mergeCell ref="M22:M27"/>
+    <mergeCell ref="N22:N27"/>
+    <mergeCell ref="AG22:AG38"/>
+    <mergeCell ref="P22:P26"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="AC22:AC38"/>
+    <mergeCell ref="AB22:AB38"/>
+    <mergeCell ref="W22:W28"/>
+    <mergeCell ref="X22:X28"/>
+    <mergeCell ref="Q22:Q26"/>
+    <mergeCell ref="R22:R26"/>
+    <mergeCell ref="S22:S26"/>
+    <mergeCell ref="T22:T26"/>
+    <mergeCell ref="O22:O26"/>
+    <mergeCell ref="AD22:AD38"/>
+    <mergeCell ref="AE22:AE38"/>
+    <mergeCell ref="AF22:AF38"/>
+    <mergeCell ref="AH22:AH27"/>
+    <mergeCell ref="AI22:AI27"/>
+    <mergeCell ref="AH19:AI21"/>
+    <mergeCell ref="U22:U28"/>
+    <mergeCell ref="V22:V28"/>
     <mergeCell ref="AN22:AN27"/>
     <mergeCell ref="AN19:AN21"/>
     <mergeCell ref="AJ19:AK21"/>
     <mergeCell ref="AJ22:AJ28"/>
     <mergeCell ref="AK22:AK28"/>
-    <mergeCell ref="AA22:AA27"/>
-    <mergeCell ref="AB22:AB27"/>
-    <mergeCell ref="AA19:AB21"/>
-    <mergeCell ref="AC22:AC28"/>
-    <mergeCell ref="AD22:AD28"/>
-    <mergeCell ref="AE22:AE28"/>
-    <mergeCell ref="AF22:AF28"/>
-    <mergeCell ref="W22:W26"/>
-    <mergeCell ref="P22:P26"/>
-    <mergeCell ref="D22:D25"/>
-    <mergeCell ref="Q22:Q26"/>
-    <mergeCell ref="R22:R26"/>
-    <mergeCell ref="S22:S26"/>
-    <mergeCell ref="X22:X26"/>
-    <mergeCell ref="Y22:Y26"/>
-    <mergeCell ref="Z22:Z26"/>
-    <mergeCell ref="T22:T26"/>
-    <mergeCell ref="U22:U26"/>
-    <mergeCell ref="H22:H38"/>
-    <mergeCell ref="I22:I38"/>
-    <mergeCell ref="J22:J38"/>
-    <mergeCell ref="K22:K38"/>
-    <mergeCell ref="V22:V26"/>
-    <mergeCell ref="A22:A25"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="E22:E25"/>
-    <mergeCell ref="G22:G38"/>
-    <mergeCell ref="F22:F38"/>
-    <mergeCell ref="B22:B25"/>
-    <mergeCell ref="C22:C25"/>
-    <mergeCell ref="L22:L26"/>
-    <mergeCell ref="M22:M26"/>
-    <mergeCell ref="N22:N26"/>
-    <mergeCell ref="O22:O26"/>
+    <mergeCell ref="AL22:AL27"/>
+    <mergeCell ref="AM22:AM27"/>
+    <mergeCell ref="AL19:AM21"/>
+    <mergeCell ref="Y22:Y28"/>
+    <mergeCell ref="Z22:Z28"/>
+    <mergeCell ref="AA22:AA28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/Documentação/Planilhas/Conferencia_DEV.xlsx
+++ b/Documentação/Planilhas/Conferencia_DEV.xlsx
@@ -4,18 +4,19 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="7995" tabRatio="812"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="7995" tabRatio="812" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="stg_dev_devolucao" sheetId="95" r:id="rId1"/>
     <sheet name="Plan1" sheetId="102" r:id="rId2"/>
+    <sheet name="stg_dev_devolucao (2)" sheetId="104" r:id="rId3"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="611" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1168" uniqueCount="286">
   <si>
     <t>1</t>
   </si>
@@ -68,18 +69,9 @@
     <t>5</t>
   </si>
   <si>
-    <t>10000.0000</t>
-  </si>
-  <si>
     <t>Os códigos utilizados são:</t>
   </si>
   <si>
-    <t>50.0000</t>
-  </si>
-  <si>
-    <t>5000.0000</t>
-  </si>
-  <si>
     <t>dbo.stg_dev_devolucao</t>
   </si>
   <si>
@@ -206,21 +198,6 @@
     <t>10</t>
   </si>
   <si>
-    <t>900000764</t>
-  </si>
-  <si>
-    <t>300.0000</t>
-  </si>
-  <si>
-    <t>11772.0000</t>
-  </si>
-  <si>
-    <t>65400.0000</t>
-  </si>
-  <si>
-    <t>71940.0000</t>
-  </si>
-  <si>
     <t>SIT</t>
   </si>
   <si>
@@ -230,37 +207,10 @@
     <t>BRA</t>
   </si>
   <si>
-    <t>106.9688</t>
-  </si>
-  <si>
     <t>30</t>
   </si>
   <si>
-    <t>1187.0100</t>
-  </si>
-  <si>
-    <t>5467.4400</t>
-  </si>
-  <si>
     <t>N00002</t>
-  </si>
-  <si>
-    <t>65.0000</t>
-  </si>
-  <si>
-    <t>220.5800</t>
-  </si>
-  <si>
-    <t>1838.2000</t>
-  </si>
-  <si>
-    <t>2022.0200</t>
-  </si>
-  <si>
-    <t>33.3600</t>
-  </si>
-  <si>
-    <t>153.6700</t>
   </si>
   <si>
     <t>Pegar os dados da primeira informação da coluna Documento Fiscal</t>
@@ -285,15 +235,9 @@
     <t>13221</t>
   </si>
   <si>
-    <t>2014-07-04 17:51:26.000</t>
-  </si>
-  <si>
     <t>1411</t>
   </si>
   <si>
-    <t>2014-07-04 14:51:26.000</t>
-  </si>
-  <si>
     <t>000002707</t>
   </si>
   <si>
@@ -303,160 +247,34 @@
     <t>WMS</t>
   </si>
   <si>
-    <t>2014-07-04 17:37:57.000</t>
-  </si>
-  <si>
-    <t>900000570</t>
-  </si>
-  <si>
-    <t>15.0000</t>
-  </si>
-  <si>
-    <t>961.4600</t>
-  </si>
-  <si>
-    <t>13734.7100</t>
-  </si>
-  <si>
-    <t>18120.4200</t>
-  </si>
-  <si>
     <t>V20006500</t>
   </si>
   <si>
-    <t>2014-06-16 20:56:00.000</t>
-  </si>
-  <si>
     <t>01000</t>
   </si>
   <si>
     <t>SP</t>
   </si>
   <si>
-    <t>824.0827</t>
-  </si>
-  <si>
     <t>66</t>
   </si>
   <si>
-    <t>249.2800</t>
-  </si>
-  <si>
-    <t>1148.2200</t>
-  </si>
-  <si>
     <t>TESTE</t>
   </si>
   <si>
-    <t>900000552</t>
-  </si>
-  <si>
-    <t>50.7860</t>
-  </si>
-  <si>
     <t>1679027</t>
   </si>
   <si>
-    <t>1.0000</t>
-  </si>
-  <si>
     <t>611.0000</t>
   </si>
   <si>
     <t>9.9900</t>
   </si>
   <si>
-    <t>620.9900</t>
-  </si>
-  <si>
     <t>395.0000</t>
   </si>
   <si>
-    <t>10.2500</t>
-  </si>
-  <si>
-    <t>47.2000</t>
-  </si>
-  <si>
-    <t>900000534</t>
-  </si>
-  <si>
-    <t>51.0000</t>
-  </si>
-  <si>
-    <t>2866.1500</t>
-  </si>
-  <si>
-    <t>40943.7600</t>
-  </si>
-  <si>
-    <t>54017.7500</t>
-  </si>
-  <si>
-    <t>977.4847</t>
-  </si>
-  <si>
-    <t>743.1300</t>
-  </si>
-  <si>
-    <t>3422.9000</t>
-  </si>
-  <si>
-    <t>1947045</t>
-  </si>
-  <si>
-    <t>1000.0000</t>
-  </si>
-  <si>
-    <t>44460.0000</t>
-  </si>
-  <si>
-    <t>247000.0000</t>
-  </si>
-  <si>
-    <t>371428.8400</t>
-  </si>
-  <si>
-    <t>247.0000</t>
-  </si>
-  <si>
-    <t>5501.9300</t>
-  </si>
-  <si>
-    <t>25342.2000</t>
-  </si>
-  <si>
-    <t>176.4214</t>
-  </si>
-  <si>
     <t>100.0000</t>
-  </si>
-  <si>
-    <t>1800.0000</t>
-  </si>
-  <si>
-    <t>11000.0000</t>
-  </si>
-  <si>
-    <t>181.5000</t>
-  </si>
-  <si>
-    <t>836.0000</t>
-  </si>
-  <si>
-    <t>13422382</t>
-  </si>
-  <si>
-    <t>900.0000</t>
-  </si>
-  <si>
-    <t>5500.0000</t>
-  </si>
-  <si>
-    <t>90.7500</t>
-  </si>
-  <si>
-    <t>418.0000</t>
   </si>
   <si>
     <t>Fazer o detalhamento da NF e Série desejada. Na aba Relações, seção "Relação - Para", pegar a informação de "Parceiro Neg. faturado para:"</t>
@@ -534,9 +352,6 @@
     <t>Fazer o detalhamento da NF e Série desejada. Na aba inferior Linhas, pegar a segunda informação da coluna "Item"</t>
   </si>
   <si>
-    <t>Fazer o detalhamento da NF e Série desejada. Na aba inferior Linhas, pegar a informação da coluna "Quantidade"</t>
-  </si>
-  <si>
     <t>Fazer o detalhamento da NF e Série desejada. Na aba inferior Linhas, pegar a informação da coluna "Valor Mercadoria"</t>
   </si>
   <si>
@@ -694,12 +509,468 @@
   <si>
     <t>tdrecl504m50l, tcmcs0565m000, tcemm0130m000, tccom4500m000, tccom4539m000, znslsc500s000, tdsls4100m000, znslsc510m000, whina1512m000 e znslsc507m000</t>
   </si>
+  <si>
+    <t>71101</t>
+  </si>
+  <si>
+    <t>2014-07-11 19:56:06.000</t>
+  </si>
+  <si>
+    <t>2014-07-11 16:40:09.000</t>
+  </si>
+  <si>
+    <t>000000323</t>
+  </si>
+  <si>
+    <t>NFE</t>
+  </si>
+  <si>
+    <t>2014-07-11 16:40:38.000</t>
+  </si>
+  <si>
+    <t>R60000103</t>
+  </si>
+  <si>
+    <t>1806090</t>
+  </si>
+  <si>
+    <t>-1.0000</t>
+  </si>
+  <si>
+    <t>100000047</t>
+  </si>
+  <si>
+    <t>2014-06-16 17:56:00.000</t>
+  </si>
+  <si>
+    <t>147.8712</t>
+  </si>
+  <si>
+    <t>126</t>
+  </si>
+  <si>
+    <t>2014-06-18 12:00:46.000</t>
+  </si>
+  <si>
+    <t>1969-12-31 21:00:00.000</t>
+  </si>
+  <si>
+    <t>000002672</t>
+  </si>
+  <si>
+    <t>050017185</t>
+  </si>
+  <si>
+    <t>2014-06-17 18:11:50.000</t>
+  </si>
+  <si>
+    <t>209457</t>
+  </si>
+  <si>
+    <t>16.1800</t>
+  </si>
+  <si>
+    <t>89.9100</t>
+  </si>
+  <si>
+    <t>4.9900</t>
+  </si>
+  <si>
+    <t>V20004746</t>
+  </si>
+  <si>
+    <t>2014-06-07 09:57:00.000</t>
+  </si>
+  <si>
+    <t>22745</t>
+  </si>
+  <si>
+    <t>RJ</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>1.5700</t>
+  </si>
+  <si>
+    <t>7.2100</t>
+  </si>
+  <si>
+    <t>Teste</t>
+  </si>
+  <si>
+    <t>972</t>
+  </si>
+  <si>
+    <t>2014-07-02 11:41:42.000</t>
+  </si>
+  <si>
+    <t>2014-06-30 11:27:04.000</t>
+  </si>
+  <si>
+    <t>042186538</t>
+  </si>
+  <si>
+    <t>2014-06-30 15:11:45.000</t>
+  </si>
+  <si>
+    <t>R60000083</t>
+  </si>
+  <si>
+    <t>V20005911</t>
+  </si>
+  <si>
+    <t>228</t>
+  </si>
+  <si>
+    <t>10.0800</t>
+  </si>
+  <si>
+    <t>46.4400</t>
+  </si>
+  <si>
+    <t>R00001515</t>
+  </si>
+  <si>
+    <t>70301</t>
+  </si>
+  <si>
+    <t>2014-07-02 19:56:21.000</t>
+  </si>
+  <si>
+    <t>2014-07-02 19:07:37.000</t>
+  </si>
+  <si>
+    <t>000000287</t>
+  </si>
+  <si>
+    <t>2014-07-02 19:59:33.000</t>
+  </si>
+  <si>
+    <t>R60000084</t>
+  </si>
+  <si>
+    <t>V20006367</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>R00001525</t>
+  </si>
+  <si>
+    <t>1129</t>
+  </si>
+  <si>
+    <t>2014-07-11 16:46:43.000</t>
+  </si>
+  <si>
+    <t>2411</t>
+  </si>
+  <si>
+    <t>2014-07-03 12:14:57.000</t>
+  </si>
+  <si>
+    <t>050016603</t>
+  </si>
+  <si>
+    <t>2014-07-03 14:33:06.000</t>
+  </si>
+  <si>
+    <t>R60000105</t>
+  </si>
+  <si>
+    <t>V20006400</t>
+  </si>
+  <si>
+    <t>2014-06-07 05:26:00.000</t>
+  </si>
+  <si>
+    <t>55</t>
+  </si>
+  <si>
+    <t>R00001710</t>
+  </si>
+  <si>
+    <t>troca pelo mesmo item</t>
+  </si>
+  <si>
+    <t>2014-07-04 14:38:21.000</t>
+  </si>
+  <si>
+    <t>2014-07-04 14:06:38.000</t>
+  </si>
+  <si>
+    <t>2014-07-04 14:07:12.000</t>
+  </si>
+  <si>
+    <t>R60000089</t>
+  </si>
+  <si>
+    <t>3432</t>
+  </si>
+  <si>
+    <t>2014-07-04 15:54:52.000</t>
+  </si>
+  <si>
+    <t>2014-07-04 14:09:09.000</t>
+  </si>
+  <si>
+    <t>000000298</t>
+  </si>
+  <si>
+    <t>2014-07-04 14:09:38.000</t>
+  </si>
+  <si>
+    <t>R60000090</t>
+  </si>
+  <si>
+    <t>V20006501</t>
+  </si>
+  <si>
+    <t>67</t>
+  </si>
+  <si>
+    <t>R00001547</t>
+  </si>
+  <si>
+    <t>1107</t>
+  </si>
+  <si>
+    <t>J2</t>
+  </si>
+  <si>
+    <t>2014-07-11 14:39:47.000</t>
+  </si>
+  <si>
+    <t>2014-07-04 14:05:12.000</t>
+  </si>
+  <si>
+    <t>000002809</t>
+  </si>
+  <si>
+    <t>000002731</t>
+  </si>
+  <si>
+    <t>42187799</t>
+  </si>
+  <si>
+    <t>2014-07-10 16:27:29.000</t>
+  </si>
+  <si>
+    <t>R60000102</t>
+  </si>
+  <si>
+    <t>129441</t>
+  </si>
+  <si>
+    <t>26.5800</t>
+  </si>
+  <si>
+    <t>219.9000</t>
+  </si>
+  <si>
+    <t>1.5800</t>
+  </si>
+  <si>
+    <t>V20006506</t>
+  </si>
+  <si>
+    <t>2014-07-04 11:07:00.000</t>
+  </si>
+  <si>
+    <t>122.2200</t>
+  </si>
+  <si>
+    <t>247</t>
+  </si>
+  <si>
+    <t>R00001687</t>
+  </si>
+  <si>
+    <t>70302</t>
+  </si>
+  <si>
+    <t>2014-07-03 16:32:21.000</t>
+  </si>
+  <si>
+    <t>2014-07-03 16:28:08.000</t>
+  </si>
+  <si>
+    <t>000000288</t>
+  </si>
+  <si>
+    <t>2014-07-03 16:30:56.000</t>
+  </si>
+  <si>
+    <t>R60000085</t>
+  </si>
+  <si>
+    <t>V20006423</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>R00001536</t>
+  </si>
+  <si>
+    <t>2014-07-03 18:12:21.000</t>
+  </si>
+  <si>
+    <t>2014-07-03 17:42:08.000</t>
+  </si>
+  <si>
+    <t>000000290</t>
+  </si>
+  <si>
+    <t>2014-07-03 17:42:40.000</t>
+  </si>
+  <si>
+    <t>V20006449</t>
+  </si>
+  <si>
+    <t>61</t>
+  </si>
+  <si>
+    <t>Pegar as informações da coluna "Referência Fiscal"</t>
+  </si>
+  <si>
+    <t>Na aba inferior "Linhas - Nota Fiscal", pegar a informação da coluna item [que não seja FRETE]</t>
+  </si>
+  <si>
+    <t>Na aba inferior "Linhas - Nota Fiscal", pegar a informação da coluna Valor da Mercadoria [que não seja FRETE]</t>
+  </si>
+  <si>
+    <t>Na aba inferior Linhas, pedir o detalhamento da linha do item desejado. Na aba inferior " Imposto por Linha Rec Fiscal", pegar a informação da coluna "Valor" referente ao Tipo de Imposto = ICMS</t>
+  </si>
+  <si>
+    <t>Na aba inferior Linhas, pedir o detalhamento da linha do item desejado. Na aba inferior " Imposto por Linha Rec Fiscal", pegar a informação da coluna "Valor" referente ao Tipo de Imposto = PIS</t>
+  </si>
+  <si>
+    <t>Na aba inferior Linhas, pedir o detalhamento da linha do item desejado. Na aba inferior " Imposto por Linha Rec Fiscal", pegar a informação da coluna "Valor" referente ao Tipo de Imposto = COFINS</t>
+  </si>
+  <si>
+    <t>Na aba inferior "Linhas - Nota Fiscal", pedir o detalhamento da linha [diferente de Frete]. Na aba superior "Outros", seção "Despesas Gerais" pegar a informação do Frete</t>
+  </si>
+  <si>
+    <t>Na aba inferior "Linhas - Nota Fiscal", pedir o detalhamento da linha [diferente de Frete]. Na aba superior "Outros", seção "Despesas Gerais" pegar a informação de Despesas Gerais</t>
+  </si>
+  <si>
+    <t>Na aba inferior "Linhas - Nota Fiscal", pedir o detalhamento da linha [diferente de Frete]. Na aba superior "Geral", seção "Dados de Vendas" pegar a informação de Valor Total de Desconto</t>
+  </si>
+  <si>
+    <t>Sessão cislil504m00l [Fazer o detalhamento da NF e série desejada na sessão "tdrecl504m50l". Selecionar a aba inferior Linhas e pedir o detalhamento da linha apresentada. Na aba superior NOVA, pegar a informação de "Dev. Venda - Referência" e informá-la na coluna Referência Fiscal, fazendo o detalhamento da mesma na sequência nesta sessão]</t>
+  </si>
+  <si>
+    <t>Sessão znslsc501m000 [Fazer o detalhamento da NF e série desejada na sessão "tdrecl504m50l". Selecionar a aba inferior Linhas e pedir o detalhamento da linha apresentada. Na aba inferior "Dados de Origem", pegar a informação da coluna "Ordem" e informá-la na coluna "Ordem de Venda LN" nesta sessão. Com a seta "Next Group" ir procurando até encontrar a mesma]</t>
+  </si>
+  <si>
+    <t>Pegar a informação da Unidade de Negócio existente no cabeçalho da tela quando o registro for encontrado</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Pegar a informação da coluna "Nr do pedido  de cliente a ser devolvido ou trocado"</t>
+  </si>
+  <si>
+    <t>Encontrando a informação, retirar o filtro feito na coluna "Ordem de Venda LN" e pegar a informação da coluna  Nr Entrega a ser devolvida ou trocada. Em seguida, procurar esse número na coluna "Entrega". Encontrando o mesmo, pegar a informação da coluna "Nr Ordem de Venda LN"</t>
+  </si>
+  <si>
+    <t>Pegar a informação da coluna "Sequencial"</t>
+  </si>
+  <si>
+    <t>Pegar a informação da coluna "Qtde Vendida"</t>
+  </si>
+  <si>
+    <t>Fazer o detalhamento da linha encontrada. Na aba "Devoluçao ou Troca", pegar a informação de "Laudo Categoria - Etiqueta WMS"</t>
+  </si>
+  <si>
+    <t>Fazer o detalhamento da linha encontrada. Na aba "Devoluçao ou Troca", pegar a informação de "Laudo Assunto - Etiqueta WMS"</t>
+  </si>
+  <si>
+    <t>Fazer o detalhamento da linha encontrada. Na aba "Devoluçao ou Troca", pegar a informação de "Laudo Motivo - Etiqueta WMS"</t>
+  </si>
+  <si>
+    <t>Sessão tccom4530m000 [Fazer o detalhamento da NF e Série desejada na sessão "tdrecl504m50l". Na aba Relações, seção "Relação - Para" pegar o código do "Endereço Enviado Para:". Informar o código na coluna "Código do Endereço" e pedir o detalhamento da linha apresentada nesta sessão]</t>
+  </si>
+  <si>
+    <t>Na aba Geral, seção Endereço, pegar a primeira informação de "Cidade"</t>
+  </si>
+  <si>
+    <t>Na aba Geral, seção Endereço, pegar a primeira informação de "País"</t>
+  </si>
+  <si>
+    <t>Na aba Geral, seção Endereço, pegar a primeira informação de "Estado/Província"</t>
+  </si>
+  <si>
+    <t>Na aba Detalhado, seção Identificação de Imposto, pegar a primeira informação de Tipo de Identificador Fiscal</t>
+  </si>
+  <si>
+    <t>Informar o NR_PEDIDO no campo Pedido do Cliente. Pedir o detalhamento de uma linha apresentada. Na aba Geral, pegar a informação de Canal de Venda</t>
+  </si>
+  <si>
+    <t>Informar o NR_PEDIDO no campo Pedido do Cliente. Pedir o detalhamento de uma linha apresentada. Na aba Geral, pegar a informação de Data da Inclusão</t>
+  </si>
+  <si>
+    <t>Na aba Relações, seção "Relação - Até", pegar a informação do PN Faturado</t>
+  </si>
+  <si>
+    <t>Na aba Relações, seção "Relação - Até", pegar a informação do PN Receptor</t>
+  </si>
+  <si>
+    <t>Na aba Geral, seção "Dados do Documento", pegar a informação de Número do Documento</t>
+  </si>
+  <si>
+    <t>Na aba Geral, seção "Dados do Documento", pegar a informação de Série</t>
+  </si>
+  <si>
+    <t>Fazer o detalhamento da linha apresentada. Clicar na aba inferior Monitor e na sequência na aba Faturamento. Pegar a informação da coluna "Nota Fiscal"</t>
+  </si>
+  <si>
+    <t>Fazer o detalhamento da linha apresentada. Clicar na aba inferior Monitor e na sequência na aba Faturamento. Pegar a informação da coluna "Série"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pegar a informação da coluna Entrega para ser utilizado posteriormente na identificação do CD_STATUS e DT_STATUS </t>
+  </si>
+  <si>
+    <t>Na lupinha, informar Companhia, Unid Negócio, Pedido Cliente, Sequencial e Entrega. Pegar a primeira informação da coluna ponto de controle da data de ocorrência mais recente para a Entrega utilizada no filtro</t>
+  </si>
+  <si>
+    <t>Fazer o detalhamento da NF e Série desejada. Na aba Geral, seção Datas, pegar a Data Emissão</t>
+  </si>
+  <si>
+    <t>Sessão tdsls4100m000 [Fazer o detalhamento da NF e série desejada na sessão "tdrecl504m50l". Selecionar a aba inferior Linhas e pedir o detalhamento da linha apresentada. Na aba inferior "Dados de Origem", pegar a informação da coluna "Ordem" e informá-la na coluna "Ordem" desta sessão]</t>
+  </si>
+  <si>
+    <t>da devolucao</t>
+  </si>
+  <si>
+    <t>da nf</t>
+  </si>
+  <si>
+    <t>Fazer o detalhamento da linha apresentada. Clicar na aba inferior "Linhas de Enrtrega Reais" e detalhar a linha apresentada. Na aba Expedição, seção "Ordem de Devolução", pegar a informação "Identificação do Recebimento"</t>
+  </si>
+  <si>
+    <t>Na lupinha, limpar os campos e selecionar a Cia e UNID_NEGOCIO desejada. Em seguida, informar o NR_PEDIDO na coluna "Pedido do Cliente". Pedir o detalhamento da linha apresentada. Se tiver mais de uma "Entrega" para o mesmo sequencial com a soma das quantidades diferente de zero, retornará 1, caso contrário, 2</t>
+  </si>
+  <si>
+    <t>Sessão znslsc500m000</t>
+  </si>
+  <si>
+    <t>cislil504m00l [Fazer o detalhamento da NF e série desejada na sessão "tdrecl504m50l". Selecionar a aba inferior Linhas e pedir o detalhamento da linha apresentada. Na aba inferior "Dados de Origem", pegar a informação da coluna "Ordem". Ir para a sessão "tdsls4100m000", informar a Ordem na coluna Ordem e pedir o seu detalhamento. Clicar na aba Monitor e em seguida na aba Faturamento. Pegar a informação da coluna Referência Fiscal e a utilizar nesta seção]</t>
+  </si>
+  <si>
+    <t>Fazer o detalhamento da Referência Fiscal desejada. Na aba Geral, seção Datas, pegar a maior data entre Data Geração, Data emissão e Data Saída</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="6">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -744,6 +1015,29 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -777,7 +1071,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -908,11 +1202,20 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="99">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -930,9 +1233,6 @@
     <xf numFmtId="49" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="5" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -948,24 +1248,87 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="4" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -984,79 +1347,164 @@
     <xf numFmtId="49" fontId="4" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1067,8 +1515,8 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFFFFCC"/>
       <color rgb="FFFA7E7E"/>
-      <color rgb="FFFFFFCC"/>
       <color rgb="FFCCECFF"/>
       <color rgb="FFFF5050"/>
     </mruColors>
@@ -1364,13 +1812,13 @@
   <sheetPr>
     <tabColor rgb="FFFA7E7E"/>
   </sheetPr>
-  <dimension ref="A2:AT38"/>
+  <dimension ref="A2:AW41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+    <sheetView topLeftCell="Z7" workbookViewId="0">
+      <selection activeCell="H24" sqref="H24:I29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="20.42578125" style="2" customWidth="1"/>
     <col min="2" max="2" width="22" style="2" customWidth="1"/>
@@ -1379,67 +1827,68 @@
     <col min="5" max="5" width="22.28515625" style="2" customWidth="1"/>
     <col min="6" max="6" width="21.85546875" style="2" customWidth="1"/>
     <col min="7" max="7" width="20" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22.5703125" style="2" customWidth="1"/>
-    <col min="9" max="9" width="23.140625" style="2" customWidth="1"/>
-    <col min="10" max="10" width="23.42578125" style="2" customWidth="1"/>
-    <col min="11" max="11" width="21.7109375" style="2" customWidth="1"/>
-    <col min="12" max="12" width="20" style="2" customWidth="1"/>
-    <col min="13" max="13" width="20.5703125" style="2" customWidth="1"/>
-    <col min="14" max="14" width="22" style="2" customWidth="1"/>
-    <col min="15" max="15" width="34.5703125" style="2" customWidth="1"/>
-    <col min="16" max="16" width="34" style="2" customWidth="1"/>
-    <col min="17" max="17" width="34.7109375" style="2" customWidth="1"/>
-    <col min="18" max="18" width="21.5703125" style="2" customWidth="1"/>
-    <col min="19" max="19" width="21.7109375" style="2" customWidth="1"/>
-    <col min="20" max="20" width="22.85546875" style="2" customWidth="1"/>
-    <col min="21" max="21" width="20.85546875" style="2" customWidth="1"/>
-    <col min="22" max="22" width="23.5703125" style="2" customWidth="1"/>
-    <col min="23" max="23" width="23.42578125" style="2" customWidth="1"/>
-    <col min="24" max="24" width="23.5703125" style="2" customWidth="1"/>
-    <col min="25" max="25" width="20.85546875" style="2" customWidth="1"/>
-    <col min="26" max="26" width="19.42578125" style="2" customWidth="1"/>
-    <col min="27" max="27" width="21" style="2" customWidth="1"/>
-    <col min="28" max="28" width="30.85546875" style="2" customWidth="1"/>
-    <col min="29" max="29" width="25" style="2" customWidth="1"/>
-    <col min="30" max="30" width="20.85546875" style="2" customWidth="1"/>
-    <col min="31" max="31" width="18.7109375" style="2" customWidth="1"/>
-    <col min="32" max="32" width="18" style="2" customWidth="1"/>
-    <col min="33" max="33" width="26" style="2" customWidth="1"/>
-    <col min="34" max="34" width="23.7109375" style="2" customWidth="1"/>
-    <col min="35" max="35" width="23.85546875" style="2" customWidth="1"/>
-    <col min="36" max="36" width="21.140625" style="2" customWidth="1"/>
-    <col min="37" max="37" width="22.28515625" style="2" customWidth="1"/>
-    <col min="38" max="38" width="25" style="2" customWidth="1"/>
-    <col min="39" max="39" width="22.42578125" style="2" customWidth="1"/>
-    <col min="40" max="40" width="28.85546875" style="2" customWidth="1"/>
-    <col min="41" max="41" width="31.42578125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="23.42578125" style="2" customWidth="1"/>
+    <col min="9" max="9" width="21.7109375" style="2" customWidth="1"/>
+    <col min="10" max="10" width="20" style="2" customWidth="1"/>
+    <col min="12" max="12" width="22" style="2" customWidth="1"/>
+    <col min="13" max="13" width="34.5703125" style="2" customWidth="1"/>
+    <col min="14" max="14" width="34" style="2" customWidth="1"/>
+    <col min="15" max="15" width="34.7109375" style="2" customWidth="1"/>
+    <col min="16" max="16" width="21.5703125" style="2" customWidth="1"/>
+    <col min="17" max="17" width="21.7109375" style="2" customWidth="1"/>
+    <col min="18" max="18" width="22.85546875" style="2" customWidth="1"/>
+    <col min="19" max="19" width="20.85546875" style="2" customWidth="1"/>
+    <col min="20" max="20" width="25.42578125" style="2" customWidth="1"/>
+    <col min="21" max="21" width="27.42578125" style="2" customWidth="1"/>
+    <col min="22" max="22" width="20.5703125" style="2" customWidth="1"/>
+    <col min="23" max="23" width="23.5703125" style="2" customWidth="1"/>
+    <col min="24" max="24" width="20.85546875" style="2" customWidth="1"/>
+    <col min="25" max="25" width="19.42578125" style="2" customWidth="1"/>
+    <col min="26" max="26" width="21" style="2" customWidth="1"/>
+    <col min="27" max="27" width="30.85546875" style="2" customWidth="1"/>
+    <col min="28" max="28" width="25" style="2" customWidth="1"/>
+    <col min="29" max="29" width="20.85546875" style="2" customWidth="1"/>
+    <col min="30" max="30" width="18.7109375" style="2" customWidth="1"/>
+    <col min="31" max="31" width="18" style="2" customWidth="1"/>
+    <col min="32" max="32" width="26" style="2" customWidth="1"/>
+    <col min="33" max="33" width="23.7109375" style="2" customWidth="1"/>
+    <col min="34" max="34" width="23.85546875" style="2" customWidth="1"/>
+    <col min="35" max="35" width="21.140625" style="2" customWidth="1"/>
+    <col min="36" max="36" width="22.28515625" style="2" customWidth="1"/>
+    <col min="37" max="37" width="25" style="2" customWidth="1"/>
+    <col min="38" max="38" width="22.42578125" style="2" customWidth="1"/>
+    <col min="39" max="39" width="28.85546875" style="2" customWidth="1"/>
+    <col min="40" max="41" width="31.42578125" style="2" customWidth="1"/>
     <col min="42" max="42" width="27.85546875" style="2" customWidth="1"/>
     <col min="43" max="43" width="14.5703125" style="2" customWidth="1"/>
-    <col min="44" max="44" width="18.5703125" style="2" customWidth="1"/>
+    <col min="44" max="44" width="18.5703125" style="45" customWidth="1"/>
     <col min="45" max="45" width="17.5703125" style="2" customWidth="1"/>
     <col min="46" max="46" width="19.5703125" style="2" customWidth="1"/>
-    <col min="47" max="16384" width="9.140625" style="1"/>
+    <col min="47" max="47" width="9.140625" style="1"/>
+    <col min="48" max="48" width="22.5703125" style="2" customWidth="1"/>
+    <col min="49" max="49" width="23.140625" style="2" customWidth="1"/>
+    <col min="50" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:46" ht="21">
-      <c r="A2" s="40" t="s">
+    <row r="2" spans="1:49" ht="21">
+      <c r="A2" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="40"/>
+      <c r="B2" s="27"/>
       <c r="C2" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:46" ht="21">
-      <c r="A3" s="40" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:49" ht="21">
+      <c r="A3" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="40"/>
+      <c r="B3" s="27"/>
       <c r="C3" s="3" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="6" spans="1:46">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="6" spans="1:49">
       <c r="A6" s="4" t="s">
         <v>4</v>
       </c>
@@ -1453,73 +1902,70 @@
         <v>15</v>
       </c>
       <c r="E6" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H6" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="I6" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="J6" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="L6" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="M6" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="N6" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="O6" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="P6" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q6" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="R6" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="S6" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="T6" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="U6" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="V6" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="W6" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="H6" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="J6" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="K6" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="L6" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="M6" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="N6" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="O6" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="P6" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q6" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="R6" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="S6" s="4" t="s">
+      <c r="X6" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="T6" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="U6" s="4" t="s">
+      <c r="Y6" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="V6" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="W6" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="X6" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="Y6" s="4" t="s">
-        <v>57</v>
-      </c>
       <c r="Z6" s="4" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="AA6" s="4" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="AB6" s="4" t="s">
         <v>11</v>
@@ -1528,246 +1974,251 @@
         <v>8</v>
       </c>
       <c r="AD6" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE6" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="AF6" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="AG6" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="AH6" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="AI6" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="AJ6" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="AK6" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="AL6" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="AM6" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="AN6" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="AE6" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="AF6" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="AG6" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="AH6" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="AI6" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="AJ6" s="4" t="s">
+      <c r="AO6" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="AP6" s="4"/>
+      <c r="AR6" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="AS6" s="46" t="s">
+        <v>47</v>
+      </c>
+      <c r="AT6" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="AK6" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="AL6" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="AM6" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="AN6" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="AO6" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="AP6" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="AQ6" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="AR6" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="AS6" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="AT6" s="4" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="7" spans="1:46">
+      <c r="AU6" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="AV6" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="AW6" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:49" ht="11.25">
       <c r="A7" s="5" t="s">
         <v>2</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>88</v>
+        <v>134</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>90</v>
+        <v>140</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="H7" s="6" t="s">
-        <v>89</v>
+        <v>72</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>73</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="K7" s="5" t="s">
-        <v>112</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="K7" s="1"/>
       <c r="L7" s="5" t="s">
-        <v>113</v>
+        <v>82</v>
       </c>
       <c r="M7" s="5" t="s">
-        <v>114</v>
+        <v>82</v>
       </c>
       <c r="N7" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="O7" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="O7" s="6" t="s">
         <v>14</v>
       </c>
       <c r="P7" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="Q7" s="6" t="s">
-        <v>119</v>
+        <v>14</v>
+      </c>
+      <c r="Q7" s="5" t="s">
+        <v>83</v>
       </c>
       <c r="R7" s="5" t="s">
-        <v>115</v>
+        <v>14</v>
       </c>
       <c r="S7" s="5" t="s">
         <v>14</v>
       </c>
       <c r="T7" s="5" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="U7" s="5" t="s">
-        <v>16</v>
+        <v>137</v>
       </c>
       <c r="V7" s="5" t="s">
-        <v>93</v>
+        <v>142</v>
       </c>
       <c r="W7" s="5" t="s">
         <v>0</v>
       </c>
       <c r="X7" s="5" t="s">
-        <v>101</v>
+        <v>143</v>
       </c>
       <c r="Y7" s="2" t="s">
-        <v>109</v>
+        <v>80</v>
       </c>
       <c r="Z7" s="2" t="s">
-        <v>109</v>
+        <v>80</v>
       </c>
       <c r="AA7" s="2" t="s">
-        <v>109</v>
+        <v>80</v>
       </c>
       <c r="AB7" s="5" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="AC7" s="5" t="s">
         <v>1</v>
       </c>
       <c r="AD7" s="5" t="s">
-        <v>103</v>
+        <v>77</v>
       </c>
       <c r="AE7" s="5" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="AF7" s="5" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="AG7" s="5" t="s">
-        <v>104</v>
+        <v>78</v>
       </c>
       <c r="AH7" s="5" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="AI7" s="6" t="s">
-        <v>102</v>
+        <v>144</v>
       </c>
       <c r="AJ7" s="2" t="s">
-        <v>106</v>
+        <v>146</v>
       </c>
       <c r="AK7" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="AL7" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="AM7" s="8" t="s">
-        <v>95</v>
+        <v>63</v>
+      </c>
+      <c r="AL7" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="AM7" s="7" t="s">
+        <v>139</v>
       </c>
       <c r="AN7" s="2" t="s">
-        <v>117</v>
+        <v>145</v>
       </c>
       <c r="AO7" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="AP7" s="6"/>
-      <c r="AQ7" s="6" t="s">
-        <v>3</v>
-      </c>
       <c r="AR7" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="AS7" s="6" t="s">
-        <v>3</v>
+      <c r="AS7" s="47">
+        <v>1130</v>
       </c>
       <c r="AT7" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="AU7" s="6" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:46">
+      <c r="AV7" s="75" t="s">
+        <v>136</v>
+      </c>
+      <c r="AW7" s="75" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="8" spans="1:49" ht="11.25">
       <c r="A8" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>88</v>
+        <v>165</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>0</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>90</v>
+        <v>170</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>91</v>
+        <v>58</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="K8" s="2" t="s">
-        <v>96</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="K8" s="1"/>
       <c r="L8" s="2" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>99</v>
+        <v>82</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>100</v>
+        <v>14</v>
       </c>
       <c r="O8" s="2" t="s">
-        <v>98</v>
+        <v>173</v>
       </c>
       <c r="P8" s="2" t="s">
-        <v>107</v>
+        <v>174</v>
       </c>
       <c r="Q8" s="2" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="R8" s="2" t="s">
         <v>14</v>
@@ -1776,138 +2227,139 @@
         <v>14</v>
       </c>
       <c r="T8" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="U8" s="2" t="s">
-        <v>16</v>
+        <v>168</v>
       </c>
       <c r="V8" s="2" t="s">
-        <v>93</v>
+        <v>142</v>
       </c>
       <c r="W8" s="2" t="s">
         <v>0</v>
       </c>
       <c r="X8" s="2" t="s">
-        <v>101</v>
+        <v>171</v>
       </c>
       <c r="Y8" s="2" t="s">
-        <v>109</v>
+        <v>80</v>
       </c>
       <c r="Z8" s="2" t="s">
-        <v>109</v>
+        <v>80</v>
       </c>
       <c r="AA8" s="2" t="s">
-        <v>109</v>
+        <v>80</v>
       </c>
       <c r="AB8" s="2" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="AC8" s="2" t="s">
         <v>1</v>
       </c>
       <c r="AD8" s="2" t="s">
-        <v>103</v>
+        <v>77</v>
       </c>
       <c r="AE8" s="2" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="AF8" s="2" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="AG8" s="2" t="s">
-        <v>104</v>
+        <v>78</v>
       </c>
       <c r="AH8" s="2" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="AI8" s="2" t="s">
-        <v>102</v>
+        <v>144</v>
       </c>
       <c r="AJ8" s="2" t="s">
-        <v>106</v>
+        <v>172</v>
       </c>
       <c r="AK8" s="2" t="s">
-        <v>72</v>
+        <v>161</v>
       </c>
       <c r="AL8" s="2" t="s">
-        <v>94</v>
+        <v>138</v>
       </c>
       <c r="AM8" s="2" t="s">
-        <v>95</v>
+        <v>169</v>
       </c>
       <c r="AN8" s="2" t="s">
-        <v>105</v>
+        <v>84</v>
       </c>
       <c r="AO8" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="AP8" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="AQ8" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="AR8" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="AS8" s="2" t="s">
-        <v>3</v>
+        <v>175</v>
+      </c>
+      <c r="AS8" s="45">
+        <v>972</v>
       </c>
       <c r="AT8" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AU8" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:46">
+      <c r="AV8" s="75" t="s">
+        <v>167</v>
+      </c>
+      <c r="AW8" s="75" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="9" spans="1:49" ht="11.25">
       <c r="A9" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>88</v>
+        <v>3</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>62</v>
+        <v>3</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>90</v>
+        <v>3</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>61</v>
+        <v>3</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>91</v>
+        <v>3</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>89</v>
+        <v>149</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>92</v>
+        <v>149</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="K9" s="2" t="s">
-        <v>110</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="K9" s="1"/>
       <c r="L9" s="2" t="s">
-        <v>76</v>
+        <v>154</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>78</v>
+        <v>154</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>79</v>
+        <v>153</v>
       </c>
       <c r="O9" s="2" t="s">
-        <v>77</v>
+        <v>162</v>
       </c>
       <c r="P9" s="2" t="s">
-        <v>80</v>
+        <v>163</v>
       </c>
       <c r="Q9" s="2" t="s">
-        <v>81</v>
+        <v>155</v>
       </c>
       <c r="R9" s="2" t="s">
         <v>14</v>
@@ -1916,138 +2368,139 @@
         <v>14</v>
       </c>
       <c r="T9" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="U9" s="2" t="s">
-        <v>16</v>
+        <v>150</v>
       </c>
       <c r="V9" s="2" t="s">
-        <v>93</v>
+        <v>142</v>
       </c>
       <c r="W9" s="2" t="s">
         <v>0</v>
       </c>
       <c r="X9" s="2" t="s">
-        <v>101</v>
+        <v>156</v>
       </c>
       <c r="Y9" s="2" t="s">
-        <v>109</v>
+        <v>164</v>
       </c>
       <c r="Z9" s="2" t="s">
-        <v>109</v>
+        <v>164</v>
       </c>
       <c r="AA9" s="2" t="s">
-        <v>109</v>
+        <v>164</v>
       </c>
       <c r="AB9" s="2" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="AC9" s="2" t="s">
         <v>1</v>
       </c>
       <c r="AD9" s="2" t="s">
-        <v>103</v>
+        <v>158</v>
       </c>
       <c r="AE9" s="2" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="AF9" s="2" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="AG9" s="2" t="s">
-        <v>104</v>
+        <v>159</v>
       </c>
       <c r="AH9" s="2" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="AI9" s="2" t="s">
-        <v>102</v>
+        <v>157</v>
       </c>
       <c r="AJ9" s="2" t="s">
-        <v>106</v>
+        <v>160</v>
       </c>
       <c r="AK9" s="2" t="s">
-        <v>72</v>
+        <v>161</v>
       </c>
       <c r="AL9" s="2" t="s">
-        <v>94</v>
+        <v>3</v>
       </c>
       <c r="AM9" s="2" t="s">
-        <v>95</v>
+        <v>151</v>
       </c>
       <c r="AN9" s="2" t="s">
-        <v>111</v>
+        <v>85</v>
       </c>
       <c r="AO9" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="AP9" s="2" t="s">
+      <c r="AR9" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="AQ9" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="AR9" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="AS9" s="2" t="s">
-        <v>3</v>
+      <c r="AS9" s="45">
+        <v>0</v>
       </c>
       <c r="AT9" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:46">
+        <v>161</v>
+      </c>
+      <c r="AU9" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AV9" s="75" t="s">
+        <v>148</v>
+      </c>
+      <c r="AW9" s="75" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="10" spans="1:49" ht="11.25">
       <c r="A10" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>88</v>
+        <v>176</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>90</v>
+        <v>181</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>91</v>
+        <v>58</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="K10" s="2" t="s">
-        <v>120</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="K10" s="1"/>
       <c r="L10" s="2" t="s">
-        <v>121</v>
+        <v>82</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>123</v>
+        <v>82</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>124</v>
+        <v>14</v>
       </c>
       <c r="O10" s="2" t="s">
-        <v>122</v>
+        <v>14</v>
       </c>
       <c r="P10" s="2" t="s">
-        <v>126</v>
+        <v>14</v>
       </c>
       <c r="Q10" s="2" t="s">
-        <v>127</v>
+        <v>83</v>
       </c>
       <c r="R10" s="2" t="s">
         <v>14</v>
@@ -2056,138 +2509,139 @@
         <v>14</v>
       </c>
       <c r="T10" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="U10" s="2" t="s">
-        <v>16</v>
+        <v>179</v>
       </c>
       <c r="V10" s="2" t="s">
-        <v>93</v>
+        <v>142</v>
       </c>
       <c r="W10" s="2" t="s">
         <v>0</v>
       </c>
       <c r="X10" s="2" t="s">
-        <v>101</v>
+        <v>182</v>
       </c>
       <c r="Y10" s="2" t="s">
-        <v>109</v>
+        <v>80</v>
       </c>
       <c r="Z10" s="2" t="s">
-        <v>109</v>
+        <v>80</v>
       </c>
       <c r="AA10" s="2" t="s">
-        <v>109</v>
+        <v>80</v>
       </c>
       <c r="AB10" s="2" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="AC10" s="2" t="s">
         <v>1</v>
       </c>
       <c r="AD10" s="2" t="s">
-        <v>103</v>
+        <v>77</v>
       </c>
       <c r="AE10" s="2" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="AF10" s="2" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="AG10" s="2" t="s">
-        <v>104</v>
+        <v>78</v>
       </c>
       <c r="AH10" s="2" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="AI10" s="2" t="s">
-        <v>102</v>
+        <v>144</v>
       </c>
       <c r="AJ10" s="2" t="s">
-        <v>106</v>
+        <v>183</v>
       </c>
       <c r="AK10" s="2" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="AL10" s="2" t="s">
-        <v>94</v>
+        <v>75</v>
       </c>
       <c r="AM10" s="2" t="s">
-        <v>95</v>
+        <v>180</v>
       </c>
       <c r="AN10" s="2" t="s">
-        <v>125</v>
+        <v>84</v>
       </c>
       <c r="AO10" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="AP10" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="AQ10" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="AR10" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="AS10" s="2" t="s">
-        <v>3</v>
+        <v>184</v>
+      </c>
+      <c r="AS10" s="45">
+        <v>0</v>
       </c>
       <c r="AT10" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AU10" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:46">
+      <c r="AV10" s="75" t="s">
+        <v>178</v>
+      </c>
+      <c r="AW10" s="75" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="11" spans="1:49" ht="11.25">
       <c r="A11" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>88</v>
+        <v>185</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>0</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>90</v>
+        <v>191</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>61</v>
+        <v>187</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>91</v>
+        <v>58</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>89</v>
+        <v>149</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>92</v>
+        <v>149</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="K11" s="2" t="s">
-        <v>128</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="K11" s="1"/>
       <c r="L11" s="2" t="s">
-        <v>129</v>
+        <v>154</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>131</v>
+        <v>154</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>132</v>
+        <v>153</v>
       </c>
       <c r="O11" s="2" t="s">
-        <v>130</v>
+        <v>14</v>
       </c>
       <c r="P11" s="2" t="s">
-        <v>134</v>
+        <v>14</v>
       </c>
       <c r="Q11" s="2" t="s">
-        <v>135</v>
+        <v>155</v>
       </c>
       <c r="R11" s="2" t="s">
         <v>14</v>
@@ -2196,278 +2650,280 @@
         <v>14</v>
       </c>
       <c r="T11" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="U11" s="2" t="s">
-        <v>16</v>
+        <v>189</v>
       </c>
       <c r="V11" s="2" t="s">
-        <v>93</v>
+        <v>142</v>
       </c>
       <c r="W11" s="2" t="s">
         <v>0</v>
       </c>
       <c r="X11" s="2" t="s">
-        <v>101</v>
+        <v>192</v>
       </c>
       <c r="Y11" s="2" t="s">
-        <v>109</v>
+        <v>196</v>
       </c>
       <c r="Z11" s="2" t="s">
-        <v>109</v>
+        <v>196</v>
       </c>
       <c r="AA11" s="2" t="s">
-        <v>109</v>
+        <v>196</v>
       </c>
       <c r="AB11" s="2" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="AC11" s="2" t="s">
         <v>1</v>
       </c>
       <c r="AD11" s="2" t="s">
-        <v>103</v>
+        <v>158</v>
       </c>
       <c r="AE11" s="2" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="AF11" s="2" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="AG11" s="2" t="s">
-        <v>104</v>
+        <v>159</v>
       </c>
       <c r="AH11" s="2" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="AI11" s="2" t="s">
-        <v>102</v>
+        <v>193</v>
       </c>
       <c r="AJ11" s="2" t="s">
-        <v>106</v>
+        <v>194</v>
       </c>
       <c r="AK11" s="2" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="AL11" s="2" t="s">
-        <v>94</v>
+        <v>138</v>
       </c>
       <c r="AM11" s="2" t="s">
-        <v>95</v>
+        <v>190</v>
       </c>
       <c r="AN11" s="2" t="s">
-        <v>133</v>
+        <v>85</v>
       </c>
       <c r="AO11" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="AP11" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="AQ11" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="AR11" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="AS11" s="2" t="s">
-        <v>3</v>
+        <v>195</v>
+      </c>
+      <c r="AS11" s="45">
+        <v>1129</v>
       </c>
       <c r="AT11" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AU11" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:46">
+      <c r="AV11" s="75" t="s">
+        <v>188</v>
+      </c>
+      <c r="AW11" s="75" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="12" spans="1:49" ht="11.25">
       <c r="A12" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>88</v>
+        <v>71</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>0</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>90</v>
+        <v>200</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>91</v>
+        <v>58</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="K12" s="2" t="s">
-        <v>63</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="K12" s="1"/>
       <c r="L12" s="2" t="s">
-        <v>64</v>
+        <v>82</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>66</v>
+        <v>82</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>67</v>
+        <v>14</v>
       </c>
       <c r="O12" s="2" t="s">
-        <v>65</v>
+        <v>14</v>
       </c>
       <c r="P12" s="2" t="s">
-        <v>73</v>
+        <v>14</v>
       </c>
       <c r="Q12" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="R12" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="S12" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="T12" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="U12" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="R12" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="S12" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="T12" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="U12" s="2" t="s">
-        <v>16</v>
-      </c>
       <c r="V12" s="2" t="s">
-        <v>93</v>
+        <v>142</v>
       </c>
       <c r="W12" s="2" t="s">
         <v>0</v>
       </c>
       <c r="X12" s="2" t="s">
-        <v>101</v>
+        <v>76</v>
       </c>
       <c r="Y12" s="2" t="s">
-        <v>109</v>
+        <v>80</v>
       </c>
       <c r="Z12" s="2" t="s">
-        <v>109</v>
+        <v>80</v>
       </c>
       <c r="AA12" s="2" t="s">
-        <v>109</v>
+        <v>80</v>
       </c>
       <c r="AB12" s="2" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="AC12" s="2" t="s">
         <v>1</v>
       </c>
       <c r="AD12" s="2" t="s">
-        <v>103</v>
+        <v>77</v>
       </c>
       <c r="AE12" s="2" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="AF12" s="2" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="AG12" s="2" t="s">
-        <v>104</v>
+        <v>78</v>
       </c>
       <c r="AH12" s="2" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="AI12" s="2" t="s">
-        <v>102</v>
+        <v>144</v>
       </c>
       <c r="AJ12" s="2" t="s">
-        <v>106</v>
+        <v>79</v>
       </c>
       <c r="AK12" s="2" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="AL12" s="2" t="s">
-        <v>94</v>
+        <v>75</v>
       </c>
       <c r="AM12" s="2" t="s">
-        <v>95</v>
+        <v>199</v>
       </c>
       <c r="AN12" s="2" t="s">
-        <v>136</v>
+        <v>84</v>
       </c>
       <c r="AO12" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="AP12" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="AQ12" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="AR12" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="AS12" s="2" t="s">
-        <v>3</v>
+      <c r="AS12" s="45">
+        <v>0</v>
       </c>
       <c r="AT12" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AU12" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:46">
+      <c r="AV12" s="75" t="s">
+        <v>198</v>
+      </c>
+      <c r="AW12" s="75" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="13" spans="1:49" ht="11.25">
       <c r="A13" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>88</v>
+        <v>201</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>0</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>90</v>
+        <v>206</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>91</v>
+        <v>58</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="K13" s="2" t="s">
-        <v>63</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="K13" s="1"/>
       <c r="L13" s="2" t="s">
-        <v>137</v>
+        <v>82</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>17</v>
+        <v>82</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>139</v>
+        <v>14</v>
       </c>
       <c r="O13" s="2" t="s">
-        <v>138</v>
+        <v>14</v>
       </c>
       <c r="P13" s="2" t="s">
-        <v>140</v>
+        <v>14</v>
       </c>
       <c r="Q13" s="2" t="s">
-        <v>141</v>
+        <v>83</v>
       </c>
       <c r="R13" s="2" t="s">
         <v>14</v>
@@ -2476,1192 +2932,1234 @@
         <v>14</v>
       </c>
       <c r="T13" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="U13" s="2" t="s">
-        <v>16</v>
+        <v>204</v>
       </c>
       <c r="V13" s="2" t="s">
-        <v>93</v>
+        <v>142</v>
       </c>
       <c r="W13" s="2" t="s">
         <v>0</v>
       </c>
       <c r="X13" s="2" t="s">
-        <v>101</v>
+        <v>207</v>
       </c>
       <c r="Y13" s="2" t="s">
-        <v>109</v>
+        <v>80</v>
       </c>
       <c r="Z13" s="2" t="s">
-        <v>109</v>
+        <v>80</v>
       </c>
       <c r="AA13" s="2" t="s">
-        <v>109</v>
+        <v>80</v>
       </c>
       <c r="AB13" s="2" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="AC13" s="2" t="s">
         <v>1</v>
       </c>
       <c r="AD13" s="2" t="s">
-        <v>103</v>
+        <v>77</v>
       </c>
       <c r="AE13" s="2" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="AF13" s="2" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="AG13" s="2" t="s">
-        <v>104</v>
+        <v>78</v>
       </c>
       <c r="AH13" s="2" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="AI13" s="2" t="s">
-        <v>102</v>
+        <v>144</v>
       </c>
       <c r="AJ13" s="2" t="s">
-        <v>106</v>
+        <v>208</v>
       </c>
       <c r="AK13" s="2" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="AL13" s="2" t="s">
-        <v>94</v>
+        <v>75</v>
       </c>
       <c r="AM13" s="2" t="s">
-        <v>95</v>
+        <v>205</v>
       </c>
       <c r="AN13" s="2" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="AO13" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="AP13" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="AQ13" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="AR13" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="AS13" s="2" t="s">
-        <v>3</v>
+        <v>209</v>
+      </c>
+      <c r="AS13" s="45">
+        <v>0</v>
       </c>
       <c r="AT13" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AU13" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:46">
+      <c r="AV13" s="75" t="s">
+        <v>203</v>
+      </c>
+      <c r="AW13" s="75" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="14" spans="1:49" ht="11.25">
       <c r="A14" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>88</v>
+        <v>210</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>0</v>
+        <v>211</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>90</v>
+        <v>218</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>91</v>
+        <v>58</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>89</v>
+        <v>214</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>92</v>
+        <v>215</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="K14" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="K14" s="1"/>
+      <c r="L14" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="M14" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="N14" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="O14" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="P14" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q14" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="R14" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="S14" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="T14" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="U14" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="V14" s="2" t="s">
         <v>142</v>
-      </c>
-      <c r="L14" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="M14" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="N14" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="O14" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="P14" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="Q14" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="R14" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="S14" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="T14" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="U14" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="V14" s="2" t="s">
-        <v>93</v>
       </c>
       <c r="W14" s="2" t="s">
         <v>0</v>
       </c>
       <c r="X14" s="2" t="s">
-        <v>101</v>
+        <v>223</v>
       </c>
       <c r="Y14" s="2" t="s">
-        <v>109</v>
+        <v>80</v>
       </c>
       <c r="Z14" s="2" t="s">
-        <v>109</v>
+        <v>80</v>
       </c>
       <c r="AA14" s="2" t="s">
-        <v>109</v>
+        <v>80</v>
       </c>
       <c r="AB14" s="2" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="AC14" s="2" t="s">
         <v>1</v>
       </c>
       <c r="AD14" s="2" t="s">
-        <v>103</v>
+        <v>77</v>
       </c>
       <c r="AE14" s="2" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="AF14" s="2" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="AG14" s="2" t="s">
-        <v>104</v>
+        <v>78</v>
       </c>
       <c r="AH14" s="2" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="AI14" s="2" t="s">
-        <v>102</v>
+        <v>224</v>
       </c>
       <c r="AJ14" s="2" t="s">
-        <v>106</v>
+        <v>226</v>
       </c>
       <c r="AK14" s="2" t="s">
-        <v>72</v>
+        <v>161</v>
       </c>
       <c r="AL14" s="2" t="s">
-        <v>94</v>
+        <v>138</v>
       </c>
       <c r="AM14" s="2" t="s">
-        <v>95</v>
+        <v>217</v>
       </c>
       <c r="AN14" s="2" t="s">
-        <v>3</v>
+        <v>225</v>
       </c>
       <c r="AO14" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="AP14" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="AQ14" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="AR14" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="AS14" s="2" t="s">
-        <v>3</v>
+        <v>227</v>
+      </c>
+      <c r="AS14" s="45">
+        <v>1123</v>
       </c>
       <c r="AT14" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AU14" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:46">
+      <c r="AV14" s="75" t="s">
+        <v>213</v>
+      </c>
+      <c r="AW14" s="75" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="15" spans="1:49" ht="11.25">
       <c r="A15" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>88</v>
+        <v>228</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>90</v>
+        <v>233</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>91</v>
+        <v>58</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="K15" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="K15" s="1"/>
+      <c r="L15" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="M15" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="N15" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="O15" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="P15" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q15" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="R15" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="S15" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="T15" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="U15" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="V15" s="2" t="s">
         <v>142</v>
-      </c>
-      <c r="L15" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="M15" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="N15" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="O15" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="P15" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="Q15" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="R15" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="S15" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="T15" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="U15" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="V15" s="2" t="s">
-        <v>93</v>
       </c>
       <c r="W15" s="2" t="s">
         <v>0</v>
       </c>
       <c r="X15" s="2" t="s">
-        <v>101</v>
+        <v>234</v>
       </c>
       <c r="Y15" s="2" t="s">
-        <v>109</v>
+        <v>80</v>
       </c>
       <c r="Z15" s="2" t="s">
-        <v>109</v>
+        <v>80</v>
       </c>
       <c r="AA15" s="2" t="s">
-        <v>109</v>
+        <v>80</v>
       </c>
       <c r="AB15" s="2" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="AC15" s="2" t="s">
         <v>1</v>
       </c>
       <c r="AD15" s="2" t="s">
-        <v>103</v>
+        <v>77</v>
       </c>
       <c r="AE15" s="2" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="AF15" s="2" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="AG15" s="2" t="s">
-        <v>104</v>
+        <v>78</v>
       </c>
       <c r="AH15" s="2" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="AI15" s="2" t="s">
-        <v>102</v>
+        <v>144</v>
       </c>
       <c r="AJ15" s="2" t="s">
-        <v>106</v>
+        <v>235</v>
       </c>
       <c r="AK15" s="2" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="AL15" s="2" t="s">
-        <v>94</v>
+        <v>75</v>
       </c>
       <c r="AM15" s="2" t="s">
-        <v>95</v>
+        <v>232</v>
       </c>
       <c r="AN15" s="2" t="s">
-        <v>3</v>
+        <v>84</v>
       </c>
       <c r="AO15" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="AP15" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="AQ15" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="AR15" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="AS15" s="2" t="s">
-        <v>3</v>
+        <v>236</v>
+      </c>
+      <c r="AS15" s="45">
+        <v>0</v>
       </c>
       <c r="AT15" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AU15" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:46">
+      <c r="AV15" s="75" t="s">
+        <v>230</v>
+      </c>
+      <c r="AW15" s="75" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="16" spans="1:49" ht="11.25">
       <c r="A16" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>88</v>
+        <v>3</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>62</v>
+        <v>3</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>90</v>
+        <v>3</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>61</v>
+        <v>3</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>91</v>
+        <v>3</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="K16" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="K16" s="1"/>
+      <c r="L16" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="M16" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="N16" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="O16" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="P16" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q16" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="R16" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="S16" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="T16" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="U16" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="V16" s="2" t="s">
         <v>142</v>
-      </c>
-      <c r="L16" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="M16" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="N16" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="O16" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="P16" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="Q16" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="R16" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="S16" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="T16" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="U16" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="V16" s="2" t="s">
-        <v>93</v>
       </c>
       <c r="W16" s="2" t="s">
         <v>0</v>
       </c>
       <c r="X16" s="2" t="s">
-        <v>101</v>
+        <v>241</v>
       </c>
       <c r="Y16" s="2" t="s">
-        <v>109</v>
+        <v>80</v>
       </c>
       <c r="Z16" s="2" t="s">
-        <v>109</v>
+        <v>80</v>
       </c>
       <c r="AA16" s="2" t="s">
-        <v>109</v>
+        <v>80</v>
       </c>
       <c r="AB16" s="2" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="AC16" s="2" t="s">
         <v>1</v>
       </c>
       <c r="AD16" s="2" t="s">
-        <v>103</v>
+        <v>77</v>
       </c>
       <c r="AE16" s="2" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="AF16" s="2" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="AG16" s="2" t="s">
-        <v>104</v>
+        <v>78</v>
       </c>
       <c r="AH16" s="2" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="AI16" s="2" t="s">
-        <v>102</v>
+        <v>144</v>
       </c>
       <c r="AJ16" s="2" t="s">
-        <v>106</v>
+        <v>242</v>
       </c>
       <c r="AK16" s="2" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="AL16" s="2" t="s">
-        <v>94</v>
+        <v>75</v>
       </c>
       <c r="AM16" s="2" t="s">
-        <v>95</v>
+        <v>240</v>
       </c>
       <c r="AN16" s="2" t="s">
-        <v>3</v>
+        <v>84</v>
       </c>
       <c r="AO16" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="AP16" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="AQ16" s="2" t="s">
-        <v>3</v>
-      </c>
+      <c r="AQ16" s="1"/>
       <c r="AR16" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="AS16" s="2" t="s">
-        <v>3</v>
+      <c r="AS16" s="45">
+        <v>0</v>
       </c>
       <c r="AT16" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AU16" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:46" ht="11.25" customHeight="1">
-      <c r="B19" s="47" t="s">
-        <v>183</v>
-      </c>
-      <c r="C19" s="47"/>
-      <c r="D19" s="47"/>
-      <c r="E19" s="47"/>
-      <c r="F19" s="47"/>
-      <c r="G19" s="47"/>
-      <c r="H19" s="47"/>
-      <c r="I19" s="47"/>
-      <c r="J19" s="47"/>
-      <c r="K19" s="47"/>
-      <c r="L19" s="47"/>
-      <c r="M19" s="47"/>
-      <c r="N19" s="47"/>
-      <c r="O19" s="47"/>
-      <c r="P19" s="47"/>
-      <c r="Q19" s="47"/>
-      <c r="R19" s="47"/>
-      <c r="S19" s="47"/>
-      <c r="T19" s="47"/>
-      <c r="U19" s="47"/>
-      <c r="V19" s="47"/>
-      <c r="W19" s="47"/>
-      <c r="X19" s="47"/>
-      <c r="Y19" s="47"/>
-      <c r="Z19" s="47"/>
-      <c r="AA19" s="47"/>
-      <c r="AB19" s="47" t="s">
-        <v>184</v>
-      </c>
-      <c r="AC19" s="47" t="s">
-        <v>186</v>
-      </c>
-      <c r="AD19" s="47" t="s">
-        <v>190</v>
-      </c>
-      <c r="AE19" s="47"/>
-      <c r="AF19" s="47"/>
-      <c r="AG19" s="47" t="s">
-        <v>191</v>
-      </c>
-      <c r="AH19" s="47" t="s">
-        <v>170</v>
-      </c>
-      <c r="AI19" s="47"/>
-      <c r="AJ19" s="31" t="s">
-        <v>181</v>
-      </c>
-      <c r="AK19" s="32"/>
-      <c r="AL19" s="19" t="s">
-        <v>173</v>
-      </c>
-      <c r="AM19" s="20"/>
-      <c r="AN19" s="28" t="s">
-        <v>177</v>
-      </c>
-      <c r="AO19" s="28" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="20" spans="1:46" ht="11.25" customHeight="1">
-      <c r="B20" s="47"/>
-      <c r="C20" s="47"/>
-      <c r="D20" s="47"/>
-      <c r="E20" s="47"/>
-      <c r="F20" s="47"/>
-      <c r="G20" s="47"/>
-      <c r="H20" s="47"/>
-      <c r="I20" s="47"/>
-      <c r="J20" s="47"/>
-      <c r="K20" s="47"/>
-      <c r="L20" s="47"/>
-      <c r="M20" s="47"/>
-      <c r="N20" s="47"/>
-      <c r="O20" s="47"/>
-      <c r="P20" s="47"/>
-      <c r="Q20" s="47"/>
-      <c r="R20" s="47"/>
-      <c r="S20" s="47"/>
-      <c r="T20" s="47"/>
-      <c r="U20" s="47"/>
-      <c r="V20" s="47"/>
-      <c r="W20" s="47"/>
-      <c r="X20" s="47"/>
-      <c r="Y20" s="47"/>
-      <c r="Z20" s="47"/>
-      <c r="AA20" s="47"/>
-      <c r="AB20" s="47"/>
-      <c r="AC20" s="47"/>
-      <c r="AD20" s="47"/>
-      <c r="AE20" s="47"/>
-      <c r="AF20" s="47"/>
-      <c r="AG20" s="47"/>
-      <c r="AH20" s="47"/>
-      <c r="AI20" s="47"/>
-      <c r="AJ20" s="33"/>
-      <c r="AK20" s="34"/>
-      <c r="AL20" s="21"/>
-      <c r="AM20" s="22"/>
-      <c r="AN20" s="29"/>
-      <c r="AO20" s="29"/>
-    </row>
-    <row r="21" spans="1:46" ht="11.25" customHeight="1">
-      <c r="B21" s="47"/>
-      <c r="C21" s="47"/>
-      <c r="D21" s="47"/>
-      <c r="E21" s="47"/>
-      <c r="F21" s="47"/>
-      <c r="G21" s="47"/>
-      <c r="H21" s="47"/>
-      <c r="I21" s="47"/>
-      <c r="J21" s="47"/>
-      <c r="K21" s="47"/>
-      <c r="L21" s="47"/>
-      <c r="M21" s="47"/>
-      <c r="N21" s="47"/>
-      <c r="O21" s="47"/>
-      <c r="P21" s="47"/>
-      <c r="Q21" s="47"/>
-      <c r="R21" s="47"/>
-      <c r="S21" s="47"/>
-      <c r="T21" s="47"/>
-      <c r="U21" s="47"/>
-      <c r="V21" s="47"/>
-      <c r="W21" s="47"/>
-      <c r="X21" s="47"/>
-      <c r="Y21" s="47"/>
-      <c r="Z21" s="47"/>
-      <c r="AA21" s="47"/>
-      <c r="AB21" s="47"/>
-      <c r="AC21" s="47"/>
-      <c r="AD21" s="47"/>
-      <c r="AE21" s="47"/>
-      <c r="AF21" s="47"/>
-      <c r="AG21" s="47"/>
-      <c r="AH21" s="47"/>
-      <c r="AI21" s="47"/>
-      <c r="AJ21" s="35"/>
-      <c r="AK21" s="36"/>
-      <c r="AL21" s="23"/>
-      <c r="AM21" s="24"/>
-      <c r="AN21" s="30"/>
-      <c r="AO21" s="30"/>
-    </row>
-    <row r="22" spans="1:46" ht="11.25" customHeight="1">
-      <c r="A22" s="39" t="s">
+      <c r="AV16" s="75" t="s">
+        <v>238</v>
+      </c>
+      <c r="AW16" s="75" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="17" spans="1:49" ht="11.25">
+      <c r="K17" s="1"/>
+    </row>
+    <row r="18" spans="1:49" ht="11.25">
+      <c r="K18" s="1"/>
+    </row>
+    <row r="21" spans="1:49" ht="11.25" customHeight="1">
+      <c r="A21" s="1"/>
+      <c r="B21" s="54" t="s">
+        <v>121</v>
+      </c>
+      <c r="C21" s="55"/>
+      <c r="D21" s="55"/>
+      <c r="E21" s="55"/>
+      <c r="F21" s="55"/>
+      <c r="G21" s="55"/>
+      <c r="H21" s="55"/>
+      <c r="I21" s="55"/>
+      <c r="J21" s="55"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="55"/>
+      <c r="M21" s="55"/>
+      <c r="N21" s="55"/>
+      <c r="O21" s="55"/>
+      <c r="P21" s="55"/>
+      <c r="Q21" s="55"/>
+      <c r="R21" s="55"/>
+      <c r="S21" s="55"/>
+      <c r="T21" s="55"/>
+      <c r="U21" s="55"/>
+      <c r="V21" s="55"/>
+      <c r="W21" s="55"/>
+      <c r="X21" s="55"/>
+      <c r="Y21" s="55"/>
+      <c r="Z21" s="55"/>
+      <c r="AA21" s="56"/>
+      <c r="AB21" s="20" t="s">
+        <v>122</v>
+      </c>
+      <c r="AC21" s="20" t="s">
+        <v>124</v>
+      </c>
+      <c r="AD21" s="20" t="s">
+        <v>128</v>
+      </c>
+      <c r="AE21" s="20"/>
+      <c r="AF21" s="20"/>
+      <c r="AG21" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="AH21" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="AI21" s="20"/>
+      <c r="AJ21" s="31" t="s">
+        <v>119</v>
+      </c>
+      <c r="AK21" s="32"/>
+      <c r="AL21" s="39" t="s">
+        <v>111</v>
+      </c>
+      <c r="AM21" s="40"/>
+      <c r="AN21" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="AO21" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="AP21" s="53"/>
+      <c r="AR21" s="2"/>
+      <c r="AS21" s="45"/>
+      <c r="AU21" s="2"/>
+      <c r="AV21" s="55"/>
+      <c r="AW21" s="55"/>
+    </row>
+    <row r="22" spans="1:49" ht="11.25" customHeight="1">
+      <c r="A22" s="1"/>
+      <c r="B22" s="57"/>
+      <c r="C22" s="58"/>
+      <c r="D22" s="58"/>
+      <c r="E22" s="58"/>
+      <c r="F22" s="58"/>
+      <c r="G22" s="58"/>
+      <c r="H22" s="58"/>
+      <c r="I22" s="58"/>
+      <c r="J22" s="58"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="58"/>
+      <c r="M22" s="58"/>
+      <c r="N22" s="58"/>
+      <c r="O22" s="58"/>
+      <c r="P22" s="58"/>
+      <c r="Q22" s="58"/>
+      <c r="R22" s="58"/>
+      <c r="S22" s="58"/>
+      <c r="T22" s="58"/>
+      <c r="U22" s="58"/>
+      <c r="V22" s="58"/>
+      <c r="W22" s="58"/>
+      <c r="X22" s="58"/>
+      <c r="Y22" s="58"/>
+      <c r="Z22" s="58"/>
+      <c r="AA22" s="59"/>
+      <c r="AB22" s="20"/>
+      <c r="AC22" s="20"/>
+      <c r="AD22" s="20"/>
+      <c r="AE22" s="20"/>
+      <c r="AF22" s="20"/>
+      <c r="AG22" s="20"/>
+      <c r="AH22" s="20"/>
+      <c r="AI22" s="20"/>
+      <c r="AJ22" s="33"/>
+      <c r="AK22" s="34"/>
+      <c r="AL22" s="41"/>
+      <c r="AM22" s="42"/>
+      <c r="AN22" s="15"/>
+      <c r="AO22" s="15"/>
+      <c r="AP22" s="53"/>
+      <c r="AR22" s="2"/>
+      <c r="AS22" s="45"/>
+      <c r="AU22" s="2"/>
+      <c r="AV22" s="58"/>
+      <c r="AW22" s="58"/>
+    </row>
+    <row r="23" spans="1:49" ht="11.25" customHeight="1">
+      <c r="A23" s="1"/>
+      <c r="B23" s="60"/>
+      <c r="C23" s="61"/>
+      <c r="D23" s="61"/>
+      <c r="E23" s="61"/>
+      <c r="F23" s="61"/>
+      <c r="G23" s="61"/>
+      <c r="H23" s="61"/>
+      <c r="I23" s="61"/>
+      <c r="J23" s="61"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="61"/>
+      <c r="M23" s="61"/>
+      <c r="N23" s="61"/>
+      <c r="O23" s="61"/>
+      <c r="P23" s="61"/>
+      <c r="Q23" s="61"/>
+      <c r="R23" s="61"/>
+      <c r="S23" s="61"/>
+      <c r="T23" s="61"/>
+      <c r="U23" s="61"/>
+      <c r="V23" s="61"/>
+      <c r="W23" s="61"/>
+      <c r="X23" s="61"/>
+      <c r="Y23" s="61"/>
+      <c r="Z23" s="61"/>
+      <c r="AA23" s="62"/>
+      <c r="AB23" s="20"/>
+      <c r="AC23" s="20"/>
+      <c r="AD23" s="20"/>
+      <c r="AE23" s="20"/>
+      <c r="AF23" s="20"/>
+      <c r="AG23" s="20"/>
+      <c r="AH23" s="20"/>
+      <c r="AI23" s="20"/>
+      <c r="AJ23" s="35"/>
+      <c r="AK23" s="36"/>
+      <c r="AL23" s="43"/>
+      <c r="AM23" s="44"/>
+      <c r="AN23" s="16"/>
+      <c r="AO23" s="16"/>
+      <c r="AP23" s="53"/>
+      <c r="AR23" s="2"/>
+      <c r="AS23" s="45"/>
+      <c r="AU23" s="2"/>
+      <c r="AV23" s="61"/>
+      <c r="AW23" s="61"/>
+    </row>
+    <row r="24" spans="1:49" ht="11.25" customHeight="1">
+      <c r="A24" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="B22" s="39" t="s">
-        <v>82</v>
-      </c>
-      <c r="C22" s="39" t="s">
-        <v>83</v>
-      </c>
-      <c r="D22" s="39" t="s">
-        <v>149</v>
-      </c>
-      <c r="E22" s="39" t="s">
-        <v>85</v>
-      </c>
-      <c r="F22" s="39" t="s">
+      <c r="B24" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="C24" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="D24" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="E24" s="17" t="s">
+        <v>243</v>
+      </c>
+      <c r="F24" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="G24" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="H24" s="17" t="s">
         <v>86</v>
       </c>
-      <c r="G22" s="39" t="s">
+      <c r="I24" s="21" t="s">
         <v>87</v>
       </c>
-      <c r="H22" s="39" t="s">
-        <v>182</v>
-      </c>
-      <c r="I22" s="39" t="s">
-        <v>147</v>
-      </c>
-      <c r="J22" s="41" t="s">
-        <v>148</v>
-      </c>
-      <c r="K22" s="45" t="s">
-        <v>153</v>
-      </c>
-      <c r="L22" s="45" t="s">
-        <v>154</v>
-      </c>
-      <c r="M22" s="45" t="s">
-        <v>155</v>
-      </c>
-      <c r="N22" s="45" t="s">
-        <v>159</v>
-      </c>
-      <c r="O22" s="39" t="s">
-        <v>161</v>
-      </c>
-      <c r="P22" s="39" t="s">
-        <v>162</v>
-      </c>
-      <c r="Q22" s="39" t="s">
-        <v>163</v>
-      </c>
-      <c r="R22" s="39" t="s">
-        <v>156</v>
-      </c>
-      <c r="S22" s="39" t="s">
-        <v>157</v>
-      </c>
-      <c r="T22" s="39" t="s">
-        <v>158</v>
-      </c>
-      <c r="U22" s="25" t="s">
-        <v>165</v>
-      </c>
-      <c r="V22" s="25" t="s">
-        <v>164</v>
-      </c>
-      <c r="W22" s="25" t="s">
-        <v>166</v>
-      </c>
-      <c r="X22" s="25" t="s">
-        <v>167</v>
-      </c>
-      <c r="Y22" s="25" t="s">
-        <v>174</v>
-      </c>
-      <c r="Z22" s="25" t="s">
-        <v>175</v>
-      </c>
-      <c r="AA22" s="25" t="s">
-        <v>176</v>
-      </c>
-      <c r="AB22" s="38" t="s">
-        <v>185</v>
-      </c>
-      <c r="AC22" s="37" t="s">
-        <v>84</v>
-      </c>
-      <c r="AD22" s="38" t="s">
-        <v>187</v>
-      </c>
-      <c r="AE22" s="38" t="s">
-        <v>188</v>
-      </c>
-      <c r="AF22" s="38" t="s">
-        <v>189</v>
-      </c>
-      <c r="AG22" s="38" t="s">
-        <v>160</v>
-      </c>
-      <c r="AH22" s="38" t="s">
-        <v>168</v>
-      </c>
-      <c r="AI22" s="38" t="s">
-        <v>169</v>
-      </c>
-      <c r="AJ22" s="37" t="s">
-        <v>179</v>
-      </c>
-      <c r="AK22" s="37" t="s">
-        <v>180</v>
-      </c>
-      <c r="AL22" s="13" t="s">
-        <v>172</v>
-      </c>
-      <c r="AM22" s="16" t="s">
-        <v>171</v>
-      </c>
-      <c r="AN22" s="16" t="s">
-        <v>178</v>
-      </c>
-      <c r="AO22" s="16" t="s">
-        <v>194</v>
-      </c>
-      <c r="AP22" s="48" t="s">
-        <v>192</v>
-      </c>
-      <c r="AQ22" s="49"/>
-      <c r="AR22" s="49"/>
-      <c r="AS22" s="49"/>
-      <c r="AT22" s="49"/>
-    </row>
-    <row r="23" spans="1:46">
-      <c r="A23" s="39"/>
-      <c r="B23" s="39"/>
-      <c r="C23" s="39"/>
-      <c r="D23" s="39"/>
-      <c r="E23" s="39"/>
-      <c r="F23" s="39"/>
-      <c r="G23" s="39"/>
-      <c r="H23" s="39"/>
-      <c r="I23" s="39"/>
-      <c r="J23" s="42"/>
-      <c r="K23" s="46"/>
-      <c r="L23" s="46"/>
-      <c r="M23" s="46"/>
-      <c r="N23" s="46"/>
-      <c r="O23" s="39"/>
-      <c r="P23" s="39"/>
-      <c r="Q23" s="39"/>
-      <c r="R23" s="39"/>
-      <c r="S23" s="39"/>
-      <c r="T23" s="39"/>
-      <c r="U23" s="26"/>
-      <c r="V23" s="26"/>
-      <c r="W23" s="26"/>
-      <c r="X23" s="26"/>
-      <c r="Y23" s="26"/>
-      <c r="Z23" s="26"/>
-      <c r="AA23" s="26"/>
-      <c r="AB23" s="38"/>
-      <c r="AC23" s="37"/>
-      <c r="AD23" s="38"/>
-      <c r="AE23" s="38"/>
-      <c r="AF23" s="38"/>
-      <c r="AG23" s="38"/>
-      <c r="AH23" s="38"/>
-      <c r="AI23" s="38"/>
-      <c r="AJ23" s="37"/>
-      <c r="AK23" s="37"/>
-      <c r="AL23" s="14"/>
-      <c r="AM23" s="17"/>
-      <c r="AN23" s="17"/>
-      <c r="AO23" s="17"/>
-      <c r="AP23" s="48"/>
-      <c r="AQ23" s="49"/>
-      <c r="AR23" s="49"/>
-      <c r="AS23" s="49"/>
-      <c r="AT23" s="49"/>
-    </row>
-    <row r="24" spans="1:46">
-      <c r="A24" s="39"/>
-      <c r="B24" s="39"/>
-      <c r="C24" s="39"/>
-      <c r="D24" s="39"/>
-      <c r="E24" s="39"/>
-      <c r="F24" s="39"/>
-      <c r="G24" s="39"/>
-      <c r="H24" s="39"/>
-      <c r="I24" s="39"/>
-      <c r="J24" s="42"/>
-      <c r="K24" s="46"/>
-      <c r="L24" s="46"/>
-      <c r="M24" s="46"/>
-      <c r="N24" s="46"/>
-      <c r="O24" s="39"/>
-      <c r="P24" s="39"/>
-      <c r="Q24" s="39"/>
-      <c r="R24" s="39"/>
-      <c r="S24" s="39"/>
-      <c r="T24" s="39"/>
-      <c r="U24" s="26"/>
-      <c r="V24" s="26"/>
-      <c r="W24" s="26"/>
-      <c r="X24" s="26"/>
-      <c r="Y24" s="26"/>
-      <c r="Z24" s="26"/>
-      <c r="AA24" s="26"/>
-      <c r="AB24" s="38"/>
-      <c r="AC24" s="37"/>
-      <c r="AD24" s="38"/>
-      <c r="AE24" s="38"/>
-      <c r="AF24" s="38"/>
-      <c r="AG24" s="38"/>
-      <c r="AH24" s="38"/>
-      <c r="AI24" s="38"/>
-      <c r="AJ24" s="37"/>
-      <c r="AK24" s="37"/>
-      <c r="AL24" s="14"/>
-      <c r="AM24" s="17"/>
-      <c r="AN24" s="17"/>
-      <c r="AO24" s="17"/>
-      <c r="AP24" s="48"/>
-      <c r="AQ24" s="49"/>
+      <c r="J24" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="K24" s="1"/>
+      <c r="L24" s="24" t="s">
+        <v>93</v>
+      </c>
+      <c r="M24" s="24" t="s">
+        <v>97</v>
+      </c>
+      <c r="N24" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="O24" s="24" t="s">
+        <v>100</v>
+      </c>
+      <c r="P24" s="24" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q24" s="24" t="s">
+        <v>94</v>
+      </c>
+      <c r="R24" s="24" t="s">
+        <v>95</v>
+      </c>
+      <c r="S24" s="37" t="s">
+        <v>96</v>
+      </c>
+      <c r="T24" s="28" t="s">
+        <v>103</v>
+      </c>
+      <c r="U24" s="63" t="s">
+        <v>102</v>
+      </c>
+      <c r="V24" s="63" t="s">
+        <v>102</v>
+      </c>
+      <c r="W24" s="63" t="s">
+        <v>104</v>
+      </c>
+      <c r="X24" s="63" t="s">
+        <v>105</v>
+      </c>
+      <c r="Y24" s="63" t="s">
+        <v>112</v>
+      </c>
+      <c r="Z24" s="65" t="s">
+        <v>113</v>
+      </c>
+      <c r="AA24" s="28" t="s">
+        <v>114</v>
+      </c>
+      <c r="AB24" s="28" t="s">
+        <v>123</v>
+      </c>
+      <c r="AC24" s="67" t="s">
+        <v>67</v>
+      </c>
+      <c r="AD24" s="28" t="s">
+        <v>125</v>
+      </c>
+      <c r="AE24" s="28" t="s">
+        <v>126</v>
+      </c>
+      <c r="AF24" s="28" t="s">
+        <v>127</v>
+      </c>
+      <c r="AG24" s="70" t="s">
+        <v>98</v>
+      </c>
+      <c r="AH24" s="63" t="s">
+        <v>106</v>
+      </c>
+      <c r="AI24" s="63" t="s">
+        <v>107</v>
+      </c>
+      <c r="AJ24" s="72" t="s">
+        <v>117</v>
+      </c>
+      <c r="AK24" s="72" t="s">
+        <v>118</v>
+      </c>
+      <c r="AL24" s="24" t="s">
+        <v>110</v>
+      </c>
+      <c r="AM24" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="AN24" s="17" t="s">
+        <v>116</v>
+      </c>
+      <c r="AO24" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="AP24" s="12"/>
+      <c r="AQ24" s="48" t="s">
+        <v>130</v>
+      </c>
       <c r="AR24" s="49"/>
       <c r="AS24" s="49"/>
       <c r="AT24" s="49"/>
-    </row>
-    <row r="25" spans="1:46">
-      <c r="A25" s="39"/>
-      <c r="B25" s="39"/>
-      <c r="C25" s="39"/>
-      <c r="D25" s="39"/>
-      <c r="E25" s="39"/>
-      <c r="F25" s="39"/>
-      <c r="G25" s="39"/>
-      <c r="H25" s="39"/>
-      <c r="I25" s="39"/>
-      <c r="J25" s="42"/>
-      <c r="K25" s="46"/>
-      <c r="L25" s="46"/>
-      <c r="M25" s="46"/>
-      <c r="N25" s="46"/>
-      <c r="O25" s="39"/>
-      <c r="P25" s="39"/>
-      <c r="Q25" s="39"/>
-      <c r="R25" s="39"/>
-      <c r="S25" s="39"/>
-      <c r="T25" s="39"/>
-      <c r="U25" s="26"/>
-      <c r="V25" s="26"/>
-      <c r="W25" s="26"/>
-      <c r="X25" s="26"/>
-      <c r="Y25" s="26"/>
-      <c r="Z25" s="26"/>
-      <c r="AA25" s="26"/>
-      <c r="AB25" s="38"/>
-      <c r="AC25" s="37"/>
-      <c r="AD25" s="38"/>
-      <c r="AE25" s="38"/>
-      <c r="AF25" s="38"/>
-      <c r="AG25" s="38"/>
-      <c r="AH25" s="38"/>
-      <c r="AI25" s="38"/>
-      <c r="AJ25" s="37"/>
-      <c r="AK25" s="37"/>
-      <c r="AL25" s="14"/>
-      <c r="AM25" s="17"/>
-      <c r="AN25" s="17"/>
-      <c r="AO25" s="17"/>
-      <c r="AP25" s="48"/>
-      <c r="AQ25" s="49"/>
+      <c r="AU24" s="49"/>
+      <c r="AV24" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="AW24" s="17" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="25" spans="1:49" ht="11.25">
+      <c r="A25" s="18"/>
+      <c r="B25" s="18"/>
+      <c r="C25" s="18"/>
+      <c r="D25" s="18"/>
+      <c r="E25" s="18"/>
+      <c r="F25" s="18"/>
+      <c r="G25" s="18"/>
+      <c r="H25" s="18"/>
+      <c r="I25" s="21"/>
+      <c r="J25" s="21"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="25"/>
+      <c r="M25" s="25"/>
+      <c r="N25" s="25"/>
+      <c r="O25" s="25"/>
+      <c r="P25" s="25"/>
+      <c r="Q25" s="25"/>
+      <c r="R25" s="25"/>
+      <c r="S25" s="38"/>
+      <c r="T25" s="29"/>
+      <c r="U25" s="64"/>
+      <c r="V25" s="64"/>
+      <c r="W25" s="64"/>
+      <c r="X25" s="64"/>
+      <c r="Y25" s="64"/>
+      <c r="Z25" s="66"/>
+      <c r="AA25" s="29"/>
+      <c r="AB25" s="29"/>
+      <c r="AC25" s="68"/>
+      <c r="AD25" s="29"/>
+      <c r="AE25" s="29"/>
+      <c r="AF25" s="29"/>
+      <c r="AG25" s="71"/>
+      <c r="AH25" s="64"/>
+      <c r="AI25" s="64"/>
+      <c r="AJ25" s="73"/>
+      <c r="AK25" s="73"/>
+      <c r="AL25" s="25"/>
+      <c r="AM25" s="18"/>
+      <c r="AN25" s="18"/>
+      <c r="AO25" s="18"/>
+      <c r="AP25" s="12"/>
+      <c r="AQ25" s="48"/>
       <c r="AR25" s="49"/>
       <c r="AS25" s="49"/>
       <c r="AT25" s="49"/>
-    </row>
-    <row r="26" spans="1:46">
-      <c r="A26" s="39"/>
-      <c r="B26" s="39"/>
-      <c r="C26" s="39"/>
-      <c r="D26" s="39"/>
-      <c r="E26" s="39"/>
-      <c r="F26" s="39"/>
-      <c r="G26" s="39"/>
-      <c r="H26" s="39"/>
-      <c r="I26" s="39"/>
-      <c r="J26" s="42"/>
-      <c r="K26" s="46"/>
-      <c r="L26" s="46"/>
-      <c r="M26" s="46"/>
-      <c r="N26" s="46"/>
-      <c r="O26" s="39"/>
-      <c r="P26" s="39"/>
-      <c r="Q26" s="39"/>
-      <c r="R26" s="39"/>
-      <c r="S26" s="39"/>
-      <c r="T26" s="39"/>
-      <c r="U26" s="26"/>
-      <c r="V26" s="26"/>
-      <c r="W26" s="26"/>
-      <c r="X26" s="26"/>
-      <c r="Y26" s="26"/>
-      <c r="Z26" s="26"/>
-      <c r="AA26" s="26"/>
-      <c r="AB26" s="38"/>
-      <c r="AC26" s="37"/>
-      <c r="AD26" s="38"/>
-      <c r="AE26" s="38"/>
-      <c r="AF26" s="38"/>
-      <c r="AG26" s="38"/>
-      <c r="AH26" s="38"/>
-      <c r="AI26" s="38"/>
-      <c r="AJ26" s="37"/>
-      <c r="AK26" s="37"/>
-      <c r="AL26" s="14"/>
-      <c r="AM26" s="17"/>
-      <c r="AN26" s="17"/>
-      <c r="AO26" s="17"/>
-      <c r="AP26" s="48"/>
-      <c r="AQ26" s="49"/>
+      <c r="AU25" s="49"/>
+      <c r="AV25" s="18"/>
+      <c r="AW25" s="18"/>
+    </row>
+    <row r="26" spans="1:49" ht="11.25">
+      <c r="A26" s="18"/>
+      <c r="B26" s="18"/>
+      <c r="C26" s="18"/>
+      <c r="D26" s="18"/>
+      <c r="E26" s="18"/>
+      <c r="F26" s="18"/>
+      <c r="G26" s="18"/>
+      <c r="H26" s="18"/>
+      <c r="I26" s="21"/>
+      <c r="J26" s="21"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="25"/>
+      <c r="M26" s="25"/>
+      <c r="N26" s="25"/>
+      <c r="O26" s="25"/>
+      <c r="P26" s="25"/>
+      <c r="Q26" s="25"/>
+      <c r="R26" s="25"/>
+      <c r="S26" s="38"/>
+      <c r="T26" s="29"/>
+      <c r="U26" s="64"/>
+      <c r="V26" s="64"/>
+      <c r="W26" s="64"/>
+      <c r="X26" s="64"/>
+      <c r="Y26" s="64"/>
+      <c r="Z26" s="66"/>
+      <c r="AA26" s="29"/>
+      <c r="AB26" s="29"/>
+      <c r="AC26" s="68"/>
+      <c r="AD26" s="29"/>
+      <c r="AE26" s="29"/>
+      <c r="AF26" s="29"/>
+      <c r="AG26" s="71"/>
+      <c r="AH26" s="64"/>
+      <c r="AI26" s="64"/>
+      <c r="AJ26" s="73"/>
+      <c r="AK26" s="73"/>
+      <c r="AL26" s="25"/>
+      <c r="AM26" s="18"/>
+      <c r="AN26" s="18"/>
+      <c r="AO26" s="18"/>
+      <c r="AP26" s="12"/>
+      <c r="AQ26" s="48"/>
       <c r="AR26" s="49"/>
       <c r="AS26" s="49"/>
       <c r="AT26" s="49"/>
-    </row>
-    <row r="27" spans="1:46">
-      <c r="A27" s="39"/>
-      <c r="B27" s="39"/>
-      <c r="C27" s="39"/>
-      <c r="D27" s="39"/>
-      <c r="E27" s="39"/>
-      <c r="F27" s="39"/>
-      <c r="G27" s="39"/>
-      <c r="H27" s="39"/>
-      <c r="I27" s="39"/>
-      <c r="J27" s="42"/>
-      <c r="K27" s="46"/>
-      <c r="L27" s="46"/>
-      <c r="M27" s="46"/>
-      <c r="N27" s="46"/>
-      <c r="O27" s="44"/>
-      <c r="P27" s="44"/>
-      <c r="Q27" s="44"/>
-      <c r="R27" s="44"/>
-      <c r="S27" s="44"/>
-      <c r="T27" s="44"/>
-      <c r="U27" s="26"/>
-      <c r="V27" s="26"/>
-      <c r="W27" s="26"/>
-      <c r="X27" s="26"/>
-      <c r="Y27" s="26"/>
-      <c r="Z27" s="26"/>
-      <c r="AA27" s="26"/>
-      <c r="AB27" s="38"/>
-      <c r="AC27" s="37"/>
-      <c r="AD27" s="38"/>
-      <c r="AE27" s="38"/>
-      <c r="AF27" s="38"/>
-      <c r="AG27" s="38"/>
-      <c r="AH27" s="38"/>
-      <c r="AI27" s="38"/>
-      <c r="AJ27" s="37"/>
-      <c r="AK27" s="37"/>
-      <c r="AL27" s="15"/>
+      <c r="AU26" s="49"/>
+      <c r="AV26" s="18"/>
+      <c r="AW26" s="18"/>
+    </row>
+    <row r="27" spans="1:49" ht="11.25">
+      <c r="A27" s="18"/>
+      <c r="B27" s="18"/>
+      <c r="C27" s="18"/>
+      <c r="D27" s="18"/>
+      <c r="E27" s="18"/>
+      <c r="F27" s="18"/>
+      <c r="G27" s="18"/>
+      <c r="H27" s="18"/>
+      <c r="I27" s="21"/>
+      <c r="J27" s="21"/>
+      <c r="K27" s="1"/>
+      <c r="L27" s="25"/>
+      <c r="M27" s="25"/>
+      <c r="N27" s="25"/>
+      <c r="O27" s="25"/>
+      <c r="P27" s="25"/>
+      <c r="Q27" s="25"/>
+      <c r="R27" s="25"/>
+      <c r="S27" s="38"/>
+      <c r="T27" s="29"/>
+      <c r="U27" s="64"/>
+      <c r="V27" s="64"/>
+      <c r="W27" s="64"/>
+      <c r="X27" s="64"/>
+      <c r="Y27" s="64"/>
+      <c r="Z27" s="66"/>
+      <c r="AA27" s="29"/>
+      <c r="AB27" s="29"/>
+      <c r="AC27" s="68"/>
+      <c r="AD27" s="29"/>
+      <c r="AE27" s="29"/>
+      <c r="AF27" s="29"/>
+      <c r="AG27" s="71"/>
+      <c r="AH27" s="64"/>
+      <c r="AI27" s="64"/>
+      <c r="AJ27" s="73"/>
+      <c r="AK27" s="73"/>
+      <c r="AL27" s="25"/>
       <c r="AM27" s="18"/>
       <c r="AN27" s="18"/>
       <c r="AO27" s="18"/>
-      <c r="AP27" s="48"/>
-      <c r="AQ27" s="49"/>
+      <c r="AP27" s="12"/>
+      <c r="AQ27" s="48"/>
       <c r="AR27" s="49"/>
       <c r="AS27" s="49"/>
       <c r="AT27" s="49"/>
-    </row>
-    <row r="28" spans="1:46">
-      <c r="U28" s="27"/>
-      <c r="V28" s="27"/>
-      <c r="W28" s="27"/>
-      <c r="X28" s="27"/>
-      <c r="Y28" s="27"/>
-      <c r="Z28" s="27"/>
-      <c r="AA28" s="27"/>
-      <c r="AB28" s="38"/>
-      <c r="AC28" s="37"/>
-      <c r="AD28" s="38"/>
-      <c r="AE28" s="38"/>
-      <c r="AF28" s="38"/>
-      <c r="AG28" s="38"/>
-      <c r="AH28" s="7"/>
-      <c r="AJ28" s="37"/>
-      <c r="AK28" s="37"/>
-      <c r="AQ28" s="43"/>
-    </row>
-    <row r="29" spans="1:46">
-      <c r="D29" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="AB29" s="38"/>
-      <c r="AC29" s="37"/>
-      <c r="AD29" s="38"/>
-      <c r="AE29" s="38"/>
-      <c r="AF29" s="38"/>
-      <c r="AG29" s="38"/>
-    </row>
-    <row r="30" spans="1:46" ht="258.75">
-      <c r="D30" s="11" t="s">
-        <v>150</v>
-      </c>
-      <c r="AB30" s="38"/>
-      <c r="AC30" s="37"/>
-      <c r="AD30" s="38"/>
-      <c r="AE30" s="38"/>
-      <c r="AF30" s="38"/>
-      <c r="AG30" s="38"/>
-    </row>
-    <row r="31" spans="1:46" ht="326.25">
-      <c r="D31" s="12" t="s">
-        <v>151</v>
-      </c>
-      <c r="AB31" s="38"/>
-      <c r="AC31" s="37"/>
-      <c r="AD31" s="38"/>
-      <c r="AE31" s="38"/>
-      <c r="AF31" s="38"/>
-      <c r="AG31" s="38"/>
-    </row>
-    <row r="32" spans="1:46" ht="112.5">
+      <c r="AU27" s="49"/>
+      <c r="AV27" s="18"/>
+      <c r="AW27" s="18"/>
+    </row>
+    <row r="28" spans="1:49" ht="11.25">
+      <c r="A28" s="18"/>
+      <c r="B28" s="18"/>
+      <c r="C28" s="18"/>
+      <c r="D28" s="18"/>
+      <c r="E28" s="18"/>
+      <c r="F28" s="18"/>
+      <c r="G28" s="18"/>
+      <c r="H28" s="18"/>
+      <c r="I28" s="21"/>
+      <c r="J28" s="21"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="25"/>
+      <c r="M28" s="25"/>
+      <c r="N28" s="25"/>
+      <c r="O28" s="25"/>
+      <c r="P28" s="25"/>
+      <c r="Q28" s="25"/>
+      <c r="R28" s="25"/>
+      <c r="S28" s="38"/>
+      <c r="T28" s="29"/>
+      <c r="U28" s="64"/>
+      <c r="V28" s="64"/>
+      <c r="W28" s="64"/>
+      <c r="X28" s="64"/>
+      <c r="Y28" s="64"/>
+      <c r="Z28" s="66"/>
+      <c r="AA28" s="29"/>
+      <c r="AB28" s="29"/>
+      <c r="AC28" s="68"/>
+      <c r="AD28" s="29"/>
+      <c r="AE28" s="29"/>
+      <c r="AF28" s="29"/>
+      <c r="AG28" s="71"/>
+      <c r="AH28" s="64"/>
+      <c r="AI28" s="64"/>
+      <c r="AJ28" s="73"/>
+      <c r="AK28" s="73"/>
+      <c r="AL28" s="25"/>
+      <c r="AM28" s="18"/>
+      <c r="AN28" s="18"/>
+      <c r="AO28" s="18"/>
+      <c r="AP28" s="12"/>
+      <c r="AQ28" s="48"/>
+      <c r="AR28" s="49"/>
+      <c r="AS28" s="49"/>
+      <c r="AT28" s="49"/>
+      <c r="AU28" s="49"/>
+      <c r="AV28" s="18"/>
+      <c r="AW28" s="18"/>
+    </row>
+    <row r="29" spans="1:49" ht="11.25">
+      <c r="A29" s="19"/>
+      <c r="B29" s="19"/>
+      <c r="C29" s="19"/>
+      <c r="D29" s="19"/>
+      <c r="E29" s="19"/>
+      <c r="F29" s="19"/>
+      <c r="G29" s="19"/>
+      <c r="H29" s="19"/>
+      <c r="I29" s="21"/>
+      <c r="J29" s="21"/>
+      <c r="K29" s="1"/>
+      <c r="L29" s="25"/>
+      <c r="M29" s="25"/>
+      <c r="N29" s="25"/>
+      <c r="O29" s="25"/>
+      <c r="P29" s="25"/>
+      <c r="Q29" s="25"/>
+      <c r="R29" s="25"/>
+      <c r="S29" s="38"/>
+      <c r="T29" s="29"/>
+      <c r="U29" s="64"/>
+      <c r="V29" s="64"/>
+      <c r="W29" s="64"/>
+      <c r="X29" s="64"/>
+      <c r="Y29" s="64"/>
+      <c r="Z29" s="66"/>
+      <c r="AA29" s="29"/>
+      <c r="AB29" s="29"/>
+      <c r="AC29" s="68"/>
+      <c r="AD29" s="29"/>
+      <c r="AE29" s="29"/>
+      <c r="AF29" s="29"/>
+      <c r="AG29" s="71"/>
+      <c r="AH29" s="64"/>
+      <c r="AI29" s="64"/>
+      <c r="AJ29" s="73"/>
+      <c r="AK29" s="73"/>
+      <c r="AL29" s="25"/>
+      <c r="AM29" s="19"/>
+      <c r="AN29" s="19"/>
+      <c r="AO29" s="19"/>
+      <c r="AP29" s="12"/>
+      <c r="AQ29" s="48"/>
+      <c r="AR29" s="49"/>
+      <c r="AS29" s="49"/>
+      <c r="AT29" s="49"/>
+      <c r="AU29" s="49"/>
+      <c r="AV29" s="19"/>
+      <c r="AW29" s="19"/>
+    </row>
+    <row r="30" spans="1:49" ht="11.25">
+      <c r="K30" s="1"/>
+      <c r="U30" s="64"/>
+      <c r="V30" s="64"/>
+      <c r="W30" s="64"/>
+      <c r="X30" s="64"/>
+      <c r="Y30" s="64"/>
+      <c r="Z30" s="66"/>
+      <c r="AA30" s="29"/>
+      <c r="AB30" s="29"/>
+      <c r="AC30" s="68"/>
+      <c r="AD30" s="29"/>
+      <c r="AE30" s="29"/>
+      <c r="AF30" s="29"/>
+      <c r="AG30" s="71"/>
+      <c r="AH30" s="64"/>
+      <c r="AI30" s="64"/>
+      <c r="AJ30" s="73"/>
+      <c r="AK30" s="73"/>
+      <c r="AL30" s="25"/>
+      <c r="AQ30" s="13"/>
+    </row>
+    <row r="31" spans="1:49" ht="11.25">
+      <c r="D31" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="K31" s="1"/>
+      <c r="U31" s="64"/>
+      <c r="V31" s="64"/>
+      <c r="W31" s="64"/>
+      <c r="X31" s="64"/>
+      <c r="Y31" s="64"/>
+      <c r="Z31" s="66"/>
+      <c r="AA31" s="29"/>
+      <c r="AB31" s="29"/>
+      <c r="AC31" s="68"/>
+      <c r="AD31" s="29"/>
+      <c r="AE31" s="29"/>
+      <c r="AF31" s="29"/>
+      <c r="AG31" s="71"/>
+      <c r="AH31" s="64"/>
+      <c r="AI31" s="64"/>
+      <c r="AJ31" s="73"/>
+      <c r="AK31" s="73"/>
+      <c r="AL31" s="25"/>
+    </row>
+    <row r="32" spans="1:49" ht="258.75">
       <c r="D32" s="10" t="s">
-        <v>152</v>
-      </c>
-      <c r="AB32" s="38"/>
-      <c r="AC32" s="37"/>
-      <c r="AD32" s="38"/>
-      <c r="AE32" s="38"/>
-      <c r="AF32" s="38"/>
-      <c r="AG32" s="38"/>
-    </row>
-    <row r="33" spans="28:33">
-      <c r="AB33" s="38"/>
-      <c r="AC33" s="37"/>
-      <c r="AD33" s="38"/>
-      <c r="AE33" s="38"/>
-      <c r="AF33" s="38"/>
-      <c r="AG33" s="38"/>
-    </row>
-    <row r="34" spans="28:33">
-      <c r="AB34" s="38"/>
-      <c r="AC34" s="37"/>
-      <c r="AD34" s="38"/>
-      <c r="AE34" s="38"/>
-      <c r="AF34" s="38"/>
-      <c r="AG34" s="38"/>
-    </row>
-    <row r="35" spans="28:33">
-      <c r="AB35" s="38"/>
-      <c r="AC35" s="37"/>
-      <c r="AD35" s="38"/>
-      <c r="AE35" s="38"/>
-      <c r="AF35" s="38"/>
-      <c r="AG35" s="38"/>
-    </row>
-    <row r="36" spans="28:33">
-      <c r="AB36" s="38"/>
-      <c r="AC36" s="37"/>
-      <c r="AD36" s="38"/>
-      <c r="AE36" s="38"/>
-      <c r="AF36" s="38"/>
-      <c r="AG36" s="38"/>
-    </row>
-    <row r="37" spans="28:33">
-      <c r="AB37" s="38"/>
-      <c r="AC37" s="37"/>
-      <c r="AD37" s="38"/>
-      <c r="AE37" s="38"/>
-      <c r="AF37" s="38"/>
-      <c r="AG37" s="38"/>
-    </row>
-    <row r="38" spans="28:33">
-      <c r="AB38" s="38"/>
-      <c r="AC38" s="37"/>
-      <c r="AD38" s="38"/>
-      <c r="AE38" s="38"/>
-      <c r="AF38" s="38"/>
-      <c r="AG38" s="38"/>
+        <v>89</v>
+      </c>
+      <c r="K32" s="1"/>
+      <c r="U32" s="64"/>
+      <c r="V32" s="64"/>
+      <c r="W32" s="64"/>
+      <c r="X32" s="64"/>
+      <c r="Y32" s="64"/>
+      <c r="Z32" s="66"/>
+      <c r="AA32" s="30"/>
+      <c r="AB32" s="30"/>
+      <c r="AC32" s="69"/>
+      <c r="AD32" s="30"/>
+      <c r="AE32" s="30"/>
+      <c r="AF32" s="30"/>
+      <c r="AJ32" s="73"/>
+      <c r="AK32" s="73"/>
+      <c r="AL32" s="74"/>
+    </row>
+    <row r="33" spans="4:11" ht="326.25">
+      <c r="D33" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="K33" s="1"/>
+    </row>
+    <row r="34" spans="4:11" ht="112.5">
+      <c r="D34" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="K34" s="1"/>
+    </row>
+    <row r="35" spans="4:11" ht="11.25">
+      <c r="K35" s="1"/>
+    </row>
+    <row r="36" spans="4:11" ht="11.25">
+      <c r="K36" s="1"/>
+    </row>
+    <row r="37" spans="4:11" ht="11.25">
+      <c r="K37" s="1"/>
+    </row>
+    <row r="38" spans="4:11" ht="11.25">
+      <c r="K38" s="1"/>
+    </row>
+    <row r="39" spans="4:11" ht="11.25">
+      <c r="K39" s="1"/>
+    </row>
+    <row r="40" spans="4:11" ht="11.25">
+      <c r="K40" s="1"/>
+    </row>
+    <row r="41" spans="4:11" ht="11.25">
+      <c r="K41" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="54">
-    <mergeCell ref="AO19:AO21"/>
-    <mergeCell ref="AO22:AO27"/>
-    <mergeCell ref="AP22:AT27"/>
-    <mergeCell ref="AC19:AC21"/>
-    <mergeCell ref="AD19:AF21"/>
-    <mergeCell ref="AG19:AG21"/>
-    <mergeCell ref="B19:AA21"/>
-    <mergeCell ref="A22:A27"/>
-    <mergeCell ref="B22:B27"/>
-    <mergeCell ref="C22:C27"/>
-    <mergeCell ref="D22:D27"/>
-    <mergeCell ref="E22:E27"/>
-    <mergeCell ref="F22:F27"/>
-    <mergeCell ref="G22:G27"/>
-    <mergeCell ref="H22:H27"/>
-    <mergeCell ref="I22:I27"/>
-    <mergeCell ref="J22:J27"/>
-    <mergeCell ref="K22:K27"/>
-    <mergeCell ref="L22:L27"/>
-    <mergeCell ref="AB19:AB21"/>
-    <mergeCell ref="M22:M27"/>
-    <mergeCell ref="N22:N27"/>
-    <mergeCell ref="AG22:AG38"/>
-    <mergeCell ref="P22:P26"/>
+  <mergeCells count="53">
+    <mergeCell ref="AL24:AL31"/>
+    <mergeCell ref="V24:V32"/>
+    <mergeCell ref="AI24:AI31"/>
+    <mergeCell ref="AJ24:AJ32"/>
+    <mergeCell ref="AK24:AK32"/>
+    <mergeCell ref="AE24:AE32"/>
+    <mergeCell ref="AF24:AF32"/>
+    <mergeCell ref="AG24:AG31"/>
+    <mergeCell ref="AH24:AH31"/>
+    <mergeCell ref="AA24:AA32"/>
+    <mergeCell ref="AB24:AB32"/>
+    <mergeCell ref="AC24:AC32"/>
+    <mergeCell ref="AD24:AD32"/>
+    <mergeCell ref="U24:U32"/>
+    <mergeCell ref="W24:W32"/>
+    <mergeCell ref="X24:X32"/>
+    <mergeCell ref="Y24:Y32"/>
+    <mergeCell ref="Z24:Z32"/>
+    <mergeCell ref="AL21:AM23"/>
+    <mergeCell ref="N24:N29"/>
+    <mergeCell ref="O24:O29"/>
+    <mergeCell ref="P24:P29"/>
+    <mergeCell ref="Q24:Q29"/>
+    <mergeCell ref="R24:R29"/>
+    <mergeCell ref="S24:S29"/>
+    <mergeCell ref="T24:T29"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A3:B3"/>
-    <mergeCell ref="AC22:AC38"/>
-    <mergeCell ref="AB22:AB38"/>
-    <mergeCell ref="W22:W28"/>
-    <mergeCell ref="X22:X28"/>
-    <mergeCell ref="Q22:Q26"/>
-    <mergeCell ref="R22:R26"/>
-    <mergeCell ref="S22:S26"/>
-    <mergeCell ref="T22:T26"/>
-    <mergeCell ref="O22:O26"/>
-    <mergeCell ref="AD22:AD38"/>
-    <mergeCell ref="AE22:AE38"/>
-    <mergeCell ref="AF22:AF38"/>
-    <mergeCell ref="AH22:AH27"/>
-    <mergeCell ref="AI22:AI27"/>
-    <mergeCell ref="AH19:AI21"/>
-    <mergeCell ref="U22:U28"/>
-    <mergeCell ref="V22:V28"/>
-    <mergeCell ref="AN22:AN27"/>
-    <mergeCell ref="AN19:AN21"/>
-    <mergeCell ref="AJ19:AK21"/>
-    <mergeCell ref="AJ22:AJ28"/>
-    <mergeCell ref="AK22:AK28"/>
-    <mergeCell ref="AL22:AL27"/>
-    <mergeCell ref="AM22:AM27"/>
-    <mergeCell ref="AL19:AM21"/>
-    <mergeCell ref="Y22:Y28"/>
-    <mergeCell ref="Z22:Z28"/>
-    <mergeCell ref="AA22:AA28"/>
+    <mergeCell ref="M24:M29"/>
+    <mergeCell ref="L24:L29"/>
+    <mergeCell ref="B24:B29"/>
+    <mergeCell ref="AB21:AB23"/>
+    <mergeCell ref="A24:A29"/>
+    <mergeCell ref="C24:C29"/>
+    <mergeCell ref="D24:D29"/>
+    <mergeCell ref="F24:F29"/>
+    <mergeCell ref="G24:G29"/>
+    <mergeCell ref="AV24:AV29"/>
+    <mergeCell ref="AW24:AW29"/>
+    <mergeCell ref="H24:H29"/>
+    <mergeCell ref="I24:I29"/>
+    <mergeCell ref="J24:J29"/>
+    <mergeCell ref="E24:E29"/>
+    <mergeCell ref="AO21:AO23"/>
+    <mergeCell ref="AO24:AO29"/>
+    <mergeCell ref="AC21:AC23"/>
+    <mergeCell ref="AD21:AF23"/>
+    <mergeCell ref="AG21:AG23"/>
+    <mergeCell ref="AH21:AI23"/>
+    <mergeCell ref="AN24:AN29"/>
+    <mergeCell ref="AN21:AN23"/>
+    <mergeCell ref="AJ21:AK23"/>
+    <mergeCell ref="AM24:AM29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -3707,241 +4205,241 @@
     </row>
     <row r="6" spans="3:6">
       <c r="C6" s="4" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="F6" t="str">
         <f t="shared" si="0"/>
-        <v>ULTIMA_ATUALIZ_NF,</v>
+        <v>CD_TIPO_NF,</v>
       </c>
     </row>
     <row r="7" spans="3:6">
       <c r="C7" s="4" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="F7" t="str">
         <f t="shared" si="0"/>
-        <v>CD_UNIDADE_EMPRESARIAL,</v>
+        <v>CD_NATUREZA_OPERACAO,</v>
       </c>
     </row>
     <row r="8" spans="3:6">
       <c r="C8" s="4" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="F8" t="str">
         <f t="shared" si="0"/>
-        <v>CD_FILIAL,</v>
+        <v>SQ_NATUREZA_OPERACAO,</v>
       </c>
     </row>
     <row r="9" spans="3:6">
       <c r="C9" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F9" t="str">
         <f t="shared" si="0"/>
-        <v>CD_NATUREZA_OPERACAO,</v>
+        <v>DT_FATURA,</v>
       </c>
     </row>
     <row r="10" spans="3:6">
       <c r="C10" s="4" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="F10" t="str">
         <f t="shared" si="0"/>
-        <v>SQ_NATUREZA_OPERACAO,</v>
+        <v>ULTIMA_ATUALIZ_NF,</v>
       </c>
     </row>
     <row r="11" spans="3:6">
       <c r="C11" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F11" t="str">
         <f t="shared" si="0"/>
-        <v>DT_FATURA,</v>
+        <v>CD_CLIENTE_FATURA,</v>
       </c>
     </row>
     <row r="12" spans="3:6">
       <c r="C12" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F12" t="str">
         <f t="shared" si="0"/>
-        <v>CD_CLIENTE_FATURA,</v>
+        <v>CD_CLIENTE_ENTREGA,</v>
       </c>
     </row>
     <row r="13" spans="3:6">
       <c r="C13" s="4" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F13" t="str">
         <f t="shared" si="0"/>
-        <v>CD_CLIENTE_ENTREGA,</v>
+        <v>CD_ITEM,</v>
       </c>
     </row>
     <row r="14" spans="3:6">
       <c r="C14" s="4" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F14" t="str">
         <f t="shared" si="0"/>
-        <v>SQ_ENTREGA,</v>
+        <v>QT_DEVOLUCAO,</v>
       </c>
     </row>
     <row r="15" spans="3:6">
       <c r="C15" s="4" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="F15" t="str">
         <f t="shared" si="0"/>
-        <v>NR_PEDIDO,</v>
+        <v>VL_PRODUTO,</v>
       </c>
     </row>
     <row r="16" spans="3:6">
       <c r="C16" s="4" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="F16" t="str">
         <f t="shared" si="0"/>
-        <v>CD_STATUS,</v>
+        <v>VL_TOTAL_ITEM,</v>
       </c>
     </row>
     <row r="17" spans="3:6">
       <c r="C17" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F17" t="str">
         <f t="shared" si="0"/>
-        <v>DT_STATUS,</v>
+        <v>VL_ICMS,</v>
       </c>
     </row>
     <row r="18" spans="3:6">
       <c r="C18" s="4" t="s">
-        <v>15</v>
+        <v>49</v>
       </c>
       <c r="F18" t="str">
         <f t="shared" si="0"/>
-        <v>CD_TIPO_NF,</v>
+        <v>VL_PIS,</v>
       </c>
     </row>
     <row r="19" spans="3:6">
       <c r="C19" s="4" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="F19" t="str">
         <f t="shared" si="0"/>
-        <v>NR_NFR_DEVOLUCAO,</v>
+        <v>VL_COFINS,</v>
       </c>
     </row>
     <row r="20" spans="3:6">
       <c r="C20" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F20" t="str">
         <f t="shared" si="0"/>
-        <v>CD_ITEM,</v>
+        <v>VL_FRETE,</v>
       </c>
     </row>
     <row r="21" spans="3:6">
       <c r="C21" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F21" t="str">
         <f t="shared" si="0"/>
-        <v>QT_DEVOLUCAO,</v>
+        <v>VL_DESPESA,</v>
       </c>
     </row>
     <row r="22" spans="3:6">
       <c r="C22" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F22" t="str">
         <f t="shared" si="0"/>
-        <v>VL_ICMS,</v>
+        <v>VL_DESCONTO_INCONDICIONAL,</v>
       </c>
     </row>
     <row r="23" spans="3:6">
       <c r="C23" s="4" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="F23" t="str">
         <f t="shared" si="0"/>
-        <v>VL_PRODUTO,</v>
+        <v>CD_UNIDADE_NEGOCIO,</v>
       </c>
     </row>
     <row r="24" spans="3:6">
       <c r="C24" s="4" t="s">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="F24" t="str">
         <f t="shared" si="0"/>
-        <v>VL_FRETE,</v>
+        <v>NR_PEDIDO,</v>
       </c>
     </row>
     <row r="25" spans="3:6">
       <c r="C25" s="4" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="F25" t="str">
         <f t="shared" si="0"/>
-        <v>VL_DESPESA,</v>
+        <v>SQ_ENTREGA,</v>
       </c>
     </row>
     <row r="26" spans="3:6">
       <c r="C26" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F26" t="str">
         <f t="shared" si="0"/>
-        <v>VL_DESCONTO_INCONDICIONAL,</v>
+        <v>NR_PEDIDO_ORIGINAL,</v>
       </c>
     </row>
     <row r="27" spans="3:6">
       <c r="C27" s="4" t="s">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="F27" t="str">
         <f t="shared" si="0"/>
-        <v>VL_TOTAL_ITEM,</v>
+        <v>NM_MOTIVO_CATEGORIA,</v>
       </c>
     </row>
     <row r="28" spans="3:6">
       <c r="C28" s="4" t="s">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="F28" t="str">
         <f t="shared" si="0"/>
-        <v>NR_PEDIDO_ORIGINAL,</v>
+        <v>NM_MOTIVO_ASSUNTO,</v>
       </c>
     </row>
     <row r="29" spans="3:6">
       <c r="C29" s="4" t="s">
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="F29" t="str">
         <f t="shared" si="0"/>
-        <v>DT_PEDIDO,</v>
+        <v>NM_MOTIVO_ETIQUETA,</v>
       </c>
     </row>
     <row r="30" spans="3:6">
       <c r="C30" s="4" t="s">
-        <v>42</v>
+        <v>11</v>
       </c>
       <c r="F30" t="str">
         <f t="shared" si="0"/>
-        <v>CD_CANAL_VENDAS,</v>
+        <v>CD_UNIDADE_EMPRESARIAL,</v>
       </c>
     </row>
     <row r="31" spans="3:6">
       <c r="C31" s="4" t="s">
-        <v>43</v>
+        <v>8</v>
       </c>
       <c r="F31" t="str">
         <f t="shared" si="0"/>
-        <v>CD_TIPO_CLIENTE,</v>
+        <v>CD_FILIAL,</v>
       </c>
     </row>
     <row r="32" spans="3:6">
       <c r="C32" s="4" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F32" t="str">
         <f t="shared" si="0"/>
@@ -3950,7 +4448,7 @@
     </row>
     <row r="33" spans="3:6">
       <c r="C33" s="4" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F33" t="str">
         <f t="shared" si="0"/>
@@ -3959,140 +4457,2423 @@
     </row>
     <row r="34" spans="3:6">
       <c r="C34" s="4" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="F34" t="str">
         <f t="shared" si="0"/>
-        <v>CD_ESTADO,</v>
+        <v>CD_TIPO_CLIENTE,</v>
       </c>
     </row>
     <row r="35" spans="3:6">
       <c r="C35" s="4" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F35" t="str">
         <f t="shared" si="0"/>
-        <v>VL_CMV,</v>
+        <v>CD_ESTADO,</v>
       </c>
     </row>
     <row r="36" spans="3:6">
       <c r="C36" s="4" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="F36" t="str">
         <f t="shared" si="0"/>
-        <v>NR_NF_FATURA,</v>
+        <v>CD_CANAL_VENDAS,</v>
       </c>
     </row>
     <row r="37" spans="3:6">
       <c r="C37" s="4" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="F37" t="str">
         <f t="shared" si="0"/>
-        <v>NR_SERIE_NF_FATURA,</v>
+        <v>DT_PEDIDO,</v>
       </c>
     </row>
     <row r="38" spans="3:6">
       <c r="C38" s="4" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="F38" t="str">
         <f t="shared" si="0"/>
-        <v>NR_NF_REMESSA,</v>
+        <v>NR_NF_FATURA,</v>
       </c>
     </row>
     <row r="39" spans="3:6">
       <c r="C39" s="4" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="F39" t="str">
         <f t="shared" si="0"/>
-        <v>NR_SERIE_NF_REMESSA,</v>
+        <v>NR_SERIE_NF_FATURA,</v>
       </c>
     </row>
     <row r="40" spans="3:6">
       <c r="C40" s="4" t="s">
-        <v>52</v>
+        <v>26</v>
       </c>
       <c r="F40" t="str">
         <f t="shared" si="0"/>
-        <v>VL_PIS,</v>
+        <v>CD_STATUS,</v>
       </c>
     </row>
     <row r="41" spans="3:6">
       <c r="C41" s="4" t="s">
-        <v>53</v>
+        <v>27</v>
       </c>
       <c r="F41" t="str">
         <f t="shared" si="0"/>
-        <v>VL_COFINS,</v>
+        <v>DT_STATUS,</v>
       </c>
     </row>
     <row r="42" spans="3:6">
       <c r="C42" s="4" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="F42" t="str">
         <f t="shared" si="0"/>
-        <v>CD_UNIDADE_NEGOCIO,</v>
+        <v>VL_CMV,</v>
       </c>
     </row>
     <row r="43" spans="3:6">
       <c r="C43" s="4" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F43" t="str">
         <f t="shared" si="0"/>
-        <v>IN_REPOSICAO,</v>
+        <v>ID_FORCADO,</v>
       </c>
     </row>
     <row r="44" spans="3:6">
       <c r="C44" s="4" t="s">
-        <v>56</v>
+        <v>28</v>
       </c>
       <c r="F44" t="str">
         <f t="shared" si="0"/>
-        <v>NR_REC_DEVOLUCAO,</v>
+        <v>NR_NFR_DEVOLUCAO,</v>
       </c>
     </row>
     <row r="45" spans="3:6">
       <c r="C45" s="4" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F45" t="str">
         <f t="shared" si="0"/>
-        <v>NM_MOTIVO_CATEGORIA,</v>
+        <v>NR_REC_DEVOLUCAO,</v>
       </c>
     </row>
     <row r="46" spans="3:6">
       <c r="C46" s="4" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="F46" t="str">
         <f t="shared" si="0"/>
-        <v>NM_MOTIVO_ASSUNTO,</v>
+        <v>NR_NF_REMESSA,</v>
       </c>
     </row>
     <row r="47" spans="3:6">
       <c r="C47" s="4" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="F47" t="str">
         <f t="shared" si="0"/>
-        <v>NM_MOTIVO_ETIQUETA,</v>
+        <v>NR_SERIE_NF_REMESSA,</v>
       </c>
     </row>
     <row r="48" spans="3:6">
       <c r="C48" s="4" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="F48" t="str">
         <f t="shared" si="0"/>
-        <v>ID_FORCADO,</v>
+        <v>IN_REPOSICAO,</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <tabColor rgb="FFFA7E7E"/>
+  </sheetPr>
+  <dimension ref="A2:AT34"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="AS4" workbookViewId="0">
+      <selection activeCell="AW21" sqref="AW21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="11.25"/>
+  <cols>
+    <col min="1" max="1" width="20.42578125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="22" style="2" customWidth="1"/>
+    <col min="3" max="3" width="21.5703125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="23.7109375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="22.28515625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="21.85546875" style="2" customWidth="1"/>
+    <col min="7" max="7" width="20" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.42578125" style="2" customWidth="1"/>
+    <col min="9" max="9" width="21.7109375" style="2" customWidth="1"/>
+    <col min="10" max="10" width="22.28515625" style="2" customWidth="1"/>
+    <col min="11" max="11" width="25" style="2" customWidth="1"/>
+    <col min="12" max="12" width="22.5703125" style="2" customWidth="1"/>
+    <col min="13" max="13" width="23.140625" style="2" customWidth="1"/>
+    <col min="14" max="15" width="22.85546875" style="2" customWidth="1"/>
+    <col min="16" max="16" width="24.85546875" style="2" customWidth="1"/>
+    <col min="17" max="17" width="25" style="2" customWidth="1"/>
+    <col min="18" max="18" width="25.85546875" style="2" customWidth="1"/>
+    <col min="19" max="19" width="30.42578125" style="2" customWidth="1"/>
+    <col min="20" max="20" width="29.28515625" style="2" customWidth="1"/>
+    <col min="21" max="21" width="28" style="2" customWidth="1"/>
+    <col min="22" max="22" width="25.140625" style="2" customWidth="1"/>
+    <col min="23" max="23" width="22.7109375" style="2" customWidth="1"/>
+    <col min="24" max="24" width="16" style="2" customWidth="1"/>
+    <col min="25" max="25" width="17.28515625" style="2" customWidth="1"/>
+    <col min="26" max="26" width="21.85546875" style="2" customWidth="1"/>
+    <col min="27" max="27" width="21" style="2" customWidth="1"/>
+    <col min="28" max="28" width="20.42578125" style="2" customWidth="1"/>
+    <col min="29" max="29" width="35.28515625" style="2" customWidth="1"/>
+    <col min="30" max="30" width="42" style="2" customWidth="1"/>
+    <col min="31" max="31" width="35.140625" style="2" customWidth="1"/>
+    <col min="32" max="32" width="37.28515625" style="45" customWidth="1"/>
+    <col min="33" max="33" width="25" style="2" customWidth="1"/>
+    <col min="34" max="34" width="25.140625" style="2" customWidth="1"/>
+    <col min="35" max="35" width="24.5703125" style="2" customWidth="1"/>
+    <col min="36" max="36" width="23.5703125" style="2" customWidth="1"/>
+    <col min="37" max="37" width="28.5703125" style="2" customWidth="1"/>
+    <col min="38" max="38" width="26" style="2" customWidth="1"/>
+    <col min="39" max="39" width="23.85546875" style="2" customWidth="1"/>
+    <col min="40" max="40" width="24" style="2" customWidth="1"/>
+    <col min="41" max="41" width="28.5703125" style="2" customWidth="1"/>
+    <col min="42" max="42" width="28.85546875" style="2" customWidth="1"/>
+    <col min="43" max="44" width="31.42578125" style="2" customWidth="1"/>
+    <col min="45" max="45" width="46.42578125" style="1" customWidth="1"/>
+    <col min="46" max="46" width="100.42578125" style="2" customWidth="1"/>
+    <col min="47" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:46" ht="21">
+      <c r="A2" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="27"/>
+      <c r="C2" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:46" ht="21">
+      <c r="A3" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="27"/>
+      <c r="C3" s="3"/>
+    </row>
+    <row r="5" spans="1:46">
+      <c r="L5" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="AT5" s="2" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="6" spans="1:46">
+      <c r="A6" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="L6" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="M6" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="N6" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="O6" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="P6" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q6" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="R6" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="S6" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="T6" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="U6" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="V6" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="W6" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="X6" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y6" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z6" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="AA6" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB6" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="AC6" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="AD6" s="46" t="s">
+        <v>47</v>
+      </c>
+      <c r="AE6" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="AF6" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG6" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="AH6" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="AI6" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="AJ6" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="AK6" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="AL6" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="AM6" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="AN6" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="AO6" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="AP6" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="AQ6" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="AR6" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="AS6" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="AT6" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:46">
+      <c r="A7" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="K7" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="L7" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="M7" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="N7" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="O7" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="P7" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q7" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="R7" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="S7" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="T7" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="U7" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="V7" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="W7" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="X7" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="Z7" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="AA7" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="AB7" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="AC7" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="AD7" s="94">
+        <v>1130</v>
+      </c>
+      <c r="AE7" s="95" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF7" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="AG7" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="AH7" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="AI7" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="AJ7" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="AK7" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="AL7" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="AM7" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="AN7" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="AO7" s="95" t="s">
+        <v>138</v>
+      </c>
+      <c r="AP7" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="AQ7" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="AR7" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AS7" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="AT7" s="5" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="8" spans="1:46">
+      <c r="A8" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="O8" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="P8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="R8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="S8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="T8" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="U8" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="V8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="W8" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="X8" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="Z8" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="AA8" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="AB8" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="AC8" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="AD8" s="45">
+        <v>972</v>
+      </c>
+      <c r="AE8" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF8" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="AG8" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="AH8" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AI8" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="AJ8" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AK8" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="AL8" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AM8" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="AN8" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="AO8" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="AP8" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="AQ8" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="AR8" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AS8" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AT8" s="75" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="9" spans="1:46">
+      <c r="A9" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="M9" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="O9" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="P9" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="R9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="S9" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="T9" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="U9" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="V9" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="W9" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="X9" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y9" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="Z9" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="AA9" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="AB9" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="AC9" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="AD9" s="45">
+        <v>0</v>
+      </c>
+      <c r="AE9" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="AF9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AG9" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="AH9" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AI9" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="AJ9" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AK9" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="AL9" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AM9" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="AN9" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="AO9" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AP9" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="AQ9" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="AR9" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AS9" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AT9" s="75" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="10" spans="1:46">
+      <c r="A10" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="M10" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="N10" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="O10" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="P10" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q10" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="R10" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="S10" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="T10" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="U10" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="V10" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="W10" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="X10" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y10" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="Z10" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="AA10" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="AB10" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="AC10" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="AD10" s="45">
+        <v>0</v>
+      </c>
+      <c r="AE10" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF10" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="AG10" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="AH10" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AI10" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="AJ10" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AK10" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="AL10" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AM10" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="AN10" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="AO10" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="AP10" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="AQ10" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="AR10" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AS10" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AT10" s="75" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="11" spans="1:46" s="92" customFormat="1">
+      <c r="A11" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="I11" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="J11" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="K11" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="L11" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="M11" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="N11" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="O11" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="P11" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q11" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="R11" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="S11" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="T11" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="U11" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="V11" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="W11" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="X11" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y11" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="Z11" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="AA11" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="AB11" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="AC11" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="AD11" s="91">
+        <v>1129</v>
+      </c>
+      <c r="AE11" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF11" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="AG11" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="AH11" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="AI11" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="AJ11" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="AK11" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="AL11" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="AM11" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="AN11" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="AO11" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="AP11" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="AQ11" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="AR11" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="AS11" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="AT11" s="5" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="12" spans="1:46">
+      <c r="A12" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="M12" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="N12" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="O12" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="P12" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q12" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="R12" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="S12" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="T12" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="U12" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="V12" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="W12" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="X12" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y12" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="Z12" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="AA12" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="AB12" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="AC12" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AD12" s="45">
+        <v>0</v>
+      </c>
+      <c r="AE12" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF12" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AG12" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="AH12" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AI12" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="AJ12" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AK12" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="AL12" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AM12" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="AN12" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="AO12" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="AP12" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="AQ12" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="AR12" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AS12" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AT12" s="75" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="13" spans="1:46">
+      <c r="A13" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="M13" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="N13" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="O13" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="P13" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q13" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="R13" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="S13" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="T13" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="U13" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="V13" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="W13" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="X13" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y13" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="Z13" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="AA13" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="AB13" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="AC13" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="AD13" s="45">
+        <v>0</v>
+      </c>
+      <c r="AE13" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF13" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="AG13" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="AH13" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AI13" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="AJ13" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AK13" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="AL13" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AM13" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="AN13" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="AO13" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="AP13" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="AQ13" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="AR13" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AS13" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AT13" s="75" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="14" spans="1:46">
+      <c r="A14" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="M14" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="N14" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="O14" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="P14" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="Q14" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="R14" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="S14" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="T14" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="U14" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="V14" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="W14" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="X14" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="Z14" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="AA14" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="AB14" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="AC14" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="AD14" s="45">
+        <v>1123</v>
+      </c>
+      <c r="AE14" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF14" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="AG14" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="AH14" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AI14" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="AJ14" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AK14" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="AL14" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AM14" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="AN14" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="AO14" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="AP14" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="AQ14" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="AR14" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AS14" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AT14" s="75" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="15" spans="1:46">
+      <c r="A15" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="M15" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="N15" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="O15" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="P15" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q15" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="R15" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="S15" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="T15" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="U15" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="V15" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="W15" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="X15" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y15" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="Z15" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="AA15" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="AB15" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="AC15" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="AD15" s="45">
+        <v>0</v>
+      </c>
+      <c r="AE15" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF15" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="AG15" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="AH15" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AI15" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="AJ15" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AK15" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="AL15" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AM15" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="AN15" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="AO15" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="AP15" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="AQ15" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="AR15" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AS15" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AT15" s="75" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="16" spans="1:46">
+      <c r="A16" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="M16" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="N16" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="O16" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="P16" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q16" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="R16" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="S16" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="T16" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="U16" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="V16" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="W16" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="X16" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y16" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="Z16" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="AA16" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="AB16" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="AC16" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="AD16" s="45">
+        <v>0</v>
+      </c>
+      <c r="AE16" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF16" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AG16" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="AH16" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AI16" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="AJ16" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AK16" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="AL16" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AM16" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="AN16" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="AO16" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="AP16" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="AQ16" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="AR16" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AS16" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AT16" s="75" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="18" spans="1:46">
+      <c r="AI18" s="76"/>
+    </row>
+    <row r="19" spans="1:46">
+      <c r="H19" s="76"/>
+      <c r="V19" s="76"/>
+    </row>
+    <row r="21" spans="1:46" ht="11.25" customHeight="1">
+      <c r="A21" s="1"/>
+      <c r="B21" s="39" t="s">
+        <v>121</v>
+      </c>
+      <c r="C21" s="50"/>
+      <c r="D21" s="50"/>
+      <c r="E21" s="50"/>
+      <c r="F21" s="50"/>
+      <c r="G21" s="40"/>
+      <c r="H21" s="77" t="s">
+        <v>252</v>
+      </c>
+      <c r="I21" s="78"/>
+      <c r="J21" s="78"/>
+      <c r="K21" s="78"/>
+      <c r="L21" s="78"/>
+      <c r="M21" s="78"/>
+      <c r="N21" s="78"/>
+      <c r="O21" s="78"/>
+      <c r="P21" s="78"/>
+      <c r="Q21" s="78"/>
+      <c r="R21" s="78"/>
+      <c r="S21" s="78"/>
+      <c r="T21" s="78"/>
+      <c r="U21" s="87"/>
+      <c r="V21" s="77" t="s">
+        <v>253</v>
+      </c>
+      <c r="W21" s="78"/>
+      <c r="X21" s="78"/>
+      <c r="Y21" s="78"/>
+      <c r="Z21" s="78"/>
+      <c r="AA21" s="78"/>
+      <c r="AB21" s="78"/>
+      <c r="AC21" s="87"/>
+      <c r="AD21" s="83" t="s">
+        <v>278</v>
+      </c>
+      <c r="AE21" s="83"/>
+      <c r="AF21" s="83"/>
+      <c r="AG21" s="20" t="s">
+        <v>122</v>
+      </c>
+      <c r="AH21" s="20" t="s">
+        <v>124</v>
+      </c>
+      <c r="AI21" s="77" t="s">
+        <v>262</v>
+      </c>
+      <c r="AJ21" s="78"/>
+      <c r="AK21" s="78"/>
+      <c r="AL21" s="87"/>
+      <c r="AM21" s="39" t="s">
+        <v>108</v>
+      </c>
+      <c r="AN21" s="40"/>
+      <c r="AO21" s="39" t="s">
+        <v>111</v>
+      </c>
+      <c r="AP21" s="40"/>
+      <c r="AQ21" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="AR21" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="AS21" s="20" t="s">
+        <v>283</v>
+      </c>
+      <c r="AT21" s="93" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="22" spans="1:46" ht="11.25" customHeight="1">
+      <c r="A22" s="1"/>
+      <c r="B22" s="41"/>
+      <c r="C22" s="51"/>
+      <c r="D22" s="51"/>
+      <c r="E22" s="51"/>
+      <c r="F22" s="51"/>
+      <c r="G22" s="42"/>
+      <c r="H22" s="79"/>
+      <c r="I22" s="80"/>
+      <c r="J22" s="80"/>
+      <c r="K22" s="80"/>
+      <c r="L22" s="80"/>
+      <c r="M22" s="80"/>
+      <c r="N22" s="80"/>
+      <c r="O22" s="80"/>
+      <c r="P22" s="80"/>
+      <c r="Q22" s="80"/>
+      <c r="R22" s="80"/>
+      <c r="S22" s="80"/>
+      <c r="T22" s="80"/>
+      <c r="U22" s="88"/>
+      <c r="V22" s="79"/>
+      <c r="W22" s="80"/>
+      <c r="X22" s="80"/>
+      <c r="Y22" s="80"/>
+      <c r="Z22" s="80"/>
+      <c r="AA22" s="80"/>
+      <c r="AB22" s="80"/>
+      <c r="AC22" s="88"/>
+      <c r="AD22" s="83"/>
+      <c r="AE22" s="83"/>
+      <c r="AF22" s="83"/>
+      <c r="AG22" s="20"/>
+      <c r="AH22" s="20"/>
+      <c r="AI22" s="79"/>
+      <c r="AJ22" s="80"/>
+      <c r="AK22" s="80"/>
+      <c r="AL22" s="88"/>
+      <c r="AM22" s="41"/>
+      <c r="AN22" s="42"/>
+      <c r="AO22" s="41"/>
+      <c r="AP22" s="42"/>
+      <c r="AQ22" s="15"/>
+      <c r="AR22" s="15"/>
+      <c r="AS22" s="20"/>
+      <c r="AT22" s="93"/>
+    </row>
+    <row r="23" spans="1:46" ht="18" customHeight="1">
+      <c r="A23" s="1"/>
+      <c r="B23" s="43"/>
+      <c r="C23" s="52"/>
+      <c r="D23" s="52"/>
+      <c r="E23" s="52"/>
+      <c r="F23" s="52"/>
+      <c r="G23" s="44"/>
+      <c r="H23" s="81"/>
+      <c r="I23" s="82"/>
+      <c r="J23" s="82"/>
+      <c r="K23" s="82"/>
+      <c r="L23" s="82"/>
+      <c r="M23" s="82"/>
+      <c r="N23" s="82"/>
+      <c r="O23" s="82"/>
+      <c r="P23" s="82"/>
+      <c r="Q23" s="82"/>
+      <c r="R23" s="82"/>
+      <c r="S23" s="82"/>
+      <c r="T23" s="82"/>
+      <c r="U23" s="89"/>
+      <c r="V23" s="81"/>
+      <c r="W23" s="82"/>
+      <c r="X23" s="82"/>
+      <c r="Y23" s="82"/>
+      <c r="Z23" s="82"/>
+      <c r="AA23" s="82"/>
+      <c r="AB23" s="82"/>
+      <c r="AC23" s="89"/>
+      <c r="AD23" s="83"/>
+      <c r="AE23" s="83"/>
+      <c r="AF23" s="83"/>
+      <c r="AG23" s="20"/>
+      <c r="AH23" s="20"/>
+      <c r="AI23" s="81"/>
+      <c r="AJ23" s="82"/>
+      <c r="AK23" s="82"/>
+      <c r="AL23" s="89"/>
+      <c r="AM23" s="43"/>
+      <c r="AN23" s="44"/>
+      <c r="AO23" s="43"/>
+      <c r="AP23" s="44"/>
+      <c r="AQ23" s="16"/>
+      <c r="AR23" s="16"/>
+      <c r="AS23" s="20"/>
+      <c r="AT23" s="93"/>
+    </row>
+    <row r="24" spans="1:46" ht="11.25" customHeight="1">
+      <c r="A24" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="B24" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="C24" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="D24" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="E24" s="17" t="s">
+        <v>243</v>
+      </c>
+      <c r="F24" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="G24" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="H24" s="17" t="s">
+        <v>269</v>
+      </c>
+      <c r="I24" s="17" t="s">
+        <v>270</v>
+      </c>
+      <c r="J24" s="17" t="s">
+        <v>271</v>
+      </c>
+      <c r="K24" s="17" t="s">
+        <v>272</v>
+      </c>
+      <c r="L24" s="17" t="s">
+        <v>277</v>
+      </c>
+      <c r="M24" s="17" t="s">
+        <v>244</v>
+      </c>
+      <c r="N24" s="17" t="s">
+        <v>245</v>
+      </c>
+      <c r="O24" s="17" t="s">
+        <v>245</v>
+      </c>
+      <c r="P24" s="17" t="s">
+        <v>249</v>
+      </c>
+      <c r="Q24" s="21" t="s">
+        <v>250</v>
+      </c>
+      <c r="R24" s="21" t="s">
+        <v>251</v>
+      </c>
+      <c r="S24" s="21" t="s">
+        <v>246</v>
+      </c>
+      <c r="T24" s="21" t="s">
+        <v>247</v>
+      </c>
+      <c r="U24" s="21" t="s">
+        <v>248</v>
+      </c>
+      <c r="V24" s="84" t="s">
+        <v>254</v>
+      </c>
+      <c r="W24" s="84" t="s">
+        <v>255</v>
+      </c>
+      <c r="X24" s="84" t="s">
+        <v>257</v>
+      </c>
+      <c r="Y24" s="21" t="s">
+        <v>258</v>
+      </c>
+      <c r="Z24" s="21" t="s">
+        <v>259</v>
+      </c>
+      <c r="AA24" s="21" t="s">
+        <v>260</v>
+      </c>
+      <c r="AB24" s="17" t="s">
+        <v>261</v>
+      </c>
+      <c r="AC24" s="26" t="s">
+        <v>256</v>
+      </c>
+      <c r="AD24" s="17" t="s">
+        <v>273</v>
+      </c>
+      <c r="AE24" s="17" t="s">
+        <v>274</v>
+      </c>
+      <c r="AF24" s="17" t="s">
+        <v>281</v>
+      </c>
+      <c r="AG24" s="28" t="s">
+        <v>123</v>
+      </c>
+      <c r="AH24" s="67" t="s">
+        <v>67</v>
+      </c>
+      <c r="AI24" s="90" t="s">
+        <v>263</v>
+      </c>
+      <c r="AJ24" s="90" t="s">
+        <v>264</v>
+      </c>
+      <c r="AK24" s="90" t="s">
+        <v>265</v>
+      </c>
+      <c r="AL24" s="90" t="s">
+        <v>266</v>
+      </c>
+      <c r="AM24" s="90" t="s">
+        <v>267</v>
+      </c>
+      <c r="AN24" s="90" t="s">
+        <v>268</v>
+      </c>
+      <c r="AO24" s="21" t="s">
+        <v>276</v>
+      </c>
+      <c r="AP24" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="AQ24" s="17" t="s">
+        <v>116</v>
+      </c>
+      <c r="AR24" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="AS24" s="84" t="s">
+        <v>282</v>
+      </c>
+      <c r="AT24" s="93"/>
+    </row>
+    <row r="25" spans="1:46">
+      <c r="A25" s="18"/>
+      <c r="B25" s="18"/>
+      <c r="C25" s="18"/>
+      <c r="D25" s="18"/>
+      <c r="E25" s="18"/>
+      <c r="F25" s="18"/>
+      <c r="G25" s="18"/>
+      <c r="H25" s="18"/>
+      <c r="I25" s="18"/>
+      <c r="J25" s="18"/>
+      <c r="K25" s="18"/>
+      <c r="L25" s="18"/>
+      <c r="M25" s="18"/>
+      <c r="N25" s="18"/>
+      <c r="O25" s="18"/>
+      <c r="P25" s="18"/>
+      <c r="Q25" s="21"/>
+      <c r="R25" s="21"/>
+      <c r="S25" s="21"/>
+      <c r="T25" s="21"/>
+      <c r="U25" s="21"/>
+      <c r="V25" s="85"/>
+      <c r="W25" s="85"/>
+      <c r="X25" s="85"/>
+      <c r="Y25" s="21"/>
+      <c r="Z25" s="21"/>
+      <c r="AA25" s="21"/>
+      <c r="AB25" s="18"/>
+      <c r="AC25" s="26"/>
+      <c r="AD25" s="18"/>
+      <c r="AE25" s="18"/>
+      <c r="AF25" s="18"/>
+      <c r="AG25" s="29"/>
+      <c r="AH25" s="68"/>
+      <c r="AI25" s="90"/>
+      <c r="AJ25" s="90"/>
+      <c r="AK25" s="90"/>
+      <c r="AL25" s="90"/>
+      <c r="AM25" s="90"/>
+      <c r="AN25" s="90"/>
+      <c r="AO25" s="21"/>
+      <c r="AP25" s="18"/>
+      <c r="AQ25" s="18"/>
+      <c r="AR25" s="18"/>
+      <c r="AS25" s="85"/>
+      <c r="AT25" s="22" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="26" spans="1:46">
+      <c r="A26" s="18"/>
+      <c r="B26" s="18"/>
+      <c r="C26" s="18"/>
+      <c r="D26" s="18"/>
+      <c r="E26" s="18"/>
+      <c r="F26" s="18"/>
+      <c r="G26" s="18"/>
+      <c r="H26" s="18"/>
+      <c r="I26" s="18"/>
+      <c r="J26" s="18"/>
+      <c r="K26" s="18"/>
+      <c r="L26" s="18"/>
+      <c r="M26" s="18"/>
+      <c r="N26" s="18"/>
+      <c r="O26" s="18"/>
+      <c r="P26" s="18"/>
+      <c r="Q26" s="21"/>
+      <c r="R26" s="21"/>
+      <c r="S26" s="21"/>
+      <c r="T26" s="21"/>
+      <c r="U26" s="21"/>
+      <c r="V26" s="85"/>
+      <c r="W26" s="85"/>
+      <c r="X26" s="85"/>
+      <c r="Y26" s="21"/>
+      <c r="Z26" s="21"/>
+      <c r="AA26" s="21"/>
+      <c r="AB26" s="18"/>
+      <c r="AC26" s="26"/>
+      <c r="AD26" s="18"/>
+      <c r="AE26" s="18"/>
+      <c r="AF26" s="18"/>
+      <c r="AG26" s="29"/>
+      <c r="AH26" s="68"/>
+      <c r="AI26" s="90"/>
+      <c r="AJ26" s="90"/>
+      <c r="AK26" s="90"/>
+      <c r="AL26" s="90"/>
+      <c r="AM26" s="90"/>
+      <c r="AN26" s="90"/>
+      <c r="AO26" s="21"/>
+      <c r="AP26" s="18"/>
+      <c r="AQ26" s="18"/>
+      <c r="AR26" s="18"/>
+      <c r="AS26" s="85"/>
+      <c r="AT26" s="23"/>
+    </row>
+    <row r="27" spans="1:46">
+      <c r="A27" s="18"/>
+      <c r="B27" s="18"/>
+      <c r="C27" s="18"/>
+      <c r="D27" s="18"/>
+      <c r="E27" s="18"/>
+      <c r="F27" s="18"/>
+      <c r="G27" s="18"/>
+      <c r="H27" s="18"/>
+      <c r="I27" s="18"/>
+      <c r="J27" s="18"/>
+      <c r="K27" s="18"/>
+      <c r="L27" s="18"/>
+      <c r="M27" s="18"/>
+      <c r="N27" s="18"/>
+      <c r="O27" s="18"/>
+      <c r="P27" s="18"/>
+      <c r="Q27" s="21"/>
+      <c r="R27" s="21"/>
+      <c r="S27" s="21"/>
+      <c r="T27" s="21"/>
+      <c r="U27" s="21"/>
+      <c r="V27" s="85"/>
+      <c r="W27" s="85"/>
+      <c r="X27" s="85"/>
+      <c r="Y27" s="21"/>
+      <c r="Z27" s="21"/>
+      <c r="AA27" s="21"/>
+      <c r="AB27" s="18"/>
+      <c r="AC27" s="26"/>
+      <c r="AD27" s="18"/>
+      <c r="AE27" s="18"/>
+      <c r="AF27" s="18"/>
+      <c r="AG27" s="29"/>
+      <c r="AH27" s="68"/>
+      <c r="AI27" s="90"/>
+      <c r="AJ27" s="90"/>
+      <c r="AK27" s="90"/>
+      <c r="AL27" s="90"/>
+      <c r="AM27" s="90"/>
+      <c r="AN27" s="90"/>
+      <c r="AO27" s="21"/>
+      <c r="AP27" s="18"/>
+      <c r="AQ27" s="18"/>
+      <c r="AR27" s="18"/>
+      <c r="AS27" s="85"/>
+      <c r="AT27" s="23"/>
+    </row>
+    <row r="28" spans="1:46">
+      <c r="A28" s="18"/>
+      <c r="B28" s="18"/>
+      <c r="C28" s="18"/>
+      <c r="D28" s="18"/>
+      <c r="E28" s="18"/>
+      <c r="F28" s="18"/>
+      <c r="G28" s="18"/>
+      <c r="H28" s="18"/>
+      <c r="I28" s="18"/>
+      <c r="J28" s="18"/>
+      <c r="K28" s="18"/>
+      <c r="L28" s="18"/>
+      <c r="M28" s="18"/>
+      <c r="N28" s="18"/>
+      <c r="O28" s="18"/>
+      <c r="P28" s="18"/>
+      <c r="Q28" s="21"/>
+      <c r="R28" s="21"/>
+      <c r="S28" s="21"/>
+      <c r="T28" s="21"/>
+      <c r="U28" s="21"/>
+      <c r="V28" s="85"/>
+      <c r="W28" s="85"/>
+      <c r="X28" s="85"/>
+      <c r="Y28" s="21"/>
+      <c r="Z28" s="21"/>
+      <c r="AA28" s="21"/>
+      <c r="AB28" s="18"/>
+      <c r="AC28" s="26"/>
+      <c r="AD28" s="18"/>
+      <c r="AE28" s="18"/>
+      <c r="AF28" s="18"/>
+      <c r="AG28" s="29"/>
+      <c r="AH28" s="68"/>
+      <c r="AI28" s="90"/>
+      <c r="AJ28" s="90"/>
+      <c r="AK28" s="90"/>
+      <c r="AL28" s="90"/>
+      <c r="AM28" s="90"/>
+      <c r="AN28" s="90"/>
+      <c r="AO28" s="21"/>
+      <c r="AP28" s="18"/>
+      <c r="AQ28" s="18"/>
+      <c r="AR28" s="18"/>
+      <c r="AS28" s="85"/>
+      <c r="AT28" s="23"/>
+    </row>
+    <row r="29" spans="1:46">
+      <c r="A29" s="19"/>
+      <c r="B29" s="19"/>
+      <c r="C29" s="19"/>
+      <c r="D29" s="19"/>
+      <c r="E29" s="19"/>
+      <c r="F29" s="19"/>
+      <c r="G29" s="19"/>
+      <c r="H29" s="19"/>
+      <c r="I29" s="19"/>
+      <c r="J29" s="19"/>
+      <c r="K29" s="19"/>
+      <c r="L29" s="19"/>
+      <c r="M29" s="19"/>
+      <c r="N29" s="19"/>
+      <c r="O29" s="19"/>
+      <c r="P29" s="19"/>
+      <c r="Q29" s="21"/>
+      <c r="R29" s="21"/>
+      <c r="S29" s="21"/>
+      <c r="T29" s="21"/>
+      <c r="U29" s="21"/>
+      <c r="V29" s="86"/>
+      <c r="W29" s="86"/>
+      <c r="X29" s="86"/>
+      <c r="Y29" s="21"/>
+      <c r="Z29" s="21"/>
+      <c r="AA29" s="21"/>
+      <c r="AB29" s="19"/>
+      <c r="AC29" s="26"/>
+      <c r="AD29" s="19"/>
+      <c r="AE29" s="19"/>
+      <c r="AF29" s="19"/>
+      <c r="AG29" s="29"/>
+      <c r="AH29" s="68"/>
+      <c r="AI29" s="90"/>
+      <c r="AJ29" s="90"/>
+      <c r="AK29" s="90"/>
+      <c r="AL29" s="90"/>
+      <c r="AM29" s="90"/>
+      <c r="AN29" s="90"/>
+      <c r="AO29" s="21"/>
+      <c r="AP29" s="19"/>
+      <c r="AQ29" s="19"/>
+      <c r="AR29" s="19"/>
+      <c r="AS29" s="86"/>
+      <c r="AT29" s="98"/>
+    </row>
+    <row r="30" spans="1:46">
+      <c r="AG30" s="29"/>
+      <c r="AH30" s="68"/>
+    </row>
+    <row r="31" spans="1:46">
+      <c r="D31" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="AB31" s="96" t="s">
+        <v>275</v>
+      </c>
+      <c r="AG31" s="29"/>
+      <c r="AH31" s="68"/>
+    </row>
+    <row r="32" spans="1:46" ht="258.75">
+      <c r="D32" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="AB32" s="97"/>
+      <c r="AG32" s="30"/>
+      <c r="AH32" s="69"/>
+    </row>
+    <row r="33" spans="4:4" ht="326.25">
+      <c r="D33" s="11" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="34" spans="4:4" ht="112.5">
+      <c r="D34" s="9" t="s">
+        <v>91</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="62">
+    <mergeCell ref="AS21:AS23"/>
+    <mergeCell ref="AT21:AT24"/>
+    <mergeCell ref="AT25:AT29"/>
+    <mergeCell ref="H21:U23"/>
+    <mergeCell ref="V21:AC23"/>
+    <mergeCell ref="AI21:AL23"/>
+    <mergeCell ref="AM21:AN23"/>
+    <mergeCell ref="AO21:AP23"/>
+    <mergeCell ref="AD21:AF23"/>
+    <mergeCell ref="AB31:AB32"/>
+    <mergeCell ref="AO24:AO29"/>
+    <mergeCell ref="AF24:AF29"/>
+    <mergeCell ref="AL24:AL29"/>
+    <mergeCell ref="AM24:AM29"/>
+    <mergeCell ref="AN24:AN29"/>
+    <mergeCell ref="AD24:AD29"/>
+    <mergeCell ref="AE24:AE29"/>
+    <mergeCell ref="AI24:AI29"/>
+    <mergeCell ref="AJ24:AJ29"/>
+    <mergeCell ref="AK24:AK29"/>
+    <mergeCell ref="B21:G23"/>
+    <mergeCell ref="W24:W29"/>
+    <mergeCell ref="AC24:AC29"/>
+    <mergeCell ref="X24:X29"/>
+    <mergeCell ref="Y24:Y29"/>
+    <mergeCell ref="AP24:AP29"/>
+    <mergeCell ref="AQ24:AQ29"/>
+    <mergeCell ref="AR24:AR29"/>
+    <mergeCell ref="L24:L29"/>
+    <mergeCell ref="K24:K29"/>
+    <mergeCell ref="AS24:AS29"/>
+    <mergeCell ref="J24:J29"/>
+    <mergeCell ref="AG24:AG32"/>
+    <mergeCell ref="AH24:AH32"/>
+    <mergeCell ref="Z24:Z29"/>
+    <mergeCell ref="AA24:AA29"/>
+    <mergeCell ref="AB24:AB29"/>
+    <mergeCell ref="R24:R29"/>
+    <mergeCell ref="V24:V29"/>
+    <mergeCell ref="O24:O29"/>
+    <mergeCell ref="S24:S29"/>
+    <mergeCell ref="T24:T29"/>
+    <mergeCell ref="U24:U29"/>
+    <mergeCell ref="P24:P29"/>
+    <mergeCell ref="Q24:Q29"/>
+    <mergeCell ref="F24:F29"/>
+    <mergeCell ref="G24:G29"/>
+    <mergeCell ref="H24:H29"/>
+    <mergeCell ref="I24:I29"/>
+    <mergeCell ref="M24:M29"/>
+    <mergeCell ref="N24:N29"/>
+    <mergeCell ref="AQ21:AQ23"/>
+    <mergeCell ref="AR21:AR23"/>
+    <mergeCell ref="A24:A29"/>
+    <mergeCell ref="B24:B29"/>
+    <mergeCell ref="C24:C29"/>
+    <mergeCell ref="D24:D29"/>
+    <mergeCell ref="E24:E29"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="AG21:AG23"/>
+    <mergeCell ref="AH21:AH23"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Documentação/Planilhas/Conferencia_DEV.xlsx
+++ b/Documentação/Planilhas/Conferencia_DEV.xlsx
@@ -1227,13 +1227,38 @@
     <xf numFmtId="49" fontId="5" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1245,60 +1270,15 @@
     <xf numFmtId="49" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1306,42 +1286,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -1349,16 +1293,72 @@
     <xf numFmtId="0" fontId="9" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1667,8 +1667,8 @@
   </sheetPr>
   <dimension ref="A2:AW36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" topLeftCell="X10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
@@ -1724,20 +1724,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:49" ht="21">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="64" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="28"/>
+      <c r="B2" s="64"/>
       <c r="C2" s="3" t="s">
         <v>18</v>
       </c>
       <c r="AR2" s="2"/>
     </row>
     <row r="3" spans="1:49" ht="21">
-      <c r="A3" s="28" t="s">
+      <c r="A3" s="64" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="28"/>
+      <c r="B3" s="64"/>
       <c r="C3" s="3" t="s">
         <v>276</v>
       </c>
@@ -1749,7 +1749,7 @@
     </row>
     <row r="5" spans="1:49" ht="21">
       <c r="A5" s="13"/>
-      <c r="B5" s="65" t="s">
+      <c r="B5" s="22" t="s">
         <v>277</v>
       </c>
       <c r="C5" s="3"/>
@@ -3410,602 +3410,602 @@
     </row>
     <row r="23" spans="1:49" ht="11.25" customHeight="1">
       <c r="A23" s="1"/>
-      <c r="B23" s="29" t="s">
+      <c r="B23" s="54" t="s">
         <v>91</v>
       </c>
-      <c r="C23" s="41"/>
-      <c r="D23" s="41"/>
-      <c r="E23" s="41"/>
-      <c r="F23" s="41"/>
-      <c r="G23" s="30"/>
-      <c r="H23" s="64" t="s">
+      <c r="C23" s="55"/>
+      <c r="D23" s="55"/>
+      <c r="E23" s="55"/>
+      <c r="F23" s="55"/>
+      <c r="G23" s="56"/>
+      <c r="H23" s="35" t="s">
         <v>174</v>
       </c>
-      <c r="I23" s="64"/>
-      <c r="J23" s="64"/>
-      <c r="K23" s="64"/>
-      <c r="L23" s="64"/>
-      <c r="M23" s="64"/>
-      <c r="N23" s="64"/>
-      <c r="O23" s="64"/>
-      <c r="P23" s="64"/>
-      <c r="Q23" s="64"/>
-      <c r="R23" s="64"/>
-      <c r="S23" s="64"/>
-      <c r="T23" s="64"/>
-      <c r="U23" s="64"/>
-      <c r="V23" s="64"/>
-      <c r="W23" s="61" t="s">
+      <c r="I23" s="35"/>
+      <c r="J23" s="35"/>
+      <c r="K23" s="35"/>
+      <c r="L23" s="35"/>
+      <c r="M23" s="35"/>
+      <c r="N23" s="35"/>
+      <c r="O23" s="35"/>
+      <c r="P23" s="35"/>
+      <c r="Q23" s="35"/>
+      <c r="R23" s="35"/>
+      <c r="S23" s="35"/>
+      <c r="T23" s="35"/>
+      <c r="U23" s="35"/>
+      <c r="V23" s="35"/>
+      <c r="W23" s="43" t="s">
         <v>175</v>
       </c>
-      <c r="X23" s="61"/>
-      <c r="Y23" s="61"/>
-      <c r="Z23" s="61"/>
-      <c r="AA23" s="61"/>
-      <c r="AB23" s="61"/>
-      <c r="AC23" s="61"/>
-      <c r="AD23" s="61"/>
-      <c r="AE23" s="61"/>
-      <c r="AF23" s="61"/>
-      <c r="AG23" s="50" t="s">
+      <c r="X23" s="43"/>
+      <c r="Y23" s="43"/>
+      <c r="Z23" s="43"/>
+      <c r="AA23" s="43"/>
+      <c r="AB23" s="43"/>
+      <c r="AC23" s="43"/>
+      <c r="AD23" s="43"/>
+      <c r="AE23" s="43"/>
+      <c r="AF23" s="43"/>
+      <c r="AG23" s="23" t="s">
         <v>198</v>
       </c>
-      <c r="AH23" s="51"/>
-      <c r="AI23" s="52"/>
-      <c r="AJ23" s="26" t="s">
+      <c r="AH23" s="24"/>
+      <c r="AI23" s="25"/>
+      <c r="AJ23" s="65" t="s">
         <v>92</v>
       </c>
-      <c r="AK23" s="26" t="s">
+      <c r="AK23" s="65" t="s">
         <v>94</v>
       </c>
-      <c r="AL23" s="50" t="s">
+      <c r="AL23" s="23" t="s">
         <v>184</v>
       </c>
-      <c r="AM23" s="51"/>
-      <c r="AN23" s="51"/>
-      <c r="AO23" s="52"/>
-      <c r="AP23" s="29" t="s">
+      <c r="AM23" s="24"/>
+      <c r="AN23" s="24"/>
+      <c r="AO23" s="25"/>
+      <c r="AP23" s="54" t="s">
         <v>89</v>
       </c>
-      <c r="AQ23" s="41"/>
-      <c r="AR23" s="41"/>
-      <c r="AS23" s="41"/>
-      <c r="AT23" s="30"/>
-      <c r="AU23" s="20" t="s">
+      <c r="AQ23" s="55"/>
+      <c r="AR23" s="55"/>
+      <c r="AS23" s="55"/>
+      <c r="AT23" s="56"/>
+      <c r="AU23" s="51" t="s">
         <v>90</v>
       </c>
-      <c r="AV23" s="20" t="s">
+      <c r="AV23" s="51" t="s">
         <v>95</v>
       </c>
-      <c r="AW23" s="49" t="s">
+      <c r="AW23" s="36" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="24" spans="1:49" ht="11.25" customHeight="1">
       <c r="A24" s="1"/>
-      <c r="B24" s="31"/>
-      <c r="C24" s="42"/>
-      <c r="D24" s="42"/>
-      <c r="E24" s="42"/>
-      <c r="F24" s="42"/>
-      <c r="G24" s="32"/>
-      <c r="H24" s="64"/>
-      <c r="I24" s="64"/>
-      <c r="J24" s="64"/>
-      <c r="K24" s="64"/>
-      <c r="L24" s="64"/>
-      <c r="M24" s="64"/>
-      <c r="N24" s="64"/>
-      <c r="O24" s="64"/>
-      <c r="P24" s="64"/>
-      <c r="Q24" s="64"/>
-      <c r="R24" s="64"/>
-      <c r="S24" s="64"/>
-      <c r="T24" s="64"/>
-      <c r="U24" s="64"/>
-      <c r="V24" s="64"/>
-      <c r="W24" s="61"/>
-      <c r="X24" s="61"/>
-      <c r="Y24" s="61"/>
-      <c r="Z24" s="61"/>
-      <c r="AA24" s="61"/>
-      <c r="AB24" s="61"/>
-      <c r="AC24" s="61"/>
-      <c r="AD24" s="61"/>
-      <c r="AE24" s="61"/>
-      <c r="AF24" s="61"/>
-      <c r="AG24" s="53"/>
-      <c r="AH24" s="54"/>
-      <c r="AI24" s="55"/>
-      <c r="AJ24" s="26"/>
-      <c r="AK24" s="26"/>
-      <c r="AL24" s="53"/>
-      <c r="AM24" s="54"/>
-      <c r="AN24" s="54"/>
-      <c r="AO24" s="55"/>
-      <c r="AP24" s="31"/>
-      <c r="AQ24" s="42"/>
-      <c r="AR24" s="42"/>
-      <c r="AS24" s="42"/>
-      <c r="AT24" s="32"/>
-      <c r="AU24" s="21"/>
-      <c r="AV24" s="21"/>
-      <c r="AW24" s="49"/>
+      <c r="B24" s="57"/>
+      <c r="C24" s="58"/>
+      <c r="D24" s="58"/>
+      <c r="E24" s="58"/>
+      <c r="F24" s="58"/>
+      <c r="G24" s="59"/>
+      <c r="H24" s="35"/>
+      <c r="I24" s="35"/>
+      <c r="J24" s="35"/>
+      <c r="K24" s="35"/>
+      <c r="L24" s="35"/>
+      <c r="M24" s="35"/>
+      <c r="N24" s="35"/>
+      <c r="O24" s="35"/>
+      <c r="P24" s="35"/>
+      <c r="Q24" s="35"/>
+      <c r="R24" s="35"/>
+      <c r="S24" s="35"/>
+      <c r="T24" s="35"/>
+      <c r="U24" s="35"/>
+      <c r="V24" s="35"/>
+      <c r="W24" s="43"/>
+      <c r="X24" s="43"/>
+      <c r="Y24" s="43"/>
+      <c r="Z24" s="43"/>
+      <c r="AA24" s="43"/>
+      <c r="AB24" s="43"/>
+      <c r="AC24" s="43"/>
+      <c r="AD24" s="43"/>
+      <c r="AE24" s="43"/>
+      <c r="AF24" s="43"/>
+      <c r="AG24" s="26"/>
+      <c r="AH24" s="27"/>
+      <c r="AI24" s="28"/>
+      <c r="AJ24" s="65"/>
+      <c r="AK24" s="65"/>
+      <c r="AL24" s="26"/>
+      <c r="AM24" s="27"/>
+      <c r="AN24" s="27"/>
+      <c r="AO24" s="28"/>
+      <c r="AP24" s="57"/>
+      <c r="AQ24" s="58"/>
+      <c r="AR24" s="58"/>
+      <c r="AS24" s="58"/>
+      <c r="AT24" s="59"/>
+      <c r="AU24" s="52"/>
+      <c r="AV24" s="52"/>
+      <c r="AW24" s="36"/>
     </row>
     <row r="25" spans="1:49" ht="18" customHeight="1">
       <c r="A25" s="1"/>
-      <c r="B25" s="33"/>
-      <c r="C25" s="43"/>
-      <c r="D25" s="43"/>
-      <c r="E25" s="43"/>
-      <c r="F25" s="43"/>
-      <c r="G25" s="34"/>
-      <c r="H25" s="64"/>
-      <c r="I25" s="64"/>
-      <c r="J25" s="64"/>
-      <c r="K25" s="64"/>
-      <c r="L25" s="64"/>
-      <c r="M25" s="64"/>
-      <c r="N25" s="64"/>
-      <c r="O25" s="64"/>
-      <c r="P25" s="64"/>
-      <c r="Q25" s="64"/>
-      <c r="R25" s="64"/>
-      <c r="S25" s="64"/>
-      <c r="T25" s="64"/>
-      <c r="U25" s="64"/>
-      <c r="V25" s="64"/>
-      <c r="W25" s="61"/>
-      <c r="X25" s="61"/>
-      <c r="Y25" s="61"/>
-      <c r="Z25" s="61"/>
-      <c r="AA25" s="61"/>
-      <c r="AB25" s="61"/>
-      <c r="AC25" s="61"/>
-      <c r="AD25" s="61"/>
-      <c r="AE25" s="61"/>
-      <c r="AF25" s="61"/>
-      <c r="AG25" s="56"/>
-      <c r="AH25" s="57"/>
-      <c r="AI25" s="58"/>
-      <c r="AJ25" s="26"/>
-      <c r="AK25" s="26"/>
-      <c r="AL25" s="56"/>
-      <c r="AM25" s="57"/>
-      <c r="AN25" s="57"/>
-      <c r="AO25" s="58"/>
-      <c r="AP25" s="33"/>
-      <c r="AQ25" s="43"/>
-      <c r="AR25" s="43"/>
-      <c r="AS25" s="43"/>
-      <c r="AT25" s="34"/>
-      <c r="AU25" s="22"/>
-      <c r="AV25" s="22"/>
-      <c r="AW25" s="49"/>
+      <c r="B25" s="60"/>
+      <c r="C25" s="61"/>
+      <c r="D25" s="61"/>
+      <c r="E25" s="61"/>
+      <c r="F25" s="61"/>
+      <c r="G25" s="62"/>
+      <c r="H25" s="35"/>
+      <c r="I25" s="35"/>
+      <c r="J25" s="35"/>
+      <c r="K25" s="35"/>
+      <c r="L25" s="35"/>
+      <c r="M25" s="35"/>
+      <c r="N25" s="35"/>
+      <c r="O25" s="35"/>
+      <c r="P25" s="35"/>
+      <c r="Q25" s="35"/>
+      <c r="R25" s="35"/>
+      <c r="S25" s="35"/>
+      <c r="T25" s="35"/>
+      <c r="U25" s="35"/>
+      <c r="V25" s="35"/>
+      <c r="W25" s="43"/>
+      <c r="X25" s="43"/>
+      <c r="Y25" s="43"/>
+      <c r="Z25" s="43"/>
+      <c r="AA25" s="43"/>
+      <c r="AB25" s="43"/>
+      <c r="AC25" s="43"/>
+      <c r="AD25" s="43"/>
+      <c r="AE25" s="43"/>
+      <c r="AF25" s="43"/>
+      <c r="AG25" s="29"/>
+      <c r="AH25" s="30"/>
+      <c r="AI25" s="31"/>
+      <c r="AJ25" s="65"/>
+      <c r="AK25" s="65"/>
+      <c r="AL25" s="29"/>
+      <c r="AM25" s="30"/>
+      <c r="AN25" s="30"/>
+      <c r="AO25" s="31"/>
+      <c r="AP25" s="60"/>
+      <c r="AQ25" s="61"/>
+      <c r="AR25" s="61"/>
+      <c r="AS25" s="61"/>
+      <c r="AT25" s="62"/>
+      <c r="AU25" s="53"/>
+      <c r="AV25" s="53"/>
+      <c r="AW25" s="36"/>
     </row>
     <row r="26" spans="1:49" ht="11.25" customHeight="1">
-      <c r="A26" s="23" t="s">
+      <c r="A26" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="B26" s="23" t="s">
+      <c r="B26" s="32" t="s">
         <v>65</v>
       </c>
-      <c r="C26" s="23" t="s">
+      <c r="C26" s="32" t="s">
         <v>66</v>
       </c>
-      <c r="D26" s="23" t="s">
+      <c r="D26" s="32" t="s">
         <v>85</v>
       </c>
-      <c r="E26" s="23" t="s">
+      <c r="E26" s="32" t="s">
         <v>165</v>
       </c>
-      <c r="F26" s="23" t="s">
+      <c r="F26" s="32" t="s">
         <v>68</v>
       </c>
-      <c r="G26" s="23" t="s">
+      <c r="G26" s="32" t="s">
         <v>69</v>
       </c>
-      <c r="H26" s="23" t="s">
+      <c r="H26" s="32" t="s">
         <v>191</v>
       </c>
-      <c r="I26" s="23" t="s">
+      <c r="I26" s="32" t="s">
         <v>192</v>
       </c>
-      <c r="J26" s="23" t="s">
+      <c r="J26" s="32" t="s">
         <v>193</v>
       </c>
-      <c r="K26" s="23" t="s">
+      <c r="K26" s="32" t="s">
         <v>194</v>
       </c>
-      <c r="L26" s="23" t="s">
+      <c r="L26" s="32" t="s">
         <v>197</v>
       </c>
-      <c r="M26" s="23" t="s">
+      <c r="M26" s="32" t="s">
         <v>166</v>
       </c>
-      <c r="N26" s="23" t="s">
+      <c r="N26" s="32" t="s">
         <v>167</v>
       </c>
-      <c r="O26" s="23" t="s">
+      <c r="O26" s="32" t="s">
         <v>250</v>
       </c>
-      <c r="P26" s="23" t="s">
+      <c r="P26" s="32" t="s">
         <v>275</v>
       </c>
-      <c r="Q26" s="23" t="s">
+      <c r="Q26" s="32" t="s">
         <v>171</v>
       </c>
-      <c r="R26" s="27" t="s">
+      <c r="R26" s="37" t="s">
         <v>172</v>
       </c>
-      <c r="S26" s="27" t="s">
+      <c r="S26" s="37" t="s">
         <v>173</v>
       </c>
-      <c r="T26" s="27" t="s">
+      <c r="T26" s="37" t="s">
         <v>168</v>
       </c>
-      <c r="U26" s="27" t="s">
+      <c r="U26" s="37" t="s">
         <v>169</v>
       </c>
-      <c r="V26" s="27" t="s">
+      <c r="V26" s="37" t="s">
         <v>170</v>
       </c>
-      <c r="W26" s="44" t="s">
+      <c r="W26" s="38" t="s">
         <v>176</v>
       </c>
-      <c r="X26" s="44" t="s">
+      <c r="X26" s="38" t="s">
         <v>177</v>
       </c>
-      <c r="Y26" s="44" t="s">
+      <c r="Y26" s="38" t="s">
         <v>273</v>
       </c>
-      <c r="Z26" s="44" t="s">
+      <c r="Z26" s="38" t="s">
         <v>179</v>
       </c>
-      <c r="AA26" s="27" t="s">
+      <c r="AA26" s="37" t="s">
         <v>180</v>
       </c>
-      <c r="AB26" s="27" t="s">
+      <c r="AB26" s="37" t="s">
         <v>274</v>
       </c>
-      <c r="AC26" s="27" t="s">
+      <c r="AC26" s="37" t="s">
         <v>181</v>
       </c>
-      <c r="AD26" s="27" t="s">
+      <c r="AD26" s="37" t="s">
         <v>182</v>
       </c>
-      <c r="AE26" s="23" t="s">
+      <c r="AE26" s="32" t="s">
         <v>183</v>
       </c>
-      <c r="AF26" s="47" t="s">
+      <c r="AF26" s="63" t="s">
         <v>178</v>
       </c>
-      <c r="AG26" s="23" t="s">
+      <c r="AG26" s="32" t="s">
         <v>195</v>
       </c>
-      <c r="AH26" s="23" t="s">
+      <c r="AH26" s="32" t="s">
         <v>196</v>
       </c>
-      <c r="AI26" s="23" t="s">
+      <c r="AI26" s="32" t="s">
         <v>251</v>
       </c>
-      <c r="AJ26" s="35" t="s">
+      <c r="AJ26" s="45" t="s">
         <v>93</v>
       </c>
-      <c r="AK26" s="38" t="s">
+      <c r="AK26" s="48" t="s">
         <v>67</v>
       </c>
-      <c r="AL26" s="48" t="s">
+      <c r="AL26" s="44" t="s">
         <v>185</v>
       </c>
-      <c r="AM26" s="48" t="s">
+      <c r="AM26" s="44" t="s">
         <v>186</v>
       </c>
-      <c r="AN26" s="48" t="s">
+      <c r="AN26" s="44" t="s">
         <v>187</v>
       </c>
-      <c r="AO26" s="48" t="s">
+      <c r="AO26" s="44" t="s">
         <v>188</v>
       </c>
-      <c r="AP26" s="44" t="s">
+      <c r="AP26" s="38" t="s">
         <v>189</v>
       </c>
-      <c r="AQ26" s="44" t="s">
+      <c r="AQ26" s="38" t="s">
         <v>190</v>
       </c>
-      <c r="AR26" s="44" t="s">
+      <c r="AR26" s="38" t="s">
         <v>252</v>
       </c>
-      <c r="AS26" s="44" t="s">
+      <c r="AS26" s="38" t="s">
         <v>253</v>
       </c>
-      <c r="AT26" s="44" t="s">
+      <c r="AT26" s="38" t="s">
         <v>254</v>
       </c>
-      <c r="AU26" s="23" t="s">
+      <c r="AU26" s="32" t="s">
         <v>256</v>
       </c>
-      <c r="AV26" s="23" t="s">
+      <c r="AV26" s="32" t="s">
         <v>255</v>
       </c>
-      <c r="AW26" s="49"/>
+      <c r="AW26" s="36"/>
     </row>
     <row r="27" spans="1:49">
-      <c r="A27" s="24"/>
-      <c r="B27" s="24"/>
-      <c r="C27" s="24"/>
-      <c r="D27" s="24"/>
-      <c r="E27" s="24"/>
-      <c r="F27" s="24"/>
-      <c r="G27" s="24"/>
-      <c r="H27" s="24"/>
-      <c r="I27" s="24"/>
-      <c r="J27" s="24"/>
-      <c r="K27" s="24"/>
-      <c r="L27" s="24"/>
-      <c r="M27" s="24"/>
-      <c r="N27" s="24"/>
-      <c r="O27" s="24"/>
-      <c r="P27" s="24"/>
-      <c r="Q27" s="24"/>
-      <c r="R27" s="27"/>
-      <c r="S27" s="27"/>
-      <c r="T27" s="27"/>
-      <c r="U27" s="27"/>
-      <c r="V27" s="27"/>
-      <c r="W27" s="45"/>
-      <c r="X27" s="45"/>
-      <c r="Y27" s="45"/>
-      <c r="Z27" s="45"/>
-      <c r="AA27" s="27"/>
-      <c r="AB27" s="27"/>
-      <c r="AC27" s="27"/>
-      <c r="AD27" s="27"/>
-      <c r="AE27" s="24"/>
-      <c r="AF27" s="47"/>
-      <c r="AG27" s="24"/>
-      <c r="AH27" s="24"/>
-      <c r="AI27" s="24"/>
-      <c r="AJ27" s="36"/>
-      <c r="AK27" s="39"/>
-      <c r="AL27" s="48"/>
-      <c r="AM27" s="48"/>
-      <c r="AN27" s="48"/>
-      <c r="AO27" s="48"/>
-      <c r="AP27" s="45"/>
-      <c r="AQ27" s="45"/>
-      <c r="AR27" s="59"/>
-      <c r="AS27" s="45"/>
-      <c r="AT27" s="45"/>
-      <c r="AU27" s="24"/>
-      <c r="AV27" s="24"/>
-      <c r="AW27" s="27" t="s">
+      <c r="A27" s="33"/>
+      <c r="B27" s="33"/>
+      <c r="C27" s="33"/>
+      <c r="D27" s="33"/>
+      <c r="E27" s="33"/>
+      <c r="F27" s="33"/>
+      <c r="G27" s="33"/>
+      <c r="H27" s="33"/>
+      <c r="I27" s="33"/>
+      <c r="J27" s="33"/>
+      <c r="K27" s="33"/>
+      <c r="L27" s="33"/>
+      <c r="M27" s="33"/>
+      <c r="N27" s="33"/>
+      <c r="O27" s="33"/>
+      <c r="P27" s="33"/>
+      <c r="Q27" s="33"/>
+      <c r="R27" s="37"/>
+      <c r="S27" s="37"/>
+      <c r="T27" s="37"/>
+      <c r="U27" s="37"/>
+      <c r="V27" s="37"/>
+      <c r="W27" s="39"/>
+      <c r="X27" s="39"/>
+      <c r="Y27" s="39"/>
+      <c r="Z27" s="39"/>
+      <c r="AA27" s="37"/>
+      <c r="AB27" s="37"/>
+      <c r="AC27" s="37"/>
+      <c r="AD27" s="37"/>
+      <c r="AE27" s="33"/>
+      <c r="AF27" s="63"/>
+      <c r="AG27" s="33"/>
+      <c r="AH27" s="33"/>
+      <c r="AI27" s="33"/>
+      <c r="AJ27" s="46"/>
+      <c r="AK27" s="49"/>
+      <c r="AL27" s="44"/>
+      <c r="AM27" s="44"/>
+      <c r="AN27" s="44"/>
+      <c r="AO27" s="44"/>
+      <c r="AP27" s="39"/>
+      <c r="AQ27" s="39"/>
+      <c r="AR27" s="41"/>
+      <c r="AS27" s="39"/>
+      <c r="AT27" s="39"/>
+      <c r="AU27" s="33"/>
+      <c r="AV27" s="33"/>
+      <c r="AW27" s="37" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="28" spans="1:49">
-      <c r="A28" s="24"/>
-      <c r="B28" s="24"/>
-      <c r="C28" s="24"/>
-      <c r="D28" s="24"/>
-      <c r="E28" s="24"/>
-      <c r="F28" s="24"/>
-      <c r="G28" s="24"/>
-      <c r="H28" s="24"/>
-      <c r="I28" s="24"/>
-      <c r="J28" s="24"/>
-      <c r="K28" s="24"/>
-      <c r="L28" s="24"/>
-      <c r="M28" s="24"/>
-      <c r="N28" s="24"/>
-      <c r="O28" s="24"/>
-      <c r="P28" s="24"/>
-      <c r="Q28" s="24"/>
-      <c r="R28" s="27"/>
-      <c r="S28" s="27"/>
-      <c r="T28" s="27"/>
-      <c r="U28" s="27"/>
-      <c r="V28" s="27"/>
-      <c r="W28" s="45"/>
-      <c r="X28" s="45"/>
-      <c r="Y28" s="45"/>
-      <c r="Z28" s="45"/>
-      <c r="AA28" s="27"/>
-      <c r="AB28" s="27"/>
-      <c r="AC28" s="27"/>
-      <c r="AD28" s="27"/>
-      <c r="AE28" s="24"/>
-      <c r="AF28" s="47"/>
-      <c r="AG28" s="24"/>
-      <c r="AH28" s="24"/>
-      <c r="AI28" s="24"/>
-      <c r="AJ28" s="36"/>
-      <c r="AK28" s="39"/>
-      <c r="AL28" s="48"/>
-      <c r="AM28" s="48"/>
-      <c r="AN28" s="48"/>
-      <c r="AO28" s="48"/>
-      <c r="AP28" s="45"/>
-      <c r="AQ28" s="45"/>
-      <c r="AR28" s="59"/>
-      <c r="AS28" s="45"/>
-      <c r="AT28" s="45"/>
-      <c r="AU28" s="24"/>
-      <c r="AV28" s="24"/>
-      <c r="AW28" s="27"/>
+      <c r="A28" s="33"/>
+      <c r="B28" s="33"/>
+      <c r="C28" s="33"/>
+      <c r="D28" s="33"/>
+      <c r="E28" s="33"/>
+      <c r="F28" s="33"/>
+      <c r="G28" s="33"/>
+      <c r="H28" s="33"/>
+      <c r="I28" s="33"/>
+      <c r="J28" s="33"/>
+      <c r="K28" s="33"/>
+      <c r="L28" s="33"/>
+      <c r="M28" s="33"/>
+      <c r="N28" s="33"/>
+      <c r="O28" s="33"/>
+      <c r="P28" s="33"/>
+      <c r="Q28" s="33"/>
+      <c r="R28" s="37"/>
+      <c r="S28" s="37"/>
+      <c r="T28" s="37"/>
+      <c r="U28" s="37"/>
+      <c r="V28" s="37"/>
+      <c r="W28" s="39"/>
+      <c r="X28" s="39"/>
+      <c r="Y28" s="39"/>
+      <c r="Z28" s="39"/>
+      <c r="AA28" s="37"/>
+      <c r="AB28" s="37"/>
+      <c r="AC28" s="37"/>
+      <c r="AD28" s="37"/>
+      <c r="AE28" s="33"/>
+      <c r="AF28" s="63"/>
+      <c r="AG28" s="33"/>
+      <c r="AH28" s="33"/>
+      <c r="AI28" s="33"/>
+      <c r="AJ28" s="46"/>
+      <c r="AK28" s="49"/>
+      <c r="AL28" s="44"/>
+      <c r="AM28" s="44"/>
+      <c r="AN28" s="44"/>
+      <c r="AO28" s="44"/>
+      <c r="AP28" s="39"/>
+      <c r="AQ28" s="39"/>
+      <c r="AR28" s="41"/>
+      <c r="AS28" s="39"/>
+      <c r="AT28" s="39"/>
+      <c r="AU28" s="33"/>
+      <c r="AV28" s="33"/>
+      <c r="AW28" s="37"/>
     </row>
     <row r="29" spans="1:49">
-      <c r="A29" s="24"/>
-      <c r="B29" s="24"/>
-      <c r="C29" s="24"/>
-      <c r="D29" s="24"/>
-      <c r="E29" s="24"/>
-      <c r="F29" s="24"/>
-      <c r="G29" s="24"/>
-      <c r="H29" s="24"/>
-      <c r="I29" s="24"/>
-      <c r="J29" s="24"/>
-      <c r="K29" s="24"/>
-      <c r="L29" s="24"/>
-      <c r="M29" s="24"/>
-      <c r="N29" s="24"/>
-      <c r="O29" s="24"/>
-      <c r="P29" s="24"/>
-      <c r="Q29" s="24"/>
-      <c r="R29" s="27"/>
-      <c r="S29" s="27"/>
-      <c r="T29" s="27"/>
-      <c r="U29" s="27"/>
-      <c r="V29" s="27"/>
-      <c r="W29" s="45"/>
-      <c r="X29" s="45"/>
-      <c r="Y29" s="45"/>
-      <c r="Z29" s="45"/>
-      <c r="AA29" s="27"/>
-      <c r="AB29" s="27"/>
-      <c r="AC29" s="27"/>
-      <c r="AD29" s="27"/>
-      <c r="AE29" s="24"/>
-      <c r="AF29" s="47"/>
-      <c r="AG29" s="24"/>
-      <c r="AH29" s="24"/>
-      <c r="AI29" s="24"/>
-      <c r="AJ29" s="36"/>
-      <c r="AK29" s="39"/>
-      <c r="AL29" s="48"/>
-      <c r="AM29" s="48"/>
-      <c r="AN29" s="48"/>
-      <c r="AO29" s="48"/>
-      <c r="AP29" s="45"/>
-      <c r="AQ29" s="45"/>
-      <c r="AR29" s="59"/>
-      <c r="AS29" s="45"/>
-      <c r="AT29" s="45"/>
-      <c r="AU29" s="24"/>
-      <c r="AV29" s="24"/>
-      <c r="AW29" s="27"/>
+      <c r="A29" s="33"/>
+      <c r="B29" s="33"/>
+      <c r="C29" s="33"/>
+      <c r="D29" s="33"/>
+      <c r="E29" s="33"/>
+      <c r="F29" s="33"/>
+      <c r="G29" s="33"/>
+      <c r="H29" s="33"/>
+      <c r="I29" s="33"/>
+      <c r="J29" s="33"/>
+      <c r="K29" s="33"/>
+      <c r="L29" s="33"/>
+      <c r="M29" s="33"/>
+      <c r="N29" s="33"/>
+      <c r="O29" s="33"/>
+      <c r="P29" s="33"/>
+      <c r="Q29" s="33"/>
+      <c r="R29" s="37"/>
+      <c r="S29" s="37"/>
+      <c r="T29" s="37"/>
+      <c r="U29" s="37"/>
+      <c r="V29" s="37"/>
+      <c r="W29" s="39"/>
+      <c r="X29" s="39"/>
+      <c r="Y29" s="39"/>
+      <c r="Z29" s="39"/>
+      <c r="AA29" s="37"/>
+      <c r="AB29" s="37"/>
+      <c r="AC29" s="37"/>
+      <c r="AD29" s="37"/>
+      <c r="AE29" s="33"/>
+      <c r="AF29" s="63"/>
+      <c r="AG29" s="33"/>
+      <c r="AH29" s="33"/>
+      <c r="AI29" s="33"/>
+      <c r="AJ29" s="46"/>
+      <c r="AK29" s="49"/>
+      <c r="AL29" s="44"/>
+      <c r="AM29" s="44"/>
+      <c r="AN29" s="44"/>
+      <c r="AO29" s="44"/>
+      <c r="AP29" s="39"/>
+      <c r="AQ29" s="39"/>
+      <c r="AR29" s="41"/>
+      <c r="AS29" s="39"/>
+      <c r="AT29" s="39"/>
+      <c r="AU29" s="33"/>
+      <c r="AV29" s="33"/>
+      <c r="AW29" s="37"/>
     </row>
     <row r="30" spans="1:49">
-      <c r="A30" s="24"/>
-      <c r="B30" s="24"/>
-      <c r="C30" s="24"/>
-      <c r="D30" s="24"/>
-      <c r="E30" s="24"/>
-      <c r="F30" s="24"/>
-      <c r="G30" s="24"/>
-      <c r="H30" s="24"/>
-      <c r="I30" s="24"/>
-      <c r="J30" s="24"/>
-      <c r="K30" s="24"/>
-      <c r="L30" s="24"/>
-      <c r="M30" s="24"/>
-      <c r="N30" s="24"/>
-      <c r="O30" s="24"/>
-      <c r="P30" s="24"/>
-      <c r="Q30" s="24"/>
-      <c r="R30" s="27"/>
-      <c r="S30" s="27"/>
-      <c r="T30" s="27"/>
-      <c r="U30" s="27"/>
-      <c r="V30" s="27"/>
-      <c r="W30" s="45"/>
-      <c r="X30" s="45"/>
-      <c r="Y30" s="45"/>
-      <c r="Z30" s="45"/>
-      <c r="AA30" s="27"/>
-      <c r="AB30" s="27"/>
-      <c r="AC30" s="27"/>
-      <c r="AD30" s="27"/>
-      <c r="AE30" s="24"/>
-      <c r="AF30" s="47"/>
-      <c r="AG30" s="24"/>
-      <c r="AH30" s="24"/>
-      <c r="AI30" s="24"/>
-      <c r="AJ30" s="36"/>
-      <c r="AK30" s="39"/>
-      <c r="AL30" s="48"/>
-      <c r="AM30" s="48"/>
-      <c r="AN30" s="48"/>
-      <c r="AO30" s="48"/>
-      <c r="AP30" s="45"/>
-      <c r="AQ30" s="45"/>
-      <c r="AR30" s="59"/>
-      <c r="AS30" s="45"/>
-      <c r="AT30" s="45"/>
-      <c r="AU30" s="24"/>
-      <c r="AV30" s="24"/>
-      <c r="AW30" s="27"/>
+      <c r="A30" s="33"/>
+      <c r="B30" s="33"/>
+      <c r="C30" s="33"/>
+      <c r="D30" s="33"/>
+      <c r="E30" s="33"/>
+      <c r="F30" s="33"/>
+      <c r="G30" s="33"/>
+      <c r="H30" s="33"/>
+      <c r="I30" s="33"/>
+      <c r="J30" s="33"/>
+      <c r="K30" s="33"/>
+      <c r="L30" s="33"/>
+      <c r="M30" s="33"/>
+      <c r="N30" s="33"/>
+      <c r="O30" s="33"/>
+      <c r="P30" s="33"/>
+      <c r="Q30" s="33"/>
+      <c r="R30" s="37"/>
+      <c r="S30" s="37"/>
+      <c r="T30" s="37"/>
+      <c r="U30" s="37"/>
+      <c r="V30" s="37"/>
+      <c r="W30" s="39"/>
+      <c r="X30" s="39"/>
+      <c r="Y30" s="39"/>
+      <c r="Z30" s="39"/>
+      <c r="AA30" s="37"/>
+      <c r="AB30" s="37"/>
+      <c r="AC30" s="37"/>
+      <c r="AD30" s="37"/>
+      <c r="AE30" s="33"/>
+      <c r="AF30" s="63"/>
+      <c r="AG30" s="33"/>
+      <c r="AH30" s="33"/>
+      <c r="AI30" s="33"/>
+      <c r="AJ30" s="46"/>
+      <c r="AK30" s="49"/>
+      <c r="AL30" s="44"/>
+      <c r="AM30" s="44"/>
+      <c r="AN30" s="44"/>
+      <c r="AO30" s="44"/>
+      <c r="AP30" s="39"/>
+      <c r="AQ30" s="39"/>
+      <c r="AR30" s="41"/>
+      <c r="AS30" s="39"/>
+      <c r="AT30" s="39"/>
+      <c r="AU30" s="33"/>
+      <c r="AV30" s="33"/>
+      <c r="AW30" s="37"/>
     </row>
     <row r="31" spans="1:49">
-      <c r="A31" s="25"/>
-      <c r="B31" s="25"/>
-      <c r="C31" s="25"/>
-      <c r="D31" s="25"/>
-      <c r="E31" s="25"/>
-      <c r="F31" s="25"/>
-      <c r="G31" s="25"/>
-      <c r="H31" s="25"/>
-      <c r="I31" s="25"/>
-      <c r="J31" s="25"/>
-      <c r="K31" s="25"/>
-      <c r="L31" s="25"/>
-      <c r="M31" s="25"/>
-      <c r="N31" s="25"/>
-      <c r="O31" s="25"/>
-      <c r="P31" s="25"/>
-      <c r="Q31" s="25"/>
-      <c r="R31" s="27"/>
-      <c r="S31" s="27"/>
-      <c r="T31" s="27"/>
-      <c r="U31" s="27"/>
-      <c r="V31" s="27"/>
-      <c r="W31" s="46"/>
-      <c r="X31" s="46"/>
-      <c r="Y31" s="46"/>
-      <c r="Z31" s="46"/>
-      <c r="AA31" s="27"/>
-      <c r="AB31" s="27"/>
-      <c r="AC31" s="27"/>
-      <c r="AD31" s="27"/>
-      <c r="AE31" s="25"/>
-      <c r="AF31" s="47"/>
-      <c r="AG31" s="25"/>
-      <c r="AH31" s="25"/>
-      <c r="AI31" s="25"/>
-      <c r="AJ31" s="36"/>
-      <c r="AK31" s="39"/>
-      <c r="AL31" s="48"/>
-      <c r="AM31" s="48"/>
-      <c r="AN31" s="48"/>
-      <c r="AO31" s="48"/>
-      <c r="AP31" s="46"/>
-      <c r="AQ31" s="46"/>
-      <c r="AR31" s="60"/>
-      <c r="AS31" s="46"/>
-      <c r="AT31" s="46"/>
-      <c r="AU31" s="25"/>
-      <c r="AV31" s="25"/>
-      <c r="AW31" s="27"/>
+      <c r="A31" s="34"/>
+      <c r="B31" s="34"/>
+      <c r="C31" s="34"/>
+      <c r="D31" s="34"/>
+      <c r="E31" s="34"/>
+      <c r="F31" s="34"/>
+      <c r="G31" s="34"/>
+      <c r="H31" s="34"/>
+      <c r="I31" s="34"/>
+      <c r="J31" s="34"/>
+      <c r="K31" s="34"/>
+      <c r="L31" s="34"/>
+      <c r="M31" s="34"/>
+      <c r="N31" s="34"/>
+      <c r="O31" s="34"/>
+      <c r="P31" s="34"/>
+      <c r="Q31" s="34"/>
+      <c r="R31" s="37"/>
+      <c r="S31" s="37"/>
+      <c r="T31" s="37"/>
+      <c r="U31" s="37"/>
+      <c r="V31" s="37"/>
+      <c r="W31" s="40"/>
+      <c r="X31" s="40"/>
+      <c r="Y31" s="40"/>
+      <c r="Z31" s="40"/>
+      <c r="AA31" s="37"/>
+      <c r="AB31" s="37"/>
+      <c r="AC31" s="37"/>
+      <c r="AD31" s="37"/>
+      <c r="AE31" s="34"/>
+      <c r="AF31" s="63"/>
+      <c r="AG31" s="34"/>
+      <c r="AH31" s="34"/>
+      <c r="AI31" s="34"/>
+      <c r="AJ31" s="46"/>
+      <c r="AK31" s="49"/>
+      <c r="AL31" s="44"/>
+      <c r="AM31" s="44"/>
+      <c r="AN31" s="44"/>
+      <c r="AO31" s="44"/>
+      <c r="AP31" s="40"/>
+      <c r="AQ31" s="40"/>
+      <c r="AR31" s="42"/>
+      <c r="AS31" s="40"/>
+      <c r="AT31" s="40"/>
+      <c r="AU31" s="34"/>
+      <c r="AV31" s="34"/>
+      <c r="AW31" s="37"/>
     </row>
     <row r="32" spans="1:49">
-      <c r="AJ32" s="36"/>
-      <c r="AK32" s="39"/>
+      <c r="AJ32" s="46"/>
+      <c r="AK32" s="49"/>
     </row>
     <row r="33" spans="4:37">
       <c r="D33" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="AE33" s="62"/>
-      <c r="AJ33" s="36"/>
-      <c r="AK33" s="39"/>
+      <c r="AE33" s="20"/>
+      <c r="AJ33" s="46"/>
+      <c r="AK33" s="49"/>
     </row>
     <row r="34" spans="4:37" ht="258.75">
       <c r="D34" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="AE34" s="63"/>
-      <c r="AJ34" s="37"/>
-      <c r="AK34" s="40"/>
+      <c r="AE34" s="21"/>
+      <c r="AJ34" s="47"/>
+      <c r="AK34" s="50"/>
     </row>
     <row r="35" spans="4:37" ht="326.25">
       <c r="D35" s="9" t="s">
@@ -4019,6 +4019,52 @@
     </row>
   </sheetData>
   <mergeCells count="62">
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="AJ23:AJ25"/>
+    <mergeCell ref="AK23:AK25"/>
+    <mergeCell ref="N26:N31"/>
+    <mergeCell ref="Z26:Z31"/>
+    <mergeCell ref="AA26:AA31"/>
+    <mergeCell ref="L26:L31"/>
+    <mergeCell ref="K26:K31"/>
+    <mergeCell ref="J26:J31"/>
+    <mergeCell ref="AC26:AC31"/>
+    <mergeCell ref="AD26:AD31"/>
+    <mergeCell ref="AE26:AE31"/>
+    <mergeCell ref="S26:S31"/>
+    <mergeCell ref="W26:W31"/>
+    <mergeCell ref="O26:O31"/>
+    <mergeCell ref="AU23:AU25"/>
+    <mergeCell ref="AV23:AV25"/>
+    <mergeCell ref="A26:A31"/>
+    <mergeCell ref="B26:B31"/>
+    <mergeCell ref="C26:C31"/>
+    <mergeCell ref="D26:D31"/>
+    <mergeCell ref="E26:E31"/>
+    <mergeCell ref="AP23:AT25"/>
+    <mergeCell ref="F26:F31"/>
+    <mergeCell ref="G26:G31"/>
+    <mergeCell ref="H26:H31"/>
+    <mergeCell ref="I26:I31"/>
+    <mergeCell ref="M26:M31"/>
+    <mergeCell ref="B23:G25"/>
+    <mergeCell ref="X26:X31"/>
+    <mergeCell ref="AF26:AF31"/>
+    <mergeCell ref="T26:T31"/>
+    <mergeCell ref="U26:U31"/>
+    <mergeCell ref="AS26:AS31"/>
+    <mergeCell ref="AI26:AI31"/>
+    <mergeCell ref="AO26:AO31"/>
+    <mergeCell ref="AP26:AP31"/>
+    <mergeCell ref="AQ26:AQ31"/>
+    <mergeCell ref="AG26:AG31"/>
+    <mergeCell ref="AH26:AH31"/>
+    <mergeCell ref="AL26:AL31"/>
+    <mergeCell ref="AM26:AM31"/>
+    <mergeCell ref="AN26:AN31"/>
+    <mergeCell ref="AJ26:AJ34"/>
+    <mergeCell ref="AK26:AK34"/>
     <mergeCell ref="AG23:AI25"/>
     <mergeCell ref="P26:P31"/>
     <mergeCell ref="H23:V25"/>
@@ -4035,52 +4081,6 @@
     <mergeCell ref="Y26:Y31"/>
     <mergeCell ref="AB26:AB31"/>
     <mergeCell ref="W23:AF25"/>
-    <mergeCell ref="T26:T31"/>
-    <mergeCell ref="U26:U31"/>
-    <mergeCell ref="AS26:AS31"/>
-    <mergeCell ref="AI26:AI31"/>
-    <mergeCell ref="AO26:AO31"/>
-    <mergeCell ref="AP26:AP31"/>
-    <mergeCell ref="AQ26:AQ31"/>
-    <mergeCell ref="AG26:AG31"/>
-    <mergeCell ref="AH26:AH31"/>
-    <mergeCell ref="AL26:AL31"/>
-    <mergeCell ref="AM26:AM31"/>
-    <mergeCell ref="AN26:AN31"/>
-    <mergeCell ref="AJ26:AJ34"/>
-    <mergeCell ref="AK26:AK34"/>
-    <mergeCell ref="AU23:AU25"/>
-    <mergeCell ref="AV23:AV25"/>
-    <mergeCell ref="A26:A31"/>
-    <mergeCell ref="B26:B31"/>
-    <mergeCell ref="C26:C31"/>
-    <mergeCell ref="D26:D31"/>
-    <mergeCell ref="E26:E31"/>
-    <mergeCell ref="AP23:AT25"/>
-    <mergeCell ref="F26:F31"/>
-    <mergeCell ref="G26:G31"/>
-    <mergeCell ref="H26:H31"/>
-    <mergeCell ref="I26:I31"/>
-    <mergeCell ref="M26:M31"/>
-    <mergeCell ref="B23:G25"/>
-    <mergeCell ref="X26:X31"/>
-    <mergeCell ref="AF26:AF31"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="AJ23:AJ25"/>
-    <mergeCell ref="AK23:AK25"/>
-    <mergeCell ref="N26:N31"/>
-    <mergeCell ref="Z26:Z31"/>
-    <mergeCell ref="AA26:AA31"/>
-    <mergeCell ref="L26:L31"/>
-    <mergeCell ref="K26:K31"/>
-    <mergeCell ref="J26:J31"/>
-    <mergeCell ref="AC26:AC31"/>
-    <mergeCell ref="AD26:AD31"/>
-    <mergeCell ref="AE26:AE31"/>
-    <mergeCell ref="S26:S31"/>
-    <mergeCell ref="W26:W31"/>
-    <mergeCell ref="O26:O31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/Documentação/Planilhas/Conferencia_DEV.xlsx
+++ b/Documentação/Planilhas/Conferencia_DEV.xlsx
@@ -339,29 +339,11 @@
 100-Não aplicável</t>
   </si>
   <si>
-    <t>Sessão znslsc500s000</t>
-  </si>
-  <si>
-    <t>Sessão whina1512m000</t>
-  </si>
-  <si>
-    <t>Sessão tdrecl504m50l</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sessão tcmcs0565m000 </t>
-  </si>
-  <si>
     <t>Fazer o detalhamento da NF e Série desejada na sessão "tdrecl504m50l". Na aba Geral, seção Referência, pegar o código do Departamento.
 Ir para a sessão "tcmcs0565m000"  e informar o Cód Departamento na coluna "Departamento"
 Pegar a informação da coluna "Unidade Empresarial"</t>
   </si>
   <si>
-    <t>Sessão tcemm0130m000</t>
-  </si>
-  <si>
-    <t>Sessão znslsc507m000</t>
-  </si>
-  <si>
     <t>71101</t>
   </si>
   <si>
@@ -596,12 +578,6 @@
     <t>Na aba inferior "Linhas - Nota Fiscal", pedir o detalhamento da linha [diferente de Frete]. Na aba superior "Geral", seção "Dados de Vendas" pegar a informação de Valor Total de Desconto</t>
   </si>
   <si>
-    <t>Sessão cislil504m00l [Fazer o detalhamento da NF e série desejada na sessão "tdrecl504m50l". Selecionar a aba inferior Linhas e pedir o detalhamento da linha apresentada. Na aba superior NOVA, pegar a informação de "Dev. Venda - Referência" e informá-la na coluna Referência Fiscal, fazendo o detalhamento da mesma na sequência nesta sessão]</t>
-  </si>
-  <si>
-    <t>Sessão znslsc501m000 [Fazer o detalhamento da NF e série desejada na sessão "tdrecl504m50l". Selecionar a aba inferior Linhas e pedir o detalhamento da linha apresentada. Na aba inferior "Dados de Origem", pegar a informação da coluna "Ordem" e informá-la na coluna "Ordem de Venda LN" nesta sessão. Com a seta "Next Group" ir procurando até encontrar a mesma]</t>
-  </si>
-  <si>
     <t>Pegar a informação da Unidade de Negócio existente no cabeçalho da tela quando o registro for encontrado</t>
   </si>
   <si>
@@ -626,9 +602,6 @@
     <t>Fazer o detalhamento da linha encontrada. Na aba "Devoluçao ou Troca", pegar a informação de "Laudo Motivo - Etiqueta WMS"</t>
   </si>
   <si>
-    <t>Sessão tccom4530m000 [Fazer o detalhamento da NF e Série desejada na sessão "tdrecl504m50l". Na aba Relações, seção "Relação - Para" pegar o código do "Endereço Enviado Para:". Informar o código na coluna "Código do Endereço" e pedir o detalhamento da linha apresentada nesta sessão]</t>
-  </si>
-  <si>
     <t>Na aba Geral, seção Endereço, pegar a primeira informação de "Cidade"</t>
   </si>
   <si>
@@ -668,18 +641,12 @@
     <t>Fazer o detalhamento da NF e Série desejada. Na aba Geral, seção Datas, pegar a Data Emissão</t>
   </si>
   <si>
-    <t>Sessão tdsls4100m000 [Fazer o detalhamento da NF e série desejada na sessão "tdrecl504m50l". Selecionar a aba inferior Linhas e pedir o detalhamento da linha apresentada. Na aba inferior "Dados de Origem", pegar a informação da coluna "Ordem" e informá-la na coluna "Ordem" desta sessão]</t>
-  </si>
-  <si>
     <t>da devolucao</t>
   </si>
   <si>
     <t>da nf</t>
   </si>
   <si>
-    <t>cislil504m00l [Fazer o detalhamento da NF e série desejada na sessão "tdrecl504m50l". Selecionar a aba inferior Linhas e pedir o detalhamento da linha apresentada. Na aba inferior "Dados de Origem", pegar a informação da coluna "Ordem". Ir para a sessão "tdsls4100m000", informar a Ordem na coluna Ordem e pedir o seu detalhamento. Clicar na aba Monitor e em seguida na aba Faturamento. Pegar a informação da coluna Referência Fiscal e a utilizar nesta seção]</t>
-  </si>
-  <si>
     <t>Fazer o detalhamento da Referência Fiscal desejada. Na aba Geral, seção Datas, pegar a maior data entre Data Geração, Data emissão e Data Saída</t>
   </si>
   <si>
@@ -906,6 +873,39 @@
   </si>
   <si>
     <t>Quando não tiver NR_NF, NR_SERIE_NF, CD_TIPO_NF, NR_NFR_DEVOLUCAO indica que o recebimento da devolução ainda não foi feito. Para esses casos,  foram criadas as ordens de venda de devolução mas ainda não foi feito o recebimento do produto devolvido. Sendo assim, devemos fazer a validação a partir do NR_ENTREGA_NF</t>
+  </si>
+  <si>
+    <t>Sessão tdrecl504m50l (Ref Fiscal - Sumário)</t>
+  </si>
+  <si>
+    <t>Sessão cislil504m00l (Nota Fiscal) [Fazer o detalhamento da NF e série desejada na sessão "tdrecl504m50l". Selecionar a aba inferior Linhas e pedir o detalhamento da linha apresentada. Na aba superior NOVA, pegar a informação de "Dev. Venda - Referência" e informá-la na coluna Referência Fiscal, fazendo o detalhamento da mesma na sequência nesta sessão]</t>
+  </si>
+  <si>
+    <t>Sessão znslsc501m000 (Pedido Venda Site - Linha) [Fazer o detalhamento da NF e série desejada na sessão "tdrecl504m50l". Selecionar a aba inferior Linhas e pedir o detalhamento da linha apresentada. Na aba inferior "Dados de Origem", pegar a informação da coluna "Ordem" e informá-la na coluna "Ordem de Venda LN" nesta sessão. Com a seta "Next Group" ir procurando até encontrar a mesma]</t>
+  </si>
+  <si>
+    <t>Sessão tdsls4100m000 (Ordens de Venda) [Fazer o detalhamento da NF e série desejada na sessão "tdrecl504m50l". Selecionar a aba inferior Linhas e pedir o detalhamento da linha apresentada. Na aba inferior "Dados de Origem", pegar a informação da coluna "Ordem" e informá-la na coluna "Ordem" desta sessão]</t>
+  </si>
+  <si>
+    <t>Sessão tcmcs0565m000 (Departamentos)</t>
+  </si>
+  <si>
+    <t>Sessão tcemm0130m000 (Unidades Empresariais)</t>
+  </si>
+  <si>
+    <t>Sessão tccom4530m000 (Endereços) [Fazer o detalhamento da NF e Série desejada na sessão "tdrecl504m50l". Na aba Relações, seção "Relação - Para" pegar o código do "Endereço Enviado Para:". Informar o código na coluna "Código do Endereço" e pedir o detalhamento da linha apresentada nesta sessão]</t>
+  </si>
+  <si>
+    <t>Sessão znslsc500s000 (Pedido de Venda Integrado)</t>
+  </si>
+  <si>
+    <t>Sessão whina1512m000 (Transação de Recebimento de Inventário)</t>
+  </si>
+  <si>
+    <t>Sessão znslsc507m000 (Liberar Entregas (Lista de Compras))</t>
+  </si>
+  <si>
+    <t>cislil504m00l (Nota Fiscal) [Fazer o detalhamento da NF e série desejada na sessão "tdrecl504m50l". Selecionar a aba inferior Linhas e pedir o detalhamento da linha apresentada. Na aba inferior "Dados de Origem", pegar a informação da coluna "Ordem". Ir para a sessão "tdsls4100m000", informar a Ordem na coluna Ordem e pedir o seu detalhamento. Clicar na aba Monitor e em seguida na aba Faturamento. Pegar a informação da coluna Referência Fiscal e a utilizar nesta seção]</t>
   </si>
 </sst>
 </file>
@@ -1234,6 +1234,93 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1261,102 +1348,15 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1667,9 +1667,7 @@
   </sheetPr>
   <dimension ref="A2:AW36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="X10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
   <cols>
@@ -1718,28 +1716,29 @@
     <col min="44" max="44" width="36" style="1" customWidth="1"/>
     <col min="45" max="45" width="39.140625" style="2" customWidth="1"/>
     <col min="46" max="46" width="40.42578125" style="2" customWidth="1"/>
-    <col min="47" max="48" width="31.42578125" style="2" customWidth="1"/>
+    <col min="47" max="47" width="34.85546875" style="2" customWidth="1"/>
+    <col min="48" max="48" width="31.42578125" style="2" customWidth="1"/>
     <col min="49" max="49" width="100.42578125" style="2" customWidth="1"/>
     <col min="50" max="16384" width="9.140625" style="16"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:49" ht="21">
-      <c r="A2" s="64" t="s">
+      <c r="A2" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="64"/>
+      <c r="B2" s="23"/>
       <c r="C2" s="3" t="s">
         <v>18</v>
       </c>
       <c r="AR2" s="2"/>
     </row>
     <row r="3" spans="1:49" ht="21">
-      <c r="A3" s="64" t="s">
+      <c r="A3" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="64"/>
+      <c r="B3" s="23"/>
       <c r="C3" s="3" t="s">
-        <v>276</v>
+        <v>265</v>
       </c>
     </row>
     <row r="4" spans="1:49" ht="21">
@@ -1750,16 +1749,16 @@
     <row r="5" spans="1:49" ht="21">
       <c r="A5" s="13"/>
       <c r="B5" s="22" t="s">
-        <v>277</v>
+        <v>266</v>
       </c>
       <c r="C5" s="3"/>
     </row>
     <row r="7" spans="1:49">
       <c r="L7" s="2" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
       <c r="AW7" s="2" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
     </row>
     <row r="8" spans="1:49">
@@ -1809,7 +1808,7 @@
         <v>36</v>
       </c>
       <c r="P8" s="4" t="s">
-        <v>259</v>
+        <v>248</v>
       </c>
       <c r="Q8" s="4" t="s">
         <v>33</v>
@@ -1836,7 +1835,7 @@
         <v>12</v>
       </c>
       <c r="Y8" s="4" t="s">
-        <v>258</v>
+        <v>247</v>
       </c>
       <c r="Z8" s="4" t="s">
         <v>25</v>
@@ -1845,7 +1844,7 @@
         <v>30</v>
       </c>
       <c r="AB8" s="4" t="s">
-        <v>257</v>
+        <v>246</v>
       </c>
       <c r="AC8" s="4" t="s">
         <v>54</v>
@@ -1916,7 +1915,7 @@
         <v>2</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="C9" s="17" t="s">
         <v>13</v>
@@ -1925,7 +1924,7 @@
         <v>59</v>
       </c>
       <c r="E9" s="17" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="F9" s="5" t="s">
         <v>71</v>
@@ -1940,25 +1939,25 @@
         <v>72</v>
       </c>
       <c r="J9" s="17" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="K9" s="17" t="s">
         <v>63</v>
       </c>
       <c r="L9" s="17" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="M9" s="17" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="N9" s="17" t="s">
         <v>81</v>
       </c>
       <c r="O9" s="17" t="s">
-        <v>245</v>
+        <v>234</v>
       </c>
       <c r="P9" s="17" t="s">
-        <v>262</v>
+        <v>251</v>
       </c>
       <c r="Q9" s="17" t="s">
         <v>82</v>
@@ -1982,19 +1981,19 @@
         <v>16</v>
       </c>
       <c r="X9" s="17" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="Y9" s="17" t="s">
-        <v>261</v>
+        <v>250</v>
       </c>
       <c r="Z9" s="17" t="s">
         <v>0</v>
       </c>
       <c r="AA9" s="17" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="AB9" s="17" t="s">
-        <v>260</v>
+        <v>249</v>
       </c>
       <c r="AC9" s="17" t="s">
         <v>79</v>
@@ -2006,7 +2005,7 @@
         <v>79</v>
       </c>
       <c r="AF9" s="17" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="AG9" s="18">
         <v>1130</v>
@@ -2039,25 +2038,25 @@
         <v>60</v>
       </c>
       <c r="AQ9" s="17" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="AR9" s="17" t="s">
         <v>0</v>
       </c>
       <c r="AS9" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="AT9" s="19" t="s">
+        <v>192</v>
+      </c>
+      <c r="AU9" s="14" t="s">
         <v>100</v>
-      </c>
-      <c r="AT9" s="19" t="s">
-        <v>203</v>
-      </c>
-      <c r="AU9" s="14" t="s">
-        <v>106</v>
       </c>
       <c r="AV9" s="17" t="s">
         <v>1</v>
       </c>
       <c r="AW9" s="17" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
     </row>
     <row r="10" spans="1:49">
@@ -2089,28 +2088,28 @@
         <v>72</v>
       </c>
       <c r="J10" s="17" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="K10" s="17" t="s">
         <v>0</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>204</v>
+        <v>193</v>
       </c>
       <c r="M10" s="17" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="N10" s="17" t="s">
-        <v>206</v>
+        <v>195</v>
       </c>
       <c r="O10" s="17" t="s">
-        <v>246</v>
+        <v>235</v>
       </c>
       <c r="P10" s="14" t="s">
         <v>13</v>
       </c>
       <c r="Q10" s="17" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="R10" s="17" t="s">
         <v>14</v>
@@ -2131,31 +2130,31 @@
         <v>16</v>
       </c>
       <c r="X10" s="2" t="s">
-        <v>208</v>
+        <v>197</v>
       </c>
       <c r="Y10" s="14" t="s">
-        <v>264</v>
+        <v>253</v>
       </c>
       <c r="Z10" s="2" t="s">
         <v>0</v>
       </c>
       <c r="AA10" s="2" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="AB10" s="14" t="s">
-        <v>263</v>
+        <v>252</v>
       </c>
       <c r="AC10" s="2" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="AD10" s="2" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="AE10" s="2" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="AF10" s="2" t="s">
-        <v>209</v>
+        <v>198</v>
       </c>
       <c r="AG10" s="10">
         <v>55</v>
@@ -2188,7 +2187,7 @@
         <v>60</v>
       </c>
       <c r="AQ10" s="2" t="s">
-        <v>210</v>
+        <v>199</v>
       </c>
       <c r="AR10" s="2" t="s">
         <v>1</v>
@@ -2206,7 +2205,7 @@
         <v>1</v>
       </c>
       <c r="AW10" s="14" t="s">
-        <v>204</v>
+        <v>193</v>
       </c>
     </row>
     <row r="11" spans="1:49">
@@ -2232,34 +2231,34 @@
         <v>3</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>211</v>
+        <v>200</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>211</v>
+        <v>200</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>212</v>
+        <v>201</v>
       </c>
       <c r="K11" s="2" t="s">
         <v>63</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>214</v>
+        <v>203</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>215</v>
+        <v>204</v>
       </c>
       <c r="O11" s="2" t="s">
-        <v>247</v>
+        <v>236</v>
       </c>
       <c r="P11" s="14" t="s">
-        <v>262</v>
+        <v>251</v>
       </c>
       <c r="Q11" s="2" t="s">
-        <v>216</v>
+        <v>205</v>
       </c>
       <c r="R11" s="2" t="s">
         <v>14</v>
@@ -2280,19 +2279,19 @@
         <v>16</v>
       </c>
       <c r="X11" s="2" t="s">
-        <v>217</v>
+        <v>206</v>
       </c>
       <c r="Y11" s="14" t="s">
-        <v>266</v>
+        <v>255</v>
       </c>
       <c r="Z11" s="2" t="s">
         <v>0</v>
       </c>
       <c r="AA11" s="2" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="AB11" s="14" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
       <c r="AC11" s="2" t="s">
         <v>79</v>
@@ -2304,7 +2303,7 @@
         <v>79</v>
       </c>
       <c r="AF11" s="2" t="s">
-        <v>218</v>
+        <v>207</v>
       </c>
       <c r="AG11" s="10">
         <v>0</v>
@@ -2337,7 +2336,7 @@
         <v>60</v>
       </c>
       <c r="AQ11" s="2" t="s">
-        <v>219</v>
+        <v>208</v>
       </c>
       <c r="AR11" s="2" t="s">
         <v>0</v>
@@ -2346,16 +2345,16 @@
         <v>74</v>
       </c>
       <c r="AT11" s="2" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
       <c r="AU11" s="2" t="s">
-        <v>221</v>
+        <v>210</v>
       </c>
       <c r="AV11" s="2" t="s">
         <v>1</v>
       </c>
       <c r="AW11" s="14" t="s">
-        <v>222</v>
+        <v>211</v>
       </c>
     </row>
     <row r="12" spans="1:49">
@@ -2381,31 +2380,31 @@
         <v>3</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>223</v>
+        <v>212</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>223</v>
+        <v>212</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>224</v>
+        <v>213</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>225</v>
+        <v>214</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>226</v>
+        <v>215</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>227</v>
+        <v>216</v>
       </c>
       <c r="O12" s="2" t="s">
-        <v>248</v>
+        <v>237</v>
       </c>
       <c r="P12" s="14" t="s">
-        <v>262</v>
+        <v>251</v>
       </c>
       <c r="Q12" s="2" t="s">
         <v>82</v>
@@ -2417,43 +2416,43 @@
         <v>14</v>
       </c>
       <c r="T12" s="2" t="s">
-        <v>228</v>
+        <v>217</v>
       </c>
       <c r="U12" s="2" t="s">
-        <v>229</v>
+        <v>218</v>
       </c>
       <c r="V12" s="2" t="s">
-        <v>230</v>
+        <v>219</v>
       </c>
       <c r="W12" s="2" t="s">
         <v>16</v>
       </c>
       <c r="X12" s="2" t="s">
-        <v>231</v>
+        <v>220</v>
       </c>
       <c r="Y12" s="14" t="s">
-        <v>268</v>
+        <v>257</v>
       </c>
       <c r="Z12" s="2" t="s">
         <v>0</v>
       </c>
       <c r="AA12" s="2" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="AB12" s="14" t="s">
-        <v>267</v>
+        <v>256</v>
       </c>
       <c r="AC12" s="2" t="s">
-        <v>232</v>
+        <v>221</v>
       </c>
       <c r="AD12" s="2" t="s">
-        <v>233</v>
+        <v>222</v>
       </c>
       <c r="AE12" s="2" t="s">
-        <v>234</v>
+        <v>223</v>
       </c>
       <c r="AF12" s="2" t="s">
-        <v>235</v>
+        <v>224</v>
       </c>
       <c r="AG12" s="10">
         <v>0</v>
@@ -2471,7 +2470,7 @@
         <v>1</v>
       </c>
       <c r="AL12" s="2" t="s">
-        <v>236</v>
+        <v>225</v>
       </c>
       <c r="AM12" s="2" t="s">
         <v>62</v>
@@ -2486,7 +2485,7 @@
         <v>60</v>
       </c>
       <c r="AQ12" s="2" t="s">
-        <v>237</v>
+        <v>226</v>
       </c>
       <c r="AR12" s="2" t="s">
         <v>1</v>
@@ -2495,7 +2494,7 @@
         <v>74</v>
       </c>
       <c r="AT12" s="2" t="s">
-        <v>238</v>
+        <v>227</v>
       </c>
       <c r="AU12" s="2" t="s">
         <v>84</v>
@@ -2504,7 +2503,7 @@
         <v>1</v>
       </c>
       <c r="AW12" s="14" t="s">
-        <v>239</v>
+        <v>228</v>
       </c>
     </row>
     <row r="13" spans="1:49">
@@ -2530,34 +2529,34 @@
         <v>3</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="L13" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="M13" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="N13" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="O13" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="P13" s="14" t="s">
+        <v>251</v>
+      </c>
+      <c r="Q13" s="2" t="s">
         <v>109</v>
-      </c>
-      <c r="M13" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="N13" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="O13" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="P13" s="14" t="s">
-        <v>262</v>
-      </c>
-      <c r="Q13" s="2" t="s">
-        <v>115</v>
       </c>
       <c r="R13" s="2" t="s">
         <v>14</v>
@@ -2566,49 +2565,49 @@
         <v>14</v>
       </c>
       <c r="T13" s="2" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="U13" s="2" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="V13" s="2" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="W13" s="2" t="s">
         <v>16</v>
       </c>
       <c r="X13" s="2" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="Y13" s="14" t="s">
-        <v>270</v>
+        <v>259</v>
       </c>
       <c r="Z13" s="2" t="s">
         <v>0</v>
       </c>
       <c r="AA13" s="2" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="AB13" s="14" t="s">
-        <v>269</v>
+        <v>258</v>
       </c>
       <c r="AC13" s="2" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="AD13" s="2" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="AE13" s="2" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="AF13" s="2" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="AG13" s="10">
         <v>0</v>
       </c>
       <c r="AH13" s="2" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="AI13" s="2" t="s">
         <v>13</v>
@@ -2620,13 +2619,13 @@
         <v>1</v>
       </c>
       <c r="AL13" s="2" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="AM13" s="2" t="s">
         <v>62</v>
       </c>
       <c r="AN13" s="2" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="AO13" s="2" t="s">
         <v>61</v>
@@ -2635,7 +2634,7 @@
         <v>60</v>
       </c>
       <c r="AQ13" s="2" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="AR13" s="2" t="s">
         <v>1</v>
@@ -2653,7 +2652,7 @@
         <v>1</v>
       </c>
       <c r="AW13" s="14" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
     </row>
     <row r="14" spans="1:49">
@@ -2661,7 +2660,7 @@
         <v>2</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>0</v>
@@ -2670,7 +2669,7 @@
         <v>59</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>71</v>
@@ -2685,13 +2684,13 @@
         <v>72</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="K14" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="L14" s="2" t="s">
         <v>121</v>
-      </c>
-      <c r="L14" s="2" t="s">
-        <v>127</v>
       </c>
       <c r="M14" s="2" t="s">
         <v>80</v>
@@ -2703,7 +2702,7 @@
         <v>81</v>
       </c>
       <c r="P14" s="14" t="s">
-        <v>262</v>
+        <v>251</v>
       </c>
       <c r="Q14" s="2" t="s">
         <v>14</v>
@@ -2718,28 +2717,28 @@
         <v>14</v>
       </c>
       <c r="U14" s="2" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="V14" s="2" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="W14" s="2" t="s">
         <v>16</v>
       </c>
       <c r="X14" s="2" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="Y14" s="14" t="s">
-        <v>261</v>
+        <v>250</v>
       </c>
       <c r="Z14" s="2" t="s">
         <v>0</v>
       </c>
       <c r="AA14" s="2" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="AB14" s="14" t="s">
-        <v>260</v>
+        <v>249</v>
       </c>
       <c r="AC14" s="2" t="s">
         <v>79</v>
@@ -2751,7 +2750,7 @@
         <v>79</v>
       </c>
       <c r="AF14" s="2" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="AG14" s="10">
         <v>972</v>
@@ -2760,7 +2759,7 @@
         <v>0</v>
       </c>
       <c r="AI14" s="2" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="AJ14" s="2" t="s">
         <v>64</v>
@@ -2784,16 +2783,16 @@
         <v>60</v>
       </c>
       <c r="AQ14" s="2" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="AR14" s="2" t="s">
         <v>0</v>
       </c>
       <c r="AS14" s="2" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="AT14" s="2" t="s">
-        <v>240</v>
+        <v>229</v>
       </c>
       <c r="AU14" s="2" t="s">
         <v>83</v>
@@ -2802,7 +2801,7 @@
         <v>1</v>
       </c>
       <c r="AW14" s="14" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
     </row>
     <row r="15" spans="1:49">
@@ -2810,7 +2809,7 @@
         <v>2</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="C15" s="14" t="s">
         <v>13</v>
@@ -2819,7 +2818,7 @@
         <v>59</v>
       </c>
       <c r="E15" s="14" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="F15" s="14" t="s">
         <v>71</v>
@@ -2834,13 +2833,13 @@
         <v>72</v>
       </c>
       <c r="J15" s="14" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="K15" s="14" t="s">
         <v>63</v>
       </c>
       <c r="L15" s="14" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="M15" s="14" t="s">
         <v>80</v>
@@ -2849,10 +2848,10 @@
         <v>81</v>
       </c>
       <c r="O15" s="14" t="s">
-        <v>245</v>
+        <v>234</v>
       </c>
       <c r="P15" s="14" t="s">
-        <v>262</v>
+        <v>251</v>
       </c>
       <c r="Q15" s="14" t="s">
         <v>82</v>
@@ -2876,19 +2875,19 @@
         <v>16</v>
       </c>
       <c r="X15" s="14" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="Y15" s="14" t="s">
-        <v>261</v>
+        <v>250</v>
       </c>
       <c r="Z15" s="14" t="s">
         <v>0</v>
       </c>
       <c r="AA15" s="14" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="AB15" s="14" t="s">
-        <v>260</v>
+        <v>249</v>
       </c>
       <c r="AC15" s="14" t="s">
         <v>79</v>
@@ -2900,7 +2899,7 @@
         <v>79</v>
       </c>
       <c r="AF15" s="14" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="AG15" s="15">
         <v>0</v>
@@ -2909,7 +2908,7 @@
         <v>0</v>
       </c>
       <c r="AI15" s="14" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="AJ15" s="14" t="s">
         <v>64</v>
@@ -2933,7 +2932,7 @@
         <v>60</v>
       </c>
       <c r="AQ15" s="14" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="AR15" s="14" t="s">
         <v>0</v>
@@ -2942,7 +2941,7 @@
         <v>74</v>
       </c>
       <c r="AT15" s="14" t="s">
-        <v>241</v>
+        <v>230</v>
       </c>
       <c r="AU15" s="14" t="s">
         <v>83</v>
@@ -2951,7 +2950,7 @@
         <v>1</v>
       </c>
       <c r="AW15" s="14" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
     </row>
     <row r="16" spans="1:49">
@@ -2959,7 +2958,7 @@
         <v>2</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>0</v>
@@ -2968,43 +2967,43 @@
         <v>59</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="G16" s="2" t="s">
         <v>58</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="K16" s="2" t="s">
         <v>63</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="M16" s="2" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="N16" s="2" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="O16" s="2" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
       <c r="P16" s="14" t="s">
-        <v>262</v>
+        <v>251</v>
       </c>
       <c r="Q16" s="2" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="R16" s="2" t="s">
         <v>14</v>
@@ -3013,7 +3012,7 @@
         <v>14</v>
       </c>
       <c r="T16" s="2" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="U16" s="2" t="s">
         <v>14</v>
@@ -3025,31 +3024,31 @@
         <v>16</v>
       </c>
       <c r="X16" s="2" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="Y16" s="14" t="s">
-        <v>272</v>
+        <v>261</v>
       </c>
       <c r="Z16" s="2" t="s">
         <v>0</v>
       </c>
       <c r="AA16" s="2" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="AB16" s="14" t="s">
-        <v>271</v>
+        <v>260</v>
       </c>
       <c r="AC16" s="2" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="AD16" s="2" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="AE16" s="2" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="AF16" s="2" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="AG16" s="10">
         <v>1129</v>
@@ -3058,7 +3057,7 @@
         <v>0</v>
       </c>
       <c r="AI16" s="2" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="AJ16" s="2" t="s">
         <v>64</v>
@@ -3067,13 +3066,13 @@
         <v>1</v>
       </c>
       <c r="AL16" s="2" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="AM16" s="2" t="s">
         <v>62</v>
       </c>
       <c r="AN16" s="2" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="AO16" s="2" t="s">
         <v>61</v>
@@ -3082,16 +3081,16 @@
         <v>60</v>
       </c>
       <c r="AQ16" s="2" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="AR16" s="2" t="s">
         <v>0</v>
       </c>
       <c r="AS16" s="2" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="AT16" s="2" t="s">
-        <v>242</v>
+        <v>231</v>
       </c>
       <c r="AU16" s="2" t="s">
         <v>84</v>
@@ -3100,7 +3099,7 @@
         <v>1</v>
       </c>
       <c r="AW16" s="14" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
     </row>
     <row r="17" spans="1:49">
@@ -3117,7 +3116,7 @@
         <v>59</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>71</v>
@@ -3138,7 +3137,7 @@
         <v>63</v>
       </c>
       <c r="L17" s="2" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="M17" s="2" t="s">
         <v>80</v>
@@ -3147,10 +3146,10 @@
         <v>81</v>
       </c>
       <c r="O17" s="2" t="s">
-        <v>245</v>
+        <v>234</v>
       </c>
       <c r="P17" s="14" t="s">
-        <v>262</v>
+        <v>251</v>
       </c>
       <c r="Q17" s="2" t="s">
         <v>82</v>
@@ -3177,16 +3176,16 @@
         <v>73</v>
       </c>
       <c r="Y17" s="14" t="s">
-        <v>261</v>
+        <v>250</v>
       </c>
       <c r="Z17" s="2" t="s">
         <v>0</v>
       </c>
       <c r="AA17" s="2" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="AB17" s="14" t="s">
-        <v>260</v>
+        <v>249</v>
       </c>
       <c r="AC17" s="2" t="s">
         <v>79</v>
@@ -3231,7 +3230,7 @@
         <v>60</v>
       </c>
       <c r="AQ17" s="2" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="AR17" s="2" t="s">
         <v>0</v>
@@ -3240,7 +3239,7 @@
         <v>74</v>
       </c>
       <c r="AT17" s="2" t="s">
-        <v>243</v>
+        <v>232</v>
       </c>
       <c r="AU17" s="2" t="s">
         <v>83</v>
@@ -3249,7 +3248,7 @@
         <v>1</v>
       </c>
       <c r="AW17" s="14" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
     </row>
     <row r="18" spans="1:49">
@@ -3257,7 +3256,7 @@
         <v>2</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>0</v>
@@ -3266,7 +3265,7 @@
         <v>59</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>71</v>
@@ -3281,13 +3280,13 @@
         <v>72</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="K18" s="2" t="s">
         <v>63</v>
       </c>
       <c r="L18" s="2" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="M18" s="2" t="s">
         <v>80</v>
@@ -3296,10 +3295,10 @@
         <v>81</v>
       </c>
       <c r="O18" s="2" t="s">
-        <v>245</v>
+        <v>234</v>
       </c>
       <c r="P18" s="14" t="s">
-        <v>262</v>
+        <v>251</v>
       </c>
       <c r="Q18" s="2" t="s">
         <v>82</v>
@@ -3323,19 +3322,19 @@
         <v>16</v>
       </c>
       <c r="X18" s="2" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="Y18" s="14" t="s">
-        <v>261</v>
+        <v>250</v>
       </c>
       <c r="Z18" s="2" t="s">
         <v>0</v>
       </c>
       <c r="AA18" s="2" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="AB18" s="14" t="s">
-        <v>260</v>
+        <v>249</v>
       </c>
       <c r="AC18" s="2" t="s">
         <v>79</v>
@@ -3347,7 +3346,7 @@
         <v>79</v>
       </c>
       <c r="AF18" s="2" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="AG18" s="10">
         <v>0</v>
@@ -3356,7 +3355,7 @@
         <v>0</v>
       </c>
       <c r="AI18" s="2" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="AJ18" s="2" t="s">
         <v>64</v>
@@ -3380,7 +3379,7 @@
         <v>60</v>
       </c>
       <c r="AQ18" s="2" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="AR18" s="2" t="s">
         <v>0</v>
@@ -3389,7 +3388,7 @@
         <v>74</v>
       </c>
       <c r="AT18" s="2" t="s">
-        <v>244</v>
+        <v>233</v>
       </c>
       <c r="AU18" s="2" t="s">
         <v>83</v>
@@ -3398,7 +3397,7 @@
         <v>1</v>
       </c>
       <c r="AW18" s="14" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
     </row>
     <row r="20" spans="1:49">
@@ -3410,602 +3409,602 @@
     </row>
     <row r="23" spans="1:49" ht="11.25" customHeight="1">
       <c r="A23" s="1"/>
-      <c r="B23" s="54" t="s">
-        <v>91</v>
-      </c>
-      <c r="C23" s="55"/>
-      <c r="D23" s="55"/>
-      <c r="E23" s="55"/>
-      <c r="F23" s="55"/>
-      <c r="G23" s="56"/>
-      <c r="H23" s="35" t="s">
-        <v>174</v>
-      </c>
-      <c r="I23" s="35"/>
-      <c r="J23" s="35"/>
-      <c r="K23" s="35"/>
-      <c r="L23" s="35"/>
-      <c r="M23" s="35"/>
-      <c r="N23" s="35"/>
-      <c r="O23" s="35"/>
-      <c r="P23" s="35"/>
-      <c r="Q23" s="35"/>
-      <c r="R23" s="35"/>
-      <c r="S23" s="35"/>
-      <c r="T23" s="35"/>
-      <c r="U23" s="35"/>
-      <c r="V23" s="35"/>
-      <c r="W23" s="43" t="s">
-        <v>175</v>
-      </c>
-      <c r="X23" s="43"/>
-      <c r="Y23" s="43"/>
-      <c r="Z23" s="43"/>
-      <c r="AA23" s="43"/>
-      <c r="AB23" s="43"/>
-      <c r="AC23" s="43"/>
-      <c r="AD23" s="43"/>
-      <c r="AE23" s="43"/>
-      <c r="AF23" s="43"/>
-      <c r="AG23" s="23" t="s">
-        <v>198</v>
-      </c>
-      <c r="AH23" s="24"/>
-      <c r="AI23" s="25"/>
-      <c r="AJ23" s="65" t="s">
-        <v>92</v>
-      </c>
-      <c r="AK23" s="65" t="s">
-        <v>94</v>
-      </c>
-      <c r="AL23" s="23" t="s">
-        <v>184</v>
-      </c>
-      <c r="AM23" s="24"/>
-      <c r="AN23" s="24"/>
-      <c r="AO23" s="25"/>
-      <c r="AP23" s="54" t="s">
-        <v>89</v>
-      </c>
-      <c r="AQ23" s="55"/>
-      <c r="AR23" s="55"/>
-      <c r="AS23" s="55"/>
-      <c r="AT23" s="56"/>
-      <c r="AU23" s="51" t="s">
-        <v>90</v>
-      </c>
-      <c r="AV23" s="51" t="s">
-        <v>95</v>
-      </c>
-      <c r="AW23" s="36" t="s">
-        <v>201</v>
+      <c r="B23" s="35" t="s">
+        <v>267</v>
+      </c>
+      <c r="C23" s="36"/>
+      <c r="D23" s="36"/>
+      <c r="E23" s="36"/>
+      <c r="F23" s="36"/>
+      <c r="G23" s="37"/>
+      <c r="H23" s="61" t="s">
+        <v>268</v>
+      </c>
+      <c r="I23" s="61"/>
+      <c r="J23" s="61"/>
+      <c r="K23" s="61"/>
+      <c r="L23" s="61"/>
+      <c r="M23" s="61"/>
+      <c r="N23" s="61"/>
+      <c r="O23" s="61"/>
+      <c r="P23" s="61"/>
+      <c r="Q23" s="61"/>
+      <c r="R23" s="61"/>
+      <c r="S23" s="61"/>
+      <c r="T23" s="61"/>
+      <c r="U23" s="61"/>
+      <c r="V23" s="61"/>
+      <c r="W23" s="65" t="s">
+        <v>269</v>
+      </c>
+      <c r="X23" s="65"/>
+      <c r="Y23" s="65"/>
+      <c r="Z23" s="65"/>
+      <c r="AA23" s="65"/>
+      <c r="AB23" s="65"/>
+      <c r="AC23" s="65"/>
+      <c r="AD23" s="65"/>
+      <c r="AE23" s="65"/>
+      <c r="AF23" s="65"/>
+      <c r="AG23" s="52" t="s">
+        <v>270</v>
+      </c>
+      <c r="AH23" s="53"/>
+      <c r="AI23" s="54"/>
+      <c r="AJ23" s="24" t="s">
+        <v>271</v>
+      </c>
+      <c r="AK23" s="24" t="s">
+        <v>272</v>
+      </c>
+      <c r="AL23" s="52" t="s">
+        <v>273</v>
+      </c>
+      <c r="AM23" s="53"/>
+      <c r="AN23" s="53"/>
+      <c r="AO23" s="54"/>
+      <c r="AP23" s="35" t="s">
+        <v>274</v>
+      </c>
+      <c r="AQ23" s="36"/>
+      <c r="AR23" s="36"/>
+      <c r="AS23" s="36"/>
+      <c r="AT23" s="37"/>
+      <c r="AU23" s="32" t="s">
+        <v>275</v>
+      </c>
+      <c r="AV23" s="32" t="s">
+        <v>276</v>
+      </c>
+      <c r="AW23" s="62" t="s">
+        <v>277</v>
       </c>
     </row>
     <row r="24" spans="1:49" ht="11.25" customHeight="1">
       <c r="A24" s="1"/>
-      <c r="B24" s="57"/>
-      <c r="C24" s="58"/>
-      <c r="D24" s="58"/>
-      <c r="E24" s="58"/>
-      <c r="F24" s="58"/>
-      <c r="G24" s="59"/>
-      <c r="H24" s="35"/>
-      <c r="I24" s="35"/>
-      <c r="J24" s="35"/>
-      <c r="K24" s="35"/>
-      <c r="L24" s="35"/>
-      <c r="M24" s="35"/>
-      <c r="N24" s="35"/>
-      <c r="O24" s="35"/>
-      <c r="P24" s="35"/>
-      <c r="Q24" s="35"/>
-      <c r="R24" s="35"/>
-      <c r="S24" s="35"/>
-      <c r="T24" s="35"/>
-      <c r="U24" s="35"/>
-      <c r="V24" s="35"/>
-      <c r="W24" s="43"/>
-      <c r="X24" s="43"/>
-      <c r="Y24" s="43"/>
-      <c r="Z24" s="43"/>
-      <c r="AA24" s="43"/>
-      <c r="AB24" s="43"/>
-      <c r="AC24" s="43"/>
-      <c r="AD24" s="43"/>
-      <c r="AE24" s="43"/>
-      <c r="AF24" s="43"/>
-      <c r="AG24" s="26"/>
-      <c r="AH24" s="27"/>
-      <c r="AI24" s="28"/>
-      <c r="AJ24" s="65"/>
-      <c r="AK24" s="65"/>
-      <c r="AL24" s="26"/>
-      <c r="AM24" s="27"/>
-      <c r="AN24" s="27"/>
-      <c r="AO24" s="28"/>
-      <c r="AP24" s="57"/>
-      <c r="AQ24" s="58"/>
-      <c r="AR24" s="58"/>
-      <c r="AS24" s="58"/>
-      <c r="AT24" s="59"/>
-      <c r="AU24" s="52"/>
-      <c r="AV24" s="52"/>
-      <c r="AW24" s="36"/>
+      <c r="B24" s="38"/>
+      <c r="C24" s="39"/>
+      <c r="D24" s="39"/>
+      <c r="E24" s="39"/>
+      <c r="F24" s="39"/>
+      <c r="G24" s="40"/>
+      <c r="H24" s="61"/>
+      <c r="I24" s="61"/>
+      <c r="J24" s="61"/>
+      <c r="K24" s="61"/>
+      <c r="L24" s="61"/>
+      <c r="M24" s="61"/>
+      <c r="N24" s="61"/>
+      <c r="O24" s="61"/>
+      <c r="P24" s="61"/>
+      <c r="Q24" s="61"/>
+      <c r="R24" s="61"/>
+      <c r="S24" s="61"/>
+      <c r="T24" s="61"/>
+      <c r="U24" s="61"/>
+      <c r="V24" s="61"/>
+      <c r="W24" s="65"/>
+      <c r="X24" s="65"/>
+      <c r="Y24" s="65"/>
+      <c r="Z24" s="65"/>
+      <c r="AA24" s="65"/>
+      <c r="AB24" s="65"/>
+      <c r="AC24" s="65"/>
+      <c r="AD24" s="65"/>
+      <c r="AE24" s="65"/>
+      <c r="AF24" s="65"/>
+      <c r="AG24" s="55"/>
+      <c r="AH24" s="56"/>
+      <c r="AI24" s="57"/>
+      <c r="AJ24" s="24"/>
+      <c r="AK24" s="24"/>
+      <c r="AL24" s="55"/>
+      <c r="AM24" s="56"/>
+      <c r="AN24" s="56"/>
+      <c r="AO24" s="57"/>
+      <c r="AP24" s="38"/>
+      <c r="AQ24" s="39"/>
+      <c r="AR24" s="39"/>
+      <c r="AS24" s="39"/>
+      <c r="AT24" s="40"/>
+      <c r="AU24" s="33"/>
+      <c r="AV24" s="33"/>
+      <c r="AW24" s="62"/>
     </row>
     <row r="25" spans="1:49" ht="18" customHeight="1">
       <c r="A25" s="1"/>
-      <c r="B25" s="60"/>
-      <c r="C25" s="61"/>
-      <c r="D25" s="61"/>
-      <c r="E25" s="61"/>
-      <c r="F25" s="61"/>
-      <c r="G25" s="62"/>
-      <c r="H25" s="35"/>
-      <c r="I25" s="35"/>
-      <c r="J25" s="35"/>
-      <c r="K25" s="35"/>
-      <c r="L25" s="35"/>
-      <c r="M25" s="35"/>
-      <c r="N25" s="35"/>
-      <c r="O25" s="35"/>
-      <c r="P25" s="35"/>
-      <c r="Q25" s="35"/>
-      <c r="R25" s="35"/>
-      <c r="S25" s="35"/>
-      <c r="T25" s="35"/>
-      <c r="U25" s="35"/>
-      <c r="V25" s="35"/>
-      <c r="W25" s="43"/>
-      <c r="X25" s="43"/>
-      <c r="Y25" s="43"/>
-      <c r="Z25" s="43"/>
-      <c r="AA25" s="43"/>
-      <c r="AB25" s="43"/>
-      <c r="AC25" s="43"/>
-      <c r="AD25" s="43"/>
-      <c r="AE25" s="43"/>
-      <c r="AF25" s="43"/>
-      <c r="AG25" s="29"/>
-      <c r="AH25" s="30"/>
-      <c r="AI25" s="31"/>
-      <c r="AJ25" s="65"/>
-      <c r="AK25" s="65"/>
-      <c r="AL25" s="29"/>
-      <c r="AM25" s="30"/>
-      <c r="AN25" s="30"/>
-      <c r="AO25" s="31"/>
-      <c r="AP25" s="60"/>
-      <c r="AQ25" s="61"/>
-      <c r="AR25" s="61"/>
-      <c r="AS25" s="61"/>
-      <c r="AT25" s="62"/>
-      <c r="AU25" s="53"/>
-      <c r="AV25" s="53"/>
-      <c r="AW25" s="36"/>
+      <c r="B25" s="41"/>
+      <c r="C25" s="42"/>
+      <c r="D25" s="42"/>
+      <c r="E25" s="42"/>
+      <c r="F25" s="42"/>
+      <c r="G25" s="43"/>
+      <c r="H25" s="61"/>
+      <c r="I25" s="61"/>
+      <c r="J25" s="61"/>
+      <c r="K25" s="61"/>
+      <c r="L25" s="61"/>
+      <c r="M25" s="61"/>
+      <c r="N25" s="61"/>
+      <c r="O25" s="61"/>
+      <c r="P25" s="61"/>
+      <c r="Q25" s="61"/>
+      <c r="R25" s="61"/>
+      <c r="S25" s="61"/>
+      <c r="T25" s="61"/>
+      <c r="U25" s="61"/>
+      <c r="V25" s="61"/>
+      <c r="W25" s="65"/>
+      <c r="X25" s="65"/>
+      <c r="Y25" s="65"/>
+      <c r="Z25" s="65"/>
+      <c r="AA25" s="65"/>
+      <c r="AB25" s="65"/>
+      <c r="AC25" s="65"/>
+      <c r="AD25" s="65"/>
+      <c r="AE25" s="65"/>
+      <c r="AF25" s="65"/>
+      <c r="AG25" s="58"/>
+      <c r="AH25" s="59"/>
+      <c r="AI25" s="60"/>
+      <c r="AJ25" s="24"/>
+      <c r="AK25" s="24"/>
+      <c r="AL25" s="58"/>
+      <c r="AM25" s="59"/>
+      <c r="AN25" s="59"/>
+      <c r="AO25" s="60"/>
+      <c r="AP25" s="41"/>
+      <c r="AQ25" s="42"/>
+      <c r="AR25" s="42"/>
+      <c r="AS25" s="42"/>
+      <c r="AT25" s="43"/>
+      <c r="AU25" s="34"/>
+      <c r="AV25" s="34"/>
+      <c r="AW25" s="62"/>
     </row>
     <row r="26" spans="1:49" ht="11.25" customHeight="1">
-      <c r="A26" s="32" t="s">
+      <c r="A26" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="B26" s="32" t="s">
+      <c r="B26" s="25" t="s">
         <v>65</v>
       </c>
-      <c r="C26" s="32" t="s">
+      <c r="C26" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="D26" s="32" t="s">
+      <c r="D26" s="25" t="s">
         <v>85</v>
       </c>
-      <c r="E26" s="32" t="s">
+      <c r="E26" s="25" t="s">
+        <v>159</v>
+      </c>
+      <c r="F26" s="25" t="s">
+        <v>68</v>
+      </c>
+      <c r="G26" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="H26" s="25" t="s">
+        <v>182</v>
+      </c>
+      <c r="I26" s="25" t="s">
+        <v>183</v>
+      </c>
+      <c r="J26" s="25" t="s">
+        <v>184</v>
+      </c>
+      <c r="K26" s="25" t="s">
+        <v>185</v>
+      </c>
+      <c r="L26" s="25" t="s">
+        <v>188</v>
+      </c>
+      <c r="M26" s="25" t="s">
+        <v>160</v>
+      </c>
+      <c r="N26" s="25" t="s">
+        <v>161</v>
+      </c>
+      <c r="O26" s="25" t="s">
+        <v>239</v>
+      </c>
+      <c r="P26" s="25" t="s">
+        <v>264</v>
+      </c>
+      <c r="Q26" s="25" t="s">
         <v>165</v>
       </c>
-      <c r="F26" s="32" t="s">
-        <v>68</v>
-      </c>
-      <c r="G26" s="32" t="s">
-        <v>69</v>
-      </c>
-      <c r="H26" s="32" t="s">
+      <c r="R26" s="31" t="s">
+        <v>166</v>
+      </c>
+      <c r="S26" s="31" t="s">
+        <v>167</v>
+      </c>
+      <c r="T26" s="31" t="s">
+        <v>162</v>
+      </c>
+      <c r="U26" s="31" t="s">
+        <v>163</v>
+      </c>
+      <c r="V26" s="31" t="s">
+        <v>164</v>
+      </c>
+      <c r="W26" s="28" t="s">
+        <v>168</v>
+      </c>
+      <c r="X26" s="28" t="s">
+        <v>169</v>
+      </c>
+      <c r="Y26" s="28" t="s">
+        <v>262</v>
+      </c>
+      <c r="Z26" s="28" t="s">
+        <v>171</v>
+      </c>
+      <c r="AA26" s="31" t="s">
+        <v>172</v>
+      </c>
+      <c r="AB26" s="31" t="s">
+        <v>263</v>
+      </c>
+      <c r="AC26" s="31" t="s">
+        <v>173</v>
+      </c>
+      <c r="AD26" s="31" t="s">
+        <v>174</v>
+      </c>
+      <c r="AE26" s="25" t="s">
+        <v>175</v>
+      </c>
+      <c r="AF26" s="44" t="s">
+        <v>170</v>
+      </c>
+      <c r="AG26" s="25" t="s">
+        <v>186</v>
+      </c>
+      <c r="AH26" s="25" t="s">
+        <v>187</v>
+      </c>
+      <c r="AI26" s="25" t="s">
+        <v>240</v>
+      </c>
+      <c r="AJ26" s="46" t="s">
+        <v>89</v>
+      </c>
+      <c r="AK26" s="49" t="s">
+        <v>67</v>
+      </c>
+      <c r="AL26" s="45" t="s">
+        <v>176</v>
+      </c>
+      <c r="AM26" s="45" t="s">
+        <v>177</v>
+      </c>
+      <c r="AN26" s="45" t="s">
+        <v>178</v>
+      </c>
+      <c r="AO26" s="45" t="s">
+        <v>179</v>
+      </c>
+      <c r="AP26" s="28" t="s">
+        <v>180</v>
+      </c>
+      <c r="AQ26" s="28" t="s">
+        <v>181</v>
+      </c>
+      <c r="AR26" s="28" t="s">
+        <v>241</v>
+      </c>
+      <c r="AS26" s="28" t="s">
+        <v>242</v>
+      </c>
+      <c r="AT26" s="28" t="s">
+        <v>243</v>
+      </c>
+      <c r="AU26" s="25" t="s">
+        <v>245</v>
+      </c>
+      <c r="AV26" s="25" t="s">
+        <v>244</v>
+      </c>
+      <c r="AW26" s="62"/>
+    </row>
+    <row r="27" spans="1:49">
+      <c r="A27" s="26"/>
+      <c r="B27" s="26"/>
+      <c r="C27" s="26"/>
+      <c r="D27" s="26"/>
+      <c r="E27" s="26"/>
+      <c r="F27" s="26"/>
+      <c r="G27" s="26"/>
+      <c r="H27" s="26"/>
+      <c r="I27" s="26"/>
+      <c r="J27" s="26"/>
+      <c r="K27" s="26"/>
+      <c r="L27" s="26"/>
+      <c r="M27" s="26"/>
+      <c r="N27" s="26"/>
+      <c r="O27" s="26"/>
+      <c r="P27" s="26"/>
+      <c r="Q27" s="26"/>
+      <c r="R27" s="31"/>
+      <c r="S27" s="31"/>
+      <c r="T27" s="31"/>
+      <c r="U27" s="31"/>
+      <c r="V27" s="31"/>
+      <c r="W27" s="29"/>
+      <c r="X27" s="29"/>
+      <c r="Y27" s="29"/>
+      <c r="Z27" s="29"/>
+      <c r="AA27" s="31"/>
+      <c r="AB27" s="31"/>
+      <c r="AC27" s="31"/>
+      <c r="AD27" s="31"/>
+      <c r="AE27" s="26"/>
+      <c r="AF27" s="44"/>
+      <c r="AG27" s="26"/>
+      <c r="AH27" s="26"/>
+      <c r="AI27" s="26"/>
+      <c r="AJ27" s="47"/>
+      <c r="AK27" s="50"/>
+      <c r="AL27" s="45"/>
+      <c r="AM27" s="45"/>
+      <c r="AN27" s="45"/>
+      <c r="AO27" s="45"/>
+      <c r="AP27" s="29"/>
+      <c r="AQ27" s="29"/>
+      <c r="AR27" s="63"/>
+      <c r="AS27" s="29"/>
+      <c r="AT27" s="29"/>
+      <c r="AU27" s="26"/>
+      <c r="AV27" s="26"/>
+      <c r="AW27" s="31" t="s">
         <v>191</v>
       </c>
-      <c r="I26" s="32" t="s">
-        <v>192</v>
-      </c>
-      <c r="J26" s="32" t="s">
-        <v>193</v>
-      </c>
-      <c r="K26" s="32" t="s">
-        <v>194</v>
-      </c>
-      <c r="L26" s="32" t="s">
-        <v>197</v>
-      </c>
-      <c r="M26" s="32" t="s">
-        <v>166</v>
-      </c>
-      <c r="N26" s="32" t="s">
-        <v>167</v>
-      </c>
-      <c r="O26" s="32" t="s">
-        <v>250</v>
-      </c>
-      <c r="P26" s="32" t="s">
-        <v>275</v>
-      </c>
-      <c r="Q26" s="32" t="s">
-        <v>171</v>
-      </c>
-      <c r="R26" s="37" t="s">
-        <v>172</v>
-      </c>
-      <c r="S26" s="37" t="s">
-        <v>173</v>
-      </c>
-      <c r="T26" s="37" t="s">
-        <v>168</v>
-      </c>
-      <c r="U26" s="37" t="s">
-        <v>169</v>
-      </c>
-      <c r="V26" s="37" t="s">
-        <v>170</v>
-      </c>
-      <c r="W26" s="38" t="s">
-        <v>176</v>
-      </c>
-      <c r="X26" s="38" t="s">
-        <v>177</v>
-      </c>
-      <c r="Y26" s="38" t="s">
-        <v>273</v>
-      </c>
-      <c r="Z26" s="38" t="s">
-        <v>179</v>
-      </c>
-      <c r="AA26" s="37" t="s">
-        <v>180</v>
-      </c>
-      <c r="AB26" s="37" t="s">
-        <v>274</v>
-      </c>
-      <c r="AC26" s="37" t="s">
-        <v>181</v>
-      </c>
-      <c r="AD26" s="37" t="s">
-        <v>182</v>
-      </c>
-      <c r="AE26" s="32" t="s">
-        <v>183</v>
-      </c>
-      <c r="AF26" s="63" t="s">
-        <v>178</v>
-      </c>
-      <c r="AG26" s="32" t="s">
-        <v>195</v>
-      </c>
-      <c r="AH26" s="32" t="s">
-        <v>196</v>
-      </c>
-      <c r="AI26" s="32" t="s">
-        <v>251</v>
-      </c>
-      <c r="AJ26" s="45" t="s">
-        <v>93</v>
-      </c>
-      <c r="AK26" s="48" t="s">
-        <v>67</v>
-      </c>
-      <c r="AL26" s="44" t="s">
-        <v>185</v>
-      </c>
-      <c r="AM26" s="44" t="s">
-        <v>186</v>
-      </c>
-      <c r="AN26" s="44" t="s">
-        <v>187</v>
-      </c>
-      <c r="AO26" s="44" t="s">
-        <v>188</v>
-      </c>
-      <c r="AP26" s="38" t="s">
-        <v>189</v>
-      </c>
-      <c r="AQ26" s="38" t="s">
-        <v>190</v>
-      </c>
-      <c r="AR26" s="38" t="s">
-        <v>252</v>
-      </c>
-      <c r="AS26" s="38" t="s">
-        <v>253</v>
-      </c>
-      <c r="AT26" s="38" t="s">
-        <v>254</v>
-      </c>
-      <c r="AU26" s="32" t="s">
-        <v>256</v>
-      </c>
-      <c r="AV26" s="32" t="s">
-        <v>255</v>
-      </c>
-      <c r="AW26" s="36"/>
-    </row>
-    <row r="27" spans="1:49">
-      <c r="A27" s="33"/>
-      <c r="B27" s="33"/>
-      <c r="C27" s="33"/>
-      <c r="D27" s="33"/>
-      <c r="E27" s="33"/>
-      <c r="F27" s="33"/>
-      <c r="G27" s="33"/>
-      <c r="H27" s="33"/>
-      <c r="I27" s="33"/>
-      <c r="J27" s="33"/>
-      <c r="K27" s="33"/>
-      <c r="L27" s="33"/>
-      <c r="M27" s="33"/>
-      <c r="N27" s="33"/>
-      <c r="O27" s="33"/>
-      <c r="P27" s="33"/>
-      <c r="Q27" s="33"/>
-      <c r="R27" s="37"/>
-      <c r="S27" s="37"/>
-      <c r="T27" s="37"/>
-      <c r="U27" s="37"/>
-      <c r="V27" s="37"/>
-      <c r="W27" s="39"/>
-      <c r="X27" s="39"/>
-      <c r="Y27" s="39"/>
-      <c r="Z27" s="39"/>
-      <c r="AA27" s="37"/>
-      <c r="AB27" s="37"/>
-      <c r="AC27" s="37"/>
-      <c r="AD27" s="37"/>
-      <c r="AE27" s="33"/>
-      <c r="AF27" s="63"/>
-      <c r="AG27" s="33"/>
-      <c r="AH27" s="33"/>
-      <c r="AI27" s="33"/>
-      <c r="AJ27" s="46"/>
-      <c r="AK27" s="49"/>
-      <c r="AL27" s="44"/>
-      <c r="AM27" s="44"/>
-      <c r="AN27" s="44"/>
-      <c r="AO27" s="44"/>
-      <c r="AP27" s="39"/>
-      <c r="AQ27" s="39"/>
-      <c r="AR27" s="41"/>
-      <c r="AS27" s="39"/>
-      <c r="AT27" s="39"/>
-      <c r="AU27" s="33"/>
-      <c r="AV27" s="33"/>
-      <c r="AW27" s="37" t="s">
-        <v>202</v>
-      </c>
     </row>
     <row r="28" spans="1:49">
-      <c r="A28" s="33"/>
-      <c r="B28" s="33"/>
-      <c r="C28" s="33"/>
-      <c r="D28" s="33"/>
-      <c r="E28" s="33"/>
-      <c r="F28" s="33"/>
-      <c r="G28" s="33"/>
-      <c r="H28" s="33"/>
-      <c r="I28" s="33"/>
-      <c r="J28" s="33"/>
-      <c r="K28" s="33"/>
-      <c r="L28" s="33"/>
-      <c r="M28" s="33"/>
-      <c r="N28" s="33"/>
-      <c r="O28" s="33"/>
-      <c r="P28" s="33"/>
-      <c r="Q28" s="33"/>
-      <c r="R28" s="37"/>
-      <c r="S28" s="37"/>
-      <c r="T28" s="37"/>
-      <c r="U28" s="37"/>
-      <c r="V28" s="37"/>
-      <c r="W28" s="39"/>
-      <c r="X28" s="39"/>
-      <c r="Y28" s="39"/>
-      <c r="Z28" s="39"/>
-      <c r="AA28" s="37"/>
-      <c r="AB28" s="37"/>
-      <c r="AC28" s="37"/>
-      <c r="AD28" s="37"/>
-      <c r="AE28" s="33"/>
-      <c r="AF28" s="63"/>
-      <c r="AG28" s="33"/>
-      <c r="AH28" s="33"/>
-      <c r="AI28" s="33"/>
-      <c r="AJ28" s="46"/>
-      <c r="AK28" s="49"/>
-      <c r="AL28" s="44"/>
-      <c r="AM28" s="44"/>
-      <c r="AN28" s="44"/>
-      <c r="AO28" s="44"/>
-      <c r="AP28" s="39"/>
-      <c r="AQ28" s="39"/>
-      <c r="AR28" s="41"/>
-      <c r="AS28" s="39"/>
-      <c r="AT28" s="39"/>
-      <c r="AU28" s="33"/>
-      <c r="AV28" s="33"/>
-      <c r="AW28" s="37"/>
+      <c r="A28" s="26"/>
+      <c r="B28" s="26"/>
+      <c r="C28" s="26"/>
+      <c r="D28" s="26"/>
+      <c r="E28" s="26"/>
+      <c r="F28" s="26"/>
+      <c r="G28" s="26"/>
+      <c r="H28" s="26"/>
+      <c r="I28" s="26"/>
+      <c r="J28" s="26"/>
+      <c r="K28" s="26"/>
+      <c r="L28" s="26"/>
+      <c r="M28" s="26"/>
+      <c r="N28" s="26"/>
+      <c r="O28" s="26"/>
+      <c r="P28" s="26"/>
+      <c r="Q28" s="26"/>
+      <c r="R28" s="31"/>
+      <c r="S28" s="31"/>
+      <c r="T28" s="31"/>
+      <c r="U28" s="31"/>
+      <c r="V28" s="31"/>
+      <c r="W28" s="29"/>
+      <c r="X28" s="29"/>
+      <c r="Y28" s="29"/>
+      <c r="Z28" s="29"/>
+      <c r="AA28" s="31"/>
+      <c r="AB28" s="31"/>
+      <c r="AC28" s="31"/>
+      <c r="AD28" s="31"/>
+      <c r="AE28" s="26"/>
+      <c r="AF28" s="44"/>
+      <c r="AG28" s="26"/>
+      <c r="AH28" s="26"/>
+      <c r="AI28" s="26"/>
+      <c r="AJ28" s="47"/>
+      <c r="AK28" s="50"/>
+      <c r="AL28" s="45"/>
+      <c r="AM28" s="45"/>
+      <c r="AN28" s="45"/>
+      <c r="AO28" s="45"/>
+      <c r="AP28" s="29"/>
+      <c r="AQ28" s="29"/>
+      <c r="AR28" s="63"/>
+      <c r="AS28" s="29"/>
+      <c r="AT28" s="29"/>
+      <c r="AU28" s="26"/>
+      <c r="AV28" s="26"/>
+      <c r="AW28" s="31"/>
     </row>
     <row r="29" spans="1:49">
-      <c r="A29" s="33"/>
-      <c r="B29" s="33"/>
-      <c r="C29" s="33"/>
-      <c r="D29" s="33"/>
-      <c r="E29" s="33"/>
-      <c r="F29" s="33"/>
-      <c r="G29" s="33"/>
-      <c r="H29" s="33"/>
-      <c r="I29" s="33"/>
-      <c r="J29" s="33"/>
-      <c r="K29" s="33"/>
-      <c r="L29" s="33"/>
-      <c r="M29" s="33"/>
-      <c r="N29" s="33"/>
-      <c r="O29" s="33"/>
-      <c r="P29" s="33"/>
-      <c r="Q29" s="33"/>
-      <c r="R29" s="37"/>
-      <c r="S29" s="37"/>
-      <c r="T29" s="37"/>
-      <c r="U29" s="37"/>
-      <c r="V29" s="37"/>
-      <c r="W29" s="39"/>
-      <c r="X29" s="39"/>
-      <c r="Y29" s="39"/>
-      <c r="Z29" s="39"/>
-      <c r="AA29" s="37"/>
-      <c r="AB29" s="37"/>
-      <c r="AC29" s="37"/>
-      <c r="AD29" s="37"/>
-      <c r="AE29" s="33"/>
-      <c r="AF29" s="63"/>
-      <c r="AG29" s="33"/>
-      <c r="AH29" s="33"/>
-      <c r="AI29" s="33"/>
-      <c r="AJ29" s="46"/>
-      <c r="AK29" s="49"/>
-      <c r="AL29" s="44"/>
-      <c r="AM29" s="44"/>
-      <c r="AN29" s="44"/>
-      <c r="AO29" s="44"/>
-      <c r="AP29" s="39"/>
-      <c r="AQ29" s="39"/>
-      <c r="AR29" s="41"/>
-      <c r="AS29" s="39"/>
-      <c r="AT29" s="39"/>
-      <c r="AU29" s="33"/>
-      <c r="AV29" s="33"/>
-      <c r="AW29" s="37"/>
+      <c r="A29" s="26"/>
+      <c r="B29" s="26"/>
+      <c r="C29" s="26"/>
+      <c r="D29" s="26"/>
+      <c r="E29" s="26"/>
+      <c r="F29" s="26"/>
+      <c r="G29" s="26"/>
+      <c r="H29" s="26"/>
+      <c r="I29" s="26"/>
+      <c r="J29" s="26"/>
+      <c r="K29" s="26"/>
+      <c r="L29" s="26"/>
+      <c r="M29" s="26"/>
+      <c r="N29" s="26"/>
+      <c r="O29" s="26"/>
+      <c r="P29" s="26"/>
+      <c r="Q29" s="26"/>
+      <c r="R29" s="31"/>
+      <c r="S29" s="31"/>
+      <c r="T29" s="31"/>
+      <c r="U29" s="31"/>
+      <c r="V29" s="31"/>
+      <c r="W29" s="29"/>
+      <c r="X29" s="29"/>
+      <c r="Y29" s="29"/>
+      <c r="Z29" s="29"/>
+      <c r="AA29" s="31"/>
+      <c r="AB29" s="31"/>
+      <c r="AC29" s="31"/>
+      <c r="AD29" s="31"/>
+      <c r="AE29" s="26"/>
+      <c r="AF29" s="44"/>
+      <c r="AG29" s="26"/>
+      <c r="AH29" s="26"/>
+      <c r="AI29" s="26"/>
+      <c r="AJ29" s="47"/>
+      <c r="AK29" s="50"/>
+      <c r="AL29" s="45"/>
+      <c r="AM29" s="45"/>
+      <c r="AN29" s="45"/>
+      <c r="AO29" s="45"/>
+      <c r="AP29" s="29"/>
+      <c r="AQ29" s="29"/>
+      <c r="AR29" s="63"/>
+      <c r="AS29" s="29"/>
+      <c r="AT29" s="29"/>
+      <c r="AU29" s="26"/>
+      <c r="AV29" s="26"/>
+      <c r="AW29" s="31"/>
     </row>
     <row r="30" spans="1:49">
-      <c r="A30" s="33"/>
-      <c r="B30" s="33"/>
-      <c r="C30" s="33"/>
-      <c r="D30" s="33"/>
-      <c r="E30" s="33"/>
-      <c r="F30" s="33"/>
-      <c r="G30" s="33"/>
-      <c r="H30" s="33"/>
-      <c r="I30" s="33"/>
-      <c r="J30" s="33"/>
-      <c r="K30" s="33"/>
-      <c r="L30" s="33"/>
-      <c r="M30" s="33"/>
-      <c r="N30" s="33"/>
-      <c r="O30" s="33"/>
-      <c r="P30" s="33"/>
-      <c r="Q30" s="33"/>
-      <c r="R30" s="37"/>
-      <c r="S30" s="37"/>
-      <c r="T30" s="37"/>
-      <c r="U30" s="37"/>
-      <c r="V30" s="37"/>
-      <c r="W30" s="39"/>
-      <c r="X30" s="39"/>
-      <c r="Y30" s="39"/>
-      <c r="Z30" s="39"/>
-      <c r="AA30" s="37"/>
-      <c r="AB30" s="37"/>
-      <c r="AC30" s="37"/>
-      <c r="AD30" s="37"/>
-      <c r="AE30" s="33"/>
-      <c r="AF30" s="63"/>
-      <c r="AG30" s="33"/>
-      <c r="AH30" s="33"/>
-      <c r="AI30" s="33"/>
-      <c r="AJ30" s="46"/>
-      <c r="AK30" s="49"/>
-      <c r="AL30" s="44"/>
-      <c r="AM30" s="44"/>
-      <c r="AN30" s="44"/>
-      <c r="AO30" s="44"/>
-      <c r="AP30" s="39"/>
-      <c r="AQ30" s="39"/>
-      <c r="AR30" s="41"/>
-      <c r="AS30" s="39"/>
-      <c r="AT30" s="39"/>
-      <c r="AU30" s="33"/>
-      <c r="AV30" s="33"/>
-      <c r="AW30" s="37"/>
+      <c r="A30" s="26"/>
+      <c r="B30" s="26"/>
+      <c r="C30" s="26"/>
+      <c r="D30" s="26"/>
+      <c r="E30" s="26"/>
+      <c r="F30" s="26"/>
+      <c r="G30" s="26"/>
+      <c r="H30" s="26"/>
+      <c r="I30" s="26"/>
+      <c r="J30" s="26"/>
+      <c r="K30" s="26"/>
+      <c r="L30" s="26"/>
+      <c r="M30" s="26"/>
+      <c r="N30" s="26"/>
+      <c r="O30" s="26"/>
+      <c r="P30" s="26"/>
+      <c r="Q30" s="26"/>
+      <c r="R30" s="31"/>
+      <c r="S30" s="31"/>
+      <c r="T30" s="31"/>
+      <c r="U30" s="31"/>
+      <c r="V30" s="31"/>
+      <c r="W30" s="29"/>
+      <c r="X30" s="29"/>
+      <c r="Y30" s="29"/>
+      <c r="Z30" s="29"/>
+      <c r="AA30" s="31"/>
+      <c r="AB30" s="31"/>
+      <c r="AC30" s="31"/>
+      <c r="AD30" s="31"/>
+      <c r="AE30" s="26"/>
+      <c r="AF30" s="44"/>
+      <c r="AG30" s="26"/>
+      <c r="AH30" s="26"/>
+      <c r="AI30" s="26"/>
+      <c r="AJ30" s="47"/>
+      <c r="AK30" s="50"/>
+      <c r="AL30" s="45"/>
+      <c r="AM30" s="45"/>
+      <c r="AN30" s="45"/>
+      <c r="AO30" s="45"/>
+      <c r="AP30" s="29"/>
+      <c r="AQ30" s="29"/>
+      <c r="AR30" s="63"/>
+      <c r="AS30" s="29"/>
+      <c r="AT30" s="29"/>
+      <c r="AU30" s="26"/>
+      <c r="AV30" s="26"/>
+      <c r="AW30" s="31"/>
     </row>
     <row r="31" spans="1:49">
-      <c r="A31" s="34"/>
-      <c r="B31" s="34"/>
-      <c r="C31" s="34"/>
-      <c r="D31" s="34"/>
-      <c r="E31" s="34"/>
-      <c r="F31" s="34"/>
-      <c r="G31" s="34"/>
-      <c r="H31" s="34"/>
-      <c r="I31" s="34"/>
-      <c r="J31" s="34"/>
-      <c r="K31" s="34"/>
-      <c r="L31" s="34"/>
-      <c r="M31" s="34"/>
-      <c r="N31" s="34"/>
-      <c r="O31" s="34"/>
-      <c r="P31" s="34"/>
-      <c r="Q31" s="34"/>
-      <c r="R31" s="37"/>
-      <c r="S31" s="37"/>
-      <c r="T31" s="37"/>
-      <c r="U31" s="37"/>
-      <c r="V31" s="37"/>
-      <c r="W31" s="40"/>
-      <c r="X31" s="40"/>
-      <c r="Y31" s="40"/>
-      <c r="Z31" s="40"/>
-      <c r="AA31" s="37"/>
-      <c r="AB31" s="37"/>
-      <c r="AC31" s="37"/>
-      <c r="AD31" s="37"/>
-      <c r="AE31" s="34"/>
-      <c r="AF31" s="63"/>
-      <c r="AG31" s="34"/>
-      <c r="AH31" s="34"/>
-      <c r="AI31" s="34"/>
-      <c r="AJ31" s="46"/>
-      <c r="AK31" s="49"/>
-      <c r="AL31" s="44"/>
-      <c r="AM31" s="44"/>
-      <c r="AN31" s="44"/>
-      <c r="AO31" s="44"/>
-      <c r="AP31" s="40"/>
-      <c r="AQ31" s="40"/>
-      <c r="AR31" s="42"/>
-      <c r="AS31" s="40"/>
-      <c r="AT31" s="40"/>
-      <c r="AU31" s="34"/>
-      <c r="AV31" s="34"/>
-      <c r="AW31" s="37"/>
+      <c r="A31" s="27"/>
+      <c r="B31" s="27"/>
+      <c r="C31" s="27"/>
+      <c r="D31" s="27"/>
+      <c r="E31" s="27"/>
+      <c r="F31" s="27"/>
+      <c r="G31" s="27"/>
+      <c r="H31" s="27"/>
+      <c r="I31" s="27"/>
+      <c r="J31" s="27"/>
+      <c r="K31" s="27"/>
+      <c r="L31" s="27"/>
+      <c r="M31" s="27"/>
+      <c r="N31" s="27"/>
+      <c r="O31" s="27"/>
+      <c r="P31" s="27"/>
+      <c r="Q31" s="27"/>
+      <c r="R31" s="31"/>
+      <c r="S31" s="31"/>
+      <c r="T31" s="31"/>
+      <c r="U31" s="31"/>
+      <c r="V31" s="31"/>
+      <c r="W31" s="30"/>
+      <c r="X31" s="30"/>
+      <c r="Y31" s="30"/>
+      <c r="Z31" s="30"/>
+      <c r="AA31" s="31"/>
+      <c r="AB31" s="31"/>
+      <c r="AC31" s="31"/>
+      <c r="AD31" s="31"/>
+      <c r="AE31" s="27"/>
+      <c r="AF31" s="44"/>
+      <c r="AG31" s="27"/>
+      <c r="AH31" s="27"/>
+      <c r="AI31" s="27"/>
+      <c r="AJ31" s="47"/>
+      <c r="AK31" s="50"/>
+      <c r="AL31" s="45"/>
+      <c r="AM31" s="45"/>
+      <c r="AN31" s="45"/>
+      <c r="AO31" s="45"/>
+      <c r="AP31" s="30"/>
+      <c r="AQ31" s="30"/>
+      <c r="AR31" s="64"/>
+      <c r="AS31" s="30"/>
+      <c r="AT31" s="30"/>
+      <c r="AU31" s="27"/>
+      <c r="AV31" s="27"/>
+      <c r="AW31" s="31"/>
     </row>
     <row r="32" spans="1:49">
-      <c r="AJ32" s="46"/>
-      <c r="AK32" s="49"/>
+      <c r="AJ32" s="47"/>
+      <c r="AK32" s="50"/>
     </row>
     <row r="33" spans="4:37">
       <c r="D33" s="6" t="s">
         <v>17</v>
       </c>
       <c r="AE33" s="20"/>
-      <c r="AJ33" s="46"/>
-      <c r="AK33" s="49"/>
+      <c r="AJ33" s="47"/>
+      <c r="AK33" s="50"/>
     </row>
     <row r="34" spans="4:37" ht="258.75">
       <c r="D34" s="8" t="s">
         <v>86</v>
       </c>
       <c r="AE34" s="21"/>
-      <c r="AJ34" s="47"/>
-      <c r="AK34" s="50"/>
+      <c r="AJ34" s="48"/>
+      <c r="AK34" s="51"/>
     </row>
     <row r="35" spans="4:37" ht="326.25">
       <c r="D35" s="9" t="s">
@@ -4019,6 +4018,52 @@
     </row>
   </sheetData>
   <mergeCells count="62">
+    <mergeCell ref="AG23:AI25"/>
+    <mergeCell ref="P26:P31"/>
+    <mergeCell ref="H23:V25"/>
+    <mergeCell ref="AW23:AW26"/>
+    <mergeCell ref="AW27:AW31"/>
+    <mergeCell ref="AL23:AO25"/>
+    <mergeCell ref="AT26:AT31"/>
+    <mergeCell ref="AU26:AU31"/>
+    <mergeCell ref="AV26:AV31"/>
+    <mergeCell ref="AR26:AR31"/>
+    <mergeCell ref="V26:V31"/>
+    <mergeCell ref="Q26:Q31"/>
+    <mergeCell ref="R26:R31"/>
+    <mergeCell ref="Y26:Y31"/>
+    <mergeCell ref="AB26:AB31"/>
+    <mergeCell ref="W23:AF25"/>
+    <mergeCell ref="T26:T31"/>
+    <mergeCell ref="U26:U31"/>
+    <mergeCell ref="AS26:AS31"/>
+    <mergeCell ref="AI26:AI31"/>
+    <mergeCell ref="AO26:AO31"/>
+    <mergeCell ref="AP26:AP31"/>
+    <mergeCell ref="AQ26:AQ31"/>
+    <mergeCell ref="AG26:AG31"/>
+    <mergeCell ref="AH26:AH31"/>
+    <mergeCell ref="AL26:AL31"/>
+    <mergeCell ref="AM26:AM31"/>
+    <mergeCell ref="AN26:AN31"/>
+    <mergeCell ref="AJ26:AJ34"/>
+    <mergeCell ref="AK26:AK34"/>
+    <mergeCell ref="AU23:AU25"/>
+    <mergeCell ref="AV23:AV25"/>
+    <mergeCell ref="A26:A31"/>
+    <mergeCell ref="B26:B31"/>
+    <mergeCell ref="C26:C31"/>
+    <mergeCell ref="D26:D31"/>
+    <mergeCell ref="E26:E31"/>
+    <mergeCell ref="AP23:AT25"/>
+    <mergeCell ref="F26:F31"/>
+    <mergeCell ref="G26:G31"/>
+    <mergeCell ref="H26:H31"/>
+    <mergeCell ref="I26:I31"/>
+    <mergeCell ref="M26:M31"/>
+    <mergeCell ref="B23:G25"/>
+    <mergeCell ref="X26:X31"/>
+    <mergeCell ref="AF26:AF31"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="AJ23:AJ25"/>
@@ -4035,52 +4080,6 @@
     <mergeCell ref="S26:S31"/>
     <mergeCell ref="W26:W31"/>
     <mergeCell ref="O26:O31"/>
-    <mergeCell ref="AU23:AU25"/>
-    <mergeCell ref="AV23:AV25"/>
-    <mergeCell ref="A26:A31"/>
-    <mergeCell ref="B26:B31"/>
-    <mergeCell ref="C26:C31"/>
-    <mergeCell ref="D26:D31"/>
-    <mergeCell ref="E26:E31"/>
-    <mergeCell ref="AP23:AT25"/>
-    <mergeCell ref="F26:F31"/>
-    <mergeCell ref="G26:G31"/>
-    <mergeCell ref="H26:H31"/>
-    <mergeCell ref="I26:I31"/>
-    <mergeCell ref="M26:M31"/>
-    <mergeCell ref="B23:G25"/>
-    <mergeCell ref="X26:X31"/>
-    <mergeCell ref="AF26:AF31"/>
-    <mergeCell ref="T26:T31"/>
-    <mergeCell ref="U26:U31"/>
-    <mergeCell ref="AS26:AS31"/>
-    <mergeCell ref="AI26:AI31"/>
-    <mergeCell ref="AO26:AO31"/>
-    <mergeCell ref="AP26:AP31"/>
-    <mergeCell ref="AQ26:AQ31"/>
-    <mergeCell ref="AG26:AG31"/>
-    <mergeCell ref="AH26:AH31"/>
-    <mergeCell ref="AL26:AL31"/>
-    <mergeCell ref="AM26:AM31"/>
-    <mergeCell ref="AN26:AN31"/>
-    <mergeCell ref="AJ26:AJ34"/>
-    <mergeCell ref="AK26:AK34"/>
-    <mergeCell ref="AG23:AI25"/>
-    <mergeCell ref="P26:P31"/>
-    <mergeCell ref="H23:V25"/>
-    <mergeCell ref="AW23:AW26"/>
-    <mergeCell ref="AW27:AW31"/>
-    <mergeCell ref="AL23:AO25"/>
-    <mergeCell ref="AT26:AT31"/>
-    <mergeCell ref="AU26:AU31"/>
-    <mergeCell ref="AV26:AV31"/>
-    <mergeCell ref="AR26:AR31"/>
-    <mergeCell ref="V26:V31"/>
-    <mergeCell ref="Q26:Q31"/>
-    <mergeCell ref="R26:R31"/>
-    <mergeCell ref="Y26:Y31"/>
-    <mergeCell ref="AB26:AB31"/>
-    <mergeCell ref="W23:AF25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/Documentação/Planilhas/Conferencia_DEV.xlsx
+++ b/Documentação/Planilhas/Conferencia_DEV.xlsx
@@ -339,29 +339,11 @@
 100-Não aplicável</t>
   </si>
   <si>
-    <t>Sessão znslsc500s000</t>
-  </si>
-  <si>
-    <t>Sessão whina1512m000</t>
-  </si>
-  <si>
-    <t>Sessão tdrecl504m50l</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sessão tcmcs0565m000 </t>
-  </si>
-  <si>
     <t>Fazer o detalhamento da NF e Série desejada na sessão "tdrecl504m50l". Na aba Geral, seção Referência, pegar o código do Departamento.
 Ir para a sessão "tcmcs0565m000"  e informar o Cód Departamento na coluna "Departamento"
 Pegar a informação da coluna "Unidade Empresarial"</t>
   </si>
   <si>
-    <t>Sessão tcemm0130m000</t>
-  </si>
-  <si>
-    <t>Sessão znslsc507m000</t>
-  </si>
-  <si>
     <t>71101</t>
   </si>
   <si>
@@ -596,12 +578,6 @@
     <t>Na aba inferior "Linhas - Nota Fiscal", pedir o detalhamento da linha [diferente de Frete]. Na aba superior "Geral", seção "Dados de Vendas" pegar a informação de Valor Total de Desconto</t>
   </si>
   <si>
-    <t>Sessão cislil504m00l [Fazer o detalhamento da NF e série desejada na sessão "tdrecl504m50l". Selecionar a aba inferior Linhas e pedir o detalhamento da linha apresentada. Na aba superior NOVA, pegar a informação de "Dev. Venda - Referência" e informá-la na coluna Referência Fiscal, fazendo o detalhamento da mesma na sequência nesta sessão]</t>
-  </si>
-  <si>
-    <t>Sessão znslsc501m000 [Fazer o detalhamento da NF e série desejada na sessão "tdrecl504m50l". Selecionar a aba inferior Linhas e pedir o detalhamento da linha apresentada. Na aba inferior "Dados de Origem", pegar a informação da coluna "Ordem" e informá-la na coluna "Ordem de Venda LN" nesta sessão. Com a seta "Next Group" ir procurando até encontrar a mesma]</t>
-  </si>
-  <si>
     <t>Pegar a informação da Unidade de Negócio existente no cabeçalho da tela quando o registro for encontrado</t>
   </si>
   <si>
@@ -626,9 +602,6 @@
     <t>Fazer o detalhamento da linha encontrada. Na aba "Devoluçao ou Troca", pegar a informação de "Laudo Motivo - Etiqueta WMS"</t>
   </si>
   <si>
-    <t>Sessão tccom4530m000 [Fazer o detalhamento da NF e Série desejada na sessão "tdrecl504m50l". Na aba Relações, seção "Relação - Para" pegar o código do "Endereço Enviado Para:". Informar o código na coluna "Código do Endereço" e pedir o detalhamento da linha apresentada nesta sessão]</t>
-  </si>
-  <si>
     <t>Na aba Geral, seção Endereço, pegar a primeira informação de "Cidade"</t>
   </si>
   <si>
@@ -668,9 +641,6 @@
     <t>Fazer o detalhamento da NF e Série desejada. Na aba Geral, seção Datas, pegar a Data Emissão</t>
   </si>
   <si>
-    <t>Sessão tdsls4100m000 [Fazer o detalhamento da NF e série desejada na sessão "tdrecl504m50l". Selecionar a aba inferior Linhas e pedir o detalhamento da linha apresentada. Na aba inferior "Dados de Origem", pegar a informação da coluna "Ordem" e informá-la na coluna "Ordem" desta sessão]</t>
-  </si>
-  <si>
     <t>da devolucao</t>
   </si>
   <si>
@@ -906,6 +876,36 @@
   </si>
   <si>
     <t>Quando não tiver NR_NF, NR_SERIE_NF, CD_TIPO_NF, NR_NFR_DEVOLUCAO indica que o recebimento da devolução ainda não foi feito. Para esses casos,  foram criadas as ordens de venda de devolução mas ainda não foi feito o recebimento do produto devolvido. Sendo assim, devemos fazer a validação a partir do NR_ENTREGA_NF</t>
+  </si>
+  <si>
+    <t>Sessão tdrecl504m50l (Recebimento Fiscal - Sumário)</t>
+  </si>
+  <si>
+    <t>Sessão cislil504m00l (Nota Fiscal) [Fazer o detalhamento da NF e série desejada na sessão "tdrecl504m50l". Selecionar a aba inferior Linhas e pedir o detalhamento da linha apresentada. Na aba superior NOVA, pegar a informação de "Dev. Venda - Referência" e informá-la na coluna Referência Fiscal, fazendo o detalhamento da mesma na sequência nesta sessão]</t>
+  </si>
+  <si>
+    <t>Sessão znslsc501m000 (Pedido de Venda Site - Linhas) [Fazer o detalhamento da NF e série desejada na sessão "tdrecl504m50l". Selecionar a aba inferior Linhas e pedir o detalhamento da linha apresentada. Na aba inferior "Dados de Origem", pegar a informação da coluna "Ordem" e informá-la na coluna "Ordem de Venda LN" nesta sessão. Com a seta "Next Group" ir procurando até encontrar a mesma]</t>
+  </si>
+  <si>
+    <t>Sessão tdsls4100m000 (Ordens de Vendas) [Fazer o detalhamento da NF e série desejada na sessão "tdrecl504m50l". Selecionar a aba inferior Linhas e pedir o detalhamento da linha apresentada. Na aba inferior "Dados de Origem", pegar a informação da coluna "Ordem" e informá-la na coluna "Ordem" desta sessão]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sessão tcmcs0565m000 (Departamentos) </t>
+  </si>
+  <si>
+    <t>Sessão tcemm0130m000 (Unidade Empresarial)</t>
+  </si>
+  <si>
+    <t>Sessão tccom4530m000 (Endereços) [Fazer o detalhamento da NF e Série desejada na sessão "tdrecl504m50l". Na aba Relações, seção "Relação - Para" pegar o código do "Endereço Enviado Para:". Informar o código na coluna "Código do Endereço" e pedir o detalhamento da linha apresentada nesta sessão]</t>
+  </si>
+  <si>
+    <t>Sessão znslsc500s000 (Pedidos de Vendas Integrados)</t>
+  </si>
+  <si>
+    <t>Sessão whina1512m000 (Transação Receb Inventário)</t>
+  </si>
+  <si>
+    <t>Sessão znslsc507m000 (Liberar Entregas - Lista de Compras)</t>
   </si>
 </sst>
 </file>
@@ -1234,6 +1234,93 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1261,102 +1348,15 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1667,8 +1667,8 @@
   </sheetPr>
   <dimension ref="A2:AW36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="X10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" topLeftCell="AV4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AW27" sqref="AW27:AW31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
@@ -1724,22 +1724,22 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:49" ht="21">
-      <c r="A2" s="64" t="s">
+      <c r="A2" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="64"/>
+      <c r="B2" s="23"/>
       <c r="C2" s="3" t="s">
         <v>18</v>
       </c>
       <c r="AR2" s="2"/>
     </row>
     <row r="3" spans="1:49" ht="21">
-      <c r="A3" s="64" t="s">
+      <c r="A3" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="64"/>
+      <c r="B3" s="23"/>
       <c r="C3" s="3" t="s">
-        <v>276</v>
+        <v>266</v>
       </c>
     </row>
     <row r="4" spans="1:49" ht="21">
@@ -1750,16 +1750,16 @@
     <row r="5" spans="1:49" ht="21">
       <c r="A5" s="13"/>
       <c r="B5" s="22" t="s">
-        <v>277</v>
+        <v>267</v>
       </c>
       <c r="C5" s="3"/>
     </row>
     <row r="7" spans="1:49">
       <c r="L7" s="2" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
       <c r="AW7" s="2" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
     </row>
     <row r="8" spans="1:49">
@@ -1809,7 +1809,7 @@
         <v>36</v>
       </c>
       <c r="P8" s="4" t="s">
-        <v>259</v>
+        <v>249</v>
       </c>
       <c r="Q8" s="4" t="s">
         <v>33</v>
@@ -1836,7 +1836,7 @@
         <v>12</v>
       </c>
       <c r="Y8" s="4" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="Z8" s="4" t="s">
         <v>25</v>
@@ -1845,7 +1845,7 @@
         <v>30</v>
       </c>
       <c r="AB8" s="4" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
       <c r="AC8" s="4" t="s">
         <v>54</v>
@@ -1916,7 +1916,7 @@
         <v>2</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="C9" s="17" t="s">
         <v>13</v>
@@ -1925,7 +1925,7 @@
         <v>59</v>
       </c>
       <c r="E9" s="17" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="F9" s="5" t="s">
         <v>71</v>
@@ -1940,25 +1940,25 @@
         <v>72</v>
       </c>
       <c r="J9" s="17" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="K9" s="17" t="s">
         <v>63</v>
       </c>
       <c r="L9" s="17" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="M9" s="17" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="N9" s="17" t="s">
         <v>81</v>
       </c>
       <c r="O9" s="17" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="P9" s="17" t="s">
-        <v>262</v>
+        <v>252</v>
       </c>
       <c r="Q9" s="17" t="s">
         <v>82</v>
@@ -1982,19 +1982,19 @@
         <v>16</v>
       </c>
       <c r="X9" s="17" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="Y9" s="17" t="s">
-        <v>261</v>
+        <v>251</v>
       </c>
       <c r="Z9" s="17" t="s">
         <v>0</v>
       </c>
       <c r="AA9" s="17" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="AB9" s="17" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="AC9" s="17" t="s">
         <v>79</v>
@@ -2006,7 +2006,7 @@
         <v>79</v>
       </c>
       <c r="AF9" s="17" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="AG9" s="18">
         <v>1130</v>
@@ -2039,25 +2039,25 @@
         <v>60</v>
       </c>
       <c r="AQ9" s="17" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="AR9" s="17" t="s">
         <v>0</v>
       </c>
       <c r="AS9" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="AT9" s="19" t="s">
+        <v>193</v>
+      </c>
+      <c r="AU9" s="14" t="s">
         <v>100</v>
-      </c>
-      <c r="AT9" s="19" t="s">
-        <v>203</v>
-      </c>
-      <c r="AU9" s="14" t="s">
-        <v>106</v>
       </c>
       <c r="AV9" s="17" t="s">
         <v>1</v>
       </c>
       <c r="AW9" s="17" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
     </row>
     <row r="10" spans="1:49">
@@ -2089,28 +2089,28 @@
         <v>72</v>
       </c>
       <c r="J10" s="17" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="K10" s="17" t="s">
         <v>0</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>204</v>
+        <v>194</v>
       </c>
       <c r="M10" s="17" t="s">
-        <v>205</v>
+        <v>195</v>
       </c>
       <c r="N10" s="17" t="s">
-        <v>206</v>
+        <v>196</v>
       </c>
       <c r="O10" s="17" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="P10" s="14" t="s">
         <v>13</v>
       </c>
       <c r="Q10" s="17" t="s">
-        <v>207</v>
+        <v>197</v>
       </c>
       <c r="R10" s="17" t="s">
         <v>14</v>
@@ -2131,31 +2131,31 @@
         <v>16</v>
       </c>
       <c r="X10" s="2" t="s">
-        <v>208</v>
+        <v>198</v>
       </c>
       <c r="Y10" s="14" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
       <c r="Z10" s="2" t="s">
         <v>0</v>
       </c>
       <c r="AA10" s="2" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="AB10" s="14" t="s">
-        <v>263</v>
+        <v>253</v>
       </c>
       <c r="AC10" s="2" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="AD10" s="2" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="AE10" s="2" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="AF10" s="2" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
       <c r="AG10" s="10">
         <v>55</v>
@@ -2188,7 +2188,7 @@
         <v>60</v>
       </c>
       <c r="AQ10" s="2" t="s">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="AR10" s="2" t="s">
         <v>1</v>
@@ -2206,7 +2206,7 @@
         <v>1</v>
       </c>
       <c r="AW10" s="14" t="s">
-        <v>204</v>
+        <v>194</v>
       </c>
     </row>
     <row r="11" spans="1:49">
@@ -2232,34 +2232,34 @@
         <v>3</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>211</v>
+        <v>201</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>211</v>
+        <v>201</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>212</v>
+        <v>202</v>
       </c>
       <c r="K11" s="2" t="s">
         <v>63</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="O11" s="2" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="P11" s="14" t="s">
-        <v>262</v>
+        <v>252</v>
       </c>
       <c r="Q11" s="2" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="R11" s="2" t="s">
         <v>14</v>
@@ -2280,19 +2280,19 @@
         <v>16</v>
       </c>
       <c r="X11" s="2" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="Y11" s="14" t="s">
-        <v>266</v>
+        <v>256</v>
       </c>
       <c r="Z11" s="2" t="s">
         <v>0</v>
       </c>
       <c r="AA11" s="2" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="AB11" s="14" t="s">
-        <v>265</v>
+        <v>255</v>
       </c>
       <c r="AC11" s="2" t="s">
         <v>79</v>
@@ -2304,7 +2304,7 @@
         <v>79</v>
       </c>
       <c r="AF11" s="2" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="AG11" s="10">
         <v>0</v>
@@ -2337,7 +2337,7 @@
         <v>60</v>
       </c>
       <c r="AQ11" s="2" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="AR11" s="2" t="s">
         <v>0</v>
@@ -2346,16 +2346,16 @@
         <v>74</v>
       </c>
       <c r="AT11" s="2" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="AU11" s="2" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="AV11" s="2" t="s">
         <v>1</v>
       </c>
       <c r="AW11" s="14" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
     </row>
     <row r="12" spans="1:49">
@@ -2381,31 +2381,31 @@
         <v>3</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>224</v>
+        <v>214</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>225</v>
+        <v>215</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="O12" s="2" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="P12" s="14" t="s">
-        <v>262</v>
+        <v>252</v>
       </c>
       <c r="Q12" s="2" t="s">
         <v>82</v>
@@ -2417,43 +2417,43 @@
         <v>14</v>
       </c>
       <c r="T12" s="2" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
       <c r="U12" s="2" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="V12" s="2" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="W12" s="2" t="s">
         <v>16</v>
       </c>
       <c r="X12" s="2" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="Y12" s="14" t="s">
-        <v>268</v>
+        <v>258</v>
       </c>
       <c r="Z12" s="2" t="s">
         <v>0</v>
       </c>
       <c r="AA12" s="2" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="AB12" s="14" t="s">
-        <v>267</v>
+        <v>257</v>
       </c>
       <c r="AC12" s="2" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="AD12" s="2" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
       <c r="AE12" s="2" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="AF12" s="2" t="s">
-        <v>235</v>
+        <v>225</v>
       </c>
       <c r="AG12" s="10">
         <v>0</v>
@@ -2471,7 +2471,7 @@
         <v>1</v>
       </c>
       <c r="AL12" s="2" t="s">
-        <v>236</v>
+        <v>226</v>
       </c>
       <c r="AM12" s="2" t="s">
         <v>62</v>
@@ -2486,7 +2486,7 @@
         <v>60</v>
       </c>
       <c r="AQ12" s="2" t="s">
-        <v>237</v>
+        <v>227</v>
       </c>
       <c r="AR12" s="2" t="s">
         <v>1</v>
@@ -2495,7 +2495,7 @@
         <v>74</v>
       </c>
       <c r="AT12" s="2" t="s">
-        <v>238</v>
+        <v>228</v>
       </c>
       <c r="AU12" s="2" t="s">
         <v>84</v>
@@ -2504,7 +2504,7 @@
         <v>1</v>
       </c>
       <c r="AW12" s="14" t="s">
-        <v>239</v>
+        <v>229</v>
       </c>
     </row>
     <row r="13" spans="1:49">
@@ -2530,34 +2530,34 @@
         <v>3</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="L13" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="M13" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="N13" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="O13" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="P13" s="14" t="s">
+        <v>252</v>
+      </c>
+      <c r="Q13" s="2" t="s">
         <v>109</v>
-      </c>
-      <c r="M13" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="N13" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="O13" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="P13" s="14" t="s">
-        <v>262</v>
-      </c>
-      <c r="Q13" s="2" t="s">
-        <v>115</v>
       </c>
       <c r="R13" s="2" t="s">
         <v>14</v>
@@ -2566,49 +2566,49 @@
         <v>14</v>
       </c>
       <c r="T13" s="2" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="U13" s="2" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="V13" s="2" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="W13" s="2" t="s">
         <v>16</v>
       </c>
       <c r="X13" s="2" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="Y13" s="14" t="s">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="Z13" s="2" t="s">
         <v>0</v>
       </c>
       <c r="AA13" s="2" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="AB13" s="14" t="s">
-        <v>269</v>
+        <v>259</v>
       </c>
       <c r="AC13" s="2" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="AD13" s="2" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="AE13" s="2" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="AF13" s="2" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="AG13" s="10">
         <v>0</v>
       </c>
       <c r="AH13" s="2" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="AI13" s="2" t="s">
         <v>13</v>
@@ -2620,13 +2620,13 @@
         <v>1</v>
       </c>
       <c r="AL13" s="2" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="AM13" s="2" t="s">
         <v>62</v>
       </c>
       <c r="AN13" s="2" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="AO13" s="2" t="s">
         <v>61</v>
@@ -2635,7 +2635,7 @@
         <v>60</v>
       </c>
       <c r="AQ13" s="2" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="AR13" s="2" t="s">
         <v>1</v>
@@ -2653,7 +2653,7 @@
         <v>1</v>
       </c>
       <c r="AW13" s="14" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
     </row>
     <row r="14" spans="1:49">
@@ -2661,7 +2661,7 @@
         <v>2</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>0</v>
@@ -2670,7 +2670,7 @@
         <v>59</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>71</v>
@@ -2685,13 +2685,13 @@
         <v>72</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="K14" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="L14" s="2" t="s">
         <v>121</v>
-      </c>
-      <c r="L14" s="2" t="s">
-        <v>127</v>
       </c>
       <c r="M14" s="2" t="s">
         <v>80</v>
@@ -2703,7 +2703,7 @@
         <v>81</v>
       </c>
       <c r="P14" s="14" t="s">
-        <v>262</v>
+        <v>252</v>
       </c>
       <c r="Q14" s="2" t="s">
         <v>14</v>
@@ -2718,28 +2718,28 @@
         <v>14</v>
       </c>
       <c r="U14" s="2" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="V14" s="2" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="W14" s="2" t="s">
         <v>16</v>
       </c>
       <c r="X14" s="2" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="Y14" s="14" t="s">
-        <v>261</v>
+        <v>251</v>
       </c>
       <c r="Z14" s="2" t="s">
         <v>0</v>
       </c>
       <c r="AA14" s="2" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="AB14" s="14" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="AC14" s="2" t="s">
         <v>79</v>
@@ -2751,7 +2751,7 @@
         <v>79</v>
       </c>
       <c r="AF14" s="2" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="AG14" s="10">
         <v>972</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="AI14" s="2" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="AJ14" s="2" t="s">
         <v>64</v>
@@ -2784,16 +2784,16 @@
         <v>60</v>
       </c>
       <c r="AQ14" s="2" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="AR14" s="2" t="s">
         <v>0</v>
       </c>
       <c r="AS14" s="2" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="AT14" s="2" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="AU14" s="2" t="s">
         <v>83</v>
@@ -2802,7 +2802,7 @@
         <v>1</v>
       </c>
       <c r="AW14" s="14" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
     </row>
     <row r="15" spans="1:49">
@@ -2810,7 +2810,7 @@
         <v>2</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="C15" s="14" t="s">
         <v>13</v>
@@ -2819,7 +2819,7 @@
         <v>59</v>
       </c>
       <c r="E15" s="14" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="F15" s="14" t="s">
         <v>71</v>
@@ -2834,13 +2834,13 @@
         <v>72</v>
       </c>
       <c r="J15" s="14" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="K15" s="14" t="s">
         <v>63</v>
       </c>
       <c r="L15" s="14" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="M15" s="14" t="s">
         <v>80</v>
@@ -2849,10 +2849,10 @@
         <v>81</v>
       </c>
       <c r="O15" s="14" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="P15" s="14" t="s">
-        <v>262</v>
+        <v>252</v>
       </c>
       <c r="Q15" s="14" t="s">
         <v>82</v>
@@ -2876,19 +2876,19 @@
         <v>16</v>
       </c>
       <c r="X15" s="14" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="Y15" s="14" t="s">
-        <v>261</v>
+        <v>251</v>
       </c>
       <c r="Z15" s="14" t="s">
         <v>0</v>
       </c>
       <c r="AA15" s="14" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="AB15" s="14" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="AC15" s="14" t="s">
         <v>79</v>
@@ -2900,7 +2900,7 @@
         <v>79</v>
       </c>
       <c r="AF15" s="14" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="AG15" s="15">
         <v>0</v>
@@ -2909,7 +2909,7 @@
         <v>0</v>
       </c>
       <c r="AI15" s="14" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="AJ15" s="14" t="s">
         <v>64</v>
@@ -2933,7 +2933,7 @@
         <v>60</v>
       </c>
       <c r="AQ15" s="14" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="AR15" s="14" t="s">
         <v>0</v>
@@ -2942,7 +2942,7 @@
         <v>74</v>
       </c>
       <c r="AT15" s="14" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="AU15" s="14" t="s">
         <v>83</v>
@@ -2951,7 +2951,7 @@
         <v>1</v>
       </c>
       <c r="AW15" s="14" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
     </row>
     <row r="16" spans="1:49">
@@ -2959,7 +2959,7 @@
         <v>2</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>0</v>
@@ -2968,43 +2968,43 @@
         <v>59</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="G16" s="2" t="s">
         <v>58</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="K16" s="2" t="s">
         <v>63</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="M16" s="2" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="N16" s="2" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="O16" s="2" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="P16" s="14" t="s">
-        <v>262</v>
+        <v>252</v>
       </c>
       <c r="Q16" s="2" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="R16" s="2" t="s">
         <v>14</v>
@@ -3013,7 +3013,7 @@
         <v>14</v>
       </c>
       <c r="T16" s="2" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="U16" s="2" t="s">
         <v>14</v>
@@ -3025,31 +3025,31 @@
         <v>16</v>
       </c>
       <c r="X16" s="2" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="Y16" s="14" t="s">
-        <v>272</v>
+        <v>262</v>
       </c>
       <c r="Z16" s="2" t="s">
         <v>0</v>
       </c>
       <c r="AA16" s="2" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="AB16" s="14" t="s">
-        <v>271</v>
+        <v>261</v>
       </c>
       <c r="AC16" s="2" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="AD16" s="2" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="AE16" s="2" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="AF16" s="2" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="AG16" s="10">
         <v>1129</v>
@@ -3058,7 +3058,7 @@
         <v>0</v>
       </c>
       <c r="AI16" s="2" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="AJ16" s="2" t="s">
         <v>64</v>
@@ -3067,13 +3067,13 @@
         <v>1</v>
       </c>
       <c r="AL16" s="2" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="AM16" s="2" t="s">
         <v>62</v>
       </c>
       <c r="AN16" s="2" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="AO16" s="2" t="s">
         <v>61</v>
@@ -3082,16 +3082,16 @@
         <v>60</v>
       </c>
       <c r="AQ16" s="2" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="AR16" s="2" t="s">
         <v>0</v>
       </c>
       <c r="AS16" s="2" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="AT16" s="2" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="AU16" s="2" t="s">
         <v>84</v>
@@ -3100,7 +3100,7 @@
         <v>1</v>
       </c>
       <c r="AW16" s="14" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
     </row>
     <row r="17" spans="1:49">
@@ -3117,7 +3117,7 @@
         <v>59</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>71</v>
@@ -3138,7 +3138,7 @@
         <v>63</v>
       </c>
       <c r="L17" s="2" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="M17" s="2" t="s">
         <v>80</v>
@@ -3147,10 +3147,10 @@
         <v>81</v>
       </c>
       <c r="O17" s="2" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="P17" s="14" t="s">
-        <v>262</v>
+        <v>252</v>
       </c>
       <c r="Q17" s="2" t="s">
         <v>82</v>
@@ -3177,16 +3177,16 @@
         <v>73</v>
       </c>
       <c r="Y17" s="14" t="s">
-        <v>261</v>
+        <v>251</v>
       </c>
       <c r="Z17" s="2" t="s">
         <v>0</v>
       </c>
       <c r="AA17" s="2" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="AB17" s="14" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="AC17" s="2" t="s">
         <v>79</v>
@@ -3231,7 +3231,7 @@
         <v>60</v>
       </c>
       <c r="AQ17" s="2" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="AR17" s="2" t="s">
         <v>0</v>
@@ -3240,7 +3240,7 @@
         <v>74</v>
       </c>
       <c r="AT17" s="2" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="AU17" s="2" t="s">
         <v>83</v>
@@ -3249,7 +3249,7 @@
         <v>1</v>
       </c>
       <c r="AW17" s="14" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
     </row>
     <row r="18" spans="1:49">
@@ -3257,7 +3257,7 @@
         <v>2</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>0</v>
@@ -3266,7 +3266,7 @@
         <v>59</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>71</v>
@@ -3281,13 +3281,13 @@
         <v>72</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="K18" s="2" t="s">
         <v>63</v>
       </c>
       <c r="L18" s="2" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="M18" s="2" t="s">
         <v>80</v>
@@ -3296,10 +3296,10 @@
         <v>81</v>
       </c>
       <c r="O18" s="2" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="P18" s="14" t="s">
-        <v>262</v>
+        <v>252</v>
       </c>
       <c r="Q18" s="2" t="s">
         <v>82</v>
@@ -3323,19 +3323,19 @@
         <v>16</v>
       </c>
       <c r="X18" s="2" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="Y18" s="14" t="s">
-        <v>261</v>
+        <v>251</v>
       </c>
       <c r="Z18" s="2" t="s">
         <v>0</v>
       </c>
       <c r="AA18" s="2" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="AB18" s="14" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="AC18" s="2" t="s">
         <v>79</v>
@@ -3347,7 +3347,7 @@
         <v>79</v>
       </c>
       <c r="AF18" s="2" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="AG18" s="10">
         <v>0</v>
@@ -3356,7 +3356,7 @@
         <v>0</v>
       </c>
       <c r="AI18" s="2" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="AJ18" s="2" t="s">
         <v>64</v>
@@ -3380,7 +3380,7 @@
         <v>60</v>
       </c>
       <c r="AQ18" s="2" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="AR18" s="2" t="s">
         <v>0</v>
@@ -3389,7 +3389,7 @@
         <v>74</v>
       </c>
       <c r="AT18" s="2" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="AU18" s="2" t="s">
         <v>83</v>
@@ -3398,7 +3398,7 @@
         <v>1</v>
       </c>
       <c r="AW18" s="14" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
     </row>
     <row r="20" spans="1:49">
@@ -3410,602 +3410,602 @@
     </row>
     <row r="23" spans="1:49" ht="11.25" customHeight="1">
       <c r="A23" s="1"/>
-      <c r="B23" s="54" t="s">
-        <v>91</v>
-      </c>
-      <c r="C23" s="55"/>
-      <c r="D23" s="55"/>
-      <c r="E23" s="55"/>
-      <c r="F23" s="55"/>
-      <c r="G23" s="56"/>
-      <c r="H23" s="35" t="s">
-        <v>174</v>
-      </c>
-      <c r="I23" s="35"/>
-      <c r="J23" s="35"/>
-      <c r="K23" s="35"/>
-      <c r="L23" s="35"/>
-      <c r="M23" s="35"/>
-      <c r="N23" s="35"/>
-      <c r="O23" s="35"/>
-      <c r="P23" s="35"/>
-      <c r="Q23" s="35"/>
-      <c r="R23" s="35"/>
-      <c r="S23" s="35"/>
-      <c r="T23" s="35"/>
-      <c r="U23" s="35"/>
-      <c r="V23" s="35"/>
-      <c r="W23" s="43" t="s">
-        <v>175</v>
-      </c>
-      <c r="X23" s="43"/>
-      <c r="Y23" s="43"/>
-      <c r="Z23" s="43"/>
-      <c r="AA23" s="43"/>
-      <c r="AB23" s="43"/>
-      <c r="AC23" s="43"/>
-      <c r="AD23" s="43"/>
-      <c r="AE23" s="43"/>
-      <c r="AF23" s="43"/>
-      <c r="AG23" s="23" t="s">
-        <v>198</v>
-      </c>
-      <c r="AH23" s="24"/>
-      <c r="AI23" s="25"/>
-      <c r="AJ23" s="65" t="s">
-        <v>92</v>
-      </c>
-      <c r="AK23" s="65" t="s">
-        <v>94</v>
-      </c>
-      <c r="AL23" s="23" t="s">
-        <v>184</v>
-      </c>
-      <c r="AM23" s="24"/>
-      <c r="AN23" s="24"/>
-      <c r="AO23" s="25"/>
-      <c r="AP23" s="54" t="s">
-        <v>89</v>
-      </c>
-      <c r="AQ23" s="55"/>
-      <c r="AR23" s="55"/>
-      <c r="AS23" s="55"/>
-      <c r="AT23" s="56"/>
-      <c r="AU23" s="51" t="s">
-        <v>90</v>
-      </c>
-      <c r="AV23" s="51" t="s">
-        <v>95</v>
-      </c>
-      <c r="AW23" s="36" t="s">
-        <v>201</v>
+      <c r="B23" s="35" t="s">
+        <v>268</v>
+      </c>
+      <c r="C23" s="36"/>
+      <c r="D23" s="36"/>
+      <c r="E23" s="36"/>
+      <c r="F23" s="36"/>
+      <c r="G23" s="37"/>
+      <c r="H23" s="61" t="s">
+        <v>269</v>
+      </c>
+      <c r="I23" s="61"/>
+      <c r="J23" s="61"/>
+      <c r="K23" s="61"/>
+      <c r="L23" s="61"/>
+      <c r="M23" s="61"/>
+      <c r="N23" s="61"/>
+      <c r="O23" s="61"/>
+      <c r="P23" s="61"/>
+      <c r="Q23" s="61"/>
+      <c r="R23" s="61"/>
+      <c r="S23" s="61"/>
+      <c r="T23" s="61"/>
+      <c r="U23" s="61"/>
+      <c r="V23" s="61"/>
+      <c r="W23" s="65" t="s">
+        <v>270</v>
+      </c>
+      <c r="X23" s="65"/>
+      <c r="Y23" s="65"/>
+      <c r="Z23" s="65"/>
+      <c r="AA23" s="65"/>
+      <c r="AB23" s="65"/>
+      <c r="AC23" s="65"/>
+      <c r="AD23" s="65"/>
+      <c r="AE23" s="65"/>
+      <c r="AF23" s="65"/>
+      <c r="AG23" s="52" t="s">
+        <v>271</v>
+      </c>
+      <c r="AH23" s="53"/>
+      <c r="AI23" s="54"/>
+      <c r="AJ23" s="24" t="s">
+        <v>272</v>
+      </c>
+      <c r="AK23" s="24" t="s">
+        <v>273</v>
+      </c>
+      <c r="AL23" s="52" t="s">
+        <v>274</v>
+      </c>
+      <c r="AM23" s="53"/>
+      <c r="AN23" s="53"/>
+      <c r="AO23" s="54"/>
+      <c r="AP23" s="35" t="s">
+        <v>275</v>
+      </c>
+      <c r="AQ23" s="36"/>
+      <c r="AR23" s="36"/>
+      <c r="AS23" s="36"/>
+      <c r="AT23" s="37"/>
+      <c r="AU23" s="32" t="s">
+        <v>276</v>
+      </c>
+      <c r="AV23" s="32" t="s">
+        <v>277</v>
+      </c>
+      <c r="AW23" s="62" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="24" spans="1:49" ht="11.25" customHeight="1">
       <c r="A24" s="1"/>
-      <c r="B24" s="57"/>
-      <c r="C24" s="58"/>
-      <c r="D24" s="58"/>
-      <c r="E24" s="58"/>
-      <c r="F24" s="58"/>
-      <c r="G24" s="59"/>
-      <c r="H24" s="35"/>
-      <c r="I24" s="35"/>
-      <c r="J24" s="35"/>
-      <c r="K24" s="35"/>
-      <c r="L24" s="35"/>
-      <c r="M24" s="35"/>
-      <c r="N24" s="35"/>
-      <c r="O24" s="35"/>
-      <c r="P24" s="35"/>
-      <c r="Q24" s="35"/>
-      <c r="R24" s="35"/>
-      <c r="S24" s="35"/>
-      <c r="T24" s="35"/>
-      <c r="U24" s="35"/>
-      <c r="V24" s="35"/>
-      <c r="W24" s="43"/>
-      <c r="X24" s="43"/>
-      <c r="Y24" s="43"/>
-      <c r="Z24" s="43"/>
-      <c r="AA24" s="43"/>
-      <c r="AB24" s="43"/>
-      <c r="AC24" s="43"/>
-      <c r="AD24" s="43"/>
-      <c r="AE24" s="43"/>
-      <c r="AF24" s="43"/>
-      <c r="AG24" s="26"/>
-      <c r="AH24" s="27"/>
-      <c r="AI24" s="28"/>
-      <c r="AJ24" s="65"/>
-      <c r="AK24" s="65"/>
-      <c r="AL24" s="26"/>
-      <c r="AM24" s="27"/>
-      <c r="AN24" s="27"/>
-      <c r="AO24" s="28"/>
-      <c r="AP24" s="57"/>
-      <c r="AQ24" s="58"/>
-      <c r="AR24" s="58"/>
-      <c r="AS24" s="58"/>
-      <c r="AT24" s="59"/>
-      <c r="AU24" s="52"/>
-      <c r="AV24" s="52"/>
-      <c r="AW24" s="36"/>
+      <c r="B24" s="38"/>
+      <c r="C24" s="39"/>
+      <c r="D24" s="39"/>
+      <c r="E24" s="39"/>
+      <c r="F24" s="39"/>
+      <c r="G24" s="40"/>
+      <c r="H24" s="61"/>
+      <c r="I24" s="61"/>
+      <c r="J24" s="61"/>
+      <c r="K24" s="61"/>
+      <c r="L24" s="61"/>
+      <c r="M24" s="61"/>
+      <c r="N24" s="61"/>
+      <c r="O24" s="61"/>
+      <c r="P24" s="61"/>
+      <c r="Q24" s="61"/>
+      <c r="R24" s="61"/>
+      <c r="S24" s="61"/>
+      <c r="T24" s="61"/>
+      <c r="U24" s="61"/>
+      <c r="V24" s="61"/>
+      <c r="W24" s="65"/>
+      <c r="X24" s="65"/>
+      <c r="Y24" s="65"/>
+      <c r="Z24" s="65"/>
+      <c r="AA24" s="65"/>
+      <c r="AB24" s="65"/>
+      <c r="AC24" s="65"/>
+      <c r="AD24" s="65"/>
+      <c r="AE24" s="65"/>
+      <c r="AF24" s="65"/>
+      <c r="AG24" s="55"/>
+      <c r="AH24" s="56"/>
+      <c r="AI24" s="57"/>
+      <c r="AJ24" s="24"/>
+      <c r="AK24" s="24"/>
+      <c r="AL24" s="55"/>
+      <c r="AM24" s="56"/>
+      <c r="AN24" s="56"/>
+      <c r="AO24" s="57"/>
+      <c r="AP24" s="38"/>
+      <c r="AQ24" s="39"/>
+      <c r="AR24" s="39"/>
+      <c r="AS24" s="39"/>
+      <c r="AT24" s="40"/>
+      <c r="AU24" s="33"/>
+      <c r="AV24" s="33"/>
+      <c r="AW24" s="62"/>
     </row>
     <row r="25" spans="1:49" ht="18" customHeight="1">
       <c r="A25" s="1"/>
-      <c r="B25" s="60"/>
-      <c r="C25" s="61"/>
-      <c r="D25" s="61"/>
-      <c r="E25" s="61"/>
-      <c r="F25" s="61"/>
-      <c r="G25" s="62"/>
-      <c r="H25" s="35"/>
-      <c r="I25" s="35"/>
-      <c r="J25" s="35"/>
-      <c r="K25" s="35"/>
-      <c r="L25" s="35"/>
-      <c r="M25" s="35"/>
-      <c r="N25" s="35"/>
-      <c r="O25" s="35"/>
-      <c r="P25" s="35"/>
-      <c r="Q25" s="35"/>
-      <c r="R25" s="35"/>
-      <c r="S25" s="35"/>
-      <c r="T25" s="35"/>
-      <c r="U25" s="35"/>
-      <c r="V25" s="35"/>
-      <c r="W25" s="43"/>
-      <c r="X25" s="43"/>
-      <c r="Y25" s="43"/>
-      <c r="Z25" s="43"/>
-      <c r="AA25" s="43"/>
-      <c r="AB25" s="43"/>
-      <c r="AC25" s="43"/>
-      <c r="AD25" s="43"/>
-      <c r="AE25" s="43"/>
-      <c r="AF25" s="43"/>
-      <c r="AG25" s="29"/>
-      <c r="AH25" s="30"/>
-      <c r="AI25" s="31"/>
-      <c r="AJ25" s="65"/>
-      <c r="AK25" s="65"/>
-      <c r="AL25" s="29"/>
-      <c r="AM25" s="30"/>
-      <c r="AN25" s="30"/>
-      <c r="AO25" s="31"/>
-      <c r="AP25" s="60"/>
-      <c r="AQ25" s="61"/>
-      <c r="AR25" s="61"/>
-      <c r="AS25" s="61"/>
-      <c r="AT25" s="62"/>
-      <c r="AU25" s="53"/>
-      <c r="AV25" s="53"/>
-      <c r="AW25" s="36"/>
+      <c r="B25" s="41"/>
+      <c r="C25" s="42"/>
+      <c r="D25" s="42"/>
+      <c r="E25" s="42"/>
+      <c r="F25" s="42"/>
+      <c r="G25" s="43"/>
+      <c r="H25" s="61"/>
+      <c r="I25" s="61"/>
+      <c r="J25" s="61"/>
+      <c r="K25" s="61"/>
+      <c r="L25" s="61"/>
+      <c r="M25" s="61"/>
+      <c r="N25" s="61"/>
+      <c r="O25" s="61"/>
+      <c r="P25" s="61"/>
+      <c r="Q25" s="61"/>
+      <c r="R25" s="61"/>
+      <c r="S25" s="61"/>
+      <c r="T25" s="61"/>
+      <c r="U25" s="61"/>
+      <c r="V25" s="61"/>
+      <c r="W25" s="65"/>
+      <c r="X25" s="65"/>
+      <c r="Y25" s="65"/>
+      <c r="Z25" s="65"/>
+      <c r="AA25" s="65"/>
+      <c r="AB25" s="65"/>
+      <c r="AC25" s="65"/>
+      <c r="AD25" s="65"/>
+      <c r="AE25" s="65"/>
+      <c r="AF25" s="65"/>
+      <c r="AG25" s="58"/>
+      <c r="AH25" s="59"/>
+      <c r="AI25" s="60"/>
+      <c r="AJ25" s="24"/>
+      <c r="AK25" s="24"/>
+      <c r="AL25" s="58"/>
+      <c r="AM25" s="59"/>
+      <c r="AN25" s="59"/>
+      <c r="AO25" s="60"/>
+      <c r="AP25" s="41"/>
+      <c r="AQ25" s="42"/>
+      <c r="AR25" s="42"/>
+      <c r="AS25" s="42"/>
+      <c r="AT25" s="43"/>
+      <c r="AU25" s="34"/>
+      <c r="AV25" s="34"/>
+      <c r="AW25" s="62"/>
     </row>
     <row r="26" spans="1:49" ht="11.25" customHeight="1">
-      <c r="A26" s="32" t="s">
+      <c r="A26" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="B26" s="32" t="s">
+      <c r="B26" s="25" t="s">
         <v>65</v>
       </c>
-      <c r="C26" s="32" t="s">
+      <c r="C26" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="D26" s="32" t="s">
+      <c r="D26" s="25" t="s">
         <v>85</v>
       </c>
-      <c r="E26" s="32" t="s">
+      <c r="E26" s="25" t="s">
+        <v>159</v>
+      </c>
+      <c r="F26" s="25" t="s">
+        <v>68</v>
+      </c>
+      <c r="G26" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="H26" s="25" t="s">
+        <v>182</v>
+      </c>
+      <c r="I26" s="25" t="s">
+        <v>183</v>
+      </c>
+      <c r="J26" s="25" t="s">
+        <v>184</v>
+      </c>
+      <c r="K26" s="25" t="s">
+        <v>185</v>
+      </c>
+      <c r="L26" s="25" t="s">
+        <v>188</v>
+      </c>
+      <c r="M26" s="25" t="s">
+        <v>160</v>
+      </c>
+      <c r="N26" s="25" t="s">
+        <v>161</v>
+      </c>
+      <c r="O26" s="25" t="s">
+        <v>240</v>
+      </c>
+      <c r="P26" s="25" t="s">
+        <v>265</v>
+      </c>
+      <c r="Q26" s="25" t="s">
         <v>165</v>
       </c>
-      <c r="F26" s="32" t="s">
-        <v>68</v>
-      </c>
-      <c r="G26" s="32" t="s">
-        <v>69</v>
-      </c>
-      <c r="H26" s="32" t="s">
-        <v>191</v>
-      </c>
-      <c r="I26" s="32" t="s">
+      <c r="R26" s="31" t="s">
+        <v>166</v>
+      </c>
+      <c r="S26" s="31" t="s">
+        <v>167</v>
+      </c>
+      <c r="T26" s="31" t="s">
+        <v>162</v>
+      </c>
+      <c r="U26" s="31" t="s">
+        <v>163</v>
+      </c>
+      <c r="V26" s="31" t="s">
+        <v>164</v>
+      </c>
+      <c r="W26" s="28" t="s">
+        <v>168</v>
+      </c>
+      <c r="X26" s="28" t="s">
+        <v>169</v>
+      </c>
+      <c r="Y26" s="28" t="s">
+        <v>263</v>
+      </c>
+      <c r="Z26" s="28" t="s">
+        <v>171</v>
+      </c>
+      <c r="AA26" s="31" t="s">
+        <v>172</v>
+      </c>
+      <c r="AB26" s="31" t="s">
+        <v>264</v>
+      </c>
+      <c r="AC26" s="31" t="s">
+        <v>173</v>
+      </c>
+      <c r="AD26" s="31" t="s">
+        <v>174</v>
+      </c>
+      <c r="AE26" s="25" t="s">
+        <v>175</v>
+      </c>
+      <c r="AF26" s="44" t="s">
+        <v>170</v>
+      </c>
+      <c r="AG26" s="25" t="s">
+        <v>186</v>
+      </c>
+      <c r="AH26" s="25" t="s">
+        <v>187</v>
+      </c>
+      <c r="AI26" s="25" t="s">
+        <v>241</v>
+      </c>
+      <c r="AJ26" s="46" t="s">
+        <v>89</v>
+      </c>
+      <c r="AK26" s="49" t="s">
+        <v>67</v>
+      </c>
+      <c r="AL26" s="45" t="s">
+        <v>176</v>
+      </c>
+      <c r="AM26" s="45" t="s">
+        <v>177</v>
+      </c>
+      <c r="AN26" s="45" t="s">
+        <v>178</v>
+      </c>
+      <c r="AO26" s="45" t="s">
+        <v>179</v>
+      </c>
+      <c r="AP26" s="28" t="s">
+        <v>180</v>
+      </c>
+      <c r="AQ26" s="28" t="s">
+        <v>181</v>
+      </c>
+      <c r="AR26" s="28" t="s">
+        <v>242</v>
+      </c>
+      <c r="AS26" s="28" t="s">
+        <v>243</v>
+      </c>
+      <c r="AT26" s="28" t="s">
+        <v>244</v>
+      </c>
+      <c r="AU26" s="25" t="s">
+        <v>246</v>
+      </c>
+      <c r="AV26" s="25" t="s">
+        <v>245</v>
+      </c>
+      <c r="AW26" s="62"/>
+    </row>
+    <row r="27" spans="1:49">
+      <c r="A27" s="26"/>
+      <c r="B27" s="26"/>
+      <c r="C27" s="26"/>
+      <c r="D27" s="26"/>
+      <c r="E27" s="26"/>
+      <c r="F27" s="26"/>
+      <c r="G27" s="26"/>
+      <c r="H27" s="26"/>
+      <c r="I27" s="26"/>
+      <c r="J27" s="26"/>
+      <c r="K27" s="26"/>
+      <c r="L27" s="26"/>
+      <c r="M27" s="26"/>
+      <c r="N27" s="26"/>
+      <c r="O27" s="26"/>
+      <c r="P27" s="26"/>
+      <c r="Q27" s="26"/>
+      <c r="R27" s="31"/>
+      <c r="S27" s="31"/>
+      <c r="T27" s="31"/>
+      <c r="U27" s="31"/>
+      <c r="V27" s="31"/>
+      <c r="W27" s="29"/>
+      <c r="X27" s="29"/>
+      <c r="Y27" s="29"/>
+      <c r="Z27" s="29"/>
+      <c r="AA27" s="31"/>
+      <c r="AB27" s="31"/>
+      <c r="AC27" s="31"/>
+      <c r="AD27" s="31"/>
+      <c r="AE27" s="26"/>
+      <c r="AF27" s="44"/>
+      <c r="AG27" s="26"/>
+      <c r="AH27" s="26"/>
+      <c r="AI27" s="26"/>
+      <c r="AJ27" s="47"/>
+      <c r="AK27" s="50"/>
+      <c r="AL27" s="45"/>
+      <c r="AM27" s="45"/>
+      <c r="AN27" s="45"/>
+      <c r="AO27" s="45"/>
+      <c r="AP27" s="29"/>
+      <c r="AQ27" s="29"/>
+      <c r="AR27" s="63"/>
+      <c r="AS27" s="29"/>
+      <c r="AT27" s="29"/>
+      <c r="AU27" s="26"/>
+      <c r="AV27" s="26"/>
+      <c r="AW27" s="31" t="s">
         <v>192</v>
       </c>
-      <c r="J26" s="32" t="s">
-        <v>193</v>
-      </c>
-      <c r="K26" s="32" t="s">
-        <v>194</v>
-      </c>
-      <c r="L26" s="32" t="s">
-        <v>197</v>
-      </c>
-      <c r="M26" s="32" t="s">
-        <v>166</v>
-      </c>
-      <c r="N26" s="32" t="s">
-        <v>167</v>
-      </c>
-      <c r="O26" s="32" t="s">
-        <v>250</v>
-      </c>
-      <c r="P26" s="32" t="s">
-        <v>275</v>
-      </c>
-      <c r="Q26" s="32" t="s">
-        <v>171</v>
-      </c>
-      <c r="R26" s="37" t="s">
-        <v>172</v>
-      </c>
-      <c r="S26" s="37" t="s">
-        <v>173</v>
-      </c>
-      <c r="T26" s="37" t="s">
-        <v>168</v>
-      </c>
-      <c r="U26" s="37" t="s">
-        <v>169</v>
-      </c>
-      <c r="V26" s="37" t="s">
-        <v>170</v>
-      </c>
-      <c r="W26" s="38" t="s">
-        <v>176</v>
-      </c>
-      <c r="X26" s="38" t="s">
-        <v>177</v>
-      </c>
-      <c r="Y26" s="38" t="s">
-        <v>273</v>
-      </c>
-      <c r="Z26" s="38" t="s">
-        <v>179</v>
-      </c>
-      <c r="AA26" s="37" t="s">
-        <v>180</v>
-      </c>
-      <c r="AB26" s="37" t="s">
-        <v>274</v>
-      </c>
-      <c r="AC26" s="37" t="s">
-        <v>181</v>
-      </c>
-      <c r="AD26" s="37" t="s">
-        <v>182</v>
-      </c>
-      <c r="AE26" s="32" t="s">
-        <v>183</v>
-      </c>
-      <c r="AF26" s="63" t="s">
-        <v>178</v>
-      </c>
-      <c r="AG26" s="32" t="s">
-        <v>195</v>
-      </c>
-      <c r="AH26" s="32" t="s">
-        <v>196</v>
-      </c>
-      <c r="AI26" s="32" t="s">
-        <v>251</v>
-      </c>
-      <c r="AJ26" s="45" t="s">
-        <v>93</v>
-      </c>
-      <c r="AK26" s="48" t="s">
-        <v>67</v>
-      </c>
-      <c r="AL26" s="44" t="s">
-        <v>185</v>
-      </c>
-      <c r="AM26" s="44" t="s">
-        <v>186</v>
-      </c>
-      <c r="AN26" s="44" t="s">
-        <v>187</v>
-      </c>
-      <c r="AO26" s="44" t="s">
-        <v>188</v>
-      </c>
-      <c r="AP26" s="38" t="s">
-        <v>189</v>
-      </c>
-      <c r="AQ26" s="38" t="s">
-        <v>190</v>
-      </c>
-      <c r="AR26" s="38" t="s">
-        <v>252</v>
-      </c>
-      <c r="AS26" s="38" t="s">
-        <v>253</v>
-      </c>
-      <c r="AT26" s="38" t="s">
-        <v>254</v>
-      </c>
-      <c r="AU26" s="32" t="s">
-        <v>256</v>
-      </c>
-      <c r="AV26" s="32" t="s">
-        <v>255</v>
-      </c>
-      <c r="AW26" s="36"/>
-    </row>
-    <row r="27" spans="1:49">
-      <c r="A27" s="33"/>
-      <c r="B27" s="33"/>
-      <c r="C27" s="33"/>
-      <c r="D27" s="33"/>
-      <c r="E27" s="33"/>
-      <c r="F27" s="33"/>
-      <c r="G27" s="33"/>
-      <c r="H27" s="33"/>
-      <c r="I27" s="33"/>
-      <c r="J27" s="33"/>
-      <c r="K27" s="33"/>
-      <c r="L27" s="33"/>
-      <c r="M27" s="33"/>
-      <c r="N27" s="33"/>
-      <c r="O27" s="33"/>
-      <c r="P27" s="33"/>
-      <c r="Q27" s="33"/>
-      <c r="R27" s="37"/>
-      <c r="S27" s="37"/>
-      <c r="T27" s="37"/>
-      <c r="U27" s="37"/>
-      <c r="V27" s="37"/>
-      <c r="W27" s="39"/>
-      <c r="X27" s="39"/>
-      <c r="Y27" s="39"/>
-      <c r="Z27" s="39"/>
-      <c r="AA27" s="37"/>
-      <c r="AB27" s="37"/>
-      <c r="AC27" s="37"/>
-      <c r="AD27" s="37"/>
-      <c r="AE27" s="33"/>
-      <c r="AF27" s="63"/>
-      <c r="AG27" s="33"/>
-      <c r="AH27" s="33"/>
-      <c r="AI27" s="33"/>
-      <c r="AJ27" s="46"/>
-      <c r="AK27" s="49"/>
-      <c r="AL27" s="44"/>
-      <c r="AM27" s="44"/>
-      <c r="AN27" s="44"/>
-      <c r="AO27" s="44"/>
-      <c r="AP27" s="39"/>
-      <c r="AQ27" s="39"/>
-      <c r="AR27" s="41"/>
-      <c r="AS27" s="39"/>
-      <c r="AT27" s="39"/>
-      <c r="AU27" s="33"/>
-      <c r="AV27" s="33"/>
-      <c r="AW27" s="37" t="s">
-        <v>202</v>
-      </c>
     </row>
     <row r="28" spans="1:49">
-      <c r="A28" s="33"/>
-      <c r="B28" s="33"/>
-      <c r="C28" s="33"/>
-      <c r="D28" s="33"/>
-      <c r="E28" s="33"/>
-      <c r="F28" s="33"/>
-      <c r="G28" s="33"/>
-      <c r="H28" s="33"/>
-      <c r="I28" s="33"/>
-      <c r="J28" s="33"/>
-      <c r="K28" s="33"/>
-      <c r="L28" s="33"/>
-      <c r="M28" s="33"/>
-      <c r="N28" s="33"/>
-      <c r="O28" s="33"/>
-      <c r="P28" s="33"/>
-      <c r="Q28" s="33"/>
-      <c r="R28" s="37"/>
-      <c r="S28" s="37"/>
-      <c r="T28" s="37"/>
-      <c r="U28" s="37"/>
-      <c r="V28" s="37"/>
-      <c r="W28" s="39"/>
-      <c r="X28" s="39"/>
-      <c r="Y28" s="39"/>
-      <c r="Z28" s="39"/>
-      <c r="AA28" s="37"/>
-      <c r="AB28" s="37"/>
-      <c r="AC28" s="37"/>
-      <c r="AD28" s="37"/>
-      <c r="AE28" s="33"/>
-      <c r="AF28" s="63"/>
-      <c r="AG28" s="33"/>
-      <c r="AH28" s="33"/>
-      <c r="AI28" s="33"/>
-      <c r="AJ28" s="46"/>
-      <c r="AK28" s="49"/>
-      <c r="AL28" s="44"/>
-      <c r="AM28" s="44"/>
-      <c r="AN28" s="44"/>
-      <c r="AO28" s="44"/>
-      <c r="AP28" s="39"/>
-      <c r="AQ28" s="39"/>
-      <c r="AR28" s="41"/>
-      <c r="AS28" s="39"/>
-      <c r="AT28" s="39"/>
-      <c r="AU28" s="33"/>
-      <c r="AV28" s="33"/>
-      <c r="AW28" s="37"/>
+      <c r="A28" s="26"/>
+      <c r="B28" s="26"/>
+      <c r="C28" s="26"/>
+      <c r="D28" s="26"/>
+      <c r="E28" s="26"/>
+      <c r="F28" s="26"/>
+      <c r="G28" s="26"/>
+      <c r="H28" s="26"/>
+      <c r="I28" s="26"/>
+      <c r="J28" s="26"/>
+      <c r="K28" s="26"/>
+      <c r="L28" s="26"/>
+      <c r="M28" s="26"/>
+      <c r="N28" s="26"/>
+      <c r="O28" s="26"/>
+      <c r="P28" s="26"/>
+      <c r="Q28" s="26"/>
+      <c r="R28" s="31"/>
+      <c r="S28" s="31"/>
+      <c r="T28" s="31"/>
+      <c r="U28" s="31"/>
+      <c r="V28" s="31"/>
+      <c r="W28" s="29"/>
+      <c r="X28" s="29"/>
+      <c r="Y28" s="29"/>
+      <c r="Z28" s="29"/>
+      <c r="AA28" s="31"/>
+      <c r="AB28" s="31"/>
+      <c r="AC28" s="31"/>
+      <c r="AD28" s="31"/>
+      <c r="AE28" s="26"/>
+      <c r="AF28" s="44"/>
+      <c r="AG28" s="26"/>
+      <c r="AH28" s="26"/>
+      <c r="AI28" s="26"/>
+      <c r="AJ28" s="47"/>
+      <c r="AK28" s="50"/>
+      <c r="AL28" s="45"/>
+      <c r="AM28" s="45"/>
+      <c r="AN28" s="45"/>
+      <c r="AO28" s="45"/>
+      <c r="AP28" s="29"/>
+      <c r="AQ28" s="29"/>
+      <c r="AR28" s="63"/>
+      <c r="AS28" s="29"/>
+      <c r="AT28" s="29"/>
+      <c r="AU28" s="26"/>
+      <c r="AV28" s="26"/>
+      <c r="AW28" s="31"/>
     </row>
     <row r="29" spans="1:49">
-      <c r="A29" s="33"/>
-      <c r="B29" s="33"/>
-      <c r="C29" s="33"/>
-      <c r="D29" s="33"/>
-      <c r="E29" s="33"/>
-      <c r="F29" s="33"/>
-      <c r="G29" s="33"/>
-      <c r="H29" s="33"/>
-      <c r="I29" s="33"/>
-      <c r="J29" s="33"/>
-      <c r="K29" s="33"/>
-      <c r="L29" s="33"/>
-      <c r="M29" s="33"/>
-      <c r="N29" s="33"/>
-      <c r="O29" s="33"/>
-      <c r="P29" s="33"/>
-      <c r="Q29" s="33"/>
-      <c r="R29" s="37"/>
-      <c r="S29" s="37"/>
-      <c r="T29" s="37"/>
-      <c r="U29" s="37"/>
-      <c r="V29" s="37"/>
-      <c r="W29" s="39"/>
-      <c r="X29" s="39"/>
-      <c r="Y29" s="39"/>
-      <c r="Z29" s="39"/>
-      <c r="AA29" s="37"/>
-      <c r="AB29" s="37"/>
-      <c r="AC29" s="37"/>
-      <c r="AD29" s="37"/>
-      <c r="AE29" s="33"/>
-      <c r="AF29" s="63"/>
-      <c r="AG29" s="33"/>
-      <c r="AH29" s="33"/>
-      <c r="AI29" s="33"/>
-      <c r="AJ29" s="46"/>
-      <c r="AK29" s="49"/>
-      <c r="AL29" s="44"/>
-      <c r="AM29" s="44"/>
-      <c r="AN29" s="44"/>
-      <c r="AO29" s="44"/>
-      <c r="AP29" s="39"/>
-      <c r="AQ29" s="39"/>
-      <c r="AR29" s="41"/>
-      <c r="AS29" s="39"/>
-      <c r="AT29" s="39"/>
-      <c r="AU29" s="33"/>
-      <c r="AV29" s="33"/>
-      <c r="AW29" s="37"/>
+      <c r="A29" s="26"/>
+      <c r="B29" s="26"/>
+      <c r="C29" s="26"/>
+      <c r="D29" s="26"/>
+      <c r="E29" s="26"/>
+      <c r="F29" s="26"/>
+      <c r="G29" s="26"/>
+      <c r="H29" s="26"/>
+      <c r="I29" s="26"/>
+      <c r="J29" s="26"/>
+      <c r="K29" s="26"/>
+      <c r="L29" s="26"/>
+      <c r="M29" s="26"/>
+      <c r="N29" s="26"/>
+      <c r="O29" s="26"/>
+      <c r="P29" s="26"/>
+      <c r="Q29" s="26"/>
+      <c r="R29" s="31"/>
+      <c r="S29" s="31"/>
+      <c r="T29" s="31"/>
+      <c r="U29" s="31"/>
+      <c r="V29" s="31"/>
+      <c r="W29" s="29"/>
+      <c r="X29" s="29"/>
+      <c r="Y29" s="29"/>
+      <c r="Z29" s="29"/>
+      <c r="AA29" s="31"/>
+      <c r="AB29" s="31"/>
+      <c r="AC29" s="31"/>
+      <c r="AD29" s="31"/>
+      <c r="AE29" s="26"/>
+      <c r="AF29" s="44"/>
+      <c r="AG29" s="26"/>
+      <c r="AH29" s="26"/>
+      <c r="AI29" s="26"/>
+      <c r="AJ29" s="47"/>
+      <c r="AK29" s="50"/>
+      <c r="AL29" s="45"/>
+      <c r="AM29" s="45"/>
+      <c r="AN29" s="45"/>
+      <c r="AO29" s="45"/>
+      <c r="AP29" s="29"/>
+      <c r="AQ29" s="29"/>
+      <c r="AR29" s="63"/>
+      <c r="AS29" s="29"/>
+      <c r="AT29" s="29"/>
+      <c r="AU29" s="26"/>
+      <c r="AV29" s="26"/>
+      <c r="AW29" s="31"/>
     </row>
     <row r="30" spans="1:49">
-      <c r="A30" s="33"/>
-      <c r="B30" s="33"/>
-      <c r="C30" s="33"/>
-      <c r="D30" s="33"/>
-      <c r="E30" s="33"/>
-      <c r="F30" s="33"/>
-      <c r="G30" s="33"/>
-      <c r="H30" s="33"/>
-      <c r="I30" s="33"/>
-      <c r="J30" s="33"/>
-      <c r="K30" s="33"/>
-      <c r="L30" s="33"/>
-      <c r="M30" s="33"/>
-      <c r="N30" s="33"/>
-      <c r="O30" s="33"/>
-      <c r="P30" s="33"/>
-      <c r="Q30" s="33"/>
-      <c r="R30" s="37"/>
-      <c r="S30" s="37"/>
-      <c r="T30" s="37"/>
-      <c r="U30" s="37"/>
-      <c r="V30" s="37"/>
-      <c r="W30" s="39"/>
-      <c r="X30" s="39"/>
-      <c r="Y30" s="39"/>
-      <c r="Z30" s="39"/>
-      <c r="AA30" s="37"/>
-      <c r="AB30" s="37"/>
-      <c r="AC30" s="37"/>
-      <c r="AD30" s="37"/>
-      <c r="AE30" s="33"/>
-      <c r="AF30" s="63"/>
-      <c r="AG30" s="33"/>
-      <c r="AH30" s="33"/>
-      <c r="AI30" s="33"/>
-      <c r="AJ30" s="46"/>
-      <c r="AK30" s="49"/>
-      <c r="AL30" s="44"/>
-      <c r="AM30" s="44"/>
-      <c r="AN30" s="44"/>
-      <c r="AO30" s="44"/>
-      <c r="AP30" s="39"/>
-      <c r="AQ30" s="39"/>
-      <c r="AR30" s="41"/>
-      <c r="AS30" s="39"/>
-      <c r="AT30" s="39"/>
-      <c r="AU30" s="33"/>
-      <c r="AV30" s="33"/>
-      <c r="AW30" s="37"/>
+      <c r="A30" s="26"/>
+      <c r="B30" s="26"/>
+      <c r="C30" s="26"/>
+      <c r="D30" s="26"/>
+      <c r="E30" s="26"/>
+      <c r="F30" s="26"/>
+      <c r="G30" s="26"/>
+      <c r="H30" s="26"/>
+      <c r="I30" s="26"/>
+      <c r="J30" s="26"/>
+      <c r="K30" s="26"/>
+      <c r="L30" s="26"/>
+      <c r="M30" s="26"/>
+      <c r="N30" s="26"/>
+      <c r="O30" s="26"/>
+      <c r="P30" s="26"/>
+      <c r="Q30" s="26"/>
+      <c r="R30" s="31"/>
+      <c r="S30" s="31"/>
+      <c r="T30" s="31"/>
+      <c r="U30" s="31"/>
+      <c r="V30" s="31"/>
+      <c r="W30" s="29"/>
+      <c r="X30" s="29"/>
+      <c r="Y30" s="29"/>
+      <c r="Z30" s="29"/>
+      <c r="AA30" s="31"/>
+      <c r="AB30" s="31"/>
+      <c r="AC30" s="31"/>
+      <c r="AD30" s="31"/>
+      <c r="AE30" s="26"/>
+      <c r="AF30" s="44"/>
+      <c r="AG30" s="26"/>
+      <c r="AH30" s="26"/>
+      <c r="AI30" s="26"/>
+      <c r="AJ30" s="47"/>
+      <c r="AK30" s="50"/>
+      <c r="AL30" s="45"/>
+      <c r="AM30" s="45"/>
+      <c r="AN30" s="45"/>
+      <c r="AO30" s="45"/>
+      <c r="AP30" s="29"/>
+      <c r="AQ30" s="29"/>
+      <c r="AR30" s="63"/>
+      <c r="AS30" s="29"/>
+      <c r="AT30" s="29"/>
+      <c r="AU30" s="26"/>
+      <c r="AV30" s="26"/>
+      <c r="AW30" s="31"/>
     </row>
     <row r="31" spans="1:49">
-      <c r="A31" s="34"/>
-      <c r="B31" s="34"/>
-      <c r="C31" s="34"/>
-      <c r="D31" s="34"/>
-      <c r="E31" s="34"/>
-      <c r="F31" s="34"/>
-      <c r="G31" s="34"/>
-      <c r="H31" s="34"/>
-      <c r="I31" s="34"/>
-      <c r="J31" s="34"/>
-      <c r="K31" s="34"/>
-      <c r="L31" s="34"/>
-      <c r="M31" s="34"/>
-      <c r="N31" s="34"/>
-      <c r="O31" s="34"/>
-      <c r="P31" s="34"/>
-      <c r="Q31" s="34"/>
-      <c r="R31" s="37"/>
-      <c r="S31" s="37"/>
-      <c r="T31" s="37"/>
-      <c r="U31" s="37"/>
-      <c r="V31" s="37"/>
-      <c r="W31" s="40"/>
-      <c r="X31" s="40"/>
-      <c r="Y31" s="40"/>
-      <c r="Z31" s="40"/>
-      <c r="AA31" s="37"/>
-      <c r="AB31" s="37"/>
-      <c r="AC31" s="37"/>
-      <c r="AD31" s="37"/>
-      <c r="AE31" s="34"/>
-      <c r="AF31" s="63"/>
-      <c r="AG31" s="34"/>
-      <c r="AH31" s="34"/>
-      <c r="AI31" s="34"/>
-      <c r="AJ31" s="46"/>
-      <c r="AK31" s="49"/>
-      <c r="AL31" s="44"/>
-      <c r="AM31" s="44"/>
-      <c r="AN31" s="44"/>
-      <c r="AO31" s="44"/>
-      <c r="AP31" s="40"/>
-      <c r="AQ31" s="40"/>
-      <c r="AR31" s="42"/>
-      <c r="AS31" s="40"/>
-      <c r="AT31" s="40"/>
-      <c r="AU31" s="34"/>
-      <c r="AV31" s="34"/>
-      <c r="AW31" s="37"/>
+      <c r="A31" s="27"/>
+      <c r="B31" s="27"/>
+      <c r="C31" s="27"/>
+      <c r="D31" s="27"/>
+      <c r="E31" s="27"/>
+      <c r="F31" s="27"/>
+      <c r="G31" s="27"/>
+      <c r="H31" s="27"/>
+      <c r="I31" s="27"/>
+      <c r="J31" s="27"/>
+      <c r="K31" s="27"/>
+      <c r="L31" s="27"/>
+      <c r="M31" s="27"/>
+      <c r="N31" s="27"/>
+      <c r="O31" s="27"/>
+      <c r="P31" s="27"/>
+      <c r="Q31" s="27"/>
+      <c r="R31" s="31"/>
+      <c r="S31" s="31"/>
+      <c r="T31" s="31"/>
+      <c r="U31" s="31"/>
+      <c r="V31" s="31"/>
+      <c r="W31" s="30"/>
+      <c r="X31" s="30"/>
+      <c r="Y31" s="30"/>
+      <c r="Z31" s="30"/>
+      <c r="AA31" s="31"/>
+      <c r="AB31" s="31"/>
+      <c r="AC31" s="31"/>
+      <c r="AD31" s="31"/>
+      <c r="AE31" s="27"/>
+      <c r="AF31" s="44"/>
+      <c r="AG31" s="27"/>
+      <c r="AH31" s="27"/>
+      <c r="AI31" s="27"/>
+      <c r="AJ31" s="47"/>
+      <c r="AK31" s="50"/>
+      <c r="AL31" s="45"/>
+      <c r="AM31" s="45"/>
+      <c r="AN31" s="45"/>
+      <c r="AO31" s="45"/>
+      <c r="AP31" s="30"/>
+      <c r="AQ31" s="30"/>
+      <c r="AR31" s="64"/>
+      <c r="AS31" s="30"/>
+      <c r="AT31" s="30"/>
+      <c r="AU31" s="27"/>
+      <c r="AV31" s="27"/>
+      <c r="AW31" s="31"/>
     </row>
     <row r="32" spans="1:49">
-      <c r="AJ32" s="46"/>
-      <c r="AK32" s="49"/>
+      <c r="AJ32" s="47"/>
+      <c r="AK32" s="50"/>
     </row>
     <row r="33" spans="4:37">
       <c r="D33" s="6" t="s">
         <v>17</v>
       </c>
       <c r="AE33" s="20"/>
-      <c r="AJ33" s="46"/>
-      <c r="AK33" s="49"/>
+      <c r="AJ33" s="47"/>
+      <c r="AK33" s="50"/>
     </row>
     <row r="34" spans="4:37" ht="258.75">
       <c r="D34" s="8" t="s">
         <v>86</v>
       </c>
       <c r="AE34" s="21"/>
-      <c r="AJ34" s="47"/>
-      <c r="AK34" s="50"/>
+      <c r="AJ34" s="48"/>
+      <c r="AK34" s="51"/>
     </row>
     <row r="35" spans="4:37" ht="326.25">
       <c r="D35" s="9" t="s">
@@ -4019,6 +4019,52 @@
     </row>
   </sheetData>
   <mergeCells count="62">
+    <mergeCell ref="AG23:AI25"/>
+    <mergeCell ref="P26:P31"/>
+    <mergeCell ref="H23:V25"/>
+    <mergeCell ref="AW23:AW26"/>
+    <mergeCell ref="AW27:AW31"/>
+    <mergeCell ref="AL23:AO25"/>
+    <mergeCell ref="AT26:AT31"/>
+    <mergeCell ref="AU26:AU31"/>
+    <mergeCell ref="AV26:AV31"/>
+    <mergeCell ref="AR26:AR31"/>
+    <mergeCell ref="V26:V31"/>
+    <mergeCell ref="Q26:Q31"/>
+    <mergeCell ref="R26:R31"/>
+    <mergeCell ref="Y26:Y31"/>
+    <mergeCell ref="AB26:AB31"/>
+    <mergeCell ref="W23:AF25"/>
+    <mergeCell ref="T26:T31"/>
+    <mergeCell ref="U26:U31"/>
+    <mergeCell ref="AS26:AS31"/>
+    <mergeCell ref="AI26:AI31"/>
+    <mergeCell ref="AO26:AO31"/>
+    <mergeCell ref="AP26:AP31"/>
+    <mergeCell ref="AQ26:AQ31"/>
+    <mergeCell ref="AG26:AG31"/>
+    <mergeCell ref="AH26:AH31"/>
+    <mergeCell ref="AL26:AL31"/>
+    <mergeCell ref="AM26:AM31"/>
+    <mergeCell ref="AN26:AN31"/>
+    <mergeCell ref="AJ26:AJ34"/>
+    <mergeCell ref="AK26:AK34"/>
+    <mergeCell ref="AU23:AU25"/>
+    <mergeCell ref="AV23:AV25"/>
+    <mergeCell ref="A26:A31"/>
+    <mergeCell ref="B26:B31"/>
+    <mergeCell ref="C26:C31"/>
+    <mergeCell ref="D26:D31"/>
+    <mergeCell ref="E26:E31"/>
+    <mergeCell ref="AP23:AT25"/>
+    <mergeCell ref="F26:F31"/>
+    <mergeCell ref="G26:G31"/>
+    <mergeCell ref="H26:H31"/>
+    <mergeCell ref="I26:I31"/>
+    <mergeCell ref="M26:M31"/>
+    <mergeCell ref="B23:G25"/>
+    <mergeCell ref="X26:X31"/>
+    <mergeCell ref="AF26:AF31"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="AJ23:AJ25"/>
@@ -4035,52 +4081,6 @@
     <mergeCell ref="S26:S31"/>
     <mergeCell ref="W26:W31"/>
     <mergeCell ref="O26:O31"/>
-    <mergeCell ref="AU23:AU25"/>
-    <mergeCell ref="AV23:AV25"/>
-    <mergeCell ref="A26:A31"/>
-    <mergeCell ref="B26:B31"/>
-    <mergeCell ref="C26:C31"/>
-    <mergeCell ref="D26:D31"/>
-    <mergeCell ref="E26:E31"/>
-    <mergeCell ref="AP23:AT25"/>
-    <mergeCell ref="F26:F31"/>
-    <mergeCell ref="G26:G31"/>
-    <mergeCell ref="H26:H31"/>
-    <mergeCell ref="I26:I31"/>
-    <mergeCell ref="M26:M31"/>
-    <mergeCell ref="B23:G25"/>
-    <mergeCell ref="X26:X31"/>
-    <mergeCell ref="AF26:AF31"/>
-    <mergeCell ref="T26:T31"/>
-    <mergeCell ref="U26:U31"/>
-    <mergeCell ref="AS26:AS31"/>
-    <mergeCell ref="AI26:AI31"/>
-    <mergeCell ref="AO26:AO31"/>
-    <mergeCell ref="AP26:AP31"/>
-    <mergeCell ref="AQ26:AQ31"/>
-    <mergeCell ref="AG26:AG31"/>
-    <mergeCell ref="AH26:AH31"/>
-    <mergeCell ref="AL26:AL31"/>
-    <mergeCell ref="AM26:AM31"/>
-    <mergeCell ref="AN26:AN31"/>
-    <mergeCell ref="AJ26:AJ34"/>
-    <mergeCell ref="AK26:AK34"/>
-    <mergeCell ref="AG23:AI25"/>
-    <mergeCell ref="P26:P31"/>
-    <mergeCell ref="H23:V25"/>
-    <mergeCell ref="AW23:AW26"/>
-    <mergeCell ref="AW27:AW31"/>
-    <mergeCell ref="AL23:AO25"/>
-    <mergeCell ref="AT26:AT31"/>
-    <mergeCell ref="AU26:AU31"/>
-    <mergeCell ref="AV26:AV31"/>
-    <mergeCell ref="AR26:AR31"/>
-    <mergeCell ref="V26:V31"/>
-    <mergeCell ref="Q26:Q31"/>
-    <mergeCell ref="R26:R31"/>
-    <mergeCell ref="Y26:Y31"/>
-    <mergeCell ref="AB26:AB31"/>
-    <mergeCell ref="W23:AF25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/Documentação/Planilhas/Conferencia_DEV.xlsx
+++ b/Documentação/Planilhas/Conferencia_DEV.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="646" uniqueCount="278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="648" uniqueCount="280">
   <si>
     <t>1</t>
   </si>
@@ -906,6 +906,12 @@
   </si>
   <si>
     <t>Sessão znslsc507m000 (Liberar Entregas - Lista de Compras)</t>
+  </si>
+  <si>
+    <t>NR_REFERENCIA_FISCAL_FATURA</t>
+  </si>
+  <si>
+    <t>Na tela principal, pegar a informação da coluna Referência Fiscal</t>
   </si>
 </sst>
 </file>
@@ -1172,7 +1178,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1234,10 +1240,31 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1249,6 +1276,12 @@
     <xf numFmtId="49" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1256,107 +1289,104 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1665,10 +1695,10 @@
   <sheetPr>
     <tabColor rgb="FFFA7E7E"/>
   </sheetPr>
-  <dimension ref="A2:AW36"/>
+  <dimension ref="A2:AX36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AV4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AW27" sqref="AW27:AW31"/>
+    <sheetView tabSelected="1" topLeftCell="C7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
@@ -1680,89 +1710,90 @@
     <col min="5" max="5" width="22.28515625" style="2" customWidth="1"/>
     <col min="6" max="6" width="21.85546875" style="2" customWidth="1"/>
     <col min="7" max="7" width="20" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="23.42578125" style="2" customWidth="1"/>
-    <col min="9" max="9" width="21.7109375" style="2" customWidth="1"/>
-    <col min="10" max="10" width="22.28515625" style="2" customWidth="1"/>
-    <col min="11" max="11" width="25" style="2" customWidth="1"/>
-    <col min="12" max="12" width="22.5703125" style="2" customWidth="1"/>
-    <col min="13" max="13" width="23.140625" style="2" customWidth="1"/>
-    <col min="14" max="15" width="22.85546875" style="2" customWidth="1"/>
-    <col min="16" max="16" width="25" style="16" customWidth="1"/>
-    <col min="17" max="17" width="24.85546875" style="2" customWidth="1"/>
-    <col min="18" max="18" width="25" style="2" customWidth="1"/>
-    <col min="19" max="19" width="25.85546875" style="2" customWidth="1"/>
-    <col min="20" max="20" width="30.42578125" style="2" customWidth="1"/>
-    <col min="21" max="21" width="29.28515625" style="2" customWidth="1"/>
-    <col min="22" max="22" width="28" style="2" customWidth="1"/>
-    <col min="23" max="23" width="25.140625" style="2" customWidth="1"/>
-    <col min="24" max="24" width="22.7109375" style="2" customWidth="1"/>
-    <col min="25" max="25" width="22.5703125" style="16" customWidth="1"/>
-    <col min="26" max="26" width="16" style="2" customWidth="1"/>
-    <col min="27" max="27" width="17.28515625" style="2" customWidth="1"/>
-    <col min="28" max="28" width="16.5703125" style="16" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="21.85546875" style="2" customWidth="1"/>
-    <col min="30" max="30" width="21" style="2" customWidth="1"/>
-    <col min="31" max="31" width="20.42578125" style="2" customWidth="1"/>
-    <col min="32" max="32" width="35.28515625" style="2" customWidth="1"/>
-    <col min="33" max="33" width="42" style="2" customWidth="1"/>
-    <col min="34" max="34" width="35.140625" style="2" customWidth="1"/>
-    <col min="35" max="35" width="37.28515625" style="10" customWidth="1"/>
-    <col min="36" max="36" width="25" style="2" customWidth="1"/>
-    <col min="37" max="37" width="25.140625" style="2" customWidth="1"/>
-    <col min="38" max="38" width="24.5703125" style="2" customWidth="1"/>
-    <col min="39" max="39" width="23.5703125" style="2" customWidth="1"/>
-    <col min="40" max="40" width="28.5703125" style="2" customWidth="1"/>
-    <col min="41" max="41" width="26" style="2" customWidth="1"/>
-    <col min="42" max="42" width="23.85546875" style="2" customWidth="1"/>
-    <col min="43" max="43" width="24" style="2" customWidth="1"/>
-    <col min="44" max="44" width="36" style="1" customWidth="1"/>
-    <col min="45" max="45" width="39.140625" style="2" customWidth="1"/>
-    <col min="46" max="46" width="40.42578125" style="2" customWidth="1"/>
-    <col min="47" max="48" width="31.42578125" style="2" customWidth="1"/>
-    <col min="49" max="49" width="100.42578125" style="2" customWidth="1"/>
-    <col min="50" max="16384" width="9.140625" style="16"/>
+    <col min="8" max="8" width="23" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="23.42578125" style="2" customWidth="1"/>
+    <col min="10" max="10" width="21.7109375" style="2" customWidth="1"/>
+    <col min="11" max="11" width="22.28515625" style="2" customWidth="1"/>
+    <col min="12" max="12" width="25" style="2" customWidth="1"/>
+    <col min="13" max="13" width="22.5703125" style="2" customWidth="1"/>
+    <col min="14" max="14" width="23.140625" style="2" customWidth="1"/>
+    <col min="15" max="16" width="22.85546875" style="2" customWidth="1"/>
+    <col min="17" max="17" width="25" style="16" customWidth="1"/>
+    <col min="18" max="18" width="24.85546875" style="2" customWidth="1"/>
+    <col min="19" max="19" width="25" style="2" customWidth="1"/>
+    <col min="20" max="20" width="25.85546875" style="2" customWidth="1"/>
+    <col min="21" max="21" width="30.42578125" style="2" customWidth="1"/>
+    <col min="22" max="22" width="29.28515625" style="2" customWidth="1"/>
+    <col min="23" max="23" width="28" style="2" customWidth="1"/>
+    <col min="24" max="24" width="25.140625" style="2" customWidth="1"/>
+    <col min="25" max="25" width="22.7109375" style="2" customWidth="1"/>
+    <col min="26" max="26" width="22.5703125" style="16" customWidth="1"/>
+    <col min="27" max="27" width="16" style="2" customWidth="1"/>
+    <col min="28" max="28" width="17.28515625" style="2" customWidth="1"/>
+    <col min="29" max="29" width="16.5703125" style="16" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="21.85546875" style="2" customWidth="1"/>
+    <col min="31" max="31" width="21" style="2" customWidth="1"/>
+    <col min="32" max="32" width="20.42578125" style="2" customWidth="1"/>
+    <col min="33" max="33" width="35.28515625" style="2" customWidth="1"/>
+    <col min="34" max="34" width="42" style="2" customWidth="1"/>
+    <col min="35" max="35" width="35.140625" style="2" customWidth="1"/>
+    <col min="36" max="36" width="37.28515625" style="10" customWidth="1"/>
+    <col min="37" max="37" width="25" style="2" customWidth="1"/>
+    <col min="38" max="38" width="25.140625" style="2" customWidth="1"/>
+    <col min="39" max="39" width="24.5703125" style="2" customWidth="1"/>
+    <col min="40" max="40" width="23.5703125" style="2" customWidth="1"/>
+    <col min="41" max="41" width="28.5703125" style="2" customWidth="1"/>
+    <col min="42" max="42" width="26" style="2" customWidth="1"/>
+    <col min="43" max="43" width="23.85546875" style="2" customWidth="1"/>
+    <col min="44" max="44" width="24" style="2" customWidth="1"/>
+    <col min="45" max="45" width="36" style="1" customWidth="1"/>
+    <col min="46" max="46" width="39.140625" style="2" customWidth="1"/>
+    <col min="47" max="47" width="40.42578125" style="2" customWidth="1"/>
+    <col min="48" max="49" width="31.42578125" style="2" customWidth="1"/>
+    <col min="50" max="50" width="100.42578125" style="2" customWidth="1"/>
+    <col min="51" max="16384" width="9.140625" style="16"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:49" ht="21">
-      <c r="A2" s="23" t="s">
+    <row r="2" spans="1:50" ht="21">
+      <c r="A2" s="63" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="23"/>
+      <c r="B2" s="63"/>
       <c r="C2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="AR2" s="2"/>
-    </row>
-    <row r="3" spans="1:49" ht="21">
-      <c r="A3" s="23" t="s">
+      <c r="AS2" s="2"/>
+    </row>
+    <row r="3" spans="1:50" ht="21">
+      <c r="A3" s="63" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="23"/>
+      <c r="B3" s="63"/>
       <c r="C3" s="3" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="4" spans="1:49" ht="21">
+    <row r="4" spans="1:50" ht="21">
       <c r="A4" s="13"/>
       <c r="B4" s="13"/>
       <c r="C4" s="3"/>
     </row>
-    <row r="5" spans="1:49" ht="21">
+    <row r="5" spans="1:50" ht="21">
       <c r="A5" s="13"/>
       <c r="B5" s="22" t="s">
         <v>267</v>
       </c>
       <c r="C5" s="3"/>
     </row>
-    <row r="7" spans="1:49">
-      <c r="L7" s="2" t="s">
+    <row r="7" spans="1:50">
+      <c r="M7" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="AW7" s="2" t="s">
+      <c r="AX7" s="2" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="8" spans="1:49">
+    <row r="8" spans="1:50">
       <c r="A8" s="4" t="s">
         <v>4</v>
       </c>
@@ -1785,133 +1816,136 @@
         <v>21</v>
       </c>
       <c r="H8" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="I8" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="I8" s="4" t="s">
+      <c r="J8" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="J8" s="4" t="s">
+      <c r="K8" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="K8" s="4" t="s">
+      <c r="L8" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="L8" s="4" t="s">
+      <c r="M8" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="M8" s="4" t="s">
+      <c r="N8" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="N8" s="4" t="s">
+      <c r="O8" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="O8" s="4" t="s">
+      <c r="P8" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="P8" s="4" t="s">
+      <c r="Q8" s="4" t="s">
         <v>249</v>
       </c>
-      <c r="Q8" s="4" t="s">
+      <c r="R8" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="R8" s="4" t="s">
+      <c r="S8" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="S8" s="4" t="s">
+      <c r="T8" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="T8" s="4" t="s">
+      <c r="U8" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="U8" s="4" t="s">
+      <c r="V8" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="V8" s="4" t="s">
+      <c r="W8" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="W8" s="4" t="s">
+      <c r="X8" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="X8" s="4" t="s">
+      <c r="Y8" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="Y8" s="4" t="s">
+      <c r="Z8" s="4" t="s">
         <v>248</v>
       </c>
-      <c r="Z8" s="4" t="s">
+      <c r="AA8" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="AA8" s="4" t="s">
+      <c r="AB8" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="AB8" s="4" t="s">
+      <c r="AC8" s="4" t="s">
         <v>247</v>
       </c>
-      <c r="AC8" s="4" t="s">
+      <c r="AD8" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="AD8" s="4" t="s">
+      <c r="AE8" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="AE8" s="4" t="s">
+      <c r="AF8" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="AF8" s="4" t="s">
+      <c r="AG8" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="AG8" s="11" t="s">
+      <c r="AH8" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="AH8" s="4" t="s">
+      <c r="AI8" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="AI8" s="4" t="s">
+      <c r="AJ8" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="AJ8" s="4" t="s">
+      <c r="AK8" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="AK8" s="4" t="s">
+      <c r="AL8" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="AL8" s="4" t="s">
+      <c r="AM8" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="AM8" s="4" t="s">
+      <c r="AN8" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="AN8" s="4" t="s">
+      <c r="AO8" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="AO8" s="4" t="s">
+      <c r="AP8" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="AP8" s="4" t="s">
+      <c r="AQ8" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="AQ8" s="4" t="s">
+      <c r="AR8" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AR8" s="4" t="s">
+      <c r="AS8" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="AS8" s="4" t="s">
+      <c r="AT8" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="AT8" s="4" t="s">
+      <c r="AU8" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="AU8" s="4" t="s">
+      <c r="AV8" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="AV8" s="4" t="s">
+      <c r="AW8" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="AW8" s="4" t="s">
+      <c r="AX8" s="4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:49">
+    <row r="9" spans="1:50">
       <c r="A9" s="17" t="s">
         <v>2</v>
       </c>
@@ -1933,38 +1967,36 @@
       <c r="G9" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="H9" s="17" t="s">
-        <v>72</v>
-      </c>
+      <c r="H9" s="5"/>
       <c r="I9" s="17" t="s">
         <v>72</v>
       </c>
       <c r="J9" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="K9" s="17" t="s">
         <v>101</v>
       </c>
-      <c r="K9" s="17" t="s">
+      <c r="L9" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="L9" s="17" t="s">
+      <c r="M9" s="17" t="s">
         <v>92</v>
       </c>
-      <c r="M9" s="17" t="s">
+      <c r="N9" s="17" t="s">
         <v>96</v>
       </c>
-      <c r="N9" s="17" t="s">
+      <c r="O9" s="17" t="s">
         <v>81</v>
       </c>
-      <c r="O9" s="17" t="s">
+      <c r="P9" s="17" t="s">
         <v>235</v>
       </c>
-      <c r="P9" s="17" t="s">
+      <c r="Q9" s="17" t="s">
         <v>252</v>
       </c>
-      <c r="Q9" s="17" t="s">
+      <c r="R9" s="17" t="s">
         <v>82</v>
-      </c>
-      <c r="R9" s="17" t="s">
-        <v>14</v>
       </c>
       <c r="S9" s="17" t="s">
         <v>14</v>
@@ -1979,25 +2011,25 @@
         <v>14</v>
       </c>
       <c r="W9" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="X9" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="X9" s="17" t="s">
+      <c r="Y9" s="17" t="s">
         <v>93</v>
       </c>
-      <c r="Y9" s="17" t="s">
+      <c r="Z9" s="17" t="s">
         <v>251</v>
       </c>
-      <c r="Z9" s="17" t="s">
+      <c r="AA9" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="AA9" s="17" t="s">
+      <c r="AB9" s="17" t="s">
         <v>97</v>
       </c>
-      <c r="AB9" s="17" t="s">
+      <c r="AC9" s="17" t="s">
         <v>250</v>
-      </c>
-      <c r="AC9" s="17" t="s">
-        <v>79</v>
       </c>
       <c r="AD9" s="17" t="s">
         <v>79</v>
@@ -2006,61 +2038,64 @@
         <v>79</v>
       </c>
       <c r="AF9" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="AG9" s="17" t="s">
         <v>98</v>
       </c>
-      <c r="AG9" s="18">
+      <c r="AH9" s="18">
         <v>1130</v>
       </c>
-      <c r="AH9" s="19" t="s">
+      <c r="AI9" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="AI9" s="17" t="s">
+      <c r="AJ9" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="AJ9" s="17" t="s">
+      <c r="AK9" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="AK9" s="17" t="s">
+      <c r="AL9" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="AL9" s="17" t="s">
+      <c r="AM9" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="AM9" s="17" t="s">
+      <c r="AN9" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="AN9" s="17" t="s">
+      <c r="AO9" s="17" t="s">
         <v>77</v>
       </c>
-      <c r="AO9" s="17" t="s">
+      <c r="AP9" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="AP9" s="17" t="s">
+      <c r="AQ9" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="AQ9" s="17" t="s">
+      <c r="AR9" s="17" t="s">
         <v>99</v>
       </c>
-      <c r="AR9" s="17" t="s">
+      <c r="AS9" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="AS9" s="19" t="s">
+      <c r="AT9" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="AT9" s="19" t="s">
+      <c r="AU9" s="19" t="s">
         <v>193</v>
       </c>
-      <c r="AU9" s="14" t="s">
+      <c r="AV9" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="AV9" s="17" t="s">
+      <c r="AW9" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="AW9" s="17" t="s">
+      <c r="AX9" s="17" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="10" spans="1:49">
+    <row r="10" spans="1:50">
       <c r="A10" s="2" t="s">
         <v>2</v>
       </c>
@@ -2082,44 +2117,41 @@
       <c r="G10" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H10" s="2" t="s">
+      <c r="I10" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="I10" s="17" t="s">
+      <c r="J10" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="J10" s="17" t="s">
+      <c r="K10" s="17" t="s">
         <v>145</v>
       </c>
-      <c r="K10" s="17" t="s">
+      <c r="L10" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="L10" s="2" t="s">
+      <c r="M10" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="M10" s="17" t="s">
+      <c r="N10" s="17" t="s">
         <v>195</v>
       </c>
-      <c r="N10" s="17" t="s">
+      <c r="O10" s="17" t="s">
         <v>196</v>
       </c>
-      <c r="O10" s="17" t="s">
+      <c r="P10" s="17" t="s">
         <v>236</v>
       </c>
-      <c r="P10" s="14" t="s">
+      <c r="Q10" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="Q10" s="17" t="s">
+      <c r="R10" s="17" t="s">
         <v>197</v>
-      </c>
-      <c r="R10" s="17" t="s">
-        <v>14</v>
       </c>
       <c r="S10" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="T10" s="2" t="s">
-        <v>3</v>
+      <c r="T10" s="17" t="s">
+        <v>14</v>
       </c>
       <c r="U10" s="2" t="s">
         <v>3</v>
@@ -2128,25 +2160,25 @@
         <v>3</v>
       </c>
       <c r="W10" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="X10" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="X10" s="2" t="s">
+      <c r="Y10" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="Y10" s="14" t="s">
+      <c r="Z10" s="14" t="s">
         <v>254</v>
       </c>
-      <c r="Z10" s="2" t="s">
+      <c r="AA10" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="AA10" s="2" t="s">
+      <c r="AB10" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="AB10" s="14" t="s">
+      <c r="AC10" s="14" t="s">
         <v>253</v>
-      </c>
-      <c r="AC10" s="2" t="s">
-        <v>118</v>
       </c>
       <c r="AD10" s="2" t="s">
         <v>118</v>
@@ -2155,46 +2187,46 @@
         <v>118</v>
       </c>
       <c r="AF10" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="AG10" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="AG10" s="10">
+      <c r="AH10" s="10">
         <v>55</v>
       </c>
-      <c r="AH10" s="2" t="s">
+      <c r="AI10" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="AI10" s="2" t="s">
+      <c r="AJ10" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="AJ10" s="2" t="s">
+      <c r="AK10" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="AK10" s="2" t="s">
+      <c r="AL10" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="AL10" s="2" t="s">
+      <c r="AM10" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="AM10" s="2" t="s">
+      <c r="AN10" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="AN10" s="2" t="s">
+      <c r="AO10" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="AO10" s="2" t="s">
+      <c r="AP10" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="AP10" s="2" t="s">
+      <c r="AQ10" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="AQ10" s="2" t="s">
+      <c r="AR10" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="AR10" s="2" t="s">
+      <c r="AS10" s="2" t="s">
         <v>1</v>
-      </c>
-      <c r="AS10" s="2" t="s">
-        <v>3</v>
       </c>
       <c r="AT10" s="2" t="s">
         <v>3</v>
@@ -2203,13 +2235,16 @@
         <v>3</v>
       </c>
       <c r="AV10" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AW10" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="AW10" s="14" t="s">
+      <c r="AX10" s="14" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="11" spans="1:49">
+    <row r="11" spans="1:50">
       <c r="A11" s="2" t="s">
         <v>2</v>
       </c>
@@ -2231,38 +2266,35 @@
       <c r="G11" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H11" s="2" t="s">
-        <v>201</v>
-      </c>
       <c r="I11" s="2" t="s">
         <v>201</v>
       </c>
       <c r="J11" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="K11" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="K11" s="2" t="s">
+      <c r="L11" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="L11" s="2" t="s">
+      <c r="M11" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="M11" s="2" t="s">
+      <c r="N11" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="N11" s="2" t="s">
+      <c r="O11" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="O11" s="2" t="s">
+      <c r="P11" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="P11" s="14" t="s">
+      <c r="Q11" s="14" t="s">
         <v>252</v>
       </c>
-      <c r="Q11" s="2" t="s">
+      <c r="R11" s="2" t="s">
         <v>206</v>
-      </c>
-      <c r="R11" s="2" t="s">
-        <v>14</v>
       </c>
       <c r="S11" s="2" t="s">
         <v>14</v>
@@ -2277,25 +2309,25 @@
         <v>14</v>
       </c>
       <c r="W11" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="X11" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="X11" s="2" t="s">
+      <c r="Y11" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="Y11" s="14" t="s">
+      <c r="Z11" s="14" t="s">
         <v>256</v>
       </c>
-      <c r="Z11" s="2" t="s">
+      <c r="AA11" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="AA11" s="2" t="s">
+      <c r="AB11" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="AB11" s="14" t="s">
+      <c r="AC11" s="14" t="s">
         <v>255</v>
-      </c>
-      <c r="AC11" s="2" t="s">
-        <v>79</v>
       </c>
       <c r="AD11" s="2" t="s">
         <v>79</v>
@@ -2304,61 +2336,64 @@
         <v>79</v>
       </c>
       <c r="AF11" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AG11" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="AG11" s="10">
+      <c r="AH11" s="10">
         <v>0</v>
       </c>
-      <c r="AH11" s="2" t="s">
+      <c r="AI11" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="AI11" s="2" t="s">
+      <c r="AJ11" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="AJ11" s="2" t="s">
+      <c r="AK11" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="AK11" s="2" t="s">
+      <c r="AL11" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="AL11" s="2" t="s">
+      <c r="AM11" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="AM11" s="2" t="s">
+      <c r="AN11" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="AN11" s="2" t="s">
+      <c r="AO11" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="AO11" s="2" t="s">
+      <c r="AP11" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="AP11" s="2" t="s">
+      <c r="AQ11" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="AQ11" s="2" t="s">
+      <c r="AR11" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="AR11" s="2" t="s">
+      <c r="AS11" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="AS11" s="2" t="s">
+      <c r="AT11" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="AT11" s="2" t="s">
+      <c r="AU11" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="AU11" s="2" t="s">
+      <c r="AV11" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="AV11" s="2" t="s">
+      <c r="AW11" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="AW11" s="14" t="s">
+      <c r="AX11" s="14" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="12" spans="1:49">
+    <row r="12" spans="1:50">
       <c r="A12" s="2" t="s">
         <v>2</v>
       </c>
@@ -2380,134 +2415,134 @@
       <c r="G12" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H12" s="2" t="s">
-        <v>213</v>
-      </c>
       <c r="I12" s="2" t="s">
         <v>213</v>
       </c>
       <c r="J12" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="K12" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="K12" s="2" t="s">
+      <c r="L12" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="L12" s="2" t="s">
+      <c r="M12" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="M12" s="2" t="s">
+      <c r="N12" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="N12" s="2" t="s">
+      <c r="O12" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="O12" s="2" t="s">
+      <c r="P12" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="P12" s="14" t="s">
+      <c r="Q12" s="14" t="s">
         <v>252</v>
       </c>
-      <c r="Q12" s="2" t="s">
+      <c r="R12" s="2" t="s">
         <v>82</v>
-      </c>
-      <c r="R12" s="2" t="s">
-        <v>14</v>
       </c>
       <c r="S12" s="2" t="s">
         <v>14</v>
       </c>
       <c r="T12" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="U12" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="U12" s="2" t="s">
+      <c r="V12" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="V12" s="2" t="s">
+      <c r="W12" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="W12" s="2" t="s">
+      <c r="X12" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="X12" s="2" t="s">
+      <c r="Y12" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="Y12" s="14" t="s">
+      <c r="Z12" s="14" t="s">
         <v>258</v>
       </c>
-      <c r="Z12" s="2" t="s">
+      <c r="AA12" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="AA12" s="2" t="s">
+      <c r="AB12" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="AB12" s="14" t="s">
+      <c r="AC12" s="14" t="s">
         <v>257</v>
       </c>
-      <c r="AC12" s="2" t="s">
+      <c r="AD12" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="AD12" s="2" t="s">
+      <c r="AE12" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="AE12" s="2" t="s">
+      <c r="AF12" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="AF12" s="2" t="s">
+      <c r="AG12" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="AG12" s="10">
+      <c r="AH12" s="10">
         <v>0</v>
       </c>
-      <c r="AH12" s="2" t="s">
+      <c r="AI12" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="AI12" s="2" t="s">
+      <c r="AJ12" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="AJ12" s="2" t="s">
+      <c r="AK12" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="AK12" s="2" t="s">
+      <c r="AL12" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="AL12" s="2" t="s">
+      <c r="AM12" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="AM12" s="2" t="s">
+      <c r="AN12" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="AN12" s="2" t="s">
+      <c r="AO12" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="AO12" s="2" t="s">
+      <c r="AP12" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="AP12" s="2" t="s">
+      <c r="AQ12" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="AQ12" s="2" t="s">
+      <c r="AR12" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="AR12" s="2" t="s">
+      <c r="AS12" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="AS12" s="2" t="s">
+      <c r="AT12" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="AT12" s="2" t="s">
+      <c r="AU12" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="AU12" s="2" t="s">
+      <c r="AV12" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="AV12" s="2" t="s">
+      <c r="AW12" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="AW12" s="14" t="s">
+      <c r="AX12" s="14" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="13" spans="1:49">
+    <row r="13" spans="1:50">
       <c r="A13" s="2" t="s">
         <v>2</v>
       </c>
@@ -2529,71 +2564,68 @@
       <c r="G13" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H13" s="2" t="s">
-        <v>104</v>
-      </c>
       <c r="I13" s="2" t="s">
         <v>104</v>
       </c>
       <c r="J13" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="K13" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="K13" s="2" t="s">
+      <c r="L13" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="L13" s="2" t="s">
+      <c r="M13" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="M13" s="2" t="s">
+      <c r="N13" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="N13" s="2" t="s">
+      <c r="O13" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="O13" s="2" t="s">
+      <c r="P13" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="P13" s="14" t="s">
+      <c r="Q13" s="14" t="s">
         <v>252</v>
       </c>
-      <c r="Q13" s="2" t="s">
+      <c r="R13" s="2" t="s">
         <v>109</v>
-      </c>
-      <c r="R13" s="2" t="s">
-        <v>14</v>
       </c>
       <c r="S13" s="2" t="s">
         <v>14</v>
       </c>
       <c r="T13" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="U13" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="U13" s="2" t="s">
+      <c r="V13" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="V13" s="2" t="s">
+      <c r="W13" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="W13" s="2" t="s">
+      <c r="X13" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="X13" s="2" t="s">
+      <c r="Y13" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="Y13" s="14" t="s">
+      <c r="Z13" s="14" t="s">
         <v>260</v>
       </c>
-      <c r="Z13" s="2" t="s">
+      <c r="AA13" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="AA13" s="2" t="s">
+      <c r="AB13" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="AB13" s="14" t="s">
+      <c r="AC13" s="14" t="s">
         <v>259</v>
-      </c>
-      <c r="AC13" s="2" t="s">
-        <v>118</v>
       </c>
       <c r="AD13" s="2" t="s">
         <v>118</v>
@@ -2602,61 +2634,64 @@
         <v>118</v>
       </c>
       <c r="AF13" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="AG13" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="AG13" s="10">
+      <c r="AH13" s="10">
         <v>0</v>
       </c>
-      <c r="AH13" s="2" t="s">
+      <c r="AI13" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="AI13" s="2" t="s">
+      <c r="AJ13" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="AJ13" s="2" t="s">
+      <c r="AK13" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="AK13" s="2" t="s">
+      <c r="AL13" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="AL13" s="2" t="s">
+      <c r="AM13" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="AM13" s="2" t="s">
+      <c r="AN13" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="AN13" s="2" t="s">
+      <c r="AO13" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="AO13" s="2" t="s">
+      <c r="AP13" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="AP13" s="2" t="s">
+      <c r="AQ13" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="AQ13" s="2" t="s">
+      <c r="AR13" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="AR13" s="2" t="s">
+      <c r="AS13" s="2" t="s">
         <v>1</v>
-      </c>
-      <c r="AS13" s="2" t="s">
-        <v>3</v>
       </c>
       <c r="AT13" s="2" t="s">
         <v>3</v>
       </c>
       <c r="AU13" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AV13" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="AV13" s="2" t="s">
+      <c r="AW13" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="AW13" s="14" t="s">
+      <c r="AX13" s="14" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="14" spans="1:49">
+    <row r="14" spans="1:50">
       <c r="A14" s="2" t="s">
         <v>2</v>
       </c>
@@ -2678,35 +2713,32 @@
       <c r="G14" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="H14" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="I14" s="2" t="s">
         <v>72</v>
       </c>
       <c r="J14" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="K14" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="K14" s="2" t="s">
+      <c r="L14" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="L14" s="2" t="s">
+      <c r="M14" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="M14" s="2" t="s">
+      <c r="N14" s="2" t="s">
         <v>80</v>
-      </c>
-      <c r="N14" s="2" t="s">
-        <v>81</v>
       </c>
       <c r="O14" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="P14" s="14" t="s">
+      <c r="P14" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q14" s="14" t="s">
         <v>252</v>
-      </c>
-      <c r="Q14" s="2" t="s">
-        <v>14</v>
       </c>
       <c r="R14" s="2" t="s">
         <v>14</v>
@@ -2718,31 +2750,31 @@
         <v>14</v>
       </c>
       <c r="U14" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="V14" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="V14" s="2" t="s">
+      <c r="W14" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="W14" s="2" t="s">
+      <c r="X14" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="X14" s="2" t="s">
+      <c r="Y14" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="Y14" s="14" t="s">
+      <c r="Z14" s="14" t="s">
         <v>251</v>
       </c>
-      <c r="Z14" s="2" t="s">
+      <c r="AA14" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="AA14" s="2" t="s">
+      <c r="AB14" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="AB14" s="14" t="s">
+      <c r="AC14" s="14" t="s">
         <v>250</v>
-      </c>
-      <c r="AC14" s="2" t="s">
-        <v>79</v>
       </c>
       <c r="AD14" s="2" t="s">
         <v>79</v>
@@ -2751,61 +2783,64 @@
         <v>79</v>
       </c>
       <c r="AF14" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AG14" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="AG14" s="10">
+      <c r="AH14" s="10">
         <v>972</v>
       </c>
-      <c r="AH14" s="2" t="s">
+      <c r="AI14" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="AI14" s="2" t="s">
+      <c r="AJ14" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="AJ14" s="2" t="s">
+      <c r="AK14" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="AK14" s="2" t="s">
+      <c r="AL14" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="AL14" s="2" t="s">
+      <c r="AM14" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="AM14" s="2" t="s">
+      <c r="AN14" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="AN14" s="2" t="s">
+      <c r="AO14" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="AO14" s="2" t="s">
+      <c r="AP14" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="AP14" s="2" t="s">
+      <c r="AQ14" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="AQ14" s="2" t="s">
+      <c r="AR14" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="AR14" s="2" t="s">
+      <c r="AS14" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="AS14" s="2" t="s">
+      <c r="AT14" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="AT14" s="2" t="s">
+      <c r="AU14" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="AU14" s="2" t="s">
+      <c r="AV14" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="AV14" s="2" t="s">
+      <c r="AW14" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="AW14" s="14" t="s">
+      <c r="AX14" s="14" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="15" spans="1:49">
+    <row r="15" spans="1:50">
       <c r="A15" s="14" t="s">
         <v>2</v>
       </c>
@@ -2827,38 +2862,36 @@
       <c r="G15" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="H15" s="14" t="s">
-        <v>72</v>
-      </c>
+      <c r="H15" s="14"/>
       <c r="I15" s="14" t="s">
         <v>72</v>
       </c>
       <c r="J15" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="K15" s="14" t="s">
         <v>135</v>
       </c>
-      <c r="K15" s="14" t="s">
+      <c r="L15" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="L15" s="14" t="s">
+      <c r="M15" s="14" t="s">
         <v>131</v>
       </c>
-      <c r="M15" s="14" t="s">
+      <c r="N15" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="N15" s="14" t="s">
+      <c r="O15" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="O15" s="14" t="s">
+      <c r="P15" s="14" t="s">
         <v>235</v>
       </c>
-      <c r="P15" s="14" t="s">
+      <c r="Q15" s="14" t="s">
         <v>252</v>
       </c>
-      <c r="Q15" s="14" t="s">
+      <c r="R15" s="14" t="s">
         <v>82</v>
-      </c>
-      <c r="R15" s="14" t="s">
-        <v>14</v>
       </c>
       <c r="S15" s="14" t="s">
         <v>14</v>
@@ -2873,25 +2906,25 @@
         <v>14</v>
       </c>
       <c r="W15" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="X15" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="X15" s="14" t="s">
+      <c r="Y15" s="14" t="s">
         <v>132</v>
       </c>
-      <c r="Y15" s="14" t="s">
+      <c r="Z15" s="14" t="s">
         <v>251</v>
       </c>
-      <c r="Z15" s="14" t="s">
+      <c r="AA15" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="AA15" s="14" t="s">
+      <c r="AB15" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="AB15" s="14" t="s">
+      <c r="AC15" s="14" t="s">
         <v>250</v>
-      </c>
-      <c r="AC15" s="14" t="s">
-        <v>79</v>
       </c>
       <c r="AD15" s="14" t="s">
         <v>79</v>
@@ -2900,61 +2933,64 @@
         <v>79</v>
       </c>
       <c r="AF15" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="AG15" s="14" t="s">
         <v>134</v>
       </c>
-      <c r="AG15" s="15">
+      <c r="AH15" s="15">
         <v>0</v>
       </c>
-      <c r="AH15" s="14" t="s">
+      <c r="AI15" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="AI15" s="14" t="s">
+      <c r="AJ15" s="14" t="s">
         <v>136</v>
       </c>
-      <c r="AJ15" s="14" t="s">
+      <c r="AK15" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="AK15" s="14" t="s">
+      <c r="AL15" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="AL15" s="14" t="s">
+      <c r="AM15" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="AM15" s="14" t="s">
+      <c r="AN15" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="AN15" s="14" t="s">
+      <c r="AO15" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="AO15" s="14" t="s">
+      <c r="AP15" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="AP15" s="14" t="s">
+      <c r="AQ15" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="AQ15" s="14" t="s">
+      <c r="AR15" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="AR15" s="14" t="s">
+      <c r="AS15" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="AS15" s="14" t="s">
+      <c r="AT15" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="AT15" s="14" t="s">
+      <c r="AU15" s="14" t="s">
         <v>231</v>
       </c>
-      <c r="AU15" s="14" t="s">
+      <c r="AV15" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="AV15" s="14" t="s">
+      <c r="AW15" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="AW15" s="14" t="s">
+      <c r="AX15" s="14" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="16" spans="1:49">
+    <row r="16" spans="1:50">
       <c r="A16" s="2" t="s">
         <v>2</v>
       </c>
@@ -2976,71 +3012,68 @@
       <c r="G16" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="H16" s="2" t="s">
-        <v>104</v>
-      </c>
       <c r="I16" s="2" t="s">
         <v>104</v>
       </c>
       <c r="J16" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="K16" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="K16" s="2" t="s">
+      <c r="L16" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="L16" s="2" t="s">
+      <c r="M16" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="M16" s="2" t="s">
+      <c r="N16" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="N16" s="2" t="s">
+      <c r="O16" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="O16" s="2" t="s">
+      <c r="P16" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="P16" s="14" t="s">
+      <c r="Q16" s="14" t="s">
         <v>252</v>
       </c>
-      <c r="Q16" s="2" t="s">
+      <c r="R16" s="2" t="s">
         <v>109</v>
-      </c>
-      <c r="R16" s="2" t="s">
-        <v>14</v>
       </c>
       <c r="S16" s="2" t="s">
         <v>14</v>
       </c>
       <c r="T16" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="U16" s="2" t="s">
         <v>107</v>
-      </c>
-      <c r="U16" s="2" t="s">
-        <v>14</v>
       </c>
       <c r="V16" s="2" t="s">
         <v>14</v>
       </c>
       <c r="W16" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="X16" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="X16" s="2" t="s">
+      <c r="Y16" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="Y16" s="14" t="s">
+      <c r="Z16" s="14" t="s">
         <v>262</v>
       </c>
-      <c r="Z16" s="2" t="s">
+      <c r="AA16" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="AA16" s="2" t="s">
+      <c r="AB16" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="AB16" s="14" t="s">
+      <c r="AC16" s="14" t="s">
         <v>261</v>
-      </c>
-      <c r="AC16" s="2" t="s">
-        <v>147</v>
       </c>
       <c r="AD16" s="2" t="s">
         <v>147</v>
@@ -3049,61 +3082,64 @@
         <v>147</v>
       </c>
       <c r="AF16" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="AG16" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="AG16" s="10">
+      <c r="AH16" s="10">
         <v>1129</v>
       </c>
-      <c r="AH16" s="2" t="s">
+      <c r="AI16" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="AI16" s="2" t="s">
+      <c r="AJ16" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="AJ16" s="2" t="s">
+      <c r="AK16" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="AK16" s="2" t="s">
+      <c r="AL16" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="AL16" s="2" t="s">
+      <c r="AM16" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="AM16" s="2" t="s">
+      <c r="AN16" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="AN16" s="2" t="s">
+      <c r="AO16" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="AO16" s="2" t="s">
+      <c r="AP16" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="AP16" s="2" t="s">
+      <c r="AQ16" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="AQ16" s="2" t="s">
+      <c r="AR16" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="AR16" s="2" t="s">
+      <c r="AS16" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="AS16" s="2" t="s">
+      <c r="AT16" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="AT16" s="2" t="s">
+      <c r="AU16" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="AU16" s="2" t="s">
+      <c r="AV16" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="AV16" s="2" t="s">
+      <c r="AW16" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="AW16" s="14" t="s">
+      <c r="AX16" s="14" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="17" spans="1:49">
+    <row r="17" spans="1:50">
       <c r="A17" s="2" t="s">
         <v>2</v>
       </c>
@@ -3125,38 +3161,35 @@
       <c r="G17" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="H17" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="I17" s="2" t="s">
         <v>72</v>
       </c>
       <c r="J17" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="K17" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="K17" s="2" t="s">
+      <c r="L17" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="L17" s="2" t="s">
+      <c r="M17" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="M17" s="2" t="s">
+      <c r="N17" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="N17" s="2" t="s">
+      <c r="O17" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="O17" s="2" t="s">
+      <c r="P17" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="P17" s="14" t="s">
+      <c r="Q17" s="14" t="s">
         <v>252</v>
       </c>
-      <c r="Q17" s="2" t="s">
+      <c r="R17" s="2" t="s">
         <v>82</v>
-      </c>
-      <c r="R17" s="2" t="s">
-        <v>14</v>
       </c>
       <c r="S17" s="2" t="s">
         <v>14</v>
@@ -3171,25 +3204,25 @@
         <v>14</v>
       </c>
       <c r="W17" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="X17" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="X17" s="2" t="s">
+      <c r="Y17" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="Y17" s="14" t="s">
+      <c r="Z17" s="14" t="s">
         <v>251</v>
       </c>
-      <c r="Z17" s="2" t="s">
+      <c r="AA17" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="AA17" s="2" t="s">
+      <c r="AB17" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="AB17" s="14" t="s">
+      <c r="AC17" s="14" t="s">
         <v>250</v>
-      </c>
-      <c r="AC17" s="2" t="s">
-        <v>79</v>
       </c>
       <c r="AD17" s="2" t="s">
         <v>79</v>
@@ -3198,61 +3231,64 @@
         <v>79</v>
       </c>
       <c r="AF17" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AG17" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="AG17" s="10">
+      <c r="AH17" s="10">
         <v>0</v>
       </c>
-      <c r="AH17" s="2" t="s">
+      <c r="AI17" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="AI17" s="2" t="s">
+      <c r="AJ17" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="AJ17" s="2" t="s">
+      <c r="AK17" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="AK17" s="2" t="s">
+      <c r="AL17" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="AL17" s="2" t="s">
+      <c r="AM17" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="AM17" s="2" t="s">
+      <c r="AN17" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="AN17" s="2" t="s">
+      <c r="AO17" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="AO17" s="2" t="s">
+      <c r="AP17" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="AP17" s="2" t="s">
+      <c r="AQ17" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="AQ17" s="2" t="s">
+      <c r="AR17" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="AR17" s="2" t="s">
+      <c r="AS17" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="AS17" s="2" t="s">
+      <c r="AT17" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="AT17" s="2" t="s">
+      <c r="AU17" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="AU17" s="2" t="s">
+      <c r="AV17" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="AV17" s="2" t="s">
+      <c r="AW17" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="AW17" s="14" t="s">
+      <c r="AX17" s="14" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="18" spans="1:49">
+    <row r="18" spans="1:50">
       <c r="A18" s="2" t="s">
         <v>2</v>
       </c>
@@ -3274,38 +3310,35 @@
       <c r="G18" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="H18" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="I18" s="2" t="s">
         <v>72</v>
       </c>
       <c r="J18" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="K18" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="K18" s="2" t="s">
+      <c r="L18" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="L18" s="2" t="s">
+      <c r="M18" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="M18" s="2" t="s">
+      <c r="N18" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="N18" s="2" t="s">
+      <c r="O18" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="O18" s="2" t="s">
+      <c r="P18" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="P18" s="14" t="s">
+      <c r="Q18" s="14" t="s">
         <v>252</v>
       </c>
-      <c r="Q18" s="2" t="s">
+      <c r="R18" s="2" t="s">
         <v>82</v>
-      </c>
-      <c r="R18" s="2" t="s">
-        <v>14</v>
       </c>
       <c r="S18" s="2" t="s">
         <v>14</v>
@@ -3320,25 +3353,25 @@
         <v>14</v>
       </c>
       <c r="W18" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="X18" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="X18" s="2" t="s">
+      <c r="Y18" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="Y18" s="14" t="s">
+      <c r="Z18" s="14" t="s">
         <v>251</v>
       </c>
-      <c r="Z18" s="2" t="s">
+      <c r="AA18" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="AA18" s="2" t="s">
+      <c r="AB18" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="AB18" s="14" t="s">
+      <c r="AC18" s="14" t="s">
         <v>250</v>
-      </c>
-      <c r="AC18" s="2" t="s">
-        <v>79</v>
       </c>
       <c r="AD18" s="2" t="s">
         <v>79</v>
@@ -3347,740 +3380,755 @@
         <v>79</v>
       </c>
       <c r="AF18" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AG18" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="AG18" s="10">
+      <c r="AH18" s="10">
         <v>0</v>
       </c>
-      <c r="AH18" s="2" t="s">
+      <c r="AI18" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="AI18" s="2" t="s">
+      <c r="AJ18" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="AJ18" s="2" t="s">
+      <c r="AK18" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="AK18" s="2" t="s">
+      <c r="AL18" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="AL18" s="2" t="s">
+      <c r="AM18" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="AM18" s="2" t="s">
+      <c r="AN18" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="AN18" s="2" t="s">
+      <c r="AO18" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="AO18" s="2" t="s">
+      <c r="AP18" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="AP18" s="2" t="s">
+      <c r="AQ18" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="AQ18" s="2" t="s">
+      <c r="AR18" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="AR18" s="2" t="s">
+      <c r="AS18" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="AS18" s="2" t="s">
+      <c r="AT18" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="AT18" s="2" t="s">
+      <c r="AU18" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="AU18" s="2" t="s">
+      <c r="AV18" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="AV18" s="2" t="s">
+      <c r="AW18" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="AW18" s="14" t="s">
+      <c r="AX18" s="14" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="20" spans="1:49">
-      <c r="AL20" s="12"/>
-    </row>
-    <row r="21" spans="1:49">
-      <c r="H21" s="12"/>
-      <c r="W21" s="12"/>
-    </row>
-    <row r="23" spans="1:49" ht="11.25" customHeight="1">
+    <row r="20" spans="1:50">
+      <c r="AM20" s="12"/>
+    </row>
+    <row r="21" spans="1:50">
+      <c r="I21" s="12"/>
+      <c r="X21" s="12"/>
+    </row>
+    <row r="23" spans="1:50" ht="11.25" customHeight="1">
       <c r="A23" s="1"/>
-      <c r="B23" s="35" t="s">
+      <c r="B23" s="53" t="s">
         <v>268</v>
       </c>
-      <c r="C23" s="36"/>
-      <c r="D23" s="36"/>
-      <c r="E23" s="36"/>
-      <c r="F23" s="36"/>
-      <c r="G23" s="37"/>
-      <c r="H23" s="61" t="s">
+      <c r="C23" s="54"/>
+      <c r="D23" s="54"/>
+      <c r="E23" s="54"/>
+      <c r="F23" s="54"/>
+      <c r="G23" s="55"/>
+      <c r="H23" s="65" t="s">
         <v>269</v>
       </c>
-      <c r="I23" s="61"/>
-      <c r="J23" s="61"/>
-      <c r="K23" s="61"/>
-      <c r="L23" s="61"/>
-      <c r="M23" s="61"/>
-      <c r="N23" s="61"/>
-      <c r="O23" s="61"/>
-      <c r="P23" s="61"/>
-      <c r="Q23" s="61"/>
-      <c r="R23" s="61"/>
-      <c r="S23" s="61"/>
-      <c r="T23" s="61"/>
-      <c r="U23" s="61"/>
-      <c r="V23" s="61"/>
-      <c r="W23" s="65" t="s">
+      <c r="I23" s="66"/>
+      <c r="J23" s="66"/>
+      <c r="K23" s="66"/>
+      <c r="L23" s="66"/>
+      <c r="M23" s="66"/>
+      <c r="N23" s="66"/>
+      <c r="O23" s="66"/>
+      <c r="P23" s="66"/>
+      <c r="Q23" s="66"/>
+      <c r="R23" s="66"/>
+      <c r="S23" s="66"/>
+      <c r="T23" s="66"/>
+      <c r="U23" s="66"/>
+      <c r="V23" s="66"/>
+      <c r="W23" s="67"/>
+      <c r="X23" s="42" t="s">
         <v>270</v>
       </c>
-      <c r="X23" s="65"/>
-      <c r="Y23" s="65"/>
-      <c r="Z23" s="65"/>
-      <c r="AA23" s="65"/>
-      <c r="AB23" s="65"/>
-      <c r="AC23" s="65"/>
-      <c r="AD23" s="65"/>
-      <c r="AE23" s="65"/>
-      <c r="AF23" s="65"/>
-      <c r="AG23" s="52" t="s">
+      <c r="Y23" s="42"/>
+      <c r="Z23" s="42"/>
+      <c r="AA23" s="42"/>
+      <c r="AB23" s="42"/>
+      <c r="AC23" s="42"/>
+      <c r="AD23" s="42"/>
+      <c r="AE23" s="42"/>
+      <c r="AF23" s="42"/>
+      <c r="AG23" s="42"/>
+      <c r="AH23" s="23" t="s">
         <v>271</v>
       </c>
-      <c r="AH23" s="53"/>
-      <c r="AI23" s="54"/>
-      <c r="AJ23" s="24" t="s">
+      <c r="AI23" s="24"/>
+      <c r="AJ23" s="25"/>
+      <c r="AK23" s="64" t="s">
         <v>272</v>
       </c>
-      <c r="AK23" s="24" t="s">
+      <c r="AL23" s="64" t="s">
         <v>273</v>
       </c>
-      <c r="AL23" s="52" t="s">
+      <c r="AM23" s="23" t="s">
         <v>274</v>
       </c>
-      <c r="AM23" s="53"/>
-      <c r="AN23" s="53"/>
-      <c r="AO23" s="54"/>
-      <c r="AP23" s="35" t="s">
+      <c r="AN23" s="24"/>
+      <c r="AO23" s="24"/>
+      <c r="AP23" s="25"/>
+      <c r="AQ23" s="53" t="s">
         <v>275</v>
       </c>
-      <c r="AQ23" s="36"/>
-      <c r="AR23" s="36"/>
-      <c r="AS23" s="36"/>
-      <c r="AT23" s="37"/>
-      <c r="AU23" s="32" t="s">
+      <c r="AR23" s="54"/>
+      <c r="AS23" s="54"/>
+      <c r="AT23" s="54"/>
+      <c r="AU23" s="55"/>
+      <c r="AV23" s="50" t="s">
         <v>276</v>
       </c>
-      <c r="AV23" s="32" t="s">
+      <c r="AW23" s="50" t="s">
         <v>277</v>
       </c>
-      <c r="AW23" s="62" t="s">
+      <c r="AX23" s="35" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="24" spans="1:49" ht="11.25" customHeight="1">
+    <row r="24" spans="1:50" ht="11.25" customHeight="1">
       <c r="A24" s="1"/>
-      <c r="B24" s="38"/>
-      <c r="C24" s="39"/>
-      <c r="D24" s="39"/>
-      <c r="E24" s="39"/>
-      <c r="F24" s="39"/>
-      <c r="G24" s="40"/>
-      <c r="H24" s="61"/>
-      <c r="I24" s="61"/>
-      <c r="J24" s="61"/>
-      <c r="K24" s="61"/>
-      <c r="L24" s="61"/>
-      <c r="M24" s="61"/>
-      <c r="N24" s="61"/>
-      <c r="O24" s="61"/>
-      <c r="P24" s="61"/>
-      <c r="Q24" s="61"/>
-      <c r="R24" s="61"/>
-      <c r="S24" s="61"/>
-      <c r="T24" s="61"/>
-      <c r="U24" s="61"/>
-      <c r="V24" s="61"/>
-      <c r="W24" s="65"/>
-      <c r="X24" s="65"/>
-      <c r="Y24" s="65"/>
-      <c r="Z24" s="65"/>
-      <c r="AA24" s="65"/>
-      <c r="AB24" s="65"/>
-      <c r="AC24" s="65"/>
-      <c r="AD24" s="65"/>
-      <c r="AE24" s="65"/>
-      <c r="AF24" s="65"/>
-      <c r="AG24" s="55"/>
-      <c r="AH24" s="56"/>
-      <c r="AI24" s="57"/>
-      <c r="AJ24" s="24"/>
-      <c r="AK24" s="24"/>
-      <c r="AL24" s="55"/>
-      <c r="AM24" s="56"/>
-      <c r="AN24" s="56"/>
-      <c r="AO24" s="57"/>
-      <c r="AP24" s="38"/>
-      <c r="AQ24" s="39"/>
-      <c r="AR24" s="39"/>
-      <c r="AS24" s="39"/>
-      <c r="AT24" s="40"/>
-      <c r="AU24" s="33"/>
-      <c r="AV24" s="33"/>
-      <c r="AW24" s="62"/>
-    </row>
-    <row r="25" spans="1:49" ht="18" customHeight="1">
+      <c r="B24" s="56"/>
+      <c r="C24" s="57"/>
+      <c r="D24" s="57"/>
+      <c r="E24" s="57"/>
+      <c r="F24" s="57"/>
+      <c r="G24" s="58"/>
+      <c r="H24" s="68"/>
+      <c r="I24" s="69"/>
+      <c r="J24" s="69"/>
+      <c r="K24" s="69"/>
+      <c r="L24" s="69"/>
+      <c r="M24" s="69"/>
+      <c r="N24" s="69"/>
+      <c r="O24" s="69"/>
+      <c r="P24" s="69"/>
+      <c r="Q24" s="69"/>
+      <c r="R24" s="69"/>
+      <c r="S24" s="69"/>
+      <c r="T24" s="69"/>
+      <c r="U24" s="69"/>
+      <c r="V24" s="69"/>
+      <c r="W24" s="70"/>
+      <c r="X24" s="42"/>
+      <c r="Y24" s="42"/>
+      <c r="Z24" s="42"/>
+      <c r="AA24" s="42"/>
+      <c r="AB24" s="42"/>
+      <c r="AC24" s="42"/>
+      <c r="AD24" s="42"/>
+      <c r="AE24" s="42"/>
+      <c r="AF24" s="42"/>
+      <c r="AG24" s="42"/>
+      <c r="AH24" s="26"/>
+      <c r="AI24" s="27"/>
+      <c r="AJ24" s="28"/>
+      <c r="AK24" s="64"/>
+      <c r="AL24" s="64"/>
+      <c r="AM24" s="26"/>
+      <c r="AN24" s="27"/>
+      <c r="AO24" s="27"/>
+      <c r="AP24" s="28"/>
+      <c r="AQ24" s="56"/>
+      <c r="AR24" s="57"/>
+      <c r="AS24" s="57"/>
+      <c r="AT24" s="57"/>
+      <c r="AU24" s="58"/>
+      <c r="AV24" s="51"/>
+      <c r="AW24" s="51"/>
+      <c r="AX24" s="35"/>
+    </row>
+    <row r="25" spans="1:50" ht="18" customHeight="1">
       <c r="A25" s="1"/>
-      <c r="B25" s="41"/>
-      <c r="C25" s="42"/>
-      <c r="D25" s="42"/>
-      <c r="E25" s="42"/>
-      <c r="F25" s="42"/>
-      <c r="G25" s="43"/>
-      <c r="H25" s="61"/>
-      <c r="I25" s="61"/>
-      <c r="J25" s="61"/>
-      <c r="K25" s="61"/>
-      <c r="L25" s="61"/>
-      <c r="M25" s="61"/>
-      <c r="N25" s="61"/>
-      <c r="O25" s="61"/>
-      <c r="P25" s="61"/>
-      <c r="Q25" s="61"/>
-      <c r="R25" s="61"/>
-      <c r="S25" s="61"/>
-      <c r="T25" s="61"/>
-      <c r="U25" s="61"/>
-      <c r="V25" s="61"/>
-      <c r="W25" s="65"/>
-      <c r="X25" s="65"/>
-      <c r="Y25" s="65"/>
-      <c r="Z25" s="65"/>
-      <c r="AA25" s="65"/>
-      <c r="AB25" s="65"/>
-      <c r="AC25" s="65"/>
-      <c r="AD25" s="65"/>
-      <c r="AE25" s="65"/>
-      <c r="AF25" s="65"/>
-      <c r="AG25" s="58"/>
-      <c r="AH25" s="59"/>
-      <c r="AI25" s="60"/>
-      <c r="AJ25" s="24"/>
-      <c r="AK25" s="24"/>
-      <c r="AL25" s="58"/>
-      <c r="AM25" s="59"/>
-      <c r="AN25" s="59"/>
-      <c r="AO25" s="60"/>
-      <c r="AP25" s="41"/>
-      <c r="AQ25" s="42"/>
-      <c r="AR25" s="42"/>
-      <c r="AS25" s="42"/>
-      <c r="AT25" s="43"/>
-      <c r="AU25" s="34"/>
-      <c r="AV25" s="34"/>
-      <c r="AW25" s="62"/>
-    </row>
-    <row r="26" spans="1:49" ht="11.25" customHeight="1">
-      <c r="A26" s="25" t="s">
+      <c r="B25" s="59"/>
+      <c r="C25" s="60"/>
+      <c r="D25" s="60"/>
+      <c r="E25" s="60"/>
+      <c r="F25" s="60"/>
+      <c r="G25" s="61"/>
+      <c r="H25" s="71"/>
+      <c r="I25" s="72"/>
+      <c r="J25" s="72"/>
+      <c r="K25" s="72"/>
+      <c r="L25" s="72"/>
+      <c r="M25" s="72"/>
+      <c r="N25" s="72"/>
+      <c r="O25" s="72"/>
+      <c r="P25" s="72"/>
+      <c r="Q25" s="72"/>
+      <c r="R25" s="72"/>
+      <c r="S25" s="72"/>
+      <c r="T25" s="72"/>
+      <c r="U25" s="72"/>
+      <c r="V25" s="72"/>
+      <c r="W25" s="73"/>
+      <c r="X25" s="42"/>
+      <c r="Y25" s="42"/>
+      <c r="Z25" s="42"/>
+      <c r="AA25" s="42"/>
+      <c r="AB25" s="42"/>
+      <c r="AC25" s="42"/>
+      <c r="AD25" s="42"/>
+      <c r="AE25" s="42"/>
+      <c r="AF25" s="42"/>
+      <c r="AG25" s="42"/>
+      <c r="AH25" s="29"/>
+      <c r="AI25" s="30"/>
+      <c r="AJ25" s="31"/>
+      <c r="AK25" s="64"/>
+      <c r="AL25" s="64"/>
+      <c r="AM25" s="29"/>
+      <c r="AN25" s="30"/>
+      <c r="AO25" s="30"/>
+      <c r="AP25" s="31"/>
+      <c r="AQ25" s="59"/>
+      <c r="AR25" s="60"/>
+      <c r="AS25" s="60"/>
+      <c r="AT25" s="60"/>
+      <c r="AU25" s="61"/>
+      <c r="AV25" s="52"/>
+      <c r="AW25" s="52"/>
+      <c r="AX25" s="35"/>
+    </row>
+    <row r="26" spans="1:50" ht="11.25" customHeight="1">
+      <c r="A26" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="B26" s="25" t="s">
+      <c r="B26" s="32" t="s">
         <v>65</v>
       </c>
-      <c r="C26" s="25" t="s">
+      <c r="C26" s="32" t="s">
         <v>66</v>
       </c>
-      <c r="D26" s="25" t="s">
+      <c r="D26" s="32" t="s">
         <v>85</v>
       </c>
-      <c r="E26" s="25" t="s">
+      <c r="E26" s="32" t="s">
         <v>159</v>
       </c>
-      <c r="F26" s="25" t="s">
+      <c r="F26" s="32" t="s">
         <v>68</v>
       </c>
-      <c r="G26" s="25" t="s">
+      <c r="G26" s="32" t="s">
         <v>69</v>
       </c>
-      <c r="H26" s="25" t="s">
+      <c r="H26" s="32" t="s">
+        <v>279</v>
+      </c>
+      <c r="I26" s="32" t="s">
         <v>182</v>
       </c>
-      <c r="I26" s="25" t="s">
+      <c r="J26" s="32" t="s">
         <v>183</v>
       </c>
-      <c r="J26" s="25" t="s">
+      <c r="K26" s="32" t="s">
         <v>184</v>
       </c>
-      <c r="K26" s="25" t="s">
+      <c r="L26" s="32" t="s">
         <v>185</v>
       </c>
-      <c r="L26" s="25" t="s">
+      <c r="M26" s="32" t="s">
         <v>188</v>
       </c>
-      <c r="M26" s="25" t="s">
+      <c r="N26" s="32" t="s">
         <v>160</v>
       </c>
-      <c r="N26" s="25" t="s">
+      <c r="O26" s="32" t="s">
         <v>161</v>
       </c>
-      <c r="O26" s="25" t="s">
+      <c r="P26" s="32" t="s">
         <v>240</v>
       </c>
-      <c r="P26" s="25" t="s">
+      <c r="Q26" s="32" t="s">
         <v>265</v>
       </c>
-      <c r="Q26" s="25" t="s">
+      <c r="R26" s="32" t="s">
         <v>165</v>
       </c>
-      <c r="R26" s="31" t="s">
+      <c r="S26" s="36" t="s">
         <v>166</v>
       </c>
-      <c r="S26" s="31" t="s">
+      <c r="T26" s="36" t="s">
         <v>167</v>
       </c>
-      <c r="T26" s="31" t="s">
+      <c r="U26" s="36" t="s">
         <v>162</v>
       </c>
-      <c r="U26" s="31" t="s">
+      <c r="V26" s="36" t="s">
         <v>163</v>
       </c>
-      <c r="V26" s="31" t="s">
+      <c r="W26" s="36" t="s">
         <v>164</v>
       </c>
-      <c r="W26" s="28" t="s">
+      <c r="X26" s="37" t="s">
         <v>168</v>
       </c>
-      <c r="X26" s="28" t="s">
+      <c r="Y26" s="37" t="s">
         <v>169</v>
       </c>
-      <c r="Y26" s="28" t="s">
+      <c r="Z26" s="37" t="s">
         <v>263</v>
       </c>
-      <c r="Z26" s="28" t="s">
+      <c r="AA26" s="37" t="s">
         <v>171</v>
       </c>
-      <c r="AA26" s="31" t="s">
+      <c r="AB26" s="36" t="s">
         <v>172</v>
       </c>
-      <c r="AB26" s="31" t="s">
+      <c r="AC26" s="36" t="s">
         <v>264</v>
       </c>
-      <c r="AC26" s="31" t="s">
+      <c r="AD26" s="36" t="s">
         <v>173</v>
       </c>
-      <c r="AD26" s="31" t="s">
+      <c r="AE26" s="36" t="s">
         <v>174</v>
       </c>
-      <c r="AE26" s="25" t="s">
+      <c r="AF26" s="32" t="s">
         <v>175</v>
       </c>
-      <c r="AF26" s="44" t="s">
+      <c r="AG26" s="62" t="s">
         <v>170</v>
       </c>
-      <c r="AG26" s="25" t="s">
+      <c r="AH26" s="32" t="s">
         <v>186</v>
       </c>
-      <c r="AH26" s="25" t="s">
+      <c r="AI26" s="32" t="s">
         <v>187</v>
       </c>
-      <c r="AI26" s="25" t="s">
+      <c r="AJ26" s="32" t="s">
         <v>241</v>
       </c>
-      <c r="AJ26" s="46" t="s">
+      <c r="AK26" s="44" t="s">
         <v>89</v>
       </c>
-      <c r="AK26" s="49" t="s">
+      <c r="AL26" s="47" t="s">
         <v>67</v>
       </c>
-      <c r="AL26" s="45" t="s">
+      <c r="AM26" s="43" t="s">
         <v>176</v>
       </c>
-      <c r="AM26" s="45" t="s">
+      <c r="AN26" s="43" t="s">
         <v>177</v>
       </c>
-      <c r="AN26" s="45" t="s">
+      <c r="AO26" s="43" t="s">
         <v>178</v>
       </c>
-      <c r="AO26" s="45" t="s">
+      <c r="AP26" s="43" t="s">
         <v>179</v>
       </c>
-      <c r="AP26" s="28" t="s">
+      <c r="AQ26" s="37" t="s">
         <v>180</v>
       </c>
-      <c r="AQ26" s="28" t="s">
+      <c r="AR26" s="37" t="s">
         <v>181</v>
       </c>
-      <c r="AR26" s="28" t="s">
+      <c r="AS26" s="37" t="s">
         <v>242</v>
       </c>
-      <c r="AS26" s="28" t="s">
+      <c r="AT26" s="37" t="s">
         <v>243</v>
       </c>
-      <c r="AT26" s="28" t="s">
+      <c r="AU26" s="37" t="s">
         <v>244</v>
       </c>
-      <c r="AU26" s="25" t="s">
+      <c r="AV26" s="32" t="s">
         <v>246</v>
       </c>
-      <c r="AV26" s="25" t="s">
+      <c r="AW26" s="32" t="s">
         <v>245</v>
       </c>
-      <c r="AW26" s="62"/>
-    </row>
-    <row r="27" spans="1:49">
-      <c r="A27" s="26"/>
-      <c r="B27" s="26"/>
-      <c r="C27" s="26"/>
-      <c r="D27" s="26"/>
-      <c r="E27" s="26"/>
-      <c r="F27" s="26"/>
-      <c r="G27" s="26"/>
-      <c r="H27" s="26"/>
-      <c r="I27" s="26"/>
-      <c r="J27" s="26"/>
-      <c r="K27" s="26"/>
-      <c r="L27" s="26"/>
-      <c r="M27" s="26"/>
-      <c r="N27" s="26"/>
-      <c r="O27" s="26"/>
-      <c r="P27" s="26"/>
-      <c r="Q27" s="26"/>
-      <c r="R27" s="31"/>
-      <c r="S27" s="31"/>
-      <c r="T27" s="31"/>
-      <c r="U27" s="31"/>
-      <c r="V27" s="31"/>
-      <c r="W27" s="29"/>
-      <c r="X27" s="29"/>
-      <c r="Y27" s="29"/>
-      <c r="Z27" s="29"/>
-      <c r="AA27" s="31"/>
-      <c r="AB27" s="31"/>
-      <c r="AC27" s="31"/>
-      <c r="AD27" s="31"/>
-      <c r="AE27" s="26"/>
-      <c r="AF27" s="44"/>
-      <c r="AG27" s="26"/>
-      <c r="AH27" s="26"/>
-      <c r="AI27" s="26"/>
-      <c r="AJ27" s="47"/>
-      <c r="AK27" s="50"/>
-      <c r="AL27" s="45"/>
-      <c r="AM27" s="45"/>
-      <c r="AN27" s="45"/>
-      <c r="AO27" s="45"/>
-      <c r="AP27" s="29"/>
-      <c r="AQ27" s="29"/>
-      <c r="AR27" s="63"/>
-      <c r="AS27" s="29"/>
-      <c r="AT27" s="29"/>
-      <c r="AU27" s="26"/>
-      <c r="AV27" s="26"/>
-      <c r="AW27" s="31" t="s">
+      <c r="AX26" s="35"/>
+    </row>
+    <row r="27" spans="1:50">
+      <c r="A27" s="33"/>
+      <c r="B27" s="33"/>
+      <c r="C27" s="33"/>
+      <c r="D27" s="33"/>
+      <c r="E27" s="33"/>
+      <c r="F27" s="33"/>
+      <c r="G27" s="33"/>
+      <c r="H27" s="33"/>
+      <c r="I27" s="33"/>
+      <c r="J27" s="33"/>
+      <c r="K27" s="33"/>
+      <c r="L27" s="33"/>
+      <c r="M27" s="33"/>
+      <c r="N27" s="33"/>
+      <c r="O27" s="33"/>
+      <c r="P27" s="33"/>
+      <c r="Q27" s="33"/>
+      <c r="R27" s="33"/>
+      <c r="S27" s="36"/>
+      <c r="T27" s="36"/>
+      <c r="U27" s="36"/>
+      <c r="V27" s="36"/>
+      <c r="W27" s="36"/>
+      <c r="X27" s="38"/>
+      <c r="Y27" s="38"/>
+      <c r="Z27" s="38"/>
+      <c r="AA27" s="38"/>
+      <c r="AB27" s="36"/>
+      <c r="AC27" s="36"/>
+      <c r="AD27" s="36"/>
+      <c r="AE27" s="36"/>
+      <c r="AF27" s="33"/>
+      <c r="AG27" s="62"/>
+      <c r="AH27" s="33"/>
+      <c r="AI27" s="33"/>
+      <c r="AJ27" s="33"/>
+      <c r="AK27" s="45"/>
+      <c r="AL27" s="48"/>
+      <c r="AM27" s="43"/>
+      <c r="AN27" s="43"/>
+      <c r="AO27" s="43"/>
+      <c r="AP27" s="43"/>
+      <c r="AQ27" s="38"/>
+      <c r="AR27" s="38"/>
+      <c r="AS27" s="40"/>
+      <c r="AT27" s="38"/>
+      <c r="AU27" s="38"/>
+      <c r="AV27" s="33"/>
+      <c r="AW27" s="33"/>
+      <c r="AX27" s="36" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="28" spans="1:49">
-      <c r="A28" s="26"/>
-      <c r="B28" s="26"/>
-      <c r="C28" s="26"/>
-      <c r="D28" s="26"/>
-      <c r="E28" s="26"/>
-      <c r="F28" s="26"/>
-      <c r="G28" s="26"/>
-      <c r="H28" s="26"/>
-      <c r="I28" s="26"/>
-      <c r="J28" s="26"/>
-      <c r="K28" s="26"/>
-      <c r="L28" s="26"/>
-      <c r="M28" s="26"/>
-      <c r="N28" s="26"/>
-      <c r="O28" s="26"/>
-      <c r="P28" s="26"/>
-      <c r="Q28" s="26"/>
-      <c r="R28" s="31"/>
-      <c r="S28" s="31"/>
-      <c r="T28" s="31"/>
-      <c r="U28" s="31"/>
-      <c r="V28" s="31"/>
-      <c r="W28" s="29"/>
-      <c r="X28" s="29"/>
-      <c r="Y28" s="29"/>
-      <c r="Z28" s="29"/>
-      <c r="AA28" s="31"/>
-      <c r="AB28" s="31"/>
-      <c r="AC28" s="31"/>
-      <c r="AD28" s="31"/>
-      <c r="AE28" s="26"/>
-      <c r="AF28" s="44"/>
-      <c r="AG28" s="26"/>
-      <c r="AH28" s="26"/>
-      <c r="AI28" s="26"/>
-      <c r="AJ28" s="47"/>
-      <c r="AK28" s="50"/>
-      <c r="AL28" s="45"/>
-      <c r="AM28" s="45"/>
-      <c r="AN28" s="45"/>
-      <c r="AO28" s="45"/>
-      <c r="AP28" s="29"/>
-      <c r="AQ28" s="29"/>
-      <c r="AR28" s="63"/>
-      <c r="AS28" s="29"/>
-      <c r="AT28" s="29"/>
-      <c r="AU28" s="26"/>
-      <c r="AV28" s="26"/>
-      <c r="AW28" s="31"/>
-    </row>
-    <row r="29" spans="1:49">
-      <c r="A29" s="26"/>
-      <c r="B29" s="26"/>
-      <c r="C29" s="26"/>
-      <c r="D29" s="26"/>
-      <c r="E29" s="26"/>
-      <c r="F29" s="26"/>
-      <c r="G29" s="26"/>
-      <c r="H29" s="26"/>
-      <c r="I29" s="26"/>
-      <c r="J29" s="26"/>
-      <c r="K29" s="26"/>
-      <c r="L29" s="26"/>
-      <c r="M29" s="26"/>
-      <c r="N29" s="26"/>
-      <c r="O29" s="26"/>
-      <c r="P29" s="26"/>
-      <c r="Q29" s="26"/>
-      <c r="R29" s="31"/>
-      <c r="S29" s="31"/>
-      <c r="T29" s="31"/>
-      <c r="U29" s="31"/>
-      <c r="V29" s="31"/>
-      <c r="W29" s="29"/>
-      <c r="X29" s="29"/>
-      <c r="Y29" s="29"/>
-      <c r="Z29" s="29"/>
-      <c r="AA29" s="31"/>
-      <c r="AB29" s="31"/>
-      <c r="AC29" s="31"/>
-      <c r="AD29" s="31"/>
-      <c r="AE29" s="26"/>
-      <c r="AF29" s="44"/>
-      <c r="AG29" s="26"/>
-      <c r="AH29" s="26"/>
-      <c r="AI29" s="26"/>
-      <c r="AJ29" s="47"/>
-      <c r="AK29" s="50"/>
-      <c r="AL29" s="45"/>
-      <c r="AM29" s="45"/>
-      <c r="AN29" s="45"/>
-      <c r="AO29" s="45"/>
-      <c r="AP29" s="29"/>
-      <c r="AQ29" s="29"/>
-      <c r="AR29" s="63"/>
-      <c r="AS29" s="29"/>
-      <c r="AT29" s="29"/>
-      <c r="AU29" s="26"/>
-      <c r="AV29" s="26"/>
-      <c r="AW29" s="31"/>
-    </row>
-    <row r="30" spans="1:49">
-      <c r="A30" s="26"/>
-      <c r="B30" s="26"/>
-      <c r="C30" s="26"/>
-      <c r="D30" s="26"/>
-      <c r="E30" s="26"/>
-      <c r="F30" s="26"/>
-      <c r="G30" s="26"/>
-      <c r="H30" s="26"/>
-      <c r="I30" s="26"/>
-      <c r="J30" s="26"/>
-      <c r="K30" s="26"/>
-      <c r="L30" s="26"/>
-      <c r="M30" s="26"/>
-      <c r="N30" s="26"/>
-      <c r="O30" s="26"/>
-      <c r="P30" s="26"/>
-      <c r="Q30" s="26"/>
-      <c r="R30" s="31"/>
-      <c r="S30" s="31"/>
-      <c r="T30" s="31"/>
-      <c r="U30" s="31"/>
-      <c r="V30" s="31"/>
-      <c r="W30" s="29"/>
-      <c r="X30" s="29"/>
-      <c r="Y30" s="29"/>
-      <c r="Z30" s="29"/>
-      <c r="AA30" s="31"/>
-      <c r="AB30" s="31"/>
-      <c r="AC30" s="31"/>
-      <c r="AD30" s="31"/>
-      <c r="AE30" s="26"/>
-      <c r="AF30" s="44"/>
-      <c r="AG30" s="26"/>
-      <c r="AH30" s="26"/>
-      <c r="AI30" s="26"/>
-      <c r="AJ30" s="47"/>
-      <c r="AK30" s="50"/>
-      <c r="AL30" s="45"/>
-      <c r="AM30" s="45"/>
-      <c r="AN30" s="45"/>
-      <c r="AO30" s="45"/>
-      <c r="AP30" s="29"/>
-      <c r="AQ30" s="29"/>
-      <c r="AR30" s="63"/>
-      <c r="AS30" s="29"/>
-      <c r="AT30" s="29"/>
-      <c r="AU30" s="26"/>
-      <c r="AV30" s="26"/>
-      <c r="AW30" s="31"/>
-    </row>
-    <row r="31" spans="1:49">
-      <c r="A31" s="27"/>
-      <c r="B31" s="27"/>
-      <c r="C31" s="27"/>
-      <c r="D31" s="27"/>
-      <c r="E31" s="27"/>
-      <c r="F31" s="27"/>
-      <c r="G31" s="27"/>
-      <c r="H31" s="27"/>
-      <c r="I31" s="27"/>
-      <c r="J31" s="27"/>
-      <c r="K31" s="27"/>
-      <c r="L31" s="27"/>
-      <c r="M31" s="27"/>
-      <c r="N31" s="27"/>
-      <c r="O31" s="27"/>
-      <c r="P31" s="27"/>
-      <c r="Q31" s="27"/>
-      <c r="R31" s="31"/>
-      <c r="S31" s="31"/>
-      <c r="T31" s="31"/>
-      <c r="U31" s="31"/>
-      <c r="V31" s="31"/>
-      <c r="W31" s="30"/>
-      <c r="X31" s="30"/>
-      <c r="Y31" s="30"/>
-      <c r="Z31" s="30"/>
-      <c r="AA31" s="31"/>
-      <c r="AB31" s="31"/>
-      <c r="AC31" s="31"/>
-      <c r="AD31" s="31"/>
-      <c r="AE31" s="27"/>
-      <c r="AF31" s="44"/>
-      <c r="AG31" s="27"/>
-      <c r="AH31" s="27"/>
-      <c r="AI31" s="27"/>
-      <c r="AJ31" s="47"/>
-      <c r="AK31" s="50"/>
-      <c r="AL31" s="45"/>
-      <c r="AM31" s="45"/>
-      <c r="AN31" s="45"/>
-      <c r="AO31" s="45"/>
-      <c r="AP31" s="30"/>
-      <c r="AQ31" s="30"/>
-      <c r="AR31" s="64"/>
-      <c r="AS31" s="30"/>
-      <c r="AT31" s="30"/>
-      <c r="AU31" s="27"/>
-      <c r="AV31" s="27"/>
-      <c r="AW31" s="31"/>
-    </row>
-    <row r="32" spans="1:49">
-      <c r="AJ32" s="47"/>
-      <c r="AK32" s="50"/>
-    </row>
-    <row r="33" spans="4:37">
+    <row r="28" spans="1:50">
+      <c r="A28" s="33"/>
+      <c r="B28" s="33"/>
+      <c r="C28" s="33"/>
+      <c r="D28" s="33"/>
+      <c r="E28" s="33"/>
+      <c r="F28" s="33"/>
+      <c r="G28" s="33"/>
+      <c r="H28" s="33"/>
+      <c r="I28" s="33"/>
+      <c r="J28" s="33"/>
+      <c r="K28" s="33"/>
+      <c r="L28" s="33"/>
+      <c r="M28" s="33"/>
+      <c r="N28" s="33"/>
+      <c r="O28" s="33"/>
+      <c r="P28" s="33"/>
+      <c r="Q28" s="33"/>
+      <c r="R28" s="33"/>
+      <c r="S28" s="36"/>
+      <c r="T28" s="36"/>
+      <c r="U28" s="36"/>
+      <c r="V28" s="36"/>
+      <c r="W28" s="36"/>
+      <c r="X28" s="38"/>
+      <c r="Y28" s="38"/>
+      <c r="Z28" s="38"/>
+      <c r="AA28" s="38"/>
+      <c r="AB28" s="36"/>
+      <c r="AC28" s="36"/>
+      <c r="AD28" s="36"/>
+      <c r="AE28" s="36"/>
+      <c r="AF28" s="33"/>
+      <c r="AG28" s="62"/>
+      <c r="AH28" s="33"/>
+      <c r="AI28" s="33"/>
+      <c r="AJ28" s="33"/>
+      <c r="AK28" s="45"/>
+      <c r="AL28" s="48"/>
+      <c r="AM28" s="43"/>
+      <c r="AN28" s="43"/>
+      <c r="AO28" s="43"/>
+      <c r="AP28" s="43"/>
+      <c r="AQ28" s="38"/>
+      <c r="AR28" s="38"/>
+      <c r="AS28" s="40"/>
+      <c r="AT28" s="38"/>
+      <c r="AU28" s="38"/>
+      <c r="AV28" s="33"/>
+      <c r="AW28" s="33"/>
+      <c r="AX28" s="36"/>
+    </row>
+    <row r="29" spans="1:50">
+      <c r="A29" s="33"/>
+      <c r="B29" s="33"/>
+      <c r="C29" s="33"/>
+      <c r="D29" s="33"/>
+      <c r="E29" s="33"/>
+      <c r="F29" s="33"/>
+      <c r="G29" s="33"/>
+      <c r="H29" s="33"/>
+      <c r="I29" s="33"/>
+      <c r="J29" s="33"/>
+      <c r="K29" s="33"/>
+      <c r="L29" s="33"/>
+      <c r="M29" s="33"/>
+      <c r="N29" s="33"/>
+      <c r="O29" s="33"/>
+      <c r="P29" s="33"/>
+      <c r="Q29" s="33"/>
+      <c r="R29" s="33"/>
+      <c r="S29" s="36"/>
+      <c r="T29" s="36"/>
+      <c r="U29" s="36"/>
+      <c r="V29" s="36"/>
+      <c r="W29" s="36"/>
+      <c r="X29" s="38"/>
+      <c r="Y29" s="38"/>
+      <c r="Z29" s="38"/>
+      <c r="AA29" s="38"/>
+      <c r="AB29" s="36"/>
+      <c r="AC29" s="36"/>
+      <c r="AD29" s="36"/>
+      <c r="AE29" s="36"/>
+      <c r="AF29" s="33"/>
+      <c r="AG29" s="62"/>
+      <c r="AH29" s="33"/>
+      <c r="AI29" s="33"/>
+      <c r="AJ29" s="33"/>
+      <c r="AK29" s="45"/>
+      <c r="AL29" s="48"/>
+      <c r="AM29" s="43"/>
+      <c r="AN29" s="43"/>
+      <c r="AO29" s="43"/>
+      <c r="AP29" s="43"/>
+      <c r="AQ29" s="38"/>
+      <c r="AR29" s="38"/>
+      <c r="AS29" s="40"/>
+      <c r="AT29" s="38"/>
+      <c r="AU29" s="38"/>
+      <c r="AV29" s="33"/>
+      <c r="AW29" s="33"/>
+      <c r="AX29" s="36"/>
+    </row>
+    <row r="30" spans="1:50">
+      <c r="A30" s="33"/>
+      <c r="B30" s="33"/>
+      <c r="C30" s="33"/>
+      <c r="D30" s="33"/>
+      <c r="E30" s="33"/>
+      <c r="F30" s="33"/>
+      <c r="G30" s="33"/>
+      <c r="H30" s="33"/>
+      <c r="I30" s="33"/>
+      <c r="J30" s="33"/>
+      <c r="K30" s="33"/>
+      <c r="L30" s="33"/>
+      <c r="M30" s="33"/>
+      <c r="N30" s="33"/>
+      <c r="O30" s="33"/>
+      <c r="P30" s="33"/>
+      <c r="Q30" s="33"/>
+      <c r="R30" s="33"/>
+      <c r="S30" s="36"/>
+      <c r="T30" s="36"/>
+      <c r="U30" s="36"/>
+      <c r="V30" s="36"/>
+      <c r="W30" s="36"/>
+      <c r="X30" s="38"/>
+      <c r="Y30" s="38"/>
+      <c r="Z30" s="38"/>
+      <c r="AA30" s="38"/>
+      <c r="AB30" s="36"/>
+      <c r="AC30" s="36"/>
+      <c r="AD30" s="36"/>
+      <c r="AE30" s="36"/>
+      <c r="AF30" s="33"/>
+      <c r="AG30" s="62"/>
+      <c r="AH30" s="33"/>
+      <c r="AI30" s="33"/>
+      <c r="AJ30" s="33"/>
+      <c r="AK30" s="45"/>
+      <c r="AL30" s="48"/>
+      <c r="AM30" s="43"/>
+      <c r="AN30" s="43"/>
+      <c r="AO30" s="43"/>
+      <c r="AP30" s="43"/>
+      <c r="AQ30" s="38"/>
+      <c r="AR30" s="38"/>
+      <c r="AS30" s="40"/>
+      <c r="AT30" s="38"/>
+      <c r="AU30" s="38"/>
+      <c r="AV30" s="33"/>
+      <c r="AW30" s="33"/>
+      <c r="AX30" s="36"/>
+    </row>
+    <row r="31" spans="1:50">
+      <c r="A31" s="34"/>
+      <c r="B31" s="34"/>
+      <c r="C31" s="34"/>
+      <c r="D31" s="34"/>
+      <c r="E31" s="34"/>
+      <c r="F31" s="34"/>
+      <c r="G31" s="34"/>
+      <c r="H31" s="34"/>
+      <c r="I31" s="34"/>
+      <c r="J31" s="34"/>
+      <c r="K31" s="34"/>
+      <c r="L31" s="34"/>
+      <c r="M31" s="34"/>
+      <c r="N31" s="34"/>
+      <c r="O31" s="34"/>
+      <c r="P31" s="34"/>
+      <c r="Q31" s="34"/>
+      <c r="R31" s="34"/>
+      <c r="S31" s="36"/>
+      <c r="T31" s="36"/>
+      <c r="U31" s="36"/>
+      <c r="V31" s="36"/>
+      <c r="W31" s="36"/>
+      <c r="X31" s="39"/>
+      <c r="Y31" s="39"/>
+      <c r="Z31" s="39"/>
+      <c r="AA31" s="39"/>
+      <c r="AB31" s="36"/>
+      <c r="AC31" s="36"/>
+      <c r="AD31" s="36"/>
+      <c r="AE31" s="36"/>
+      <c r="AF31" s="34"/>
+      <c r="AG31" s="62"/>
+      <c r="AH31" s="34"/>
+      <c r="AI31" s="34"/>
+      <c r="AJ31" s="34"/>
+      <c r="AK31" s="45"/>
+      <c r="AL31" s="48"/>
+      <c r="AM31" s="43"/>
+      <c r="AN31" s="43"/>
+      <c r="AO31" s="43"/>
+      <c r="AP31" s="43"/>
+      <c r="AQ31" s="39"/>
+      <c r="AR31" s="39"/>
+      <c r="AS31" s="41"/>
+      <c r="AT31" s="39"/>
+      <c r="AU31" s="39"/>
+      <c r="AV31" s="34"/>
+      <c r="AW31" s="34"/>
+      <c r="AX31" s="36"/>
+    </row>
+    <row r="32" spans="1:50">
+      <c r="AK32" s="45"/>
+      <c r="AL32" s="48"/>
+    </row>
+    <row r="33" spans="4:38">
       <c r="D33" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="AE33" s="20"/>
-      <c r="AJ33" s="47"/>
-      <c r="AK33" s="50"/>
-    </row>
-    <row r="34" spans="4:37" ht="258.75">
+      <c r="AF33" s="20"/>
+      <c r="AK33" s="45"/>
+      <c r="AL33" s="48"/>
+    </row>
+    <row r="34" spans="4:38" ht="258.75">
       <c r="D34" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="AE34" s="21"/>
-      <c r="AJ34" s="48"/>
-      <c r="AK34" s="51"/>
-    </row>
-    <row r="35" spans="4:37" ht="326.25">
+      <c r="AF34" s="21"/>
+      <c r="AK34" s="46"/>
+      <c r="AL34" s="49"/>
+    </row>
+    <row r="35" spans="4:38" ht="326.25">
       <c r="D35" s="9" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="36" spans="4:37" ht="112.5">
+    <row r="36" spans="4:38" ht="112.5">
       <c r="D36" s="7" t="s">
         <v>88</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="62">
-    <mergeCell ref="AG23:AI25"/>
+  <mergeCells count="63">
+    <mergeCell ref="H23:W25"/>
+    <mergeCell ref="H26:H31"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="AK23:AK25"/>
+    <mergeCell ref="AL23:AL25"/>
+    <mergeCell ref="O26:O31"/>
+    <mergeCell ref="AA26:AA31"/>
+    <mergeCell ref="AB26:AB31"/>
+    <mergeCell ref="M26:M31"/>
+    <mergeCell ref="L26:L31"/>
+    <mergeCell ref="K26:K31"/>
+    <mergeCell ref="AD26:AD31"/>
+    <mergeCell ref="AE26:AE31"/>
+    <mergeCell ref="AF26:AF31"/>
+    <mergeCell ref="T26:T31"/>
+    <mergeCell ref="X26:X31"/>
     <mergeCell ref="P26:P31"/>
-    <mergeCell ref="H23:V25"/>
-    <mergeCell ref="AW23:AW26"/>
-    <mergeCell ref="AW27:AW31"/>
-    <mergeCell ref="AL23:AO25"/>
-    <mergeCell ref="AT26:AT31"/>
-    <mergeCell ref="AU26:AU31"/>
-    <mergeCell ref="AV26:AV31"/>
-    <mergeCell ref="AR26:AR31"/>
-    <mergeCell ref="V26:V31"/>
-    <mergeCell ref="Q26:Q31"/>
-    <mergeCell ref="R26:R31"/>
-    <mergeCell ref="Y26:Y31"/>
-    <mergeCell ref="AB26:AB31"/>
-    <mergeCell ref="W23:AF25"/>
-    <mergeCell ref="T26:T31"/>
-    <mergeCell ref="U26:U31"/>
-    <mergeCell ref="AS26:AS31"/>
-    <mergeCell ref="AI26:AI31"/>
-    <mergeCell ref="AO26:AO31"/>
-    <mergeCell ref="AP26:AP31"/>
-    <mergeCell ref="AQ26:AQ31"/>
-    <mergeCell ref="AG26:AG31"/>
-    <mergeCell ref="AH26:AH31"/>
-    <mergeCell ref="AL26:AL31"/>
-    <mergeCell ref="AM26:AM31"/>
-    <mergeCell ref="AN26:AN31"/>
-    <mergeCell ref="AJ26:AJ34"/>
-    <mergeCell ref="AK26:AK34"/>
-    <mergeCell ref="AU23:AU25"/>
     <mergeCell ref="AV23:AV25"/>
+    <mergeCell ref="AW23:AW25"/>
     <mergeCell ref="A26:A31"/>
     <mergeCell ref="B26:B31"/>
     <mergeCell ref="C26:C31"/>
     <mergeCell ref="D26:D31"/>
     <mergeCell ref="E26:E31"/>
-    <mergeCell ref="AP23:AT25"/>
+    <mergeCell ref="AQ23:AU25"/>
     <mergeCell ref="F26:F31"/>
     <mergeCell ref="G26:G31"/>
-    <mergeCell ref="H26:H31"/>
     <mergeCell ref="I26:I31"/>
-    <mergeCell ref="M26:M31"/>
+    <mergeCell ref="J26:J31"/>
+    <mergeCell ref="N26:N31"/>
     <mergeCell ref="B23:G25"/>
-    <mergeCell ref="X26:X31"/>
-    <mergeCell ref="AF26:AF31"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="AJ23:AJ25"/>
-    <mergeCell ref="AK23:AK25"/>
-    <mergeCell ref="N26:N31"/>
+    <mergeCell ref="Y26:Y31"/>
+    <mergeCell ref="AG26:AG31"/>
+    <mergeCell ref="U26:U31"/>
+    <mergeCell ref="V26:V31"/>
+    <mergeCell ref="AT26:AT31"/>
+    <mergeCell ref="AJ26:AJ31"/>
+    <mergeCell ref="AP26:AP31"/>
+    <mergeCell ref="AQ26:AQ31"/>
+    <mergeCell ref="AR26:AR31"/>
+    <mergeCell ref="AH26:AH31"/>
+    <mergeCell ref="AI26:AI31"/>
+    <mergeCell ref="AM26:AM31"/>
+    <mergeCell ref="AN26:AN31"/>
+    <mergeCell ref="AO26:AO31"/>
+    <mergeCell ref="AK26:AK34"/>
+    <mergeCell ref="AL26:AL34"/>
+    <mergeCell ref="AH23:AJ25"/>
+    <mergeCell ref="Q26:Q31"/>
+    <mergeCell ref="AX23:AX26"/>
+    <mergeCell ref="AX27:AX31"/>
+    <mergeCell ref="AM23:AP25"/>
+    <mergeCell ref="AU26:AU31"/>
+    <mergeCell ref="AV26:AV31"/>
+    <mergeCell ref="AW26:AW31"/>
+    <mergeCell ref="AS26:AS31"/>
+    <mergeCell ref="W26:W31"/>
+    <mergeCell ref="R26:R31"/>
+    <mergeCell ref="S26:S31"/>
     <mergeCell ref="Z26:Z31"/>
-    <mergeCell ref="AA26:AA31"/>
-    <mergeCell ref="L26:L31"/>
-    <mergeCell ref="K26:K31"/>
-    <mergeCell ref="J26:J31"/>
     <mergeCell ref="AC26:AC31"/>
-    <mergeCell ref="AD26:AD31"/>
-    <mergeCell ref="AE26:AE31"/>
-    <mergeCell ref="S26:S31"/>
-    <mergeCell ref="W26:W31"/>
-    <mergeCell ref="O26:O31"/>
+    <mergeCell ref="X23:AG25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/Documentação/Planilhas/Conferencia_DEV.xlsx
+++ b/Documentação/Planilhas/Conferencia_DEV.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="648" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="658" uniqueCount="290">
   <si>
     <t>1</t>
   </si>
@@ -875,9 +875,6 @@
     <t>tdrecl504m50l, cislil504m00l, znslsc501m000, tdsls4100m000, tcmcs0565m000, tcemm0130m000, tccom4530m000, znslsc500s000, whina1512m000, znslsc507m000</t>
   </si>
   <si>
-    <t>Quando não tiver NR_NF, NR_SERIE_NF, CD_TIPO_NF, NR_NFR_DEVOLUCAO indica que o recebimento da devolução ainda não foi feito. Para esses casos,  foram criadas as ordens de venda de devolução mas ainda não foi feito o recebimento do produto devolvido. Sendo assim, devemos fazer a validação a partir do NR_ENTREGA_NF</t>
-  </si>
-  <si>
     <t>Sessão tdrecl504m50l (Recebimento Fiscal - Sumário)</t>
   </si>
   <si>
@@ -912,6 +909,39 @@
   </si>
   <si>
     <t>Na tela principal, pegar a informação da coluna Referência Fiscal</t>
+  </si>
+  <si>
+    <t>CD_MOTIVO_CATEGORIA</t>
+  </si>
+  <si>
+    <t>CD_MOTIVO_ASSUNTO</t>
+  </si>
+  <si>
+    <t>CD_MOTIVO_ETIQUETA</t>
+  </si>
+  <si>
+    <t>Quando não tiver NR_NF, NR_SERIE_NF, CD_TIPO_NF, NR_NFR_DEVOLUCAO indica que o recebimento da devolução ainda não foi feito. Para esses casos,  foram criadas as ordens de venda de devolução mas ainda não foi feito o recebimento do produto devolvido. Sendo assim, devemos fazer a validação a partir do NR_ENTREGA_ORIGINAL</t>
+  </si>
+  <si>
+    <t>NR_ORDEM_VENDA_DEVOLUCAO</t>
+  </si>
+  <si>
+    <t>CD_STATUS_ORDEM_VDA_DEV</t>
+  </si>
+  <si>
+    <t>tdsls4100m000</t>
+  </si>
+  <si>
+    <t>Pegar a informação da coluna Ordem</t>
+  </si>
+  <si>
+    <t>Pegar a informação da coluna Status da Ordem</t>
+  </si>
+  <si>
+    <t>DT_ORDEM_VENDA_DEVOLUCAO</t>
+  </si>
+  <si>
+    <t>Pegar a informação da coluna Data da Ordem</t>
   </si>
 </sst>
 </file>
@@ -1178,7 +1208,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1240,6 +1270,129 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1267,126 +1420,12 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1695,10 +1734,10 @@
   <sheetPr>
     <tabColor rgb="FFFA7E7E"/>
   </sheetPr>
-  <dimension ref="A2:AX36"/>
+  <dimension ref="A2:BD36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H32" sqref="H32"/>
+    <sheetView tabSelected="1" topLeftCell="AI4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AM8" sqref="AM8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
@@ -1731,69 +1770,73 @@
     <col min="27" max="27" width="16" style="2" customWidth="1"/>
     <col min="28" max="28" width="17.28515625" style="2" customWidth="1"/>
     <col min="29" max="29" width="16.5703125" style="16" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="21.85546875" style="2" customWidth="1"/>
-    <col min="31" max="31" width="21" style="2" customWidth="1"/>
-    <col min="32" max="32" width="20.42578125" style="2" customWidth="1"/>
-    <col min="33" max="33" width="35.28515625" style="2" customWidth="1"/>
-    <col min="34" max="34" width="42" style="2" customWidth="1"/>
-    <col min="35" max="35" width="35.140625" style="2" customWidth="1"/>
-    <col min="36" max="36" width="37.28515625" style="10" customWidth="1"/>
-    <col min="37" max="37" width="25" style="2" customWidth="1"/>
-    <col min="38" max="38" width="25.140625" style="2" customWidth="1"/>
-    <col min="39" max="39" width="24.5703125" style="2" customWidth="1"/>
-    <col min="40" max="40" width="23.5703125" style="2" customWidth="1"/>
-    <col min="41" max="41" width="28.5703125" style="2" customWidth="1"/>
-    <col min="42" max="42" width="26" style="2" customWidth="1"/>
-    <col min="43" max="43" width="23.85546875" style="2" customWidth="1"/>
-    <col min="44" max="44" width="24" style="2" customWidth="1"/>
-    <col min="45" max="45" width="36" style="1" customWidth="1"/>
-    <col min="46" max="46" width="39.140625" style="2" customWidth="1"/>
-    <col min="47" max="47" width="40.42578125" style="2" customWidth="1"/>
-    <col min="48" max="49" width="31.42578125" style="2" customWidth="1"/>
-    <col min="50" max="50" width="100.42578125" style="2" customWidth="1"/>
-    <col min="51" max="16384" width="9.140625" style="16"/>
+    <col min="30" max="30" width="17.7109375" style="16" bestFit="1" customWidth="1"/>
+    <col min="31" max="32" width="21.85546875" style="2" customWidth="1"/>
+    <col min="33" max="34" width="21" style="2" customWidth="1"/>
+    <col min="35" max="35" width="20.42578125" style="2" customWidth="1"/>
+    <col min="36" max="36" width="35.28515625" style="2" customWidth="1"/>
+    <col min="37" max="37" width="23" style="2" customWidth="1"/>
+    <col min="38" max="38" width="24.85546875" style="2" customWidth="1"/>
+    <col min="39" max="39" width="26.140625" style="2" customWidth="1"/>
+    <col min="40" max="40" width="42" style="2" customWidth="1"/>
+    <col min="41" max="41" width="35.140625" style="2" customWidth="1"/>
+    <col min="42" max="42" width="37.28515625" style="10" customWidth="1"/>
+    <col min="43" max="43" width="25" style="2" customWidth="1"/>
+    <col min="44" max="44" width="25.140625" style="2" customWidth="1"/>
+    <col min="45" max="45" width="24.5703125" style="2" customWidth="1"/>
+    <col min="46" max="46" width="23.5703125" style="2" customWidth="1"/>
+    <col min="47" max="47" width="28.5703125" style="2" customWidth="1"/>
+    <col min="48" max="48" width="26" style="2" customWidth="1"/>
+    <col min="49" max="49" width="23.85546875" style="2" customWidth="1"/>
+    <col min="50" max="50" width="24" style="2" customWidth="1"/>
+    <col min="51" max="51" width="36" style="1" customWidth="1"/>
+    <col min="52" max="52" width="39.140625" style="2" customWidth="1"/>
+    <col min="53" max="53" width="40.42578125" style="2" customWidth="1"/>
+    <col min="54" max="55" width="31.42578125" style="2" customWidth="1"/>
+    <col min="56" max="56" width="100.42578125" style="2" customWidth="1"/>
+    <col min="57" max="16384" width="9.140625" style="16"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:50" ht="21">
-      <c r="A2" s="63" t="s">
+    <row r="2" spans="1:56" ht="21">
+      <c r="A2" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="63"/>
+      <c r="B2" s="38"/>
       <c r="C2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="AS2" s="2"/>
-    </row>
-    <row r="3" spans="1:50" ht="21">
-      <c r="A3" s="63" t="s">
+      <c r="AY2" s="2"/>
+    </row>
+    <row r="3" spans="1:56" ht="21">
+      <c r="A3" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="63"/>
+      <c r="B3" s="38"/>
       <c r="C3" s="3" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="4" spans="1:50" ht="21">
+    <row r="4" spans="1:56" ht="21">
       <c r="A4" s="13"/>
       <c r="B4" s="13"/>
       <c r="C4" s="3"/>
     </row>
-    <row r="5" spans="1:50" ht="21">
+    <row r="5" spans="1:56" ht="21">
       <c r="A5" s="13"/>
       <c r="B5" s="22" t="s">
-        <v>267</v>
+        <v>282</v>
       </c>
       <c r="C5" s="3"/>
     </row>
-    <row r="7" spans="1:50">
+    <row r="7" spans="1:56">
       <c r="M7" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="AX7" s="2" t="s">
+      <c r="BD7" s="2" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="8" spans="1:50">
+    <row r="8" spans="1:56">
       <c r="A8" s="4" t="s">
         <v>4</v>
       </c>
@@ -1816,7 +1859,7 @@
         <v>21</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="I8" s="4" t="s">
         <v>23</v>
@@ -1882,70 +1925,88 @@
         <v>247</v>
       </c>
       <c r="AD8" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="AE8" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="AE8" s="4" t="s">
+      <c r="AF8" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="AG8" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="AF8" s="4" t="s">
+      <c r="AH8" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="AI8" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="AG8" s="4" t="s">
+      <c r="AJ8" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="AH8" s="11" t="s">
+      <c r="AK8" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="AL8" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="AM8" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="AN8" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="AI8" s="4" t="s">
+      <c r="AO8" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="AJ8" s="4" t="s">
+      <c r="AP8" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="AK8" s="4" t="s">
+      <c r="AQ8" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="AL8" s="4" t="s">
+      <c r="AR8" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="AM8" s="4" t="s">
+      <c r="AS8" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="AN8" s="4" t="s">
+      <c r="AT8" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="AO8" s="4" t="s">
+      <c r="AU8" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="AP8" s="4" t="s">
+      <c r="AV8" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="AQ8" s="4" t="s">
+      <c r="AW8" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="AR8" s="4" t="s">
+      <c r="AX8" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AS8" s="4" t="s">
+      <c r="AY8" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="AT8" s="4" t="s">
+      <c r="AZ8" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="AU8" s="4" t="s">
+      <c r="BA8" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="AV8" s="4" t="s">
+      <c r="BB8" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="AW8" s="4" t="s">
+      <c r="BC8" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="AX8" s="4" t="s">
+      <c r="BD8" s="4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:50">
+    <row r="9" spans="1:56">
       <c r="A9" s="17" t="s">
         <v>2</v>
       </c>
@@ -2031,71 +2092,77 @@
       <c r="AC9" s="17" t="s">
         <v>250</v>
       </c>
-      <c r="AD9" s="17" t="s">
-        <v>79</v>
-      </c>
+      <c r="AD9" s="17"/>
       <c r="AE9" s="17" t="s">
         <v>79</v>
       </c>
-      <c r="AF9" s="17" t="s">
+      <c r="AF9" s="17"/>
+      <c r="AG9" s="17" t="s">
         <v>79</v>
       </c>
-      <c r="AG9" s="17" t="s">
+      <c r="AH9" s="17"/>
+      <c r="AI9" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="AJ9" s="17" t="s">
         <v>98</v>
       </c>
-      <c r="AH9" s="18">
+      <c r="AK9" s="17"/>
+      <c r="AL9" s="17"/>
+      <c r="AM9" s="17"/>
+      <c r="AN9" s="18">
         <v>1130</v>
       </c>
-      <c r="AI9" s="19" t="s">
+      <c r="AO9" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="AJ9" s="17" t="s">
+      <c r="AP9" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="AK9" s="17" t="s">
+      <c r="AQ9" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="AL9" s="17" t="s">
+      <c r="AR9" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="AM9" s="17" t="s">
+      <c r="AS9" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="AN9" s="17" t="s">
+      <c r="AT9" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="AO9" s="17" t="s">
+      <c r="AU9" s="17" t="s">
         <v>77</v>
       </c>
-      <c r="AP9" s="17" t="s">
+      <c r="AV9" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="AQ9" s="17" t="s">
+      <c r="AW9" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="AR9" s="17" t="s">
+      <c r="AX9" s="17" t="s">
         <v>99</v>
       </c>
-      <c r="AS9" s="17" t="s">
+      <c r="AY9" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="AT9" s="19" t="s">
+      <c r="AZ9" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="AU9" s="19" t="s">
+      <c r="BA9" s="19" t="s">
         <v>193</v>
       </c>
-      <c r="AV9" s="14" t="s">
+      <c r="BB9" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="AW9" s="17" t="s">
+      <c r="BC9" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="AX9" s="17" t="s">
+      <c r="BD9" s="17" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="10" spans="1:50">
+    <row r="10" spans="1:56">
       <c r="A10" s="2" t="s">
         <v>2</v>
       </c>
@@ -2180,71 +2247,72 @@
       <c r="AC10" s="14" t="s">
         <v>253</v>
       </c>
-      <c r="AD10" s="2" t="s">
-        <v>118</v>
-      </c>
+      <c r="AD10" s="14"/>
       <c r="AE10" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="AF10" s="2" t="s">
+      <c r="AG10" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="AG10" s="2" t="s">
+      <c r="AI10" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="AJ10" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="AH10" s="10">
+      <c r="AN10" s="10">
         <v>55</v>
       </c>
-      <c r="AI10" s="2" t="s">
+      <c r="AO10" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="AJ10" s="2" t="s">
+      <c r="AP10" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="AK10" s="2" t="s">
+      <c r="AQ10" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="AL10" s="2" t="s">
+      <c r="AR10" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="AM10" s="2" t="s">
+      <c r="AS10" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="AN10" s="2" t="s">
+      <c r="AT10" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="AO10" s="2" t="s">
+      <c r="AU10" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="AP10" s="2" t="s">
+      <c r="AV10" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="AQ10" s="2" t="s">
+      <c r="AW10" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="AR10" s="2" t="s">
+      <c r="AX10" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="AS10" s="2" t="s">
+      <c r="AY10" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="AT10" s="2" t="s">
+      <c r="AZ10" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="AU10" s="2" t="s">
+      <c r="BA10" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="AV10" s="2" t="s">
+      <c r="BB10" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="AW10" s="2" t="s">
+      <c r="BC10" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="AX10" s="14" t="s">
+      <c r="BD10" s="14" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="11" spans="1:50">
+    <row r="11" spans="1:56">
       <c r="A11" s="2" t="s">
         <v>2</v>
       </c>
@@ -2329,71 +2397,72 @@
       <c r="AC11" s="14" t="s">
         <v>255</v>
       </c>
-      <c r="AD11" s="2" t="s">
-        <v>79</v>
-      </c>
+      <c r="AD11" s="14"/>
       <c r="AE11" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="AF11" s="2" t="s">
+      <c r="AG11" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="AG11" s="2" t="s">
+      <c r="AI11" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AJ11" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="AH11" s="10">
+      <c r="AN11" s="10">
         <v>0</v>
       </c>
-      <c r="AI11" s="2" t="s">
+      <c r="AO11" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="AJ11" s="2" t="s">
+      <c r="AP11" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="AK11" s="2" t="s">
+      <c r="AQ11" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="AL11" s="2" t="s">
+      <c r="AR11" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="AM11" s="2" t="s">
+      <c r="AS11" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="AN11" s="2" t="s">
+      <c r="AT11" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="AO11" s="2" t="s">
+      <c r="AU11" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="AP11" s="2" t="s">
+      <c r="AV11" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="AQ11" s="2" t="s">
+      <c r="AW11" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="AR11" s="2" t="s">
+      <c r="AX11" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="AS11" s="2" t="s">
+      <c r="AY11" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="AT11" s="2" t="s">
+      <c r="AZ11" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="AU11" s="2" t="s">
+      <c r="BA11" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="AV11" s="2" t="s">
+      <c r="BB11" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="AW11" s="2" t="s">
+      <c r="BC11" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="AX11" s="14" t="s">
+      <c r="BD11" s="14" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="12" spans="1:50">
+    <row r="12" spans="1:56">
       <c r="A12" s="2" t="s">
         <v>2</v>
       </c>
@@ -2478,71 +2547,72 @@
       <c r="AC12" s="14" t="s">
         <v>257</v>
       </c>
-      <c r="AD12" s="2" t="s">
+      <c r="AD12" s="14"/>
+      <c r="AE12" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="AE12" s="2" t="s">
+      <c r="AG12" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="AF12" s="2" t="s">
+      <c r="AI12" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="AG12" s="2" t="s">
+      <c r="AJ12" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="AH12" s="10">
+      <c r="AN12" s="10">
         <v>0</v>
       </c>
-      <c r="AI12" s="2" t="s">
+      <c r="AO12" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="AJ12" s="2" t="s">
+      <c r="AP12" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="AK12" s="2" t="s">
+      <c r="AQ12" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="AL12" s="2" t="s">
+      <c r="AR12" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="AM12" s="2" t="s">
+      <c r="AS12" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="AN12" s="2" t="s">
+      <c r="AT12" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="AO12" s="2" t="s">
+      <c r="AU12" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="AP12" s="2" t="s">
+      <c r="AV12" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="AQ12" s="2" t="s">
+      <c r="AW12" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="AR12" s="2" t="s">
+      <c r="AX12" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="AS12" s="2" t="s">
+      <c r="AY12" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="AT12" s="2" t="s">
+      <c r="AZ12" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="AU12" s="2" t="s">
+      <c r="BA12" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="AV12" s="2" t="s">
+      <c r="BB12" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="AW12" s="2" t="s">
+      <c r="BC12" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="AX12" s="14" t="s">
+      <c r="BD12" s="14" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="13" spans="1:50">
+    <row r="13" spans="1:56">
       <c r="A13" s="2" t="s">
         <v>2</v>
       </c>
@@ -2627,71 +2697,72 @@
       <c r="AC13" s="14" t="s">
         <v>259</v>
       </c>
-      <c r="AD13" s="2" t="s">
-        <v>118</v>
-      </c>
+      <c r="AD13" s="14"/>
       <c r="AE13" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="AF13" s="2" t="s">
+      <c r="AG13" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="AG13" s="2" t="s">
+      <c r="AI13" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="AJ13" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="AH13" s="10">
+      <c r="AN13" s="10">
         <v>0</v>
       </c>
-      <c r="AI13" s="2" t="s">
+      <c r="AO13" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="AJ13" s="2" t="s">
+      <c r="AP13" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="AK13" s="2" t="s">
+      <c r="AQ13" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="AL13" s="2" t="s">
+      <c r="AR13" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="AM13" s="2" t="s">
+      <c r="AS13" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="AN13" s="2" t="s">
+      <c r="AT13" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="AO13" s="2" t="s">
+      <c r="AU13" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="AP13" s="2" t="s">
+      <c r="AV13" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="AQ13" s="2" t="s">
+      <c r="AW13" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="AR13" s="2" t="s">
+      <c r="AX13" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="AS13" s="2" t="s">
+      <c r="AY13" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="AT13" s="2" t="s">
+      <c r="AZ13" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="AU13" s="2" t="s">
+      <c r="BA13" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="AV13" s="2" t="s">
+      <c r="BB13" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="AW13" s="2" t="s">
+      <c r="BC13" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="AX13" s="14" t="s">
+      <c r="BD13" s="14" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="14" spans="1:50">
+    <row r="14" spans="1:56">
       <c r="A14" s="2" t="s">
         <v>2</v>
       </c>
@@ -2776,71 +2847,72 @@
       <c r="AC14" s="14" t="s">
         <v>250</v>
       </c>
-      <c r="AD14" s="2" t="s">
-        <v>79</v>
-      </c>
+      <c r="AD14" s="14"/>
       <c r="AE14" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="AF14" s="2" t="s">
+      <c r="AG14" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="AG14" s="2" t="s">
+      <c r="AI14" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AJ14" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="AH14" s="10">
+      <c r="AN14" s="10">
         <v>972</v>
       </c>
-      <c r="AI14" s="2" t="s">
+      <c r="AO14" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="AJ14" s="2" t="s">
+      <c r="AP14" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="AK14" s="2" t="s">
+      <c r="AQ14" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="AL14" s="2" t="s">
+      <c r="AR14" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="AM14" s="2" t="s">
+      <c r="AS14" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="AN14" s="2" t="s">
+      <c r="AT14" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="AO14" s="2" t="s">
+      <c r="AU14" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="AP14" s="2" t="s">
+      <c r="AV14" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="AQ14" s="2" t="s">
+      <c r="AW14" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="AR14" s="2" t="s">
+      <c r="AX14" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="AS14" s="2" t="s">
+      <c r="AY14" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="AT14" s="2" t="s">
+      <c r="AZ14" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="AU14" s="2" t="s">
+      <c r="BA14" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="AV14" s="2" t="s">
+      <c r="BB14" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="AW14" s="2" t="s">
+      <c r="BC14" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="AX14" s="14" t="s">
+      <c r="BD14" s="14" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="15" spans="1:50">
+    <row r="15" spans="1:56">
       <c r="A15" s="14" t="s">
         <v>2</v>
       </c>
@@ -2926,71 +2998,77 @@
       <c r="AC15" s="14" t="s">
         <v>250</v>
       </c>
-      <c r="AD15" s="14" t="s">
-        <v>79</v>
-      </c>
+      <c r="AD15" s="14"/>
       <c r="AE15" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="AF15" s="14" t="s">
+      <c r="AF15" s="14"/>
+      <c r="AG15" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="AG15" s="14" t="s">
+      <c r="AH15" s="14"/>
+      <c r="AI15" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="AJ15" s="14" t="s">
         <v>134</v>
       </c>
-      <c r="AH15" s="15">
+      <c r="AK15" s="14"/>
+      <c r="AL15" s="14"/>
+      <c r="AM15" s="14"/>
+      <c r="AN15" s="15">
         <v>0</v>
       </c>
-      <c r="AI15" s="14" t="s">
+      <c r="AO15" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="AJ15" s="14" t="s">
+      <c r="AP15" s="14" t="s">
         <v>136</v>
       </c>
-      <c r="AK15" s="14" t="s">
+      <c r="AQ15" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="AL15" s="14" t="s">
+      <c r="AR15" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="AM15" s="14" t="s">
+      <c r="AS15" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="AN15" s="14" t="s">
+      <c r="AT15" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="AO15" s="14" t="s">
+      <c r="AU15" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="AP15" s="14" t="s">
+      <c r="AV15" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="AQ15" s="14" t="s">
+      <c r="AW15" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="AR15" s="14" t="s">
+      <c r="AX15" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="AS15" s="14" t="s">
+      <c r="AY15" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="AT15" s="14" t="s">
+      <c r="AZ15" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="AU15" s="14" t="s">
+      <c r="BA15" s="14" t="s">
         <v>231</v>
       </c>
-      <c r="AV15" s="14" t="s">
+      <c r="BB15" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="AW15" s="14" t="s">
+      <c r="BC15" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="AX15" s="14" t="s">
+      <c r="BD15" s="14" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="16" spans="1:50">
+    <row r="16" spans="1:56">
       <c r="A16" s="2" t="s">
         <v>2</v>
       </c>
@@ -3075,71 +3153,72 @@
       <c r="AC16" s="14" t="s">
         <v>261</v>
       </c>
-      <c r="AD16" s="2" t="s">
-        <v>147</v>
-      </c>
+      <c r="AD16" s="14"/>
       <c r="AE16" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="AF16" s="2" t="s">
+      <c r="AG16" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="AG16" s="2" t="s">
+      <c r="AI16" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="AJ16" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="AH16" s="10">
+      <c r="AN16" s="10">
         <v>1129</v>
       </c>
-      <c r="AI16" s="2" t="s">
+      <c r="AO16" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="AJ16" s="2" t="s">
+      <c r="AP16" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="AK16" s="2" t="s">
+      <c r="AQ16" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="AL16" s="2" t="s">
+      <c r="AR16" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="AM16" s="2" t="s">
+      <c r="AS16" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="AN16" s="2" t="s">
+      <c r="AT16" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="AO16" s="2" t="s">
+      <c r="AU16" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="AP16" s="2" t="s">
+      <c r="AV16" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="AQ16" s="2" t="s">
+      <c r="AW16" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="AR16" s="2" t="s">
+      <c r="AX16" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="AS16" s="2" t="s">
+      <c r="AY16" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="AT16" s="2" t="s">
+      <c r="AZ16" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="AU16" s="2" t="s">
+      <c r="BA16" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="AV16" s="2" t="s">
+      <c r="BB16" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="AW16" s="2" t="s">
+      <c r="BC16" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="AX16" s="14" t="s">
+      <c r="BD16" s="14" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="17" spans="1:50">
+    <row r="17" spans="1:56">
       <c r="A17" s="2" t="s">
         <v>2</v>
       </c>
@@ -3224,71 +3303,72 @@
       <c r="AC17" s="14" t="s">
         <v>250</v>
       </c>
-      <c r="AD17" s="2" t="s">
-        <v>79</v>
-      </c>
+      <c r="AD17" s="14"/>
       <c r="AE17" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="AF17" s="2" t="s">
+      <c r="AG17" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="AG17" s="2" t="s">
+      <c r="AI17" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AJ17" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="AH17" s="10">
+      <c r="AN17" s="10">
         <v>0</v>
       </c>
-      <c r="AI17" s="2" t="s">
+      <c r="AO17" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="AJ17" s="2" t="s">
+      <c r="AP17" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="AK17" s="2" t="s">
+      <c r="AQ17" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="AL17" s="2" t="s">
+      <c r="AR17" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="AM17" s="2" t="s">
+      <c r="AS17" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="AN17" s="2" t="s">
+      <c r="AT17" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="AO17" s="2" t="s">
+      <c r="AU17" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="AP17" s="2" t="s">
+      <c r="AV17" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="AQ17" s="2" t="s">
+      <c r="AW17" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="AR17" s="2" t="s">
+      <c r="AX17" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="AS17" s="2" t="s">
+      <c r="AY17" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="AT17" s="2" t="s">
+      <c r="AZ17" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="AU17" s="2" t="s">
+      <c r="BA17" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="AV17" s="2" t="s">
+      <c r="BB17" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="AW17" s="2" t="s">
+      <c r="BC17" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="AX17" s="14" t="s">
+      <c r="BD17" s="14" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="18" spans="1:50">
+    <row r="18" spans="1:56">
       <c r="A18" s="2" t="s">
         <v>2</v>
       </c>
@@ -3373,725 +3453,792 @@
       <c r="AC18" s="14" t="s">
         <v>250</v>
       </c>
-      <c r="AD18" s="2" t="s">
-        <v>79</v>
-      </c>
+      <c r="AD18" s="14"/>
       <c r="AE18" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="AF18" s="2" t="s">
+      <c r="AG18" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="AG18" s="2" t="s">
+      <c r="AI18" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AJ18" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="AH18" s="10">
+      <c r="AN18" s="10">
         <v>0</v>
       </c>
-      <c r="AI18" s="2" t="s">
+      <c r="AO18" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="AJ18" s="2" t="s">
+      <c r="AP18" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="AK18" s="2" t="s">
+      <c r="AQ18" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="AL18" s="2" t="s">
+      <c r="AR18" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="AM18" s="2" t="s">
+      <c r="AS18" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="AN18" s="2" t="s">
+      <c r="AT18" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="AO18" s="2" t="s">
+      <c r="AU18" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="AP18" s="2" t="s">
+      <c r="AV18" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="AQ18" s="2" t="s">
+      <c r="AW18" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="AR18" s="2" t="s">
+      <c r="AX18" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="AS18" s="2" t="s">
+      <c r="AY18" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="AT18" s="2" t="s">
+      <c r="AZ18" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="AU18" s="2" t="s">
+      <c r="BA18" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="AV18" s="2" t="s">
+      <c r="BB18" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="AW18" s="2" t="s">
+      <c r="BC18" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="AX18" s="14" t="s">
+      <c r="BD18" s="14" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="20" spans="1:50">
-      <c r="AM20" s="12"/>
-    </row>
-    <row r="21" spans="1:50">
+    <row r="20" spans="1:56">
+      <c r="AS20" s="12"/>
+    </row>
+    <row r="21" spans="1:56">
       <c r="I21" s="12"/>
       <c r="X21" s="12"/>
     </row>
-    <row r="23" spans="1:50" ht="11.25" customHeight="1">
+    <row r="23" spans="1:56" ht="11.25" customHeight="1">
       <c r="A23" s="1"/>
-      <c r="B23" s="53" t="s">
+      <c r="B23" s="47" t="s">
+        <v>267</v>
+      </c>
+      <c r="C23" s="48"/>
+      <c r="D23" s="48"/>
+      <c r="E23" s="48"/>
+      <c r="F23" s="48"/>
+      <c r="G23" s="49"/>
+      <c r="H23" s="26" t="s">
         <v>268</v>
       </c>
-      <c r="C23" s="54"/>
-      <c r="D23" s="54"/>
-      <c r="E23" s="54"/>
-      <c r="F23" s="54"/>
-      <c r="G23" s="55"/>
-      <c r="H23" s="65" t="s">
+      <c r="I23" s="27"/>
+      <c r="J23" s="27"/>
+      <c r="K23" s="27"/>
+      <c r="L23" s="27"/>
+      <c r="M23" s="27"/>
+      <c r="N23" s="27"/>
+      <c r="O23" s="27"/>
+      <c r="P23" s="27"/>
+      <c r="Q23" s="27"/>
+      <c r="R23" s="27"/>
+      <c r="S23" s="27"/>
+      <c r="T23" s="27"/>
+      <c r="U23" s="27"/>
+      <c r="V23" s="27"/>
+      <c r="W23" s="28"/>
+      <c r="X23" s="76" t="s">
         <v>269</v>
       </c>
-      <c r="I23" s="66"/>
-      <c r="J23" s="66"/>
-      <c r="K23" s="66"/>
-      <c r="L23" s="66"/>
-      <c r="M23" s="66"/>
-      <c r="N23" s="66"/>
-      <c r="O23" s="66"/>
-      <c r="P23" s="66"/>
-      <c r="Q23" s="66"/>
-      <c r="R23" s="66"/>
-      <c r="S23" s="66"/>
-      <c r="T23" s="66"/>
-      <c r="U23" s="66"/>
-      <c r="V23" s="66"/>
-      <c r="W23" s="67"/>
-      <c r="X23" s="42" t="s">
+      <c r="Y23" s="76"/>
+      <c r="Z23" s="76"/>
+      <c r="AA23" s="76"/>
+      <c r="AB23" s="76"/>
+      <c r="AC23" s="76"/>
+      <c r="AD23" s="76"/>
+      <c r="AE23" s="76"/>
+      <c r="AF23" s="76"/>
+      <c r="AG23" s="76"/>
+      <c r="AH23" s="76"/>
+      <c r="AI23" s="76"/>
+      <c r="AJ23" s="76"/>
+      <c r="AK23" s="64" t="s">
         <v>270</v>
       </c>
-      <c r="Y23" s="42"/>
-      <c r="Z23" s="42"/>
-      <c r="AA23" s="42"/>
-      <c r="AB23" s="42"/>
-      <c r="AC23" s="42"/>
-      <c r="AD23" s="42"/>
-      <c r="AE23" s="42"/>
-      <c r="AF23" s="42"/>
-      <c r="AG23" s="42"/>
-      <c r="AH23" s="23" t="s">
+      <c r="AL23" s="65"/>
+      <c r="AM23" s="65"/>
+      <c r="AN23" s="65"/>
+      <c r="AO23" s="65"/>
+      <c r="AP23" s="66"/>
+      <c r="AQ23" s="39" t="s">
         <v>271</v>
       </c>
-      <c r="AI23" s="24"/>
-      <c r="AJ23" s="25"/>
-      <c r="AK23" s="64" t="s">
+      <c r="AR23" s="39" t="s">
         <v>272</v>
       </c>
-      <c r="AL23" s="64" t="s">
+      <c r="AS23" s="64" t="s">
         <v>273</v>
       </c>
-      <c r="AM23" s="23" t="s">
+      <c r="AT23" s="65"/>
+      <c r="AU23" s="65"/>
+      <c r="AV23" s="66"/>
+      <c r="AW23" s="47" t="s">
         <v>274</v>
       </c>
-      <c r="AN23" s="24"/>
-      <c r="AO23" s="24"/>
-      <c r="AP23" s="25"/>
-      <c r="AQ23" s="53" t="s">
+      <c r="AX23" s="48"/>
+      <c r="AY23" s="48"/>
+      <c r="AZ23" s="48"/>
+      <c r="BA23" s="49"/>
+      <c r="BB23" s="44" t="s">
         <v>275</v>
       </c>
-      <c r="AR23" s="54"/>
-      <c r="AS23" s="54"/>
-      <c r="AT23" s="54"/>
-      <c r="AU23" s="55"/>
-      <c r="AV23" s="50" t="s">
+      <c r="BC23" s="44" t="s">
         <v>276</v>
       </c>
-      <c r="AW23" s="50" t="s">
-        <v>277</v>
-      </c>
-      <c r="AX23" s="35" t="s">
+      <c r="BD23" s="73" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="24" spans="1:50" ht="11.25" customHeight="1">
+    <row r="24" spans="1:56" ht="11.25" customHeight="1">
       <c r="A24" s="1"/>
-      <c r="B24" s="56"/>
-      <c r="C24" s="57"/>
-      <c r="D24" s="57"/>
-      <c r="E24" s="57"/>
-      <c r="F24" s="57"/>
-      <c r="G24" s="58"/>
-      <c r="H24" s="68"/>
-      <c r="I24" s="69"/>
-      <c r="J24" s="69"/>
-      <c r="K24" s="69"/>
-      <c r="L24" s="69"/>
-      <c r="M24" s="69"/>
-      <c r="N24" s="69"/>
-      <c r="O24" s="69"/>
-      <c r="P24" s="69"/>
-      <c r="Q24" s="69"/>
-      <c r="R24" s="69"/>
-      <c r="S24" s="69"/>
-      <c r="T24" s="69"/>
-      <c r="U24" s="69"/>
-      <c r="V24" s="69"/>
-      <c r="W24" s="70"/>
-      <c r="X24" s="42"/>
-      <c r="Y24" s="42"/>
-      <c r="Z24" s="42"/>
-      <c r="AA24" s="42"/>
-      <c r="AB24" s="42"/>
-      <c r="AC24" s="42"/>
-      <c r="AD24" s="42"/>
-      <c r="AE24" s="42"/>
-      <c r="AF24" s="42"/>
-      <c r="AG24" s="42"/>
-      <c r="AH24" s="26"/>
-      <c r="AI24" s="27"/>
-      <c r="AJ24" s="28"/>
-      <c r="AK24" s="64"/>
-      <c r="AL24" s="64"/>
-      <c r="AM24" s="26"/>
-      <c r="AN24" s="27"/>
-      <c r="AO24" s="27"/>
-      <c r="AP24" s="28"/>
-      <c r="AQ24" s="56"/>
-      <c r="AR24" s="57"/>
-      <c r="AS24" s="57"/>
-      <c r="AT24" s="57"/>
-      <c r="AU24" s="58"/>
-      <c r="AV24" s="51"/>
-      <c r="AW24" s="51"/>
-      <c r="AX24" s="35"/>
-    </row>
-    <row r="25" spans="1:50" ht="18" customHeight="1">
+      <c r="B24" s="50"/>
+      <c r="C24" s="51"/>
+      <c r="D24" s="51"/>
+      <c r="E24" s="51"/>
+      <c r="F24" s="51"/>
+      <c r="G24" s="52"/>
+      <c r="H24" s="29"/>
+      <c r="I24" s="30"/>
+      <c r="J24" s="30"/>
+      <c r="K24" s="30"/>
+      <c r="L24" s="30"/>
+      <c r="M24" s="30"/>
+      <c r="N24" s="30"/>
+      <c r="O24" s="30"/>
+      <c r="P24" s="30"/>
+      <c r="Q24" s="30"/>
+      <c r="R24" s="30"/>
+      <c r="S24" s="30"/>
+      <c r="T24" s="30"/>
+      <c r="U24" s="30"/>
+      <c r="V24" s="30"/>
+      <c r="W24" s="31"/>
+      <c r="X24" s="76"/>
+      <c r="Y24" s="76"/>
+      <c r="Z24" s="76"/>
+      <c r="AA24" s="76"/>
+      <c r="AB24" s="76"/>
+      <c r="AC24" s="76"/>
+      <c r="AD24" s="76"/>
+      <c r="AE24" s="76"/>
+      <c r="AF24" s="76"/>
+      <c r="AG24" s="76"/>
+      <c r="AH24" s="76"/>
+      <c r="AI24" s="76"/>
+      <c r="AJ24" s="76"/>
+      <c r="AK24" s="67"/>
+      <c r="AL24" s="68"/>
+      <c r="AM24" s="68"/>
+      <c r="AN24" s="68"/>
+      <c r="AO24" s="68"/>
+      <c r="AP24" s="69"/>
+      <c r="AQ24" s="39"/>
+      <c r="AR24" s="39"/>
+      <c r="AS24" s="67"/>
+      <c r="AT24" s="68"/>
+      <c r="AU24" s="68"/>
+      <c r="AV24" s="69"/>
+      <c r="AW24" s="50"/>
+      <c r="AX24" s="51"/>
+      <c r="AY24" s="51"/>
+      <c r="AZ24" s="51"/>
+      <c r="BA24" s="52"/>
+      <c r="BB24" s="45"/>
+      <c r="BC24" s="45"/>
+      <c r="BD24" s="73"/>
+    </row>
+    <row r="25" spans="1:56" ht="18" customHeight="1">
       <c r="A25" s="1"/>
-      <c r="B25" s="59"/>
-      <c r="C25" s="60"/>
-      <c r="D25" s="60"/>
-      <c r="E25" s="60"/>
-      <c r="F25" s="60"/>
-      <c r="G25" s="61"/>
-      <c r="H25" s="71"/>
-      <c r="I25" s="72"/>
-      <c r="J25" s="72"/>
-      <c r="K25" s="72"/>
-      <c r="L25" s="72"/>
-      <c r="M25" s="72"/>
-      <c r="N25" s="72"/>
-      <c r="O25" s="72"/>
-      <c r="P25" s="72"/>
-      <c r="Q25" s="72"/>
-      <c r="R25" s="72"/>
-      <c r="S25" s="72"/>
-      <c r="T25" s="72"/>
-      <c r="U25" s="72"/>
-      <c r="V25" s="72"/>
-      <c r="W25" s="73"/>
-      <c r="X25" s="42"/>
-      <c r="Y25" s="42"/>
-      <c r="Z25" s="42"/>
-      <c r="AA25" s="42"/>
-      <c r="AB25" s="42"/>
-      <c r="AC25" s="42"/>
-      <c r="AD25" s="42"/>
-      <c r="AE25" s="42"/>
-      <c r="AF25" s="42"/>
-      <c r="AG25" s="42"/>
-      <c r="AH25" s="29"/>
-      <c r="AI25" s="30"/>
-      <c r="AJ25" s="31"/>
-      <c r="AK25" s="64"/>
-      <c r="AL25" s="64"/>
-      <c r="AM25" s="29"/>
-      <c r="AN25" s="30"/>
-      <c r="AO25" s="30"/>
-      <c r="AP25" s="31"/>
-      <c r="AQ25" s="59"/>
-      <c r="AR25" s="60"/>
-      <c r="AS25" s="60"/>
-      <c r="AT25" s="60"/>
-      <c r="AU25" s="61"/>
-      <c r="AV25" s="52"/>
-      <c r="AW25" s="52"/>
-      <c r="AX25" s="35"/>
-    </row>
-    <row r="26" spans="1:50" ht="11.25" customHeight="1">
-      <c r="A26" s="32" t="s">
+      <c r="B25" s="53"/>
+      <c r="C25" s="54"/>
+      <c r="D25" s="54"/>
+      <c r="E25" s="54"/>
+      <c r="F25" s="54"/>
+      <c r="G25" s="55"/>
+      <c r="H25" s="32"/>
+      <c r="I25" s="33"/>
+      <c r="J25" s="33"/>
+      <c r="K25" s="33"/>
+      <c r="L25" s="33"/>
+      <c r="M25" s="33"/>
+      <c r="N25" s="33"/>
+      <c r="O25" s="33"/>
+      <c r="P25" s="33"/>
+      <c r="Q25" s="33"/>
+      <c r="R25" s="33"/>
+      <c r="S25" s="33"/>
+      <c r="T25" s="33"/>
+      <c r="U25" s="33"/>
+      <c r="V25" s="33"/>
+      <c r="W25" s="34"/>
+      <c r="X25" s="76"/>
+      <c r="Y25" s="76"/>
+      <c r="Z25" s="76"/>
+      <c r="AA25" s="76"/>
+      <c r="AB25" s="76"/>
+      <c r="AC25" s="76"/>
+      <c r="AD25" s="76"/>
+      <c r="AE25" s="76"/>
+      <c r="AF25" s="76"/>
+      <c r="AG25" s="76"/>
+      <c r="AH25" s="76"/>
+      <c r="AI25" s="76"/>
+      <c r="AJ25" s="76"/>
+      <c r="AK25" s="70"/>
+      <c r="AL25" s="71"/>
+      <c r="AM25" s="71"/>
+      <c r="AN25" s="71"/>
+      <c r="AO25" s="71"/>
+      <c r="AP25" s="72"/>
+      <c r="AQ25" s="39"/>
+      <c r="AR25" s="39"/>
+      <c r="AS25" s="70"/>
+      <c r="AT25" s="71"/>
+      <c r="AU25" s="71"/>
+      <c r="AV25" s="72"/>
+      <c r="AW25" s="53"/>
+      <c r="AX25" s="54"/>
+      <c r="AY25" s="54"/>
+      <c r="AZ25" s="54"/>
+      <c r="BA25" s="55"/>
+      <c r="BB25" s="46"/>
+      <c r="BC25" s="46"/>
+      <c r="BD25" s="73"/>
+    </row>
+    <row r="26" spans="1:56" ht="11.25" customHeight="1">
+      <c r="A26" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="B26" s="32" t="s">
+      <c r="B26" s="35" t="s">
         <v>65</v>
       </c>
-      <c r="C26" s="32" t="s">
+      <c r="C26" s="35" t="s">
         <v>66</v>
       </c>
-      <c r="D26" s="32" t="s">
+      <c r="D26" s="35" t="s">
         <v>85</v>
       </c>
-      <c r="E26" s="32" t="s">
+      <c r="E26" s="35" t="s">
         <v>159</v>
       </c>
-      <c r="F26" s="32" t="s">
+      <c r="F26" s="35" t="s">
         <v>68</v>
       </c>
-      <c r="G26" s="32" t="s">
+      <c r="G26" s="35" t="s">
         <v>69</v>
       </c>
-      <c r="H26" s="32" t="s">
-        <v>279</v>
-      </c>
-      <c r="I26" s="32" t="s">
+      <c r="H26" s="35" t="s">
+        <v>278</v>
+      </c>
+      <c r="I26" s="35" t="s">
         <v>182</v>
       </c>
-      <c r="J26" s="32" t="s">
+      <c r="J26" s="35" t="s">
         <v>183</v>
       </c>
-      <c r="K26" s="32" t="s">
+      <c r="K26" s="35" t="s">
         <v>184</v>
       </c>
-      <c r="L26" s="32" t="s">
+      <c r="L26" s="35" t="s">
         <v>185</v>
       </c>
-      <c r="M26" s="32" t="s">
+      <c r="M26" s="35" t="s">
         <v>188</v>
       </c>
-      <c r="N26" s="32" t="s">
+      <c r="N26" s="35" t="s">
         <v>160</v>
       </c>
-      <c r="O26" s="32" t="s">
+      <c r="O26" s="35" t="s">
         <v>161</v>
       </c>
-      <c r="P26" s="32" t="s">
+      <c r="P26" s="35" t="s">
         <v>240</v>
       </c>
-      <c r="Q26" s="32" t="s">
+      <c r="Q26" s="35" t="s">
         <v>265</v>
       </c>
-      <c r="R26" s="32" t="s">
+      <c r="R26" s="35" t="s">
         <v>165</v>
       </c>
-      <c r="S26" s="36" t="s">
+      <c r="S26" s="43" t="s">
         <v>166</v>
       </c>
-      <c r="T26" s="36" t="s">
+      <c r="T26" s="43" t="s">
         <v>167</v>
       </c>
-      <c r="U26" s="36" t="s">
+      <c r="U26" s="43" t="s">
         <v>162</v>
       </c>
-      <c r="V26" s="36" t="s">
+      <c r="V26" s="43" t="s">
         <v>163</v>
       </c>
-      <c r="W26" s="36" t="s">
+      <c r="W26" s="43" t="s">
         <v>164</v>
       </c>
-      <c r="X26" s="37" t="s">
+      <c r="X26" s="40" t="s">
         <v>168</v>
       </c>
-      <c r="Y26" s="37" t="s">
+      <c r="Y26" s="40" t="s">
         <v>169</v>
       </c>
-      <c r="Z26" s="37" t="s">
+      <c r="Z26" s="40" t="s">
         <v>263</v>
       </c>
-      <c r="AA26" s="37" t="s">
+      <c r="AA26" s="40" t="s">
         <v>171</v>
       </c>
-      <c r="AB26" s="36" t="s">
+      <c r="AB26" s="43" t="s">
         <v>172</v>
       </c>
-      <c r="AC26" s="36" t="s">
+      <c r="AC26" s="43" t="s">
         <v>264</v>
       </c>
-      <c r="AD26" s="36" t="s">
+      <c r="AD26" s="43"/>
+      <c r="AE26" s="43" t="s">
         <v>173</v>
       </c>
-      <c r="AE26" s="36" t="s">
+      <c r="AF26" s="43"/>
+      <c r="AG26" s="43" t="s">
         <v>174</v>
       </c>
-      <c r="AF26" s="32" t="s">
+      <c r="AH26" s="23"/>
+      <c r="AI26" s="35" t="s">
         <v>175</v>
       </c>
-      <c r="AG26" s="62" t="s">
+      <c r="AJ26" s="56" t="s">
         <v>170</v>
       </c>
-      <c r="AH26" s="32" t="s">
+      <c r="AK26" s="35" t="s">
+        <v>286</v>
+      </c>
+      <c r="AL26" s="35" t="s">
+        <v>287</v>
+      </c>
+      <c r="AM26" s="35" t="s">
+        <v>289</v>
+      </c>
+      <c r="AN26" s="35" t="s">
         <v>186</v>
       </c>
-      <c r="AI26" s="32" t="s">
+      <c r="AO26" s="35" t="s">
         <v>187</v>
       </c>
-      <c r="AJ26" s="32" t="s">
+      <c r="AP26" s="35" t="s">
         <v>241</v>
       </c>
-      <c r="AK26" s="44" t="s">
+      <c r="AQ26" s="58" t="s">
         <v>89</v>
       </c>
-      <c r="AL26" s="47" t="s">
+      <c r="AR26" s="61" t="s">
         <v>67</v>
       </c>
-      <c r="AM26" s="43" t="s">
+      <c r="AS26" s="57" t="s">
         <v>176</v>
       </c>
-      <c r="AN26" s="43" t="s">
+      <c r="AT26" s="57" t="s">
         <v>177</v>
       </c>
-      <c r="AO26" s="43" t="s">
+      <c r="AU26" s="57" t="s">
         <v>178</v>
       </c>
-      <c r="AP26" s="43" t="s">
+      <c r="AV26" s="57" t="s">
         <v>179</v>
       </c>
-      <c r="AQ26" s="37" t="s">
+      <c r="AW26" s="40" t="s">
         <v>180</v>
       </c>
-      <c r="AR26" s="37" t="s">
+      <c r="AX26" s="40" t="s">
         <v>181</v>
       </c>
-      <c r="AS26" s="37" t="s">
+      <c r="AY26" s="40" t="s">
         <v>242</v>
       </c>
-      <c r="AT26" s="37" t="s">
+      <c r="AZ26" s="40" t="s">
         <v>243</v>
       </c>
-      <c r="AU26" s="37" t="s">
+      <c r="BA26" s="40" t="s">
         <v>244</v>
       </c>
-      <c r="AV26" s="32" t="s">
+      <c r="BB26" s="35" t="s">
         <v>246</v>
       </c>
-      <c r="AW26" s="32" t="s">
+      <c r="BC26" s="35" t="s">
         <v>245</v>
       </c>
-      <c r="AX26" s="35"/>
-    </row>
-    <row r="27" spans="1:50">
-      <c r="A27" s="33"/>
-      <c r="B27" s="33"/>
-      <c r="C27" s="33"/>
-      <c r="D27" s="33"/>
-      <c r="E27" s="33"/>
-      <c r="F27" s="33"/>
-      <c r="G27" s="33"/>
-      <c r="H27" s="33"/>
-      <c r="I27" s="33"/>
-      <c r="J27" s="33"/>
-      <c r="K27" s="33"/>
-      <c r="L27" s="33"/>
-      <c r="M27" s="33"/>
-      <c r="N27" s="33"/>
-      <c r="O27" s="33"/>
-      <c r="P27" s="33"/>
-      <c r="Q27" s="33"/>
-      <c r="R27" s="33"/>
-      <c r="S27" s="36"/>
-      <c r="T27" s="36"/>
-      <c r="U27" s="36"/>
-      <c r="V27" s="36"/>
-      <c r="W27" s="36"/>
-      <c r="X27" s="38"/>
-      <c r="Y27" s="38"/>
-      <c r="Z27" s="38"/>
-      <c r="AA27" s="38"/>
-      <c r="AB27" s="36"/>
-      <c r="AC27" s="36"/>
-      <c r="AD27" s="36"/>
-      <c r="AE27" s="36"/>
-      <c r="AF27" s="33"/>
-      <c r="AG27" s="62"/>
-      <c r="AH27" s="33"/>
-      <c r="AI27" s="33"/>
-      <c r="AJ27" s="33"/>
-      <c r="AK27" s="45"/>
-      <c r="AL27" s="48"/>
-      <c r="AM27" s="43"/>
-      <c r="AN27" s="43"/>
-      <c r="AO27" s="43"/>
-      <c r="AP27" s="43"/>
-      <c r="AQ27" s="38"/>
-      <c r="AR27" s="38"/>
-      <c r="AS27" s="40"/>
-      <c r="AT27" s="38"/>
-      <c r="AU27" s="38"/>
-      <c r="AV27" s="33"/>
-      <c r="AW27" s="33"/>
-      <c r="AX27" s="36" t="s">
+      <c r="BD26" s="73"/>
+    </row>
+    <row r="27" spans="1:56">
+      <c r="A27" s="36"/>
+      <c r="B27" s="36"/>
+      <c r="C27" s="36"/>
+      <c r="D27" s="36"/>
+      <c r="E27" s="36"/>
+      <c r="F27" s="36"/>
+      <c r="G27" s="36"/>
+      <c r="H27" s="36"/>
+      <c r="I27" s="36"/>
+      <c r="J27" s="36"/>
+      <c r="K27" s="36"/>
+      <c r="L27" s="36"/>
+      <c r="M27" s="36"/>
+      <c r="N27" s="36"/>
+      <c r="O27" s="36"/>
+      <c r="P27" s="36"/>
+      <c r="Q27" s="36"/>
+      <c r="R27" s="36"/>
+      <c r="S27" s="43"/>
+      <c r="T27" s="43"/>
+      <c r="U27" s="43"/>
+      <c r="V27" s="43"/>
+      <c r="W27" s="43"/>
+      <c r="X27" s="41"/>
+      <c r="Y27" s="41"/>
+      <c r="Z27" s="41"/>
+      <c r="AA27" s="41"/>
+      <c r="AB27" s="43"/>
+      <c r="AC27" s="43"/>
+      <c r="AD27" s="43"/>
+      <c r="AE27" s="43"/>
+      <c r="AF27" s="43"/>
+      <c r="AG27" s="43"/>
+      <c r="AH27" s="24"/>
+      <c r="AI27" s="36"/>
+      <c r="AJ27" s="56"/>
+      <c r="AK27" s="36"/>
+      <c r="AL27" s="36"/>
+      <c r="AM27" s="36"/>
+      <c r="AN27" s="36"/>
+      <c r="AO27" s="36"/>
+      <c r="AP27" s="36"/>
+      <c r="AQ27" s="59"/>
+      <c r="AR27" s="62"/>
+      <c r="AS27" s="57"/>
+      <c r="AT27" s="57"/>
+      <c r="AU27" s="57"/>
+      <c r="AV27" s="57"/>
+      <c r="AW27" s="41"/>
+      <c r="AX27" s="41"/>
+      <c r="AY27" s="74"/>
+      <c r="AZ27" s="41"/>
+      <c r="BA27" s="41"/>
+      <c r="BB27" s="36"/>
+      <c r="BC27" s="36"/>
+      <c r="BD27" s="43" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="28" spans="1:50">
-      <c r="A28" s="33"/>
-      <c r="B28" s="33"/>
-      <c r="C28" s="33"/>
-      <c r="D28" s="33"/>
-      <c r="E28" s="33"/>
-      <c r="F28" s="33"/>
-      <c r="G28" s="33"/>
-      <c r="H28" s="33"/>
-      <c r="I28" s="33"/>
-      <c r="J28" s="33"/>
-      <c r="K28" s="33"/>
-      <c r="L28" s="33"/>
-      <c r="M28" s="33"/>
-      <c r="N28" s="33"/>
-      <c r="O28" s="33"/>
-      <c r="P28" s="33"/>
-      <c r="Q28" s="33"/>
-      <c r="R28" s="33"/>
-      <c r="S28" s="36"/>
-      <c r="T28" s="36"/>
-      <c r="U28" s="36"/>
-      <c r="V28" s="36"/>
-      <c r="W28" s="36"/>
-      <c r="X28" s="38"/>
-      <c r="Y28" s="38"/>
-      <c r="Z28" s="38"/>
-      <c r="AA28" s="38"/>
-      <c r="AB28" s="36"/>
-      <c r="AC28" s="36"/>
-      <c r="AD28" s="36"/>
-      <c r="AE28" s="36"/>
-      <c r="AF28" s="33"/>
-      <c r="AG28" s="62"/>
-      <c r="AH28" s="33"/>
-      <c r="AI28" s="33"/>
-      <c r="AJ28" s="33"/>
-      <c r="AK28" s="45"/>
-      <c r="AL28" s="48"/>
-      <c r="AM28" s="43"/>
-      <c r="AN28" s="43"/>
-      <c r="AO28" s="43"/>
-      <c r="AP28" s="43"/>
-      <c r="AQ28" s="38"/>
-      <c r="AR28" s="38"/>
-      <c r="AS28" s="40"/>
-      <c r="AT28" s="38"/>
-      <c r="AU28" s="38"/>
-      <c r="AV28" s="33"/>
-      <c r="AW28" s="33"/>
-      <c r="AX28" s="36"/>
-    </row>
-    <row r="29" spans="1:50">
-      <c r="A29" s="33"/>
-      <c r="B29" s="33"/>
-      <c r="C29" s="33"/>
-      <c r="D29" s="33"/>
-      <c r="E29" s="33"/>
-      <c r="F29" s="33"/>
-      <c r="G29" s="33"/>
-      <c r="H29" s="33"/>
-      <c r="I29" s="33"/>
-      <c r="J29" s="33"/>
-      <c r="K29" s="33"/>
-      <c r="L29" s="33"/>
-      <c r="M29" s="33"/>
-      <c r="N29" s="33"/>
-      <c r="O29" s="33"/>
-      <c r="P29" s="33"/>
-      <c r="Q29" s="33"/>
-      <c r="R29" s="33"/>
-      <c r="S29" s="36"/>
-      <c r="T29" s="36"/>
-      <c r="U29" s="36"/>
-      <c r="V29" s="36"/>
-      <c r="W29" s="36"/>
-      <c r="X29" s="38"/>
-      <c r="Y29" s="38"/>
-      <c r="Z29" s="38"/>
-      <c r="AA29" s="38"/>
-      <c r="AB29" s="36"/>
-      <c r="AC29" s="36"/>
-      <c r="AD29" s="36"/>
-      <c r="AE29" s="36"/>
-      <c r="AF29" s="33"/>
-      <c r="AG29" s="62"/>
-      <c r="AH29" s="33"/>
-      <c r="AI29" s="33"/>
-      <c r="AJ29" s="33"/>
-      <c r="AK29" s="45"/>
-      <c r="AL29" s="48"/>
-      <c r="AM29" s="43"/>
-      <c r="AN29" s="43"/>
-      <c r="AO29" s="43"/>
-      <c r="AP29" s="43"/>
-      <c r="AQ29" s="38"/>
-      <c r="AR29" s="38"/>
-      <c r="AS29" s="40"/>
-      <c r="AT29" s="38"/>
-      <c r="AU29" s="38"/>
-      <c r="AV29" s="33"/>
-      <c r="AW29" s="33"/>
-      <c r="AX29" s="36"/>
-    </row>
-    <row r="30" spans="1:50">
-      <c r="A30" s="33"/>
-      <c r="B30" s="33"/>
-      <c r="C30" s="33"/>
-      <c r="D30" s="33"/>
-      <c r="E30" s="33"/>
-      <c r="F30" s="33"/>
-      <c r="G30" s="33"/>
-      <c r="H30" s="33"/>
-      <c r="I30" s="33"/>
-      <c r="J30" s="33"/>
-      <c r="K30" s="33"/>
-      <c r="L30" s="33"/>
-      <c r="M30" s="33"/>
-      <c r="N30" s="33"/>
-      <c r="O30" s="33"/>
-      <c r="P30" s="33"/>
-      <c r="Q30" s="33"/>
-      <c r="R30" s="33"/>
-      <c r="S30" s="36"/>
-      <c r="T30" s="36"/>
-      <c r="U30" s="36"/>
-      <c r="V30" s="36"/>
-      <c r="W30" s="36"/>
-      <c r="X30" s="38"/>
-      <c r="Y30" s="38"/>
-      <c r="Z30" s="38"/>
-      <c r="AA30" s="38"/>
-      <c r="AB30" s="36"/>
-      <c r="AC30" s="36"/>
-      <c r="AD30" s="36"/>
-      <c r="AE30" s="36"/>
-      <c r="AF30" s="33"/>
-      <c r="AG30" s="62"/>
-      <c r="AH30" s="33"/>
-      <c r="AI30" s="33"/>
-      <c r="AJ30" s="33"/>
-      <c r="AK30" s="45"/>
-      <c r="AL30" s="48"/>
-      <c r="AM30" s="43"/>
-      <c r="AN30" s="43"/>
-      <c r="AO30" s="43"/>
-      <c r="AP30" s="43"/>
-      <c r="AQ30" s="38"/>
-      <c r="AR30" s="38"/>
-      <c r="AS30" s="40"/>
-      <c r="AT30" s="38"/>
-      <c r="AU30" s="38"/>
-      <c r="AV30" s="33"/>
-      <c r="AW30" s="33"/>
-      <c r="AX30" s="36"/>
-    </row>
-    <row r="31" spans="1:50">
-      <c r="A31" s="34"/>
-      <c r="B31" s="34"/>
-      <c r="C31" s="34"/>
-      <c r="D31" s="34"/>
-      <c r="E31" s="34"/>
-      <c r="F31" s="34"/>
-      <c r="G31" s="34"/>
-      <c r="H31" s="34"/>
-      <c r="I31" s="34"/>
-      <c r="J31" s="34"/>
-      <c r="K31" s="34"/>
-      <c r="L31" s="34"/>
-      <c r="M31" s="34"/>
-      <c r="N31" s="34"/>
-      <c r="O31" s="34"/>
-      <c r="P31" s="34"/>
-      <c r="Q31" s="34"/>
-      <c r="R31" s="34"/>
-      <c r="S31" s="36"/>
-      <c r="T31" s="36"/>
-      <c r="U31" s="36"/>
-      <c r="V31" s="36"/>
-      <c r="W31" s="36"/>
-      <c r="X31" s="39"/>
-      <c r="Y31" s="39"/>
-      <c r="Z31" s="39"/>
-      <c r="AA31" s="39"/>
-      <c r="AB31" s="36"/>
-      <c r="AC31" s="36"/>
-      <c r="AD31" s="36"/>
-      <c r="AE31" s="36"/>
-      <c r="AF31" s="34"/>
-      <c r="AG31" s="62"/>
-      <c r="AH31" s="34"/>
-      <c r="AI31" s="34"/>
-      <c r="AJ31" s="34"/>
-      <c r="AK31" s="45"/>
-      <c r="AL31" s="48"/>
-      <c r="AM31" s="43"/>
-      <c r="AN31" s="43"/>
-      <c r="AO31" s="43"/>
-      <c r="AP31" s="43"/>
-      <c r="AQ31" s="39"/>
-      <c r="AR31" s="39"/>
-      <c r="AS31" s="41"/>
-      <c r="AT31" s="39"/>
-      <c r="AU31" s="39"/>
-      <c r="AV31" s="34"/>
-      <c r="AW31" s="34"/>
-      <c r="AX31" s="36"/>
-    </row>
-    <row r="32" spans="1:50">
-      <c r="AK32" s="45"/>
-      <c r="AL32" s="48"/>
-    </row>
-    <row r="33" spans="4:38">
+    <row r="28" spans="1:56">
+      <c r="A28" s="36"/>
+      <c r="B28" s="36"/>
+      <c r="C28" s="36"/>
+      <c r="D28" s="36"/>
+      <c r="E28" s="36"/>
+      <c r="F28" s="36"/>
+      <c r="G28" s="36"/>
+      <c r="H28" s="36"/>
+      <c r="I28" s="36"/>
+      <c r="J28" s="36"/>
+      <c r="K28" s="36"/>
+      <c r="L28" s="36"/>
+      <c r="M28" s="36"/>
+      <c r="N28" s="36"/>
+      <c r="O28" s="36"/>
+      <c r="P28" s="36"/>
+      <c r="Q28" s="36"/>
+      <c r="R28" s="36"/>
+      <c r="S28" s="43"/>
+      <c r="T28" s="43"/>
+      <c r="U28" s="43"/>
+      <c r="V28" s="43"/>
+      <c r="W28" s="43"/>
+      <c r="X28" s="41"/>
+      <c r="Y28" s="41"/>
+      <c r="Z28" s="41"/>
+      <c r="AA28" s="41"/>
+      <c r="AB28" s="43"/>
+      <c r="AC28" s="43"/>
+      <c r="AD28" s="43"/>
+      <c r="AE28" s="43"/>
+      <c r="AF28" s="43"/>
+      <c r="AG28" s="43"/>
+      <c r="AH28" s="24"/>
+      <c r="AI28" s="36"/>
+      <c r="AJ28" s="56"/>
+      <c r="AK28" s="36"/>
+      <c r="AL28" s="36"/>
+      <c r="AM28" s="36"/>
+      <c r="AN28" s="36"/>
+      <c r="AO28" s="36"/>
+      <c r="AP28" s="36"/>
+      <c r="AQ28" s="59"/>
+      <c r="AR28" s="62"/>
+      <c r="AS28" s="57"/>
+      <c r="AT28" s="57"/>
+      <c r="AU28" s="57"/>
+      <c r="AV28" s="57"/>
+      <c r="AW28" s="41"/>
+      <c r="AX28" s="41"/>
+      <c r="AY28" s="74"/>
+      <c r="AZ28" s="41"/>
+      <c r="BA28" s="41"/>
+      <c r="BB28" s="36"/>
+      <c r="BC28" s="36"/>
+      <c r="BD28" s="43"/>
+    </row>
+    <row r="29" spans="1:56">
+      <c r="A29" s="36"/>
+      <c r="B29" s="36"/>
+      <c r="C29" s="36"/>
+      <c r="D29" s="36"/>
+      <c r="E29" s="36"/>
+      <c r="F29" s="36"/>
+      <c r="G29" s="36"/>
+      <c r="H29" s="36"/>
+      <c r="I29" s="36"/>
+      <c r="J29" s="36"/>
+      <c r="K29" s="36"/>
+      <c r="L29" s="36"/>
+      <c r="M29" s="36"/>
+      <c r="N29" s="36"/>
+      <c r="O29" s="36"/>
+      <c r="P29" s="36"/>
+      <c r="Q29" s="36"/>
+      <c r="R29" s="36"/>
+      <c r="S29" s="43"/>
+      <c r="T29" s="43"/>
+      <c r="U29" s="43"/>
+      <c r="V29" s="43"/>
+      <c r="W29" s="43"/>
+      <c r="X29" s="41"/>
+      <c r="Y29" s="41"/>
+      <c r="Z29" s="41"/>
+      <c r="AA29" s="41"/>
+      <c r="AB29" s="43"/>
+      <c r="AC29" s="43"/>
+      <c r="AD29" s="43"/>
+      <c r="AE29" s="43"/>
+      <c r="AF29" s="43"/>
+      <c r="AG29" s="43"/>
+      <c r="AH29" s="24"/>
+      <c r="AI29" s="36"/>
+      <c r="AJ29" s="56"/>
+      <c r="AK29" s="36"/>
+      <c r="AL29" s="36"/>
+      <c r="AM29" s="36"/>
+      <c r="AN29" s="36"/>
+      <c r="AO29" s="36"/>
+      <c r="AP29" s="36"/>
+      <c r="AQ29" s="59"/>
+      <c r="AR29" s="62"/>
+      <c r="AS29" s="57"/>
+      <c r="AT29" s="57"/>
+      <c r="AU29" s="57"/>
+      <c r="AV29" s="57"/>
+      <c r="AW29" s="41"/>
+      <c r="AX29" s="41"/>
+      <c r="AY29" s="74"/>
+      <c r="AZ29" s="41"/>
+      <c r="BA29" s="41"/>
+      <c r="BB29" s="36"/>
+      <c r="BC29" s="36"/>
+      <c r="BD29" s="43"/>
+    </row>
+    <row r="30" spans="1:56">
+      <c r="A30" s="36"/>
+      <c r="B30" s="36"/>
+      <c r="C30" s="36"/>
+      <c r="D30" s="36"/>
+      <c r="E30" s="36"/>
+      <c r="F30" s="36"/>
+      <c r="G30" s="36"/>
+      <c r="H30" s="36"/>
+      <c r="I30" s="36"/>
+      <c r="J30" s="36"/>
+      <c r="K30" s="36"/>
+      <c r="L30" s="36"/>
+      <c r="M30" s="36"/>
+      <c r="N30" s="36"/>
+      <c r="O30" s="36"/>
+      <c r="P30" s="36"/>
+      <c r="Q30" s="36"/>
+      <c r="R30" s="36"/>
+      <c r="S30" s="43"/>
+      <c r="T30" s="43"/>
+      <c r="U30" s="43"/>
+      <c r="V30" s="43"/>
+      <c r="W30" s="43"/>
+      <c r="X30" s="41"/>
+      <c r="Y30" s="41"/>
+      <c r="Z30" s="41"/>
+      <c r="AA30" s="41"/>
+      <c r="AB30" s="43"/>
+      <c r="AC30" s="43"/>
+      <c r="AD30" s="43"/>
+      <c r="AE30" s="43"/>
+      <c r="AF30" s="43"/>
+      <c r="AG30" s="43"/>
+      <c r="AH30" s="24"/>
+      <c r="AI30" s="36"/>
+      <c r="AJ30" s="56"/>
+      <c r="AK30" s="36"/>
+      <c r="AL30" s="36"/>
+      <c r="AM30" s="36"/>
+      <c r="AN30" s="36"/>
+      <c r="AO30" s="36"/>
+      <c r="AP30" s="36"/>
+      <c r="AQ30" s="59"/>
+      <c r="AR30" s="62"/>
+      <c r="AS30" s="57"/>
+      <c r="AT30" s="57"/>
+      <c r="AU30" s="57"/>
+      <c r="AV30" s="57"/>
+      <c r="AW30" s="41"/>
+      <c r="AX30" s="41"/>
+      <c r="AY30" s="74"/>
+      <c r="AZ30" s="41"/>
+      <c r="BA30" s="41"/>
+      <c r="BB30" s="36"/>
+      <c r="BC30" s="36"/>
+      <c r="BD30" s="43"/>
+    </row>
+    <row r="31" spans="1:56">
+      <c r="A31" s="37"/>
+      <c r="B31" s="37"/>
+      <c r="C31" s="37"/>
+      <c r="D31" s="37"/>
+      <c r="E31" s="37"/>
+      <c r="F31" s="37"/>
+      <c r="G31" s="37"/>
+      <c r="H31" s="37"/>
+      <c r="I31" s="37"/>
+      <c r="J31" s="37"/>
+      <c r="K31" s="37"/>
+      <c r="L31" s="37"/>
+      <c r="M31" s="37"/>
+      <c r="N31" s="37"/>
+      <c r="O31" s="37"/>
+      <c r="P31" s="37"/>
+      <c r="Q31" s="37"/>
+      <c r="R31" s="37"/>
+      <c r="S31" s="43"/>
+      <c r="T31" s="43"/>
+      <c r="U31" s="43"/>
+      <c r="V31" s="43"/>
+      <c r="W31" s="43"/>
+      <c r="X31" s="42"/>
+      <c r="Y31" s="42"/>
+      <c r="Z31" s="42"/>
+      <c r="AA31" s="42"/>
+      <c r="AB31" s="43"/>
+      <c r="AC31" s="43"/>
+      <c r="AD31" s="43"/>
+      <c r="AE31" s="43"/>
+      <c r="AF31" s="43"/>
+      <c r="AG31" s="43"/>
+      <c r="AH31" s="25"/>
+      <c r="AI31" s="37"/>
+      <c r="AJ31" s="56"/>
+      <c r="AK31" s="37"/>
+      <c r="AL31" s="37"/>
+      <c r="AM31" s="37"/>
+      <c r="AN31" s="37"/>
+      <c r="AO31" s="37"/>
+      <c r="AP31" s="37"/>
+      <c r="AQ31" s="59"/>
+      <c r="AR31" s="62"/>
+      <c r="AS31" s="57"/>
+      <c r="AT31" s="57"/>
+      <c r="AU31" s="57"/>
+      <c r="AV31" s="57"/>
+      <c r="AW31" s="42"/>
+      <c r="AX31" s="42"/>
+      <c r="AY31" s="75"/>
+      <c r="AZ31" s="42"/>
+      <c r="BA31" s="42"/>
+      <c r="BB31" s="37"/>
+      <c r="BC31" s="37"/>
+      <c r="BD31" s="43"/>
+    </row>
+    <row r="32" spans="1:56">
+      <c r="AQ32" s="59"/>
+      <c r="AR32" s="62"/>
+    </row>
+    <row r="33" spans="4:44">
       <c r="D33" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="AF33" s="20"/>
-      <c r="AK33" s="45"/>
-      <c r="AL33" s="48"/>
-    </row>
-    <row r="34" spans="4:38" ht="258.75">
+      <c r="AI33" s="20"/>
+      <c r="AN33" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="AQ33" s="59"/>
+      <c r="AR33" s="62"/>
+    </row>
+    <row r="34" spans="4:44" ht="258.75">
       <c r="D34" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="AF34" s="21"/>
-      <c r="AK34" s="46"/>
-      <c r="AL34" s="49"/>
-    </row>
-    <row r="35" spans="4:38" ht="326.25">
+      <c r="AI34" s="21"/>
+      <c r="AQ34" s="60"/>
+      <c r="AR34" s="63"/>
+    </row>
+    <row r="35" spans="4:44" ht="326.25">
       <c r="D35" s="9" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="36" spans="4:38" ht="112.5">
+    <row r="36" spans="4:44" ht="112.5">
       <c r="D36" s="7" t="s">
         <v>88</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="63">
-    <mergeCell ref="H23:W25"/>
-    <mergeCell ref="H26:H31"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="AK23:AK25"/>
-    <mergeCell ref="AL23:AL25"/>
-    <mergeCell ref="O26:O31"/>
-    <mergeCell ref="AA26:AA31"/>
-    <mergeCell ref="AB26:AB31"/>
-    <mergeCell ref="M26:M31"/>
-    <mergeCell ref="L26:L31"/>
-    <mergeCell ref="K26:K31"/>
-    <mergeCell ref="AD26:AD31"/>
-    <mergeCell ref="AE26:AE31"/>
-    <mergeCell ref="AF26:AF31"/>
-    <mergeCell ref="T26:T31"/>
-    <mergeCell ref="X26:X31"/>
-    <mergeCell ref="P26:P31"/>
-    <mergeCell ref="AV23:AV25"/>
-    <mergeCell ref="AW23:AW25"/>
+  <mergeCells count="68">
+    <mergeCell ref="AK26:AK31"/>
+    <mergeCell ref="AL26:AL31"/>
+    <mergeCell ref="AK23:AP25"/>
+    <mergeCell ref="AM26:AM31"/>
+    <mergeCell ref="BD23:BD26"/>
+    <mergeCell ref="BD27:BD31"/>
+    <mergeCell ref="AS23:AV25"/>
+    <mergeCell ref="BA26:BA31"/>
+    <mergeCell ref="BB26:BB31"/>
+    <mergeCell ref="BC26:BC31"/>
+    <mergeCell ref="AY26:AY31"/>
+    <mergeCell ref="AZ26:AZ31"/>
+    <mergeCell ref="AP26:AP31"/>
+    <mergeCell ref="AV26:AV31"/>
+    <mergeCell ref="AW26:AW31"/>
+    <mergeCell ref="AX26:AX31"/>
+    <mergeCell ref="AS26:AS31"/>
+    <mergeCell ref="AT26:AT31"/>
+    <mergeCell ref="AU26:AU31"/>
+    <mergeCell ref="AQ26:AQ34"/>
+    <mergeCell ref="AR26:AR34"/>
+    <mergeCell ref="BB23:BB25"/>
+    <mergeCell ref="BC23:BC25"/>
     <mergeCell ref="A26:A31"/>
     <mergeCell ref="B26:B31"/>
     <mergeCell ref="C26:C31"/>
     <mergeCell ref="D26:D31"/>
     <mergeCell ref="E26:E31"/>
-    <mergeCell ref="AQ23:AU25"/>
+    <mergeCell ref="AW23:BA25"/>
     <mergeCell ref="F26:F31"/>
     <mergeCell ref="G26:G31"/>
     <mergeCell ref="I26:I31"/>
@@ -4099,36 +4246,38 @@
     <mergeCell ref="N26:N31"/>
     <mergeCell ref="B23:G25"/>
     <mergeCell ref="Y26:Y31"/>
+    <mergeCell ref="AJ26:AJ31"/>
+    <mergeCell ref="AR23:AR25"/>
+    <mergeCell ref="O26:O31"/>
+    <mergeCell ref="AA26:AA31"/>
+    <mergeCell ref="AB26:AB31"/>
+    <mergeCell ref="M26:M31"/>
+    <mergeCell ref="AE26:AE31"/>
     <mergeCell ref="AG26:AG31"/>
+    <mergeCell ref="AI26:AI31"/>
+    <mergeCell ref="T26:T31"/>
+    <mergeCell ref="X26:X31"/>
+    <mergeCell ref="P26:P31"/>
     <mergeCell ref="U26:U31"/>
     <mergeCell ref="V26:V31"/>
-    <mergeCell ref="AT26:AT31"/>
-    <mergeCell ref="AJ26:AJ31"/>
-    <mergeCell ref="AP26:AP31"/>
-    <mergeCell ref="AQ26:AQ31"/>
-    <mergeCell ref="AR26:AR31"/>
-    <mergeCell ref="AH26:AH31"/>
-    <mergeCell ref="AI26:AI31"/>
-    <mergeCell ref="AM26:AM31"/>
     <mergeCell ref="AN26:AN31"/>
     <mergeCell ref="AO26:AO31"/>
-    <mergeCell ref="AK26:AK34"/>
-    <mergeCell ref="AL26:AL34"/>
-    <mergeCell ref="AH23:AJ25"/>
+    <mergeCell ref="H23:W25"/>
+    <mergeCell ref="H26:H31"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="AQ23:AQ25"/>
+    <mergeCell ref="L26:L31"/>
+    <mergeCell ref="K26:K31"/>
     <mergeCell ref="Q26:Q31"/>
-    <mergeCell ref="AX23:AX26"/>
-    <mergeCell ref="AX27:AX31"/>
-    <mergeCell ref="AM23:AP25"/>
-    <mergeCell ref="AU26:AU31"/>
-    <mergeCell ref="AV26:AV31"/>
-    <mergeCell ref="AW26:AW31"/>
-    <mergeCell ref="AS26:AS31"/>
     <mergeCell ref="W26:W31"/>
     <mergeCell ref="R26:R31"/>
     <mergeCell ref="S26:S31"/>
     <mergeCell ref="Z26:Z31"/>
     <mergeCell ref="AC26:AC31"/>
-    <mergeCell ref="X23:AG25"/>
+    <mergeCell ref="X23:AJ25"/>
+    <mergeCell ref="AD26:AD31"/>
+    <mergeCell ref="AF26:AF31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/Documentação/Planilhas/Conferencia_DEV.xlsx
+++ b/Documentação/Planilhas/Conferencia_DEV.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="658" uniqueCount="290">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="660" uniqueCount="292">
   <si>
     <t>1</t>
   </si>
@@ -942,6 +942,12 @@
   </si>
   <si>
     <t>Pegar a informação da coluna Data da Ordem</t>
+  </si>
+  <si>
+    <t>CD_PARCEIRO_TRANSPORTADORA_FAT</t>
+  </si>
+  <si>
+    <t>NR_REFERENCIA_FISCAL</t>
   </si>
 </sst>
 </file>
@@ -1208,7 +1214,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1279,6 +1285,140 @@
     <xf numFmtId="49" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1304,127 +1444,11 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1734,10 +1758,10 @@
   <sheetPr>
     <tabColor rgb="FFFA7E7E"/>
   </sheetPr>
-  <dimension ref="A2:BD36"/>
+  <dimension ref="A2:BF36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AI4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AM8" sqref="AM8"/>
+    <sheetView tabSelected="1" topLeftCell="BB4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="BE15" sqref="BE15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
@@ -1792,51 +1816,51 @@
     <col min="51" max="51" width="36" style="1" customWidth="1"/>
     <col min="52" max="52" width="39.140625" style="2" customWidth="1"/>
     <col min="53" max="53" width="40.42578125" style="2" customWidth="1"/>
-    <col min="54" max="55" width="31.42578125" style="2" customWidth="1"/>
-    <col min="56" max="56" width="100.42578125" style="2" customWidth="1"/>
-    <col min="57" max="16384" width="9.140625" style="16"/>
+    <col min="54" max="57" width="31.42578125" style="2" customWidth="1"/>
+    <col min="58" max="58" width="100.42578125" style="2" customWidth="1"/>
+    <col min="59" max="16384" width="9.140625" style="16"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:56" ht="21">
-      <c r="A2" s="38" t="s">
+    <row r="2" spans="1:58" ht="21">
+      <c r="A2" s="81" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="38"/>
+      <c r="B2" s="81"/>
       <c r="C2" s="3" t="s">
         <v>18</v>
       </c>
       <c r="AY2" s="2"/>
     </row>
-    <row r="3" spans="1:56" ht="21">
-      <c r="A3" s="38" t="s">
+    <row r="3" spans="1:58" ht="21">
+      <c r="A3" s="81" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="38"/>
+      <c r="B3" s="81"/>
       <c r="C3" s="3" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="4" spans="1:56" ht="21">
+    <row r="4" spans="1:58" ht="21">
       <c r="A4" s="13"/>
       <c r="B4" s="13"/>
       <c r="C4" s="3"/>
     </row>
-    <row r="5" spans="1:56" ht="21">
+    <row r="5" spans="1:58" ht="21">
       <c r="A5" s="13"/>
       <c r="B5" s="22" t="s">
         <v>282</v>
       </c>
       <c r="C5" s="3"/>
     </row>
-    <row r="7" spans="1:56">
+    <row r="7" spans="1:58">
       <c r="M7" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="BD7" s="2" t="s">
+      <c r="BF7" s="2" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="8" spans="1:56">
+    <row r="8" spans="1:58">
       <c r="A8" s="4" t="s">
         <v>4</v>
       </c>
@@ -2003,10 +2027,16 @@
         <v>57</v>
       </c>
       <c r="BD8" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="BE8" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="BF8" s="4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:56">
+    <row r="9" spans="1:58">
       <c r="A9" s="17" t="s">
         <v>2</v>
       </c>
@@ -2158,11 +2188,13 @@
       <c r="BC9" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="BD9" s="17" t="s">
+      <c r="BD9" s="17"/>
+      <c r="BE9" s="17"/>
+      <c r="BF9" s="17" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="10" spans="1:56">
+    <row r="10" spans="1:58">
       <c r="A10" s="2" t="s">
         <v>2</v>
       </c>
@@ -2308,11 +2340,11 @@
       <c r="BC10" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="BD10" s="14" t="s">
+      <c r="BF10" s="14" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="11" spans="1:56">
+    <row r="11" spans="1:58">
       <c r="A11" s="2" t="s">
         <v>2</v>
       </c>
@@ -2458,11 +2490,11 @@
       <c r="BC11" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="BD11" s="14" t="s">
+      <c r="BF11" s="14" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="12" spans="1:56">
+    <row r="12" spans="1:58">
       <c r="A12" s="2" t="s">
         <v>2</v>
       </c>
@@ -2608,11 +2640,11 @@
       <c r="BC12" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="BD12" s="14" t="s">
+      <c r="BF12" s="14" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="13" spans="1:56">
+    <row r="13" spans="1:58">
       <c r="A13" s="2" t="s">
         <v>2</v>
       </c>
@@ -2758,11 +2790,11 @@
       <c r="BC13" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="BD13" s="14" t="s">
+      <c r="BF13" s="14" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="14" spans="1:56">
+    <row r="14" spans="1:58">
       <c r="A14" s="2" t="s">
         <v>2</v>
       </c>
@@ -2908,11 +2940,11 @@
       <c r="BC14" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="BD14" s="14" t="s">
+      <c r="BF14" s="14" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="15" spans="1:56">
+    <row r="15" spans="1:58">
       <c r="A15" s="14" t="s">
         <v>2</v>
       </c>
@@ -3064,11 +3096,13 @@
       <c r="BC15" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="BD15" s="14" t="s">
+      <c r="BD15" s="14"/>
+      <c r="BE15" s="14"/>
+      <c r="BF15" s="14" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="16" spans="1:56">
+    <row r="16" spans="1:58">
       <c r="A16" s="2" t="s">
         <v>2</v>
       </c>
@@ -3214,11 +3248,11 @@
       <c r="BC16" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="BD16" s="14" t="s">
+      <c r="BF16" s="14" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="17" spans="1:56">
+    <row r="17" spans="1:58">
       <c r="A17" s="2" t="s">
         <v>2</v>
       </c>
@@ -3364,11 +3398,11 @@
       <c r="BC17" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="BD17" s="14" t="s">
+      <c r="BF17" s="14" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="18" spans="1:56">
+    <row r="18" spans="1:58">
       <c r="A18" s="2" t="s">
         <v>2</v>
       </c>
@@ -3514,670 +3548,688 @@
       <c r="BC18" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="BD18" s="14" t="s">
+      <c r="BF18" s="14" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="20" spans="1:56">
+    <row r="20" spans="1:58">
       <c r="AS20" s="12"/>
     </row>
-    <row r="21" spans="1:56">
+    <row r="21" spans="1:58">
       <c r="I21" s="12"/>
       <c r="X21" s="12"/>
     </row>
-    <row r="23" spans="1:56" ht="11.25" customHeight="1">
+    <row r="23" spans="1:58" ht="11.25" customHeight="1">
       <c r="A23" s="1"/>
-      <c r="B23" s="47" t="s">
+      <c r="B23" s="61" t="s">
         <v>267</v>
       </c>
-      <c r="C23" s="48"/>
-      <c r="D23" s="48"/>
-      <c r="E23" s="48"/>
-      <c r="F23" s="48"/>
-      <c r="G23" s="49"/>
-      <c r="H23" s="26" t="s">
+      <c r="C23" s="62"/>
+      <c r="D23" s="62"/>
+      <c r="E23" s="62"/>
+      <c r="F23" s="62"/>
+      <c r="G23" s="63"/>
+      <c r="H23" s="72" t="s">
         <v>268</v>
       </c>
-      <c r="I23" s="27"/>
-      <c r="J23" s="27"/>
-      <c r="K23" s="27"/>
-      <c r="L23" s="27"/>
-      <c r="M23" s="27"/>
-      <c r="N23" s="27"/>
-      <c r="O23" s="27"/>
-      <c r="P23" s="27"/>
-      <c r="Q23" s="27"/>
-      <c r="R23" s="27"/>
-      <c r="S23" s="27"/>
-      <c r="T23" s="27"/>
-      <c r="U23" s="27"/>
-      <c r="V23" s="27"/>
-      <c r="W23" s="28"/>
-      <c r="X23" s="76" t="s">
+      <c r="I23" s="73"/>
+      <c r="J23" s="73"/>
+      <c r="K23" s="73"/>
+      <c r="L23" s="73"/>
+      <c r="M23" s="73"/>
+      <c r="N23" s="73"/>
+      <c r="O23" s="73"/>
+      <c r="P23" s="73"/>
+      <c r="Q23" s="73"/>
+      <c r="R23" s="73"/>
+      <c r="S23" s="73"/>
+      <c r="T23" s="73"/>
+      <c r="U23" s="73"/>
+      <c r="V23" s="73"/>
+      <c r="W23" s="74"/>
+      <c r="X23" s="82" t="s">
         <v>269</v>
       </c>
-      <c r="Y23" s="76"/>
-      <c r="Z23" s="76"/>
-      <c r="AA23" s="76"/>
-      <c r="AB23" s="76"/>
-      <c r="AC23" s="76"/>
-      <c r="AD23" s="76"/>
-      <c r="AE23" s="76"/>
-      <c r="AF23" s="76"/>
-      <c r="AG23" s="76"/>
-      <c r="AH23" s="76"/>
-      <c r="AI23" s="76"/>
-      <c r="AJ23" s="76"/>
-      <c r="AK23" s="64" t="s">
+      <c r="Y23" s="82"/>
+      <c r="Z23" s="82"/>
+      <c r="AA23" s="82"/>
+      <c r="AB23" s="82"/>
+      <c r="AC23" s="82"/>
+      <c r="AD23" s="82"/>
+      <c r="AE23" s="82"/>
+      <c r="AF23" s="82"/>
+      <c r="AG23" s="82"/>
+      <c r="AH23" s="82"/>
+      <c r="AI23" s="82"/>
+      <c r="AJ23" s="82"/>
+      <c r="AK23" s="35" t="s">
         <v>270</v>
       </c>
-      <c r="AL23" s="65"/>
-      <c r="AM23" s="65"/>
-      <c r="AN23" s="65"/>
-      <c r="AO23" s="65"/>
-      <c r="AP23" s="66"/>
-      <c r="AQ23" s="39" t="s">
+      <c r="AL23" s="36"/>
+      <c r="AM23" s="36"/>
+      <c r="AN23" s="36"/>
+      <c r="AO23" s="36"/>
+      <c r="AP23" s="37"/>
+      <c r="AQ23" s="71" t="s">
         <v>271</v>
       </c>
-      <c r="AR23" s="39" t="s">
+      <c r="AR23" s="71" t="s">
         <v>272</v>
       </c>
-      <c r="AS23" s="64" t="s">
+      <c r="AS23" s="35" t="s">
         <v>273</v>
       </c>
-      <c r="AT23" s="65"/>
-      <c r="AU23" s="65"/>
-      <c r="AV23" s="66"/>
-      <c r="AW23" s="47" t="s">
+      <c r="AT23" s="36"/>
+      <c r="AU23" s="36"/>
+      <c r="AV23" s="37"/>
+      <c r="AW23" s="61" t="s">
         <v>274</v>
       </c>
-      <c r="AX23" s="48"/>
-      <c r="AY23" s="48"/>
-      <c r="AZ23" s="48"/>
-      <c r="BA23" s="49"/>
-      <c r="BB23" s="44" t="s">
+      <c r="AX23" s="62"/>
+      <c r="AY23" s="62"/>
+      <c r="AZ23" s="62"/>
+      <c r="BA23" s="63"/>
+      <c r="BB23" s="58" t="s">
         <v>275</v>
       </c>
-      <c r="BC23" s="44" t="s">
+      <c r="BC23" s="58" t="s">
         <v>276</v>
       </c>
-      <c r="BD23" s="73" t="s">
+      <c r="BD23" s="29"/>
+      <c r="BE23" s="29"/>
+      <c r="BF23" s="44" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="24" spans="1:56" ht="11.25" customHeight="1">
+    <row r="24" spans="1:58" ht="11.25" customHeight="1">
       <c r="A24" s="1"/>
-      <c r="B24" s="50"/>
-      <c r="C24" s="51"/>
-      <c r="D24" s="51"/>
-      <c r="E24" s="51"/>
-      <c r="F24" s="51"/>
-      <c r="G24" s="52"/>
-      <c r="H24" s="29"/>
-      <c r="I24" s="30"/>
-      <c r="J24" s="30"/>
-      <c r="K24" s="30"/>
-      <c r="L24" s="30"/>
-      <c r="M24" s="30"/>
-      <c r="N24" s="30"/>
-      <c r="O24" s="30"/>
-      <c r="P24" s="30"/>
-      <c r="Q24" s="30"/>
-      <c r="R24" s="30"/>
-      <c r="S24" s="30"/>
-      <c r="T24" s="30"/>
-      <c r="U24" s="30"/>
-      <c r="V24" s="30"/>
-      <c r="W24" s="31"/>
-      <c r="X24" s="76"/>
-      <c r="Y24" s="76"/>
-      <c r="Z24" s="76"/>
-      <c r="AA24" s="76"/>
-      <c r="AB24" s="76"/>
-      <c r="AC24" s="76"/>
-      <c r="AD24" s="76"/>
-      <c r="AE24" s="76"/>
-      <c r="AF24" s="76"/>
-      <c r="AG24" s="76"/>
-      <c r="AH24" s="76"/>
-      <c r="AI24" s="76"/>
-      <c r="AJ24" s="76"/>
-      <c r="AK24" s="67"/>
-      <c r="AL24" s="68"/>
-      <c r="AM24" s="68"/>
-      <c r="AN24" s="68"/>
-      <c r="AO24" s="68"/>
-      <c r="AP24" s="69"/>
-      <c r="AQ24" s="39"/>
-      <c r="AR24" s="39"/>
-      <c r="AS24" s="67"/>
-      <c r="AT24" s="68"/>
-      <c r="AU24" s="68"/>
-      <c r="AV24" s="69"/>
-      <c r="AW24" s="50"/>
-      <c r="AX24" s="51"/>
-      <c r="AY24" s="51"/>
-      <c r="AZ24" s="51"/>
-      <c r="BA24" s="52"/>
-      <c r="BB24" s="45"/>
-      <c r="BC24" s="45"/>
-      <c r="BD24" s="73"/>
-    </row>
-    <row r="25" spans="1:56" ht="18" customHeight="1">
+      <c r="B24" s="64"/>
+      <c r="C24" s="65"/>
+      <c r="D24" s="65"/>
+      <c r="E24" s="65"/>
+      <c r="F24" s="65"/>
+      <c r="G24" s="66"/>
+      <c r="H24" s="75"/>
+      <c r="I24" s="76"/>
+      <c r="J24" s="76"/>
+      <c r="K24" s="76"/>
+      <c r="L24" s="76"/>
+      <c r="M24" s="76"/>
+      <c r="N24" s="76"/>
+      <c r="O24" s="76"/>
+      <c r="P24" s="76"/>
+      <c r="Q24" s="76"/>
+      <c r="R24" s="76"/>
+      <c r="S24" s="76"/>
+      <c r="T24" s="76"/>
+      <c r="U24" s="76"/>
+      <c r="V24" s="76"/>
+      <c r="W24" s="77"/>
+      <c r="X24" s="82"/>
+      <c r="Y24" s="82"/>
+      <c r="Z24" s="82"/>
+      <c r="AA24" s="82"/>
+      <c r="AB24" s="82"/>
+      <c r="AC24" s="82"/>
+      <c r="AD24" s="82"/>
+      <c r="AE24" s="82"/>
+      <c r="AF24" s="82"/>
+      <c r="AG24" s="82"/>
+      <c r="AH24" s="82"/>
+      <c r="AI24" s="82"/>
+      <c r="AJ24" s="82"/>
+      <c r="AK24" s="38"/>
+      <c r="AL24" s="39"/>
+      <c r="AM24" s="39"/>
+      <c r="AN24" s="39"/>
+      <c r="AO24" s="39"/>
+      <c r="AP24" s="40"/>
+      <c r="AQ24" s="71"/>
+      <c r="AR24" s="71"/>
+      <c r="AS24" s="38"/>
+      <c r="AT24" s="39"/>
+      <c r="AU24" s="39"/>
+      <c r="AV24" s="40"/>
+      <c r="AW24" s="64"/>
+      <c r="AX24" s="65"/>
+      <c r="AY24" s="65"/>
+      <c r="AZ24" s="65"/>
+      <c r="BA24" s="66"/>
+      <c r="BB24" s="59"/>
+      <c r="BC24" s="59"/>
+      <c r="BD24" s="30"/>
+      <c r="BE24" s="30"/>
+      <c r="BF24" s="44"/>
+    </row>
+    <row r="25" spans="1:58" ht="18" customHeight="1">
       <c r="A25" s="1"/>
-      <c r="B25" s="53"/>
-      <c r="C25" s="54"/>
-      <c r="D25" s="54"/>
-      <c r="E25" s="54"/>
-      <c r="F25" s="54"/>
-      <c r="G25" s="55"/>
-      <c r="H25" s="32"/>
-      <c r="I25" s="33"/>
-      <c r="J25" s="33"/>
-      <c r="K25" s="33"/>
-      <c r="L25" s="33"/>
-      <c r="M25" s="33"/>
-      <c r="N25" s="33"/>
-      <c r="O25" s="33"/>
-      <c r="P25" s="33"/>
-      <c r="Q25" s="33"/>
-      <c r="R25" s="33"/>
-      <c r="S25" s="33"/>
-      <c r="T25" s="33"/>
-      <c r="U25" s="33"/>
-      <c r="V25" s="33"/>
-      <c r="W25" s="34"/>
-      <c r="X25" s="76"/>
-      <c r="Y25" s="76"/>
-      <c r="Z25" s="76"/>
-      <c r="AA25" s="76"/>
-      <c r="AB25" s="76"/>
-      <c r="AC25" s="76"/>
-      <c r="AD25" s="76"/>
-      <c r="AE25" s="76"/>
-      <c r="AF25" s="76"/>
-      <c r="AG25" s="76"/>
-      <c r="AH25" s="76"/>
-      <c r="AI25" s="76"/>
-      <c r="AJ25" s="76"/>
-      <c r="AK25" s="70"/>
-      <c r="AL25" s="71"/>
-      <c r="AM25" s="71"/>
-      <c r="AN25" s="71"/>
-      <c r="AO25" s="71"/>
-      <c r="AP25" s="72"/>
-      <c r="AQ25" s="39"/>
-      <c r="AR25" s="39"/>
-      <c r="AS25" s="70"/>
-      <c r="AT25" s="71"/>
-      <c r="AU25" s="71"/>
-      <c r="AV25" s="72"/>
-      <c r="AW25" s="53"/>
-      <c r="AX25" s="54"/>
-      <c r="AY25" s="54"/>
-      <c r="AZ25" s="54"/>
-      <c r="BA25" s="55"/>
-      <c r="BB25" s="46"/>
-      <c r="BC25" s="46"/>
-      <c r="BD25" s="73"/>
-    </row>
-    <row r="26" spans="1:56" ht="11.25" customHeight="1">
-      <c r="A26" s="35" t="s">
+      <c r="B25" s="67"/>
+      <c r="C25" s="68"/>
+      <c r="D25" s="68"/>
+      <c r="E25" s="68"/>
+      <c r="F25" s="68"/>
+      <c r="G25" s="69"/>
+      <c r="H25" s="78"/>
+      <c r="I25" s="79"/>
+      <c r="J25" s="79"/>
+      <c r="K25" s="79"/>
+      <c r="L25" s="79"/>
+      <c r="M25" s="79"/>
+      <c r="N25" s="79"/>
+      <c r="O25" s="79"/>
+      <c r="P25" s="79"/>
+      <c r="Q25" s="79"/>
+      <c r="R25" s="79"/>
+      <c r="S25" s="79"/>
+      <c r="T25" s="79"/>
+      <c r="U25" s="79"/>
+      <c r="V25" s="79"/>
+      <c r="W25" s="80"/>
+      <c r="X25" s="82"/>
+      <c r="Y25" s="82"/>
+      <c r="Z25" s="82"/>
+      <c r="AA25" s="82"/>
+      <c r="AB25" s="82"/>
+      <c r="AC25" s="82"/>
+      <c r="AD25" s="82"/>
+      <c r="AE25" s="82"/>
+      <c r="AF25" s="82"/>
+      <c r="AG25" s="82"/>
+      <c r="AH25" s="82"/>
+      <c r="AI25" s="82"/>
+      <c r="AJ25" s="82"/>
+      <c r="AK25" s="41"/>
+      <c r="AL25" s="42"/>
+      <c r="AM25" s="42"/>
+      <c r="AN25" s="42"/>
+      <c r="AO25" s="42"/>
+      <c r="AP25" s="43"/>
+      <c r="AQ25" s="71"/>
+      <c r="AR25" s="71"/>
+      <c r="AS25" s="41"/>
+      <c r="AT25" s="42"/>
+      <c r="AU25" s="42"/>
+      <c r="AV25" s="43"/>
+      <c r="AW25" s="67"/>
+      <c r="AX25" s="68"/>
+      <c r="AY25" s="68"/>
+      <c r="AZ25" s="68"/>
+      <c r="BA25" s="69"/>
+      <c r="BB25" s="60"/>
+      <c r="BC25" s="60"/>
+      <c r="BD25" s="31"/>
+      <c r="BE25" s="31"/>
+      <c r="BF25" s="44"/>
+    </row>
+    <row r="26" spans="1:58" ht="11.25" customHeight="1">
+      <c r="A26" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="B26" s="35" t="s">
+      <c r="B26" s="32" t="s">
         <v>65</v>
       </c>
-      <c r="C26" s="35" t="s">
+      <c r="C26" s="32" t="s">
         <v>66</v>
       </c>
-      <c r="D26" s="35" t="s">
+      <c r="D26" s="32" t="s">
         <v>85</v>
       </c>
-      <c r="E26" s="35" t="s">
+      <c r="E26" s="32" t="s">
         <v>159</v>
       </c>
-      <c r="F26" s="35" t="s">
+      <c r="F26" s="32" t="s">
         <v>68</v>
       </c>
-      <c r="G26" s="35" t="s">
+      <c r="G26" s="32" t="s">
         <v>69</v>
       </c>
-      <c r="H26" s="35" t="s">
+      <c r="H26" s="32" t="s">
         <v>278</v>
       </c>
-      <c r="I26" s="35" t="s">
+      <c r="I26" s="32" t="s">
         <v>182</v>
       </c>
-      <c r="J26" s="35" t="s">
+      <c r="J26" s="32" t="s">
         <v>183</v>
       </c>
-      <c r="K26" s="35" t="s">
+      <c r="K26" s="32" t="s">
         <v>184</v>
       </c>
-      <c r="L26" s="35" t="s">
+      <c r="L26" s="32" t="s">
         <v>185</v>
       </c>
-      <c r="M26" s="35" t="s">
+      <c r="M26" s="32" t="s">
         <v>188</v>
       </c>
-      <c r="N26" s="35" t="s">
+      <c r="N26" s="32" t="s">
         <v>160</v>
       </c>
-      <c r="O26" s="35" t="s">
+      <c r="O26" s="32" t="s">
         <v>161</v>
       </c>
-      <c r="P26" s="35" t="s">
+      <c r="P26" s="32" t="s">
         <v>240</v>
       </c>
-      <c r="Q26" s="35" t="s">
+      <c r="Q26" s="32" t="s">
         <v>265</v>
       </c>
-      <c r="R26" s="35" t="s">
+      <c r="R26" s="32" t="s">
         <v>165</v>
       </c>
-      <c r="S26" s="43" t="s">
+      <c r="S26" s="45" t="s">
         <v>166</v>
       </c>
-      <c r="T26" s="43" t="s">
+      <c r="T26" s="45" t="s">
         <v>167</v>
       </c>
-      <c r="U26" s="43" t="s">
+      <c r="U26" s="45" t="s">
         <v>162</v>
       </c>
-      <c r="V26" s="43" t="s">
+      <c r="V26" s="45" t="s">
         <v>163</v>
       </c>
-      <c r="W26" s="43" t="s">
+      <c r="W26" s="45" t="s">
         <v>164</v>
       </c>
-      <c r="X26" s="40" t="s">
+      <c r="X26" s="46" t="s">
         <v>168</v>
       </c>
-      <c r="Y26" s="40" t="s">
+      <c r="Y26" s="46" t="s">
         <v>169</v>
       </c>
-      <c r="Z26" s="40" t="s">
+      <c r="Z26" s="46" t="s">
         <v>263</v>
       </c>
-      <c r="AA26" s="40" t="s">
+      <c r="AA26" s="46" t="s">
         <v>171</v>
       </c>
-      <c r="AB26" s="43" t="s">
+      <c r="AB26" s="45" t="s">
         <v>172</v>
       </c>
-      <c r="AC26" s="43" t="s">
+      <c r="AC26" s="45" t="s">
         <v>264</v>
       </c>
-      <c r="AD26" s="43"/>
-      <c r="AE26" s="43" t="s">
+      <c r="AD26" s="45"/>
+      <c r="AE26" s="45" t="s">
         <v>173</v>
       </c>
-      <c r="AF26" s="43"/>
-      <c r="AG26" s="43" t="s">
+      <c r="AF26" s="45"/>
+      <c r="AG26" s="45" t="s">
         <v>174</v>
       </c>
       <c r="AH26" s="23"/>
-      <c r="AI26" s="35" t="s">
+      <c r="AI26" s="32" t="s">
         <v>175</v>
       </c>
-      <c r="AJ26" s="56" t="s">
+      <c r="AJ26" s="70" t="s">
         <v>170</v>
       </c>
-      <c r="AK26" s="35" t="s">
+      <c r="AK26" s="32" t="s">
         <v>286</v>
       </c>
-      <c r="AL26" s="35" t="s">
+      <c r="AL26" s="32" t="s">
         <v>287</v>
       </c>
-      <c r="AM26" s="35" t="s">
+      <c r="AM26" s="32" t="s">
         <v>289</v>
       </c>
-      <c r="AN26" s="35" t="s">
+      <c r="AN26" s="32" t="s">
         <v>186</v>
       </c>
-      <c r="AO26" s="35" t="s">
+      <c r="AO26" s="32" t="s">
         <v>187</v>
       </c>
-      <c r="AP26" s="35" t="s">
+      <c r="AP26" s="32" t="s">
         <v>241</v>
       </c>
-      <c r="AQ26" s="58" t="s">
+      <c r="AQ26" s="52" t="s">
         <v>89</v>
       </c>
-      <c r="AR26" s="61" t="s">
+      <c r="AR26" s="55" t="s">
         <v>67</v>
       </c>
-      <c r="AS26" s="57" t="s">
+      <c r="AS26" s="51" t="s">
         <v>176</v>
       </c>
-      <c r="AT26" s="57" t="s">
+      <c r="AT26" s="51" t="s">
         <v>177</v>
       </c>
-      <c r="AU26" s="57" t="s">
+      <c r="AU26" s="51" t="s">
         <v>178</v>
       </c>
-      <c r="AV26" s="57" t="s">
+      <c r="AV26" s="51" t="s">
         <v>179</v>
       </c>
-      <c r="AW26" s="40" t="s">
+      <c r="AW26" s="46" t="s">
         <v>180</v>
       </c>
-      <c r="AX26" s="40" t="s">
+      <c r="AX26" s="46" t="s">
         <v>181</v>
       </c>
-      <c r="AY26" s="40" t="s">
+      <c r="AY26" s="46" t="s">
         <v>242</v>
       </c>
-      <c r="AZ26" s="40" t="s">
+      <c r="AZ26" s="46" t="s">
         <v>243</v>
       </c>
-      <c r="BA26" s="40" t="s">
+      <c r="BA26" s="46" t="s">
         <v>244</v>
       </c>
-      <c r="BB26" s="35" t="s">
+      <c r="BB26" s="32" t="s">
         <v>246</v>
       </c>
-      <c r="BC26" s="35" t="s">
+      <c r="BC26" s="32" t="s">
         <v>245</v>
       </c>
-      <c r="BD26" s="73"/>
-    </row>
-    <row r="27" spans="1:56">
-      <c r="A27" s="36"/>
-      <c r="B27" s="36"/>
-      <c r="C27" s="36"/>
-      <c r="D27" s="36"/>
-      <c r="E27" s="36"/>
-      <c r="F27" s="36"/>
-      <c r="G27" s="36"/>
-      <c r="H27" s="36"/>
-      <c r="I27" s="36"/>
-      <c r="J27" s="36"/>
-      <c r="K27" s="36"/>
-      <c r="L27" s="36"/>
-      <c r="M27" s="36"/>
-      <c r="N27" s="36"/>
-      <c r="O27" s="36"/>
-      <c r="P27" s="36"/>
-      <c r="Q27" s="36"/>
-      <c r="R27" s="36"/>
-      <c r="S27" s="43"/>
-      <c r="T27" s="43"/>
-      <c r="U27" s="43"/>
-      <c r="V27" s="43"/>
-      <c r="W27" s="43"/>
-      <c r="X27" s="41"/>
-      <c r="Y27" s="41"/>
-      <c r="Z27" s="41"/>
-      <c r="AA27" s="41"/>
-      <c r="AB27" s="43"/>
-      <c r="AC27" s="43"/>
-      <c r="AD27" s="43"/>
-      <c r="AE27" s="43"/>
-      <c r="AF27" s="43"/>
-      <c r="AG27" s="43"/>
+      <c r="BD26" s="26"/>
+      <c r="BE26" s="26"/>
+      <c r="BF26" s="44"/>
+    </row>
+    <row r="27" spans="1:58">
+      <c r="A27" s="33"/>
+      <c r="B27" s="33"/>
+      <c r="C27" s="33"/>
+      <c r="D27" s="33"/>
+      <c r="E27" s="33"/>
+      <c r="F27" s="33"/>
+      <c r="G27" s="33"/>
+      <c r="H27" s="33"/>
+      <c r="I27" s="33"/>
+      <c r="J27" s="33"/>
+      <c r="K27" s="33"/>
+      <c r="L27" s="33"/>
+      <c r="M27" s="33"/>
+      <c r="N27" s="33"/>
+      <c r="O27" s="33"/>
+      <c r="P27" s="33"/>
+      <c r="Q27" s="33"/>
+      <c r="R27" s="33"/>
+      <c r="S27" s="45"/>
+      <c r="T27" s="45"/>
+      <c r="U27" s="45"/>
+      <c r="V27" s="45"/>
+      <c r="W27" s="45"/>
+      <c r="X27" s="47"/>
+      <c r="Y27" s="47"/>
+      <c r="Z27" s="47"/>
+      <c r="AA27" s="47"/>
+      <c r="AB27" s="45"/>
+      <c r="AC27" s="45"/>
+      <c r="AD27" s="45"/>
+      <c r="AE27" s="45"/>
+      <c r="AF27" s="45"/>
+      <c r="AG27" s="45"/>
       <c r="AH27" s="24"/>
-      <c r="AI27" s="36"/>
-      <c r="AJ27" s="56"/>
-      <c r="AK27" s="36"/>
-      <c r="AL27" s="36"/>
-      <c r="AM27" s="36"/>
-      <c r="AN27" s="36"/>
-      <c r="AO27" s="36"/>
-      <c r="AP27" s="36"/>
-      <c r="AQ27" s="59"/>
-      <c r="AR27" s="62"/>
-      <c r="AS27" s="57"/>
-      <c r="AT27" s="57"/>
-      <c r="AU27" s="57"/>
-      <c r="AV27" s="57"/>
-      <c r="AW27" s="41"/>
-      <c r="AX27" s="41"/>
-      <c r="AY27" s="74"/>
-      <c r="AZ27" s="41"/>
-      <c r="BA27" s="41"/>
-      <c r="BB27" s="36"/>
-      <c r="BC27" s="36"/>
-      <c r="BD27" s="43" t="s">
+      <c r="AI27" s="33"/>
+      <c r="AJ27" s="70"/>
+      <c r="AK27" s="33"/>
+      <c r="AL27" s="33"/>
+      <c r="AM27" s="33"/>
+      <c r="AN27" s="33"/>
+      <c r="AO27" s="33"/>
+      <c r="AP27" s="33"/>
+      <c r="AQ27" s="53"/>
+      <c r="AR27" s="56"/>
+      <c r="AS27" s="51"/>
+      <c r="AT27" s="51"/>
+      <c r="AU27" s="51"/>
+      <c r="AV27" s="51"/>
+      <c r="AW27" s="47"/>
+      <c r="AX27" s="47"/>
+      <c r="AY27" s="49"/>
+      <c r="AZ27" s="47"/>
+      <c r="BA27" s="47"/>
+      <c r="BB27" s="33"/>
+      <c r="BC27" s="33"/>
+      <c r="BD27" s="27"/>
+      <c r="BE27" s="27"/>
+      <c r="BF27" s="45" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="28" spans="1:56">
-      <c r="A28" s="36"/>
-      <c r="B28" s="36"/>
-      <c r="C28" s="36"/>
-      <c r="D28" s="36"/>
-      <c r="E28" s="36"/>
-      <c r="F28" s="36"/>
-      <c r="G28" s="36"/>
-      <c r="H28" s="36"/>
-      <c r="I28" s="36"/>
-      <c r="J28" s="36"/>
-      <c r="K28" s="36"/>
-      <c r="L28" s="36"/>
-      <c r="M28" s="36"/>
-      <c r="N28" s="36"/>
-      <c r="O28" s="36"/>
-      <c r="P28" s="36"/>
-      <c r="Q28" s="36"/>
-      <c r="R28" s="36"/>
-      <c r="S28" s="43"/>
-      <c r="T28" s="43"/>
-      <c r="U28" s="43"/>
-      <c r="V28" s="43"/>
-      <c r="W28" s="43"/>
-      <c r="X28" s="41"/>
-      <c r="Y28" s="41"/>
-      <c r="Z28" s="41"/>
-      <c r="AA28" s="41"/>
-      <c r="AB28" s="43"/>
-      <c r="AC28" s="43"/>
-      <c r="AD28" s="43"/>
-      <c r="AE28" s="43"/>
-      <c r="AF28" s="43"/>
-      <c r="AG28" s="43"/>
+    <row r="28" spans="1:58">
+      <c r="A28" s="33"/>
+      <c r="B28" s="33"/>
+      <c r="C28" s="33"/>
+      <c r="D28" s="33"/>
+      <c r="E28" s="33"/>
+      <c r="F28" s="33"/>
+      <c r="G28" s="33"/>
+      <c r="H28" s="33"/>
+      <c r="I28" s="33"/>
+      <c r="J28" s="33"/>
+      <c r="K28" s="33"/>
+      <c r="L28" s="33"/>
+      <c r="M28" s="33"/>
+      <c r="N28" s="33"/>
+      <c r="O28" s="33"/>
+      <c r="P28" s="33"/>
+      <c r="Q28" s="33"/>
+      <c r="R28" s="33"/>
+      <c r="S28" s="45"/>
+      <c r="T28" s="45"/>
+      <c r="U28" s="45"/>
+      <c r="V28" s="45"/>
+      <c r="W28" s="45"/>
+      <c r="X28" s="47"/>
+      <c r="Y28" s="47"/>
+      <c r="Z28" s="47"/>
+      <c r="AA28" s="47"/>
+      <c r="AB28" s="45"/>
+      <c r="AC28" s="45"/>
+      <c r="AD28" s="45"/>
+      <c r="AE28" s="45"/>
+      <c r="AF28" s="45"/>
+      <c r="AG28" s="45"/>
       <c r="AH28" s="24"/>
-      <c r="AI28" s="36"/>
-      <c r="AJ28" s="56"/>
-      <c r="AK28" s="36"/>
-      <c r="AL28" s="36"/>
-      <c r="AM28" s="36"/>
-      <c r="AN28" s="36"/>
-      <c r="AO28" s="36"/>
-      <c r="AP28" s="36"/>
-      <c r="AQ28" s="59"/>
-      <c r="AR28" s="62"/>
-      <c r="AS28" s="57"/>
-      <c r="AT28" s="57"/>
-      <c r="AU28" s="57"/>
-      <c r="AV28" s="57"/>
-      <c r="AW28" s="41"/>
-      <c r="AX28" s="41"/>
-      <c r="AY28" s="74"/>
-      <c r="AZ28" s="41"/>
-      <c r="BA28" s="41"/>
-      <c r="BB28" s="36"/>
-      <c r="BC28" s="36"/>
-      <c r="BD28" s="43"/>
-    </row>
-    <row r="29" spans="1:56">
-      <c r="A29" s="36"/>
-      <c r="B29" s="36"/>
-      <c r="C29" s="36"/>
-      <c r="D29" s="36"/>
-      <c r="E29" s="36"/>
-      <c r="F29" s="36"/>
-      <c r="G29" s="36"/>
-      <c r="H29" s="36"/>
-      <c r="I29" s="36"/>
-      <c r="J29" s="36"/>
-      <c r="K29" s="36"/>
-      <c r="L29" s="36"/>
-      <c r="M29" s="36"/>
-      <c r="N29" s="36"/>
-      <c r="O29" s="36"/>
-      <c r="P29" s="36"/>
-      <c r="Q29" s="36"/>
-      <c r="R29" s="36"/>
-      <c r="S29" s="43"/>
-      <c r="T29" s="43"/>
-      <c r="U29" s="43"/>
-      <c r="V29" s="43"/>
-      <c r="W29" s="43"/>
-      <c r="X29" s="41"/>
-      <c r="Y29" s="41"/>
-      <c r="Z29" s="41"/>
-      <c r="AA29" s="41"/>
-      <c r="AB29" s="43"/>
-      <c r="AC29" s="43"/>
-      <c r="AD29" s="43"/>
-      <c r="AE29" s="43"/>
-      <c r="AF29" s="43"/>
-      <c r="AG29" s="43"/>
+      <c r="AI28" s="33"/>
+      <c r="AJ28" s="70"/>
+      <c r="AK28" s="33"/>
+      <c r="AL28" s="33"/>
+      <c r="AM28" s="33"/>
+      <c r="AN28" s="33"/>
+      <c r="AO28" s="33"/>
+      <c r="AP28" s="33"/>
+      <c r="AQ28" s="53"/>
+      <c r="AR28" s="56"/>
+      <c r="AS28" s="51"/>
+      <c r="AT28" s="51"/>
+      <c r="AU28" s="51"/>
+      <c r="AV28" s="51"/>
+      <c r="AW28" s="47"/>
+      <c r="AX28" s="47"/>
+      <c r="AY28" s="49"/>
+      <c r="AZ28" s="47"/>
+      <c r="BA28" s="47"/>
+      <c r="BB28" s="33"/>
+      <c r="BC28" s="33"/>
+      <c r="BD28" s="27"/>
+      <c r="BE28" s="27"/>
+      <c r="BF28" s="45"/>
+    </row>
+    <row r="29" spans="1:58">
+      <c r="A29" s="33"/>
+      <c r="B29" s="33"/>
+      <c r="C29" s="33"/>
+      <c r="D29" s="33"/>
+      <c r="E29" s="33"/>
+      <c r="F29" s="33"/>
+      <c r="G29" s="33"/>
+      <c r="H29" s="33"/>
+      <c r="I29" s="33"/>
+      <c r="J29" s="33"/>
+      <c r="K29" s="33"/>
+      <c r="L29" s="33"/>
+      <c r="M29" s="33"/>
+      <c r="N29" s="33"/>
+      <c r="O29" s="33"/>
+      <c r="P29" s="33"/>
+      <c r="Q29" s="33"/>
+      <c r="R29" s="33"/>
+      <c r="S29" s="45"/>
+      <c r="T29" s="45"/>
+      <c r="U29" s="45"/>
+      <c r="V29" s="45"/>
+      <c r="W29" s="45"/>
+      <c r="X29" s="47"/>
+      <c r="Y29" s="47"/>
+      <c r="Z29" s="47"/>
+      <c r="AA29" s="47"/>
+      <c r="AB29" s="45"/>
+      <c r="AC29" s="45"/>
+      <c r="AD29" s="45"/>
+      <c r="AE29" s="45"/>
+      <c r="AF29" s="45"/>
+      <c r="AG29" s="45"/>
       <c r="AH29" s="24"/>
-      <c r="AI29" s="36"/>
-      <c r="AJ29" s="56"/>
-      <c r="AK29" s="36"/>
-      <c r="AL29" s="36"/>
-      <c r="AM29" s="36"/>
-      <c r="AN29" s="36"/>
-      <c r="AO29" s="36"/>
-      <c r="AP29" s="36"/>
-      <c r="AQ29" s="59"/>
-      <c r="AR29" s="62"/>
-      <c r="AS29" s="57"/>
-      <c r="AT29" s="57"/>
-      <c r="AU29" s="57"/>
-      <c r="AV29" s="57"/>
-      <c r="AW29" s="41"/>
-      <c r="AX29" s="41"/>
-      <c r="AY29" s="74"/>
-      <c r="AZ29" s="41"/>
-      <c r="BA29" s="41"/>
-      <c r="BB29" s="36"/>
-      <c r="BC29" s="36"/>
-      <c r="BD29" s="43"/>
-    </row>
-    <row r="30" spans="1:56">
-      <c r="A30" s="36"/>
-      <c r="B30" s="36"/>
-      <c r="C30" s="36"/>
-      <c r="D30" s="36"/>
-      <c r="E30" s="36"/>
-      <c r="F30" s="36"/>
-      <c r="G30" s="36"/>
-      <c r="H30" s="36"/>
-      <c r="I30" s="36"/>
-      <c r="J30" s="36"/>
-      <c r="K30" s="36"/>
-      <c r="L30" s="36"/>
-      <c r="M30" s="36"/>
-      <c r="N30" s="36"/>
-      <c r="O30" s="36"/>
-      <c r="P30" s="36"/>
-      <c r="Q30" s="36"/>
-      <c r="R30" s="36"/>
-      <c r="S30" s="43"/>
-      <c r="T30" s="43"/>
-      <c r="U30" s="43"/>
-      <c r="V30" s="43"/>
-      <c r="W30" s="43"/>
-      <c r="X30" s="41"/>
-      <c r="Y30" s="41"/>
-      <c r="Z30" s="41"/>
-      <c r="AA30" s="41"/>
-      <c r="AB30" s="43"/>
-      <c r="AC30" s="43"/>
-      <c r="AD30" s="43"/>
-      <c r="AE30" s="43"/>
-      <c r="AF30" s="43"/>
-      <c r="AG30" s="43"/>
+      <c r="AI29" s="33"/>
+      <c r="AJ29" s="70"/>
+      <c r="AK29" s="33"/>
+      <c r="AL29" s="33"/>
+      <c r="AM29" s="33"/>
+      <c r="AN29" s="33"/>
+      <c r="AO29" s="33"/>
+      <c r="AP29" s="33"/>
+      <c r="AQ29" s="53"/>
+      <c r="AR29" s="56"/>
+      <c r="AS29" s="51"/>
+      <c r="AT29" s="51"/>
+      <c r="AU29" s="51"/>
+      <c r="AV29" s="51"/>
+      <c r="AW29" s="47"/>
+      <c r="AX29" s="47"/>
+      <c r="AY29" s="49"/>
+      <c r="AZ29" s="47"/>
+      <c r="BA29" s="47"/>
+      <c r="BB29" s="33"/>
+      <c r="BC29" s="33"/>
+      <c r="BD29" s="27"/>
+      <c r="BE29" s="27"/>
+      <c r="BF29" s="45"/>
+    </row>
+    <row r="30" spans="1:58">
+      <c r="A30" s="33"/>
+      <c r="B30" s="33"/>
+      <c r="C30" s="33"/>
+      <c r="D30" s="33"/>
+      <c r="E30" s="33"/>
+      <c r="F30" s="33"/>
+      <c r="G30" s="33"/>
+      <c r="H30" s="33"/>
+      <c r="I30" s="33"/>
+      <c r="J30" s="33"/>
+      <c r="K30" s="33"/>
+      <c r="L30" s="33"/>
+      <c r="M30" s="33"/>
+      <c r="N30" s="33"/>
+      <c r="O30" s="33"/>
+      <c r="P30" s="33"/>
+      <c r="Q30" s="33"/>
+      <c r="R30" s="33"/>
+      <c r="S30" s="45"/>
+      <c r="T30" s="45"/>
+      <c r="U30" s="45"/>
+      <c r="V30" s="45"/>
+      <c r="W30" s="45"/>
+      <c r="X30" s="47"/>
+      <c r="Y30" s="47"/>
+      <c r="Z30" s="47"/>
+      <c r="AA30" s="47"/>
+      <c r="AB30" s="45"/>
+      <c r="AC30" s="45"/>
+      <c r="AD30" s="45"/>
+      <c r="AE30" s="45"/>
+      <c r="AF30" s="45"/>
+      <c r="AG30" s="45"/>
       <c r="AH30" s="24"/>
-      <c r="AI30" s="36"/>
-      <c r="AJ30" s="56"/>
-      <c r="AK30" s="36"/>
-      <c r="AL30" s="36"/>
-      <c r="AM30" s="36"/>
-      <c r="AN30" s="36"/>
-      <c r="AO30" s="36"/>
-      <c r="AP30" s="36"/>
-      <c r="AQ30" s="59"/>
-      <c r="AR30" s="62"/>
-      <c r="AS30" s="57"/>
-      <c r="AT30" s="57"/>
-      <c r="AU30" s="57"/>
-      <c r="AV30" s="57"/>
-      <c r="AW30" s="41"/>
-      <c r="AX30" s="41"/>
-      <c r="AY30" s="74"/>
-      <c r="AZ30" s="41"/>
-      <c r="BA30" s="41"/>
-      <c r="BB30" s="36"/>
-      <c r="BC30" s="36"/>
-      <c r="BD30" s="43"/>
-    </row>
-    <row r="31" spans="1:56">
-      <c r="A31" s="37"/>
-      <c r="B31" s="37"/>
-      <c r="C31" s="37"/>
-      <c r="D31" s="37"/>
-      <c r="E31" s="37"/>
-      <c r="F31" s="37"/>
-      <c r="G31" s="37"/>
-      <c r="H31" s="37"/>
-      <c r="I31" s="37"/>
-      <c r="J31" s="37"/>
-      <c r="K31" s="37"/>
-      <c r="L31" s="37"/>
-      <c r="M31" s="37"/>
-      <c r="N31" s="37"/>
-      <c r="O31" s="37"/>
-      <c r="P31" s="37"/>
-      <c r="Q31" s="37"/>
-      <c r="R31" s="37"/>
-      <c r="S31" s="43"/>
-      <c r="T31" s="43"/>
-      <c r="U31" s="43"/>
-      <c r="V31" s="43"/>
-      <c r="W31" s="43"/>
-      <c r="X31" s="42"/>
-      <c r="Y31" s="42"/>
-      <c r="Z31" s="42"/>
-      <c r="AA31" s="42"/>
-      <c r="AB31" s="43"/>
-      <c r="AC31" s="43"/>
-      <c r="AD31" s="43"/>
-      <c r="AE31" s="43"/>
-      <c r="AF31" s="43"/>
-      <c r="AG31" s="43"/>
+      <c r="AI30" s="33"/>
+      <c r="AJ30" s="70"/>
+      <c r="AK30" s="33"/>
+      <c r="AL30" s="33"/>
+      <c r="AM30" s="33"/>
+      <c r="AN30" s="33"/>
+      <c r="AO30" s="33"/>
+      <c r="AP30" s="33"/>
+      <c r="AQ30" s="53"/>
+      <c r="AR30" s="56"/>
+      <c r="AS30" s="51"/>
+      <c r="AT30" s="51"/>
+      <c r="AU30" s="51"/>
+      <c r="AV30" s="51"/>
+      <c r="AW30" s="47"/>
+      <c r="AX30" s="47"/>
+      <c r="AY30" s="49"/>
+      <c r="AZ30" s="47"/>
+      <c r="BA30" s="47"/>
+      <c r="BB30" s="33"/>
+      <c r="BC30" s="33"/>
+      <c r="BD30" s="27"/>
+      <c r="BE30" s="27"/>
+      <c r="BF30" s="45"/>
+    </row>
+    <row r="31" spans="1:58">
+      <c r="A31" s="34"/>
+      <c r="B31" s="34"/>
+      <c r="C31" s="34"/>
+      <c r="D31" s="34"/>
+      <c r="E31" s="34"/>
+      <c r="F31" s="34"/>
+      <c r="G31" s="34"/>
+      <c r="H31" s="34"/>
+      <c r="I31" s="34"/>
+      <c r="J31" s="34"/>
+      <c r="K31" s="34"/>
+      <c r="L31" s="34"/>
+      <c r="M31" s="34"/>
+      <c r="N31" s="34"/>
+      <c r="O31" s="34"/>
+      <c r="P31" s="34"/>
+      <c r="Q31" s="34"/>
+      <c r="R31" s="34"/>
+      <c r="S31" s="45"/>
+      <c r="T31" s="45"/>
+      <c r="U31" s="45"/>
+      <c r="V31" s="45"/>
+      <c r="W31" s="45"/>
+      <c r="X31" s="48"/>
+      <c r="Y31" s="48"/>
+      <c r="Z31" s="48"/>
+      <c r="AA31" s="48"/>
+      <c r="AB31" s="45"/>
+      <c r="AC31" s="45"/>
+      <c r="AD31" s="45"/>
+      <c r="AE31" s="45"/>
+      <c r="AF31" s="45"/>
+      <c r="AG31" s="45"/>
       <c r="AH31" s="25"/>
-      <c r="AI31" s="37"/>
-      <c r="AJ31" s="56"/>
-      <c r="AK31" s="37"/>
-      <c r="AL31" s="37"/>
-      <c r="AM31" s="37"/>
-      <c r="AN31" s="37"/>
-      <c r="AO31" s="37"/>
-      <c r="AP31" s="37"/>
-      <c r="AQ31" s="59"/>
-      <c r="AR31" s="62"/>
-      <c r="AS31" s="57"/>
-      <c r="AT31" s="57"/>
-      <c r="AU31" s="57"/>
-      <c r="AV31" s="57"/>
-      <c r="AW31" s="42"/>
-      <c r="AX31" s="42"/>
-      <c r="AY31" s="75"/>
-      <c r="AZ31" s="42"/>
-      <c r="BA31" s="42"/>
-      <c r="BB31" s="37"/>
-      <c r="BC31" s="37"/>
-      <c r="BD31" s="43"/>
-    </row>
-    <row r="32" spans="1:56">
-      <c r="AQ32" s="59"/>
-      <c r="AR32" s="62"/>
+      <c r="AI31" s="34"/>
+      <c r="AJ31" s="70"/>
+      <c r="AK31" s="34"/>
+      <c r="AL31" s="34"/>
+      <c r="AM31" s="34"/>
+      <c r="AN31" s="34"/>
+      <c r="AO31" s="34"/>
+      <c r="AP31" s="34"/>
+      <c r="AQ31" s="53"/>
+      <c r="AR31" s="56"/>
+      <c r="AS31" s="51"/>
+      <c r="AT31" s="51"/>
+      <c r="AU31" s="51"/>
+      <c r="AV31" s="51"/>
+      <c r="AW31" s="48"/>
+      <c r="AX31" s="48"/>
+      <c r="AY31" s="50"/>
+      <c r="AZ31" s="48"/>
+      <c r="BA31" s="48"/>
+      <c r="BB31" s="34"/>
+      <c r="BC31" s="34"/>
+      <c r="BD31" s="28"/>
+      <c r="BE31" s="28"/>
+      <c r="BF31" s="45"/>
+    </row>
+    <row r="32" spans="1:58">
+      <c r="AQ32" s="53"/>
+      <c r="AR32" s="56"/>
     </row>
     <row r="33" spans="4:44">
       <c r="D33" s="6" t="s">
@@ -4187,16 +4239,16 @@
       <c r="AN33" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="AQ33" s="59"/>
-      <c r="AR33" s="62"/>
+      <c r="AQ33" s="53"/>
+      <c r="AR33" s="56"/>
     </row>
     <row r="34" spans="4:44" ht="258.75">
       <c r="D34" s="8" t="s">
         <v>86</v>
       </c>
       <c r="AI34" s="21"/>
-      <c r="AQ34" s="60"/>
-      <c r="AR34" s="63"/>
+      <c r="AQ34" s="54"/>
+      <c r="AR34" s="57"/>
     </row>
     <row r="35" spans="4:44" ht="326.25">
       <c r="D35" s="9" t="s">
@@ -4210,27 +4262,37 @@
     </row>
   </sheetData>
   <mergeCells count="68">
-    <mergeCell ref="AK26:AK31"/>
-    <mergeCell ref="AL26:AL31"/>
-    <mergeCell ref="AK23:AP25"/>
-    <mergeCell ref="AM26:AM31"/>
-    <mergeCell ref="BD23:BD26"/>
-    <mergeCell ref="BD27:BD31"/>
-    <mergeCell ref="AS23:AV25"/>
-    <mergeCell ref="BA26:BA31"/>
-    <mergeCell ref="BB26:BB31"/>
-    <mergeCell ref="BC26:BC31"/>
-    <mergeCell ref="AY26:AY31"/>
-    <mergeCell ref="AZ26:AZ31"/>
-    <mergeCell ref="AP26:AP31"/>
-    <mergeCell ref="AV26:AV31"/>
-    <mergeCell ref="AW26:AW31"/>
-    <mergeCell ref="AX26:AX31"/>
-    <mergeCell ref="AS26:AS31"/>
-    <mergeCell ref="AT26:AT31"/>
-    <mergeCell ref="AU26:AU31"/>
-    <mergeCell ref="AQ26:AQ34"/>
-    <mergeCell ref="AR26:AR34"/>
+    <mergeCell ref="H26:H31"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="AQ23:AQ25"/>
+    <mergeCell ref="L26:L31"/>
+    <mergeCell ref="K26:K31"/>
+    <mergeCell ref="Q26:Q31"/>
+    <mergeCell ref="W26:W31"/>
+    <mergeCell ref="R26:R31"/>
+    <mergeCell ref="S26:S31"/>
+    <mergeCell ref="Z26:Z31"/>
+    <mergeCell ref="AC26:AC31"/>
+    <mergeCell ref="X23:AJ25"/>
+    <mergeCell ref="AD26:AD31"/>
+    <mergeCell ref="AF26:AF31"/>
+    <mergeCell ref="AR23:AR25"/>
+    <mergeCell ref="O26:O31"/>
+    <mergeCell ref="AA26:AA31"/>
+    <mergeCell ref="AB26:AB31"/>
+    <mergeCell ref="M26:M31"/>
+    <mergeCell ref="AE26:AE31"/>
+    <mergeCell ref="AG26:AG31"/>
+    <mergeCell ref="AI26:AI31"/>
+    <mergeCell ref="T26:T31"/>
+    <mergeCell ref="X26:X31"/>
+    <mergeCell ref="P26:P31"/>
+    <mergeCell ref="U26:U31"/>
+    <mergeCell ref="V26:V31"/>
+    <mergeCell ref="AN26:AN31"/>
+    <mergeCell ref="AO26:AO31"/>
+    <mergeCell ref="H23:W25"/>
     <mergeCell ref="BB23:BB25"/>
     <mergeCell ref="BC23:BC25"/>
     <mergeCell ref="A26:A31"/>
@@ -4247,37 +4309,27 @@
     <mergeCell ref="B23:G25"/>
     <mergeCell ref="Y26:Y31"/>
     <mergeCell ref="AJ26:AJ31"/>
-    <mergeCell ref="AR23:AR25"/>
-    <mergeCell ref="O26:O31"/>
-    <mergeCell ref="AA26:AA31"/>
-    <mergeCell ref="AB26:AB31"/>
-    <mergeCell ref="M26:M31"/>
-    <mergeCell ref="AE26:AE31"/>
-    <mergeCell ref="AG26:AG31"/>
-    <mergeCell ref="AI26:AI31"/>
-    <mergeCell ref="T26:T31"/>
-    <mergeCell ref="X26:X31"/>
-    <mergeCell ref="P26:P31"/>
-    <mergeCell ref="U26:U31"/>
-    <mergeCell ref="V26:V31"/>
-    <mergeCell ref="AN26:AN31"/>
-    <mergeCell ref="AO26:AO31"/>
-    <mergeCell ref="H23:W25"/>
-    <mergeCell ref="H26:H31"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="AQ23:AQ25"/>
-    <mergeCell ref="L26:L31"/>
-    <mergeCell ref="K26:K31"/>
-    <mergeCell ref="Q26:Q31"/>
-    <mergeCell ref="W26:W31"/>
-    <mergeCell ref="R26:R31"/>
-    <mergeCell ref="S26:S31"/>
-    <mergeCell ref="Z26:Z31"/>
-    <mergeCell ref="AC26:AC31"/>
-    <mergeCell ref="X23:AJ25"/>
-    <mergeCell ref="AD26:AD31"/>
-    <mergeCell ref="AF26:AF31"/>
+    <mergeCell ref="AS26:AS31"/>
+    <mergeCell ref="AT26:AT31"/>
+    <mergeCell ref="AU26:AU31"/>
+    <mergeCell ref="AQ26:AQ34"/>
+    <mergeCell ref="AR26:AR34"/>
+    <mergeCell ref="AK26:AK31"/>
+    <mergeCell ref="AL26:AL31"/>
+    <mergeCell ref="AK23:AP25"/>
+    <mergeCell ref="AM26:AM31"/>
+    <mergeCell ref="BF23:BF26"/>
+    <mergeCell ref="BF27:BF31"/>
+    <mergeCell ref="AS23:AV25"/>
+    <mergeCell ref="BA26:BA31"/>
+    <mergeCell ref="BB26:BB31"/>
+    <mergeCell ref="BC26:BC31"/>
+    <mergeCell ref="AY26:AY31"/>
+    <mergeCell ref="AZ26:AZ31"/>
+    <mergeCell ref="AP26:AP31"/>
+    <mergeCell ref="AV26:AV31"/>
+    <mergeCell ref="AW26:AW31"/>
+    <mergeCell ref="AX26:AX31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
